--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D6EEC3-56D4-482C-9E05-23D13359A12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCC783-FC93-4099-8E9C-C581DB95772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="922">
   <si>
     <t>специальный</t>
   </si>
@@ -146,9 +146,6 @@
     <t>изучает</t>
   </si>
   <si>
-    <t>подход, взгляд на что-либо</t>
-  </si>
-  <si>
     <t>характерных</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
     <t>суммировать</t>
   </si>
   <si>
-    <t>Сферы - области</t>
-  </si>
-  <si>
     <t>механизм</t>
   </si>
   <si>
@@ -2610,6 +2604,204 @@
   </si>
   <si>
     <t>управление</t>
+  </si>
+  <si>
+    <t>интерактивный</t>
+  </si>
+  <si>
+    <t>вражда</t>
+  </si>
+  <si>
+    <t>несоответствие</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> взгляд на что-либо</t>
+  </si>
+  <si>
+    <t>максимально</t>
+  </si>
+  <si>
+    <t>сверх</t>
+  </si>
+  <si>
+    <t>максимальному</t>
+  </si>
+  <si>
+    <t>наивысшему</t>
+  </si>
+  <si>
+    <t>наиболее</t>
+  </si>
+  <si>
+    <t>как можно более</t>
+  </si>
+  <si>
+    <t>самое меньшее</t>
+  </si>
+  <si>
+    <t>модели</t>
+  </si>
+  <si>
+    <t>по расчету</t>
+  </si>
+  <si>
+    <t>нормальных</t>
+  </si>
+  <si>
+    <t>обычных</t>
+  </si>
+  <si>
+    <t>нормально</t>
+  </si>
+  <si>
+    <t>в порядке вещей</t>
+  </si>
+  <si>
+    <t>Аннотирование</t>
+  </si>
+  <si>
+    <t>аннотированного</t>
+  </si>
+  <si>
+    <t>определенного</t>
+  </si>
+  <si>
+    <t>объемлет</t>
+  </si>
+  <si>
+    <t>охватывает</t>
+  </si>
+  <si>
+    <t>ориентировочно</t>
+  </si>
+  <si>
+    <t>примерно</t>
+  </si>
+  <si>
+    <t>направленным</t>
+  </si>
+  <si>
+    <t>ориентироваться</t>
+  </si>
+  <si>
+    <t>понять</t>
+  </si>
+  <si>
+    <t>оригинал</t>
+  </si>
+  <si>
+    <t>подлинник</t>
+  </si>
+  <si>
+    <t>параллелизм</t>
+  </si>
+  <si>
+    <t>одновременность</t>
+  </si>
+  <si>
+    <t>планируете</t>
+  </si>
+  <si>
+    <t>собираетесь</t>
+  </si>
+  <si>
+    <t>запланировано</t>
+  </si>
+  <si>
+    <t>расчитано наперед</t>
+  </si>
+  <si>
+    <t>распространенность</t>
+  </si>
+  <si>
+    <t>популярность</t>
+  </si>
+  <si>
+    <t>попрактикуемся</t>
+  </si>
+  <si>
+    <t>применим</t>
+  </si>
+  <si>
+    <t>практику</t>
+  </si>
+  <si>
+    <t>примитивов</t>
+  </si>
+  <si>
+    <t>простейших</t>
+  </si>
+  <si>
+    <t>неполадка</t>
+  </si>
+  <si>
+    <t>прогресс</t>
+  </si>
+  <si>
+    <t>все этапы</t>
+  </si>
+  <si>
+    <t>социированный</t>
+  </si>
+  <si>
+    <t>сопряженный</t>
+  </si>
+  <si>
+    <t>ассоциаций</t>
+  </si>
+  <si>
+    <t>статистика</t>
+  </si>
+  <si>
+    <t>исчисление</t>
+  </si>
+  <si>
+    <t>теоретическую</t>
+  </si>
+  <si>
+    <t>достаточную</t>
+  </si>
+  <si>
+    <t>уникальное</t>
+  </si>
+  <si>
+    <t>не повторяющееся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рефакторинг </t>
+  </si>
+  <si>
+    <t>переработка кода</t>
+  </si>
+  <si>
+    <t>фиксации</t>
+  </si>
+  <si>
+    <t>определения</t>
+  </si>
+  <si>
+    <t>форматирование</t>
+  </si>
+  <si>
+    <t>изменение</t>
+  </si>
+  <si>
+    <t>переформатирует</t>
+  </si>
+  <si>
+    <t>переделает</t>
+  </si>
+  <si>
+    <t>информирования</t>
+  </si>
+  <si>
+    <t>уведомления</t>
+  </si>
+  <si>
+    <t>формирует</t>
+  </si>
+  <si>
+    <t>создает</t>
   </si>
 </sst>
 </file>
@@ -3028,10 +3220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H418"/>
+  <dimension ref="A1:H454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B417" sqref="B417"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3045,143 +3237,143 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
@@ -3197,125 +3389,125 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C23" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D25" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C31" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
         <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C34" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D34" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
@@ -3331,18 +3523,18 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
@@ -3353,99 +3545,99 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C46" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -3453,458 +3645,458 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C49" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
         <v>44</v>
       </c>
-      <c r="C50" t="s">
-        <v>45</v>
-      </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C52" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C53" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C54" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
+        <v>494</v>
+      </c>
+      <c r="C55" t="s">
         <v>496</v>
-      </c>
-      <c r="C55" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
+        <v>407</v>
+      </c>
+      <c r="C58" t="s">
+        <v>408</v>
+      </c>
+      <c r="D58" t="s">
         <v>409</v>
-      </c>
-      <c r="C58" t="s">
-        <v>410</v>
-      </c>
-      <c r="D58" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C59" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
+        <v>477</v>
+      </c>
+      <c r="C60" t="s">
+        <v>478</v>
+      </c>
+      <c r="D60" t="s">
         <v>479</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>480</v>
-      </c>
-      <c r="D60" t="s">
-        <v>481</v>
-      </c>
-      <c r="E60" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
+        <v>473</v>
+      </c>
+      <c r="C61" t="s">
+        <v>474</v>
+      </c>
+      <c r="D61" t="s">
         <v>475</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>476</v>
-      </c>
-      <c r="D61" t="s">
-        <v>477</v>
-      </c>
-      <c r="E61" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E62" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C63" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C65" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B66" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
         <v>62</v>
       </c>
-      <c r="C67" t="s">
-        <v>63</v>
-      </c>
       <c r="D67" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" t="s">
         <v>109</v>
-      </c>
-      <c r="C68" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C69" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C71" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B74" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C75" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C76" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C79" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C80" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C81" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D81" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C83" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C84" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C85" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C86" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C87" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C88" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
         <v>66</v>
       </c>
-      <c r="C89" t="s">
-        <v>67</v>
-      </c>
       <c r="D89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C90" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C91" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C92" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C93" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C94" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C96" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C99" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E99" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.45">
@@ -3917,81 +4109,81 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C105" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
+        <v>518</v>
+      </c>
+      <c r="C106" t="s">
+        <v>519</v>
+      </c>
+      <c r="D106" t="s">
         <v>520</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
         <v>521</v>
-      </c>
-      <c r="D106" t="s">
-        <v>522</v>
-      </c>
-      <c r="E106" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
         <v>64</v>
       </c>
-      <c r="C107" t="s">
-        <v>65</v>
-      </c>
       <c r="D107" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C108" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
         <v>111</v>
       </c>
-      <c r="C109" t="s">
-        <v>112</v>
-      </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.45">
@@ -4004,10 +4196,10 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C111" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.45">
@@ -4020,215 +4212,215 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C113" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D113" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C114" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C115" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C116" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C117" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D117" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C118" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C120" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D121" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
+        <v>428</v>
+      </c>
+      <c r="C122" t="s">
+        <v>429</v>
+      </c>
+      <c r="D122" t="s">
         <v>430</v>
-      </c>
-      <c r="C122" t="s">
-        <v>431</v>
-      </c>
-      <c r="D122" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C123" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" t="s">
         <v>103</v>
-      </c>
-      <c r="C124" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C125" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C126" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
+        <v>732</v>
+      </c>
+      <c r="C127" t="s">
+        <v>733</v>
+      </c>
+      <c r="D127" t="s">
         <v>734</v>
-      </c>
-      <c r="C127" t="s">
-        <v>735</v>
-      </c>
-      <c r="D127" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C130" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" t="s">
         <v>70</v>
       </c>
-      <c r="C131" t="s">
-        <v>71</v>
-      </c>
       <c r="D131" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
+        <v>86</v>
+      </c>
+      <c r="C133" t="s">
         <v>87</v>
-      </c>
-      <c r="C133" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" t="s">
         <v>122</v>
-      </c>
-      <c r="C134" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C135" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
+        <v>537</v>
+      </c>
+      <c r="C136" t="s">
         <v>539</v>
       </c>
-      <c r="C136" t="s">
-        <v>541</v>
-      </c>
       <c r="D136" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C137" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.45">
@@ -4241,59 +4433,59 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C140" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C141" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
+        <v>618</v>
+      </c>
+      <c r="C142" t="s">
+        <v>621</v>
+      </c>
+      <c r="D142" t="s">
+        <v>619</v>
+      </c>
+      <c r="E142" t="s">
         <v>620</v>
       </c>
-      <c r="C142" t="s">
-        <v>623</v>
-      </c>
-      <c r="D142" t="s">
-        <v>621</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>622</v>
-      </c>
-      <c r="F142" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C143" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C144" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -4301,221 +4493,230 @@
         <v>24</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C146" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
+        <v>392</v>
+      </c>
+      <c r="C148" t="s">
+        <v>393</v>
+      </c>
+      <c r="D148" t="s">
         <v>394</v>
-      </c>
-      <c r="C148" t="s">
-        <v>395</v>
-      </c>
-      <c r="D148" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C149" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" t="s">
         <v>99</v>
-      </c>
-      <c r="C150" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C151" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C152" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D152" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C155" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C156" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D156" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E156" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C157" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
+        <v>572</v>
+      </c>
+      <c r="C158" t="s">
+        <v>573</v>
+      </c>
+      <c r="D158" t="s">
         <v>574</v>
       </c>
-      <c r="C158" t="s">
-        <v>575</v>
-      </c>
-      <c r="D158" t="s">
-        <v>576</v>
-      </c>
       <c r="E158" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F158" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C159" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C160" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D160" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B161" t="s">
+        <v>386</v>
+      </c>
+      <c r="C161" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B162" t="s">
+        <v>388</v>
+      </c>
+      <c r="C162" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B163" t="s">
+        <v>755</v>
+      </c>
+      <c r="C163" t="s">
+        <v>756</v>
+      </c>
+      <c r="D163" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B164" t="s">
+        <v>760</v>
+      </c>
+      <c r="C164" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B165" t="s">
+        <v>757</v>
+      </c>
+      <c r="C165" t="s">
+        <v>758</v>
+      </c>
+      <c r="D165" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B161" t="s">
-        <v>388</v>
-      </c>
-      <c r="C161" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B162" t="s">
-        <v>390</v>
-      </c>
-      <c r="C162" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B163" t="s">
-        <v>757</v>
-      </c>
-      <c r="C163" t="s">
-        <v>758</v>
-      </c>
-      <c r="D163" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B164" t="s">
-        <v>762</v>
-      </c>
-      <c r="C164" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B165" t="s">
-        <v>759</v>
-      </c>
-      <c r="C165" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E165" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B166" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C166" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B167" t="s">
         <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+      <c r="D167" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B168" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C168" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" t="s">
         <v>46</v>
       </c>
-      <c r="C169" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
         <v>7</v>
       </c>
@@ -4523,97 +4724,97 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B172" t="s">
+        <v>71</v>
+      </c>
+      <c r="C172" t="s">
         <v>72</v>
       </c>
-      <c r="C172" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B173" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C173" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B174" t="s">
+        <v>746</v>
+      </c>
+      <c r="C174" t="s">
+        <v>747</v>
+      </c>
+      <c r="D174" t="s">
         <v>748</v>
       </c>
-      <c r="C174" t="s">
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B175" t="s">
         <v>749</v>
       </c>
-      <c r="D174" t="s">
+      <c r="C175" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B175" t="s">
-        <v>751</v>
-      </c>
-      <c r="C175" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C176" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C177" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
+        <v>104</v>
+      </c>
+      <c r="C178" t="s">
         <v>105</v>
-      </c>
-      <c r="C178" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" t="s">
         <v>58</v>
-      </c>
-      <c r="C179" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B180" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C180" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B181" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C181" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C182" t="s">
         <v>31</v>
@@ -4621,2069 +4822,2343 @@
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C183" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C184" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B185" t="s">
+        <v>92</v>
+      </c>
+      <c r="C185" t="s">
         <v>93</v>
-      </c>
-      <c r="C185" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B186" t="s">
+        <v>277</v>
+      </c>
+      <c r="C186" t="s">
+        <v>93</v>
+      </c>
+      <c r="D186" t="s">
+        <v>278</v>
+      </c>
+      <c r="E186" t="s">
         <v>279</v>
-      </c>
-      <c r="C186" t="s">
-        <v>94</v>
-      </c>
-      <c r="D186" t="s">
-        <v>280</v>
-      </c>
-      <c r="E186" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C187" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B188" t="s">
+        <v>59</v>
+      </c>
+      <c r="C188" t="s">
         <v>60</v>
-      </c>
-      <c r="C188" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
+        <v>499</v>
+      </c>
+      <c r="C189" t="s">
+        <v>500</v>
+      </c>
+      <c r="D189" t="s">
         <v>501</v>
-      </c>
-      <c r="C189" t="s">
-        <v>502</v>
-      </c>
-      <c r="D189" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B190" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C190" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C191" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B192" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C192" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C193" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B194" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C194" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B195" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C195" t="s">
+        <v>449</v>
+      </c>
+      <c r="D195" t="s">
+        <v>450</v>
+      </c>
+      <c r="E195" t="s">
         <v>451</v>
-      </c>
-      <c r="D195" t="s">
-        <v>452</v>
-      </c>
-      <c r="E195" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B196" t="s">
+        <v>80</v>
+      </c>
+      <c r="C196" t="s">
         <v>81</v>
-      </c>
-      <c r="C196" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B197" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C197" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B200" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C200" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B201" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C201" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B202" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C202" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B203" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C203" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B204" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D204" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E204" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B205" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C205" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B206" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C206" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B207" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C207" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B208" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C208" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B209" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C209" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B210" t="s">
+        <v>389</v>
+      </c>
+      <c r="C210" t="s">
         <v>391</v>
-      </c>
-      <c r="C210" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B211" t="s">
-        <v>222</v>
+        <v>869</v>
       </c>
       <c r="C211" t="s">
-        <v>223</v>
+        <v>870</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B212" t="s">
-        <v>673</v>
+        <v>871</v>
       </c>
       <c r="C212" t="s">
-        <v>674</v>
+        <v>441</v>
+      </c>
+      <c r="D212" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B213" t="s">
-        <v>725</v>
+        <v>220</v>
       </c>
       <c r="C213" t="s">
-        <v>704</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B214" t="s">
-        <v>140</v>
+        <v>671</v>
       </c>
       <c r="C214" t="s">
-        <v>141</v>
-      </c>
-      <c r="D214" t="s">
-        <v>266</v>
+        <v>672</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B215" t="s">
-        <v>250</v>
+        <v>723</v>
       </c>
       <c r="C215" t="s">
-        <v>251</v>
+        <v>702</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B216" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C216" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D216" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B217" t="s">
-        <v>764</v>
+        <v>248</v>
       </c>
       <c r="C217" t="s">
-        <v>765</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B218" t="s">
-        <v>374</v>
+        <v>106</v>
       </c>
       <c r="C218" t="s">
-        <v>375</v>
+        <v>107</v>
+      </c>
+      <c r="D218" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B219" t="s">
-        <v>371</v>
+        <v>762</v>
       </c>
       <c r="C219" t="s">
-        <v>372</v>
-      </c>
-      <c r="D219" t="s">
-        <v>373</v>
+        <v>763</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B220" t="s">
-        <v>68</v>
+        <v>372</v>
       </c>
       <c r="C220" t="s">
-        <v>69</v>
+        <v>373</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B221" t="s">
-        <v>454</v>
+        <v>369</v>
       </c>
       <c r="C221" t="s">
-        <v>455</v>
+        <v>370</v>
+      </c>
+      <c r="D221" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B222" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="C222" t="s">
-        <v>249</v>
-      </c>
-      <c r="D222" t="s">
-        <v>747</v>
+        <v>68</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B223" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="C223" t="s">
-        <v>294</v>
+        <v>453</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B224" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="C224" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+      <c r="D224" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B225" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
-      </c>
-      <c r="D225" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B226" t="s">
-        <v>675</v>
+        <v>258</v>
       </c>
       <c r="C226" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B227" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="C227" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.45">
+        <v>356</v>
+      </c>
+      <c r="D227" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B228" t="s">
+        <v>673</v>
+      </c>
+      <c r="C228" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B229" t="s">
+        <v>404</v>
+      </c>
+      <c r="C229" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B230" t="s">
+        <v>652</v>
+      </c>
+      <c r="C230" t="s">
+        <v>653</v>
+      </c>
+      <c r="D230" t="s">
         <v>654</v>
       </c>
-      <c r="C228" t="s">
-        <v>655</v>
-      </c>
-      <c r="D228" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B229" t="s">
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B231" t="s">
+        <v>648</v>
+      </c>
+      <c r="C231" t="s">
+        <v>649</v>
+      </c>
+      <c r="D231" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B232" t="s">
+        <v>651</v>
+      </c>
+      <c r="C232" t="s">
         <v>650</v>
       </c>
-      <c r="C229" t="s">
-        <v>651</v>
-      </c>
-      <c r="D229" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B230" t="s">
-        <v>653</v>
-      </c>
-      <c r="C230" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B231" t="s">
-        <v>659</v>
-      </c>
-      <c r="C231" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B232" t="s">
-        <v>198</v>
-      </c>
-      <c r="C232" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B233" t="s">
         <v>657</v>
       </c>
       <c r="C233" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.45">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B234" t="s">
-        <v>428</v>
+        <v>889</v>
       </c>
       <c r="C234" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.45">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B235" t="s">
-        <v>224</v>
+        <v>887</v>
       </c>
       <c r="C235" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.45">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B236" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C236" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B237" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.45">
+        <v>655</v>
+      </c>
+      <c r="C237" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B238" t="s">
-        <v>208</v>
+        <v>426</v>
       </c>
       <c r="C238" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B239" t="s">
+        <v>222</v>
+      </c>
+      <c r="C239" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B240" t="s">
+        <v>233</v>
+      </c>
+      <c r="C240" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B241" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B242" t="s">
+        <v>206</v>
+      </c>
+      <c r="C242" t="s">
+        <v>599</v>
+      </c>
+      <c r="D242" t="s">
+        <v>600</v>
+      </c>
+      <c r="E242" t="s">
+        <v>603</v>
+      </c>
+      <c r="F242" t="s">
+        <v>604</v>
+      </c>
+      <c r="G242" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B243" t="s">
+        <v>607</v>
+      </c>
+      <c r="C243" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B244" t="s">
         <v>601</v>
       </c>
-      <c r="D238" t="s">
+      <c r="C244" t="s">
+        <v>581</v>
+      </c>
+      <c r="D244" t="s">
         <v>602</v>
       </c>
-      <c r="E238" t="s">
-        <v>605</v>
-      </c>
-      <c r="F238" t="s">
-        <v>606</v>
-      </c>
-      <c r="G238" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B239" t="s">
-        <v>609</v>
-      </c>
-      <c r="C239" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B240" t="s">
-        <v>603</v>
-      </c>
-      <c r="C240" t="s">
-        <v>583</v>
-      </c>
-      <c r="D240" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B241" t="s">
-        <v>159</v>
-      </c>
-      <c r="C241" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B242" t="s">
-        <v>778</v>
-      </c>
-      <c r="C242" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B243" t="s">
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C245" t="s">
+        <v>158</v>
+      </c>
+      <c r="D245" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B246" t="s">
+        <v>892</v>
+      </c>
+      <c r="C246" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B247" t="s">
+        <v>776</v>
+      </c>
+      <c r="C247" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B248" t="s">
         <v>14</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C248" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B244" t="s">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B249" t="s">
+        <v>454</v>
+      </c>
+      <c r="C249" t="s">
+        <v>455</v>
+      </c>
+      <c r="D249" t="s">
         <v>456</v>
       </c>
-      <c r="C244" t="s">
-        <v>457</v>
-      </c>
-      <c r="D244" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B245" t="s">
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B250" t="s">
+        <v>421</v>
+      </c>
+      <c r="C250" t="s">
+        <v>422</v>
+      </c>
+      <c r="D250" t="s">
         <v>423</v>
       </c>
-      <c r="C245" t="s">
+      <c r="E250" t="s">
         <v>424</v>
       </c>
-      <c r="D245" t="s">
+      <c r="F250" t="s">
         <v>425</v>
       </c>
-      <c r="E245" t="s">
-        <v>426</v>
-      </c>
-      <c r="F245" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B246" t="s">
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B251" t="s">
+        <v>895</v>
+      </c>
+      <c r="C251" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B252" t="s">
+        <v>893</v>
+      </c>
+      <c r="C252" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B253" t="s">
+        <v>410</v>
+      </c>
+      <c r="C253" t="s">
+        <v>411</v>
+      </c>
+      <c r="D253" t="s">
         <v>412</v>
       </c>
-      <c r="C246" t="s">
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B254" t="s">
+        <v>183</v>
+      </c>
+      <c r="C254" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B255" t="s">
+        <v>417</v>
+      </c>
+      <c r="C255" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B256" t="s">
         <v>413</v>
       </c>
-      <c r="D246" t="s">
+      <c r="C256" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B247" t="s">
-        <v>185</v>
-      </c>
-      <c r="C247" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B248" t="s">
-        <v>419</v>
-      </c>
-      <c r="C248" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B249" t="s">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B257" t="s">
         <v>415</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C257" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B250" t="s">
-        <v>417</v>
-      </c>
-      <c r="C250" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B251" t="s">
-        <v>369</v>
-      </c>
-      <c r="C251" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B252" t="s">
-        <v>592</v>
-      </c>
-      <c r="C252" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B253" t="s">
-        <v>306</v>
-      </c>
-      <c r="C253" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B254" t="s">
-        <v>290</v>
-      </c>
-      <c r="C254" t="s">
-        <v>291</v>
-      </c>
-      <c r="H254">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B258" t="s">
+        <v>367</v>
+      </c>
+      <c r="C258" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B259" t="s">
+        <v>896</v>
+      </c>
+      <c r="C259" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B260" t="s">
+        <v>590</v>
+      </c>
+      <c r="C260" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B261" t="s">
+        <v>304</v>
+      </c>
+      <c r="C261" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B262" t="s">
+        <v>288</v>
+      </c>
+      <c r="C262" t="s">
+        <v>289</v>
+      </c>
+      <c r="H262">
         <v>75</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B255" t="s">
-        <v>170</v>
-      </c>
-      <c r="C255" t="s">
-        <v>296</v>
-      </c>
-      <c r="D255" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B256" t="s">
-        <v>467</v>
-      </c>
-      <c r="C256" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B257" t="s">
-        <v>618</v>
-      </c>
-      <c r="C257" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B258" t="s">
-        <v>615</v>
-      </c>
-      <c r="C258" t="s">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B263" t="s">
+        <v>168</v>
+      </c>
+      <c r="C263" t="s">
+        <v>294</v>
+      </c>
+      <c r="D263" t="s">
+        <v>295</v>
+      </c>
+      <c r="E263" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B264" t="s">
+        <v>899</v>
+      </c>
+      <c r="C264" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B265" t="s">
+        <v>465</v>
+      </c>
+      <c r="C265" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B266" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B259" t="s">
-        <v>599</v>
-      </c>
-      <c r="C259" t="s">
-        <v>96</v>
-      </c>
-      <c r="D259" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B260" t="s">
+      <c r="C266" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B267" t="s">
+        <v>613</v>
+      </c>
+      <c r="C267" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B268" t="s">
+        <v>597</v>
+      </c>
+      <c r="C268" t="s">
+        <v>95</v>
+      </c>
+      <c r="D268" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B269" t="s">
         <v>16</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C269" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B261" t="s">
-        <v>402</v>
-      </c>
-      <c r="C261" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B262" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B263" t="s">
-        <v>692</v>
-      </c>
-      <c r="C263" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B264" t="s">
-        <v>679</v>
-      </c>
-      <c r="C264" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B265" t="s">
-        <v>216</v>
-      </c>
-      <c r="C265" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B266" t="s">
-        <v>681</v>
-      </c>
-      <c r="C266" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B267" t="s">
-        <v>50</v>
-      </c>
-      <c r="C267" t="s">
-        <v>51</v>
-      </c>
-      <c r="D267" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B268" t="s">
-        <v>775</v>
-      </c>
-      <c r="C268" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B269" t="s">
-        <v>48</v>
-      </c>
-      <c r="C269" t="s">
-        <v>49</v>
-      </c>
-      <c r="D269" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B270" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="C270" t="s">
-        <v>340</v>
-      </c>
-      <c r="D270" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.45">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B271" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B272" t="s">
-        <v>171</v>
+        <v>690</v>
       </c>
       <c r="C272" t="s">
-        <v>176</v>
-      </c>
-      <c r="D272" t="s">
-        <v>177</v>
+        <v>691</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B273" t="s">
-        <v>220</v>
+        <v>677</v>
       </c>
       <c r="C273" t="s">
-        <v>221</v>
+        <v>678</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B274" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="C274" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B275" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="C275" t="s">
-        <v>401</v>
+        <v>215</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B276" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C276" t="s">
-        <v>96</v>
+        <v>50</v>
+      </c>
+      <c r="D276" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B277" t="s">
-        <v>511</v>
+        <v>773</v>
       </c>
       <c r="C277" t="s">
-        <v>512</v>
+        <v>408</v>
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B278" t="s">
-        <v>175</v>
+        <v>47</v>
+      </c>
+      <c r="C278" t="s">
+        <v>48</v>
+      </c>
+      <c r="D278" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B279" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="C279" t="s">
-        <v>507</v>
+        <v>338</v>
       </c>
       <c r="D279" t="s">
-        <v>508</v>
-      </c>
-      <c r="E279" t="s">
-        <v>509</v>
-      </c>
-      <c r="F279" t="s">
-        <v>510</v>
+        <v>339</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B280" t="s">
-        <v>530</v>
-      </c>
-      <c r="C280" t="s">
-        <v>531</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B281" t="s">
-        <v>22</v>
+        <v>169</v>
+      </c>
+      <c r="C281" t="s">
+        <v>174</v>
+      </c>
+      <c r="D281" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B282" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="C282" t="s">
-        <v>517</v>
-      </c>
-      <c r="D282" t="s">
-        <v>519</v>
-      </c>
-      <c r="E282" t="s">
-        <v>518</v>
+        <v>219</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B283" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="C283" t="s">
-        <v>57</v>
-      </c>
-      <c r="D283" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B284" t="s">
-        <v>229</v>
+        <v>532</v>
       </c>
       <c r="C284" t="s">
-        <v>230</v>
+        <v>399</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B285" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="C285" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B286" t="s">
-        <v>696</v>
+        <v>509</v>
       </c>
       <c r="C286" t="s">
-        <v>697</v>
+        <v>510</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B287" t="s">
-        <v>698</v>
-      </c>
-      <c r="C287" t="s">
-        <v>699</v>
+        <v>173</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B288" t="s">
-        <v>550</v>
+        <v>173</v>
       </c>
       <c r="C288" t="s">
-        <v>551</v>
+        <v>505</v>
+      </c>
+      <c r="D288" t="s">
+        <v>506</v>
+      </c>
+      <c r="E288" t="s">
+        <v>507</v>
+      </c>
+      <c r="F288" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B289" t="s">
-        <v>89</v>
+        <v>528</v>
       </c>
       <c r="C289" t="s">
-        <v>92</v>
+        <v>529</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B290" t="s">
-        <v>114</v>
-      </c>
-      <c r="C290" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B291" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="C291" t="s">
-        <v>643</v>
+        <v>515</v>
+      </c>
+      <c r="D291" t="s">
+        <v>517</v>
+      </c>
+      <c r="E291" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B292" t="s">
-        <v>723</v>
+        <v>55</v>
       </c>
       <c r="C292" t="s">
-        <v>724</v>
+        <v>56</v>
+      </c>
+      <c r="D292" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B293" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="C293" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B294" t="s">
-        <v>709</v>
-      </c>
-      <c r="C294" t="s">
-        <v>710</v>
-      </c>
-      <c r="D294" t="s">
-        <v>711</v>
+        <v>228</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B295" t="s">
-        <v>275</v>
+        <v>694</v>
       </c>
       <c r="C295" t="s">
-        <v>276</v>
+        <v>695</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B296" t="s">
-        <v>80</v>
+        <v>696</v>
+      </c>
+      <c r="C296" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B297" t="s">
-        <v>80</v>
+        <v>548</v>
       </c>
       <c r="C297" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B298" t="s">
-        <v>782</v>
+        <v>88</v>
       </c>
       <c r="C298" t="s">
-        <v>783</v>
+        <v>91</v>
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B299" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="C299" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="D299" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B300" t="s">
-        <v>613</v>
-      </c>
-      <c r="C300" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B301" t="s">
-        <v>504</v>
+        <v>721</v>
       </c>
       <c r="C301" t="s">
-        <v>318</v>
+        <v>722</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B302" t="s">
-        <v>544</v>
+        <v>132</v>
       </c>
       <c r="C302" t="s">
-        <v>545</v>
-      </c>
-      <c r="D302" t="s">
-        <v>546</v>
-      </c>
-      <c r="E302" t="s">
-        <v>547</v>
+        <v>133</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B303" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="C303" t="s">
-        <v>727</v>
+        <v>708</v>
+      </c>
+      <c r="D303" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B304" t="s">
+        <v>273</v>
+      </c>
+      <c r="C304" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B305" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B306" t="s">
+        <v>79</v>
+      </c>
+      <c r="C306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B307" t="s">
+        <v>780</v>
+      </c>
+      <c r="C307" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B308" t="s">
+        <v>199</v>
+      </c>
+      <c r="C308" t="s">
+        <v>200</v>
+      </c>
+      <c r="D308" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B309" t="s">
+        <v>611</v>
+      </c>
+      <c r="C309" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B310" t="s">
+        <v>502</v>
+      </c>
+      <c r="C310" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B311" t="s">
+        <v>542</v>
+      </c>
+      <c r="C311" t="s">
+        <v>543</v>
+      </c>
+      <c r="D311" t="s">
+        <v>544</v>
+      </c>
+      <c r="E311" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B312" t="s">
+        <v>724</v>
+      </c>
+      <c r="C312" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B313" t="s">
+        <v>73</v>
+      </c>
+      <c r="C313" t="s">
         <v>74</v>
       </c>
-      <c r="C304" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B305" t="s">
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B314" t="s">
+        <v>73</v>
+      </c>
+      <c r="C314" t="s">
         <v>74</v>
       </c>
-      <c r="C305" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B306" t="s">
-        <v>717</v>
-      </c>
-      <c r="C306" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B307" t="s">
-        <v>193</v>
-      </c>
-      <c r="C307" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B308" t="s">
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B315" t="s">
+        <v>901</v>
+      </c>
+      <c r="C315" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B316" t="s">
+        <v>715</v>
+      </c>
+      <c r="C316" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B317" t="s">
+        <v>191</v>
+      </c>
+      <c r="C317" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B318" t="s">
         <v>30</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C318" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B309" t="s">
-        <v>338</v>
-      </c>
-      <c r="C309" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B310" t="s">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B319" t="s">
+        <v>336</v>
+      </c>
+      <c r="C319" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B320" t="s">
+        <v>488</v>
+      </c>
+      <c r="C320" t="s">
+        <v>489</v>
+      </c>
+      <c r="D320" t="s">
         <v>490</v>
-      </c>
-      <c r="C310" t="s">
-        <v>491</v>
-      </c>
-      <c r="D310" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B311" t="s">
-        <v>0</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B312" t="s">
-        <v>488</v>
-      </c>
-      <c r="C312" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B313" t="s">
-        <v>197</v>
-      </c>
-      <c r="C313" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B314" t="s">
-        <v>127</v>
-      </c>
-      <c r="C314" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B315" t="s">
-        <v>165</v>
-      </c>
-      <c r="C315" t="s">
-        <v>319</v>
-      </c>
-      <c r="D315" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B316" t="s">
-        <v>671</v>
-      </c>
-      <c r="C316" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B317" t="s">
-        <v>667</v>
-      </c>
-      <c r="C317" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B318" t="s">
-        <v>669</v>
-      </c>
-      <c r="C318" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B319" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B320" t="s">
-        <v>767</v>
-      </c>
-      <c r="C320" t="s">
-        <v>358</v>
-      </c>
-      <c r="D320" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B321" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C321" t="s">
-        <v>76</v>
-      </c>
-      <c r="D321" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B322" t="s">
-        <v>633</v>
+        <v>486</v>
       </c>
       <c r="C322" t="s">
-        <v>634</v>
-      </c>
-      <c r="D322" t="s">
-        <v>635</v>
+        <v>487</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B323" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C323" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B324" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C324" t="s">
-        <v>136</v>
-      </c>
-      <c r="D324" t="s">
-        <v>636</v>
-      </c>
-      <c r="E324" t="s">
-        <v>82</v>
-      </c>
-      <c r="F324" t="s">
-        <v>637</v>
+        <v>127</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B325" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="C325" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="D325" t="s">
-        <v>102</v>
-      </c>
-      <c r="E325" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B326" t="s">
-        <v>528</v>
+        <v>669</v>
       </c>
       <c r="C326" t="s">
-        <v>529</v>
+        <v>670</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B327" t="s">
-        <v>532</v>
+        <v>665</v>
       </c>
       <c r="C327" t="s">
-        <v>533</v>
+        <v>666</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B328" t="s">
-        <v>524</v>
+        <v>667</v>
       </c>
       <c r="C328" t="s">
-        <v>525</v>
-      </c>
-      <c r="D328" t="s">
-        <v>526</v>
-      </c>
-      <c r="E328" t="s">
-        <v>527</v>
+        <v>668</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B329" t="s">
-        <v>437</v>
-      </c>
-      <c r="C329" t="s">
-        <v>438</v>
+        <v>166</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B330" t="s">
-        <v>437</v>
+        <v>765</v>
       </c>
       <c r="C330" t="s">
-        <v>439</v>
+        <v>356</v>
+      </c>
+      <c r="D330" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B331" t="s">
-        <v>149</v>
+        <v>26</v>
+      </c>
+      <c r="C331" t="s">
+        <v>75</v>
+      </c>
+      <c r="D331" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B332" t="s">
-        <v>690</v>
+        <v>631</v>
       </c>
       <c r="C332" t="s">
-        <v>691</v>
+        <v>632</v>
+      </c>
+      <c r="D332" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B333" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C333" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B334" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="C334" t="s">
+        <v>135</v>
+      </c>
+      <c r="D334" t="s">
+        <v>634</v>
+      </c>
+      <c r="E334" t="s">
+        <v>81</v>
+      </c>
+      <c r="F334" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B335" t="s">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="C335" t="s">
-        <v>318</v>
+        <v>100</v>
+      </c>
+      <c r="D335" t="s">
+        <v>101</v>
+      </c>
+      <c r="E335" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B336" t="s">
+        <v>526</v>
+      </c>
+      <c r="C336" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B337" t="s">
+        <v>530</v>
+      </c>
+      <c r="C337" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B338" t="s">
+        <v>522</v>
+      </c>
+      <c r="C338" t="s">
+        <v>523</v>
+      </c>
+      <c r="D338" t="s">
+        <v>524</v>
+      </c>
+      <c r="E338" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B339" t="s">
         <v>435</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C339" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B337" t="s">
-        <v>330</v>
-      </c>
-      <c r="C337" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B338" t="s">
-        <v>262</v>
-      </c>
-      <c r="C338" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B339" t="s">
-        <v>323</v>
-      </c>
-      <c r="C339" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B340" t="s">
+        <v>435</v>
+      </c>
+      <c r="C340" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B341" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B342" t="s">
+        <v>688</v>
+      </c>
+      <c r="C342" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B343" t="s">
+        <v>118</v>
+      </c>
+      <c r="C343" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B345" t="s">
+        <v>315</v>
+      </c>
+      <c r="C345" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B346" t="s">
+        <v>433</v>
+      </c>
+      <c r="C346" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B347" t="s">
+        <v>328</v>
+      </c>
+      <c r="C347" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B348" t="s">
+        <v>260</v>
+      </c>
+      <c r="C348" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B349" t="s">
+        <v>321</v>
+      </c>
+      <c r="C349" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B350" t="s">
+        <v>130</v>
+      </c>
+      <c r="C350" t="s">
         <v>131</v>
       </c>
-      <c r="C340" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B341" t="s">
-        <v>444</v>
-      </c>
-      <c r="C341" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B342" t="s">
-        <v>237</v>
-      </c>
-      <c r="C342" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B343" t="s">
-        <v>239</v>
-      </c>
-      <c r="C343" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B344" t="s">
-        <v>364</v>
-      </c>
-      <c r="C344" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B345" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C345" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B346" t="s">
-        <v>286</v>
-      </c>
-      <c r="C346" t="s">
-        <v>287</v>
-      </c>
-      <c r="D346" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B347" t="s">
-        <v>282</v>
-      </c>
-      <c r="C347" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B348" t="s">
-        <v>282</v>
-      </c>
-      <c r="C348" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B349" t="s">
-        <v>570</v>
-      </c>
-      <c r="C349" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B350" t="s">
-        <v>596</v>
-      </c>
-      <c r="C350" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B351" t="s">
-        <v>18</v>
+        <v>906</v>
       </c>
       <c r="C351" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.45">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B352" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
       <c r="C352" t="s">
-        <v>368</v>
+        <v>443</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B353" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="C353" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B354" t="s">
-        <v>399</v>
+        <v>237</v>
       </c>
       <c r="C354" t="s">
-        <v>400</v>
+        <v>238</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B355" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="C355" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B356" t="s">
-        <v>178</v>
+      <c r="B356" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C356" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B357" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="C357" t="s">
-        <v>91</v>
+        <v>285</v>
+      </c>
+      <c r="D357" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B358" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C358" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B359" t="s">
-        <v>486</v>
+        <v>280</v>
       </c>
       <c r="C359" t="s">
-        <v>487</v>
+        <v>281</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B360" t="s">
-        <v>124</v>
+        <v>568</v>
       </c>
       <c r="C360" t="s">
-        <v>255</v>
-      </c>
-      <c r="D360" t="s">
-        <v>256</v>
+        <v>569</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B361" t="s">
-        <v>332</v>
+        <v>594</v>
       </c>
       <c r="C361" t="s">
-        <v>333</v>
-      </c>
-      <c r="D361" t="s">
-        <v>334</v>
+        <v>595</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B362" t="s">
-        <v>766</v>
+        <v>18</v>
       </c>
       <c r="C362" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B363" t="s">
-        <v>572</v>
+        <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>573</v>
-      </c>
-      <c r="D363" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B364" t="s">
-        <v>269</v>
+        <v>908</v>
       </c>
       <c r="C364" t="s">
-        <v>270</v>
+        <v>909</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B365" t="s">
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="C365" t="s">
-        <v>398</v>
+        <v>33</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B366" t="s">
-        <v>265</v>
+        <v>397</v>
       </c>
       <c r="C366" t="s">
-        <v>42</v>
+        <v>398</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B367" t="s">
-        <v>148</v>
-      </c>
       <c r="C367" t="s">
-        <v>254</v>
+        <v>301</v>
+      </c>
+      <c r="D367" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B368" t="s">
-        <v>314</v>
+        <v>176</v>
       </c>
       <c r="C368" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B369" t="s">
+        <v>89</v>
+      </c>
+      <c r="C369" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B370" t="s">
+        <v>262</v>
+      </c>
+      <c r="C370" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B371" t="s">
+        <v>484</v>
+      </c>
+      <c r="C371" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B372" t="s">
+        <v>912</v>
+      </c>
+      <c r="C372" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B373" t="s">
+        <v>123</v>
+      </c>
+      <c r="C373" t="s">
+        <v>253</v>
+      </c>
+      <c r="D373" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B374" t="s">
+        <v>330</v>
+      </c>
+      <c r="C374" t="s">
+        <v>331</v>
+      </c>
+      <c r="D374" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B375" t="s">
+        <v>764</v>
+      </c>
+      <c r="C375" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B376" t="s">
+        <v>570</v>
+      </c>
+      <c r="C376" t="s">
+        <v>571</v>
+      </c>
+      <c r="D376" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B377" t="s">
+        <v>267</v>
+      </c>
+      <c r="C377" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B378" t="s">
+        <v>395</v>
+      </c>
+      <c r="C378" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B379" t="s">
+        <v>914</v>
+      </c>
+      <c r="C379" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B380" t="s">
+        <v>916</v>
+      </c>
+      <c r="C380" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B381" t="s">
+        <v>263</v>
+      </c>
+      <c r="C381" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B382" t="s">
+        <v>147</v>
+      </c>
+      <c r="C382" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B383" t="s">
+        <v>312</v>
+      </c>
+      <c r="C383" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B384" t="s">
+        <v>319</v>
+      </c>
+      <c r="C384" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B385" t="s">
+        <v>319</v>
+      </c>
+      <c r="C385" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B386" t="s">
+        <v>382</v>
+      </c>
+      <c r="C386" t="s">
+        <v>384</v>
+      </c>
+      <c r="D386" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B369" t="s">
-        <v>321</v>
-      </c>
-      <c r="C369" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B370" t="s">
-        <v>321</v>
-      </c>
-      <c r="C370" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B371" t="s">
-        <v>384</v>
-      </c>
-      <c r="C371" t="s">
-        <v>386</v>
-      </c>
-      <c r="D371" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B372" t="s">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B387" t="s">
+        <v>136</v>
+      </c>
+      <c r="C387" t="s">
         <v>137</v>
       </c>
-      <c r="C372" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B373" t="s">
-        <v>515</v>
-      </c>
-      <c r="C373" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B374" t="s">
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B388" t="s">
+        <v>513</v>
+      </c>
+      <c r="C388" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B389" t="s">
+        <v>38</v>
+      </c>
+      <c r="C389" t="s">
         <v>39</v>
       </c>
-      <c r="C374" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B375" t="s">
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B390" t="s">
+        <v>345</v>
+      </c>
+      <c r="C390" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B391" t="s">
+        <v>346</v>
+      </c>
+      <c r="C391" t="s">
         <v>347</v>
       </c>
-      <c r="C375" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B376" t="s">
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B392" t="s">
+        <v>313</v>
+      </c>
+      <c r="C392" t="s">
         <v>348</v>
       </c>
-      <c r="C376" t="s">
+      <c r="D392" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B377" t="s">
-        <v>315</v>
-      </c>
-      <c r="C377" t="s">
-        <v>350</v>
-      </c>
-      <c r="D377" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B378" t="s">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B393" t="s">
+        <v>36</v>
+      </c>
+      <c r="C393" t="s">
         <v>37</v>
       </c>
-      <c r="C378" t="s">
-        <v>38</v>
-      </c>
-      <c r="D378" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B379" t="s">
-        <v>440</v>
-      </c>
-      <c r="C379" t="s">
-        <v>441</v>
-      </c>
-      <c r="D379" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B380" t="s">
-        <v>258</v>
-      </c>
-      <c r="C380" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B381" t="s">
+      <c r="D393" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B394" t="s">
+        <v>438</v>
+      </c>
+      <c r="C394" t="s">
+        <v>439</v>
+      </c>
+      <c r="D394" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B395" t="s">
+        <v>256</v>
+      </c>
+      <c r="C395" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B396" t="s">
+        <v>660</v>
+      </c>
+      <c r="C396" t="s">
+        <v>661</v>
+      </c>
+      <c r="D396" t="s">
         <v>662</v>
       </c>
-      <c r="C381" t="s">
-        <v>663</v>
-      </c>
-      <c r="D381" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B382" t="s">
-        <v>721</v>
-      </c>
-      <c r="C382" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B383" t="s">
-        <v>125</v>
-      </c>
-      <c r="C383" t="s">
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B397" t="s">
+        <v>719</v>
+      </c>
+      <c r="C397" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B398" t="s">
+        <v>124</v>
+      </c>
+      <c r="C398" t="s">
+        <v>352</v>
+      </c>
+      <c r="D398" t="s">
+        <v>353</v>
+      </c>
+      <c r="E398" t="s">
         <v>354</v>
       </c>
-      <c r="D383" t="s">
-        <v>355</v>
-      </c>
-      <c r="E383" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B384" t="s">
-        <v>325</v>
-      </c>
-      <c r="C384" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B385" t="s">
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B399" t="s">
+        <v>323</v>
+      </c>
+      <c r="C399" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B400" t="s">
+        <v>533</v>
+      </c>
+      <c r="C400" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B401" t="s">
         <v>535</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C401" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B386" t="s">
-        <v>537</v>
-      </c>
-      <c r="C386" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B387" t="s">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B402" t="s">
         <v>23</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C402" t="s">
         <v>11</v>
       </c>
-      <c r="D387" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B388" t="s">
-        <v>172</v>
-      </c>
-      <c r="C388" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B389" t="s">
+      <c r="D402" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B403" t="s">
+        <v>170</v>
+      </c>
+      <c r="C403" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B404" t="s">
+        <v>701</v>
+      </c>
+      <c r="C404" t="s">
+        <v>622</v>
+      </c>
+      <c r="D404" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B405" t="s">
+        <v>239</v>
+      </c>
+      <c r="C405" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B406" t="s">
+        <v>699</v>
+      </c>
+      <c r="C406" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B407" t="s">
         <v>703</v>
       </c>
-      <c r="C389" t="s">
-        <v>624</v>
-      </c>
-      <c r="D389" t="s">
+      <c r="C407" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B390" t="s">
-        <v>241</v>
-      </c>
-      <c r="C390" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B391" t="s">
-        <v>701</v>
-      </c>
-      <c r="C391" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B392" t="s">
-        <v>705</v>
-      </c>
-      <c r="C392" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B393" t="s">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B408" t="s">
         <v>21</v>
       </c>
-      <c r="C393" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B394" t="s">
-        <v>366</v>
-      </c>
-      <c r="C394" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B395" t="s">
+      <c r="C408" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B409" t="s">
+        <v>364</v>
+      </c>
+      <c r="C409" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="410" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B410" t="s">
+        <v>470</v>
+      </c>
+      <c r="C410" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B411" t="s">
+        <v>471</v>
+      </c>
+      <c r="C411" t="s">
         <v>472</v>
       </c>
-      <c r="C395" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B396" t="s">
-        <v>473</v>
-      </c>
-      <c r="C396" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B397" t="s">
+    </row>
+    <row r="412" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B412" t="s">
+        <v>143</v>
+      </c>
+      <c r="C412" t="s">
         <v>144</v>
       </c>
-      <c r="C397" t="s">
-        <v>145</v>
-      </c>
-      <c r="D397" t="s">
-        <v>159</v>
-      </c>
-      <c r="E397" t="s">
-        <v>403</v>
-      </c>
-      <c r="F397" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B398" t="s">
+      <c r="D412" t="s">
+        <v>157</v>
+      </c>
+      <c r="E412" t="s">
+        <v>401</v>
+      </c>
+      <c r="F412" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B413" t="s">
+        <v>782</v>
+      </c>
+      <c r="C413" t="s">
+        <v>783</v>
+      </c>
+      <c r="D413" t="s">
         <v>784</v>
       </c>
-      <c r="C398" t="s">
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B414" t="s">
         <v>785</v>
       </c>
-      <c r="D398" t="s">
+      <c r="C414" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B399" t="s">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B415" t="s">
         <v>787</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C415" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B400" t="s">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B416" t="s">
+        <v>790</v>
+      </c>
+      <c r="C416" t="s">
         <v>789</v>
-      </c>
-      <c r="C400" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B401" t="s">
-        <v>792</v>
-      </c>
-      <c r="C401" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B402" t="s">
-        <v>793</v>
-      </c>
-      <c r="C402" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B403" t="s">
-        <v>797</v>
-      </c>
-      <c r="C403" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B404" t="s">
-        <v>799</v>
-      </c>
-      <c r="C404" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B405" t="s">
-        <v>801</v>
-      </c>
-      <c r="C405" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B406" t="s">
-        <v>803</v>
-      </c>
-      <c r="C406" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B407" t="s">
-        <v>805</v>
-      </c>
-      <c r="C407" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B408" t="s">
-        <v>807</v>
-      </c>
-      <c r="C408" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B409" t="s">
-        <v>808</v>
-      </c>
-      <c r="C409" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="410" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B410" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="C410" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B411" t="s">
-        <v>812</v>
-      </c>
-      <c r="C411" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="412" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B412" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="C412" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="413" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B413" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="C413" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="414" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B414" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C414" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="415" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B415" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="C415" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="416" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B416" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="C416" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B417" t="s">
-        <v>854</v>
+        <v>791</v>
       </c>
       <c r="C417" t="s">
-        <v>855</v>
+        <v>792</v>
       </c>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B418" t="s">
+        <v>795</v>
+      </c>
+      <c r="C418" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B419" t="s">
+        <v>797</v>
+      </c>
+      <c r="C419" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B420" t="s">
+        <v>799</v>
+      </c>
+      <c r="C420" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B421" t="s">
+        <v>801</v>
+      </c>
+      <c r="C421" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B422" t="s">
+        <v>803</v>
+      </c>
+      <c r="C422" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B423" t="s">
+        <v>805</v>
+      </c>
+      <c r="C423" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B424" t="s">
+        <v>806</v>
+      </c>
+      <c r="C424" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B425" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C425" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B426" t="s">
+        <v>810</v>
+      </c>
+      <c r="C426" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B427" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C427" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B428" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C428" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B429" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C429" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B430" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C430" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B431" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C431" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B432" t="s">
+        <v>852</v>
+      </c>
+      <c r="C432" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B433" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B434" t="s">
         <v>856</v>
       </c>
+      <c r="C434" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B435" t="s">
+        <v>860</v>
+      </c>
+      <c r="C435" t="s">
+        <v>861</v>
+      </c>
+      <c r="D435" t="s">
+        <v>864</v>
+      </c>
+      <c r="E435" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B436" t="s">
+        <v>862</v>
+      </c>
+      <c r="C436" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B437" t="s">
+        <v>275</v>
+      </c>
+      <c r="C437" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B438" t="s">
+        <v>867</v>
+      </c>
+      <c r="C438" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B439" t="s">
+        <v>138</v>
+      </c>
+      <c r="C439" t="s">
+        <v>406</v>
+      </c>
+      <c r="D439" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B440" t="s">
+        <v>873</v>
+      </c>
+      <c r="C440" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B441" t="s">
+        <v>874</v>
+      </c>
+      <c r="C441" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B442" t="s">
+        <v>876</v>
+      </c>
+      <c r="C442" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B443" t="s">
+        <v>878</v>
+      </c>
+      <c r="C443" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B444" t="s">
+        <v>452</v>
+      </c>
+      <c r="C444" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B445" t="s">
+        <v>881</v>
+      </c>
+      <c r="C445" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B446" t="s">
+        <v>883</v>
+      </c>
+      <c r="C446" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B447" t="s">
+        <v>885</v>
+      </c>
+      <c r="C447" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B448" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B449" t="s">
+        <v>904</v>
+      </c>
+      <c r="C449" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B451" t="s">
+        <v>920</v>
+      </c>
+      <c r="C451" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B452" t="s">
+        <v>323</v>
+      </c>
+      <c r="C452" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B453" t="s">
+        <v>910</v>
+      </c>
+      <c r="C453" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B454" t="s">
+        <v>918</v>
+      </c>
+      <c r="C454" t="s">
+        <v>919</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:H400">
-    <sortCondition ref="B14:B400"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:H415">
+    <sortCondition ref="B14:B415"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\обучение\программирование\rust\книги\xchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCC783-FC93-4099-8E9C-C581DB95772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16D7616-A99F-4E7B-8F7E-8C856CD26CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$11:$D$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$11:$D$198</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1340">
   <si>
     <t>специальный</t>
   </si>
@@ -2798,17 +2798,1271 @@
     <t>уведомления</t>
   </si>
   <si>
-    <t>формирует</t>
-  </si>
-  <si>
     <t>создает</t>
+  </si>
+  <si>
+    <t>типизированным</t>
+  </si>
+  <si>
+    <t>строго определенным</t>
+  </si>
+  <si>
+    <t>сгенерировал</t>
+  </si>
+  <si>
+    <t>создал</t>
+  </si>
+  <si>
+    <t>формируемого</t>
+  </si>
+  <si>
+    <t>создаваемого</t>
+  </si>
+  <si>
+    <t>ассоциируются</t>
+  </si>
+  <si>
+    <t>сопряжены</t>
+  </si>
+  <si>
+    <t>ассоциативных</t>
+  </si>
+  <si>
+    <t>сопряженных</t>
+  </si>
+  <si>
+    <t>типизации</t>
+  </si>
+  <si>
+    <t>сгенерированы</t>
+  </si>
+  <si>
+    <t>созданы</t>
+  </si>
+  <si>
+    <t>классические</t>
+  </si>
+  <si>
+    <t>привычные</t>
+  </si>
+  <si>
+    <t>классную</t>
+  </si>
+  <si>
+    <t>полезную</t>
+  </si>
+  <si>
+    <t>сбоев</t>
+  </si>
+  <si>
+    <t>комплект</t>
+  </si>
+  <si>
+    <t>состав</t>
+  </si>
+  <si>
+    <t>агрессивной</t>
+  </si>
+  <si>
+    <t>враждебной</t>
+  </si>
+  <si>
+    <t>эргономичным</t>
+  </si>
+  <si>
+    <t>удобным</t>
+  </si>
+  <si>
+    <t>аварийно</t>
+  </si>
+  <si>
+    <t>аварийным</t>
+  </si>
+  <si>
+    <t>аварий</t>
+  </si>
+  <si>
+    <t>дизайн</t>
+  </si>
+  <si>
+    <t>стандартная</t>
+  </si>
+  <si>
+    <t>обычная</t>
+  </si>
+  <si>
+    <t>стандарта</t>
+  </si>
+  <si>
+    <t>исполнения</t>
+  </si>
+  <si>
+    <t>стандартные</t>
+  </si>
+  <si>
+    <t>обычные</t>
+  </si>
+  <si>
+    <t>потенциальную</t>
+  </si>
+  <si>
+    <t>вероятную</t>
+  </si>
+  <si>
+    <t>возможности</t>
+  </si>
+  <si>
+    <t>менеджер</t>
+  </si>
+  <si>
+    <t>опций</t>
+  </si>
+  <si>
+    <t>возможностей</t>
+  </si>
+  <si>
+    <t>опционально</t>
+  </si>
+  <si>
+    <t>дополнительно</t>
+  </si>
+  <si>
+    <t>копию</t>
+  </si>
+  <si>
+    <t>повтор</t>
+  </si>
+  <si>
+    <t>скопировать</t>
+  </si>
+  <si>
+    <t>воспроизвести</t>
+  </si>
+  <si>
+    <t>путь</t>
+  </si>
+  <si>
+    <t>организовывать</t>
+  </si>
+  <si>
+    <t>создавать</t>
+  </si>
+  <si>
+    <t>организованно</t>
+  </si>
+  <si>
+    <t>согласованно</t>
+  </si>
+  <si>
+    <t>организацию</t>
+  </si>
+  <si>
+    <t>Организационная</t>
+  </si>
+  <si>
+    <t>внутренняя</t>
+  </si>
+  <si>
+    <t>секций</t>
+  </si>
+  <si>
+    <t>разделов</t>
+  </si>
+  <si>
+    <t>пакет</t>
+  </si>
+  <si>
+    <t>дисциплиной</t>
+  </si>
+  <si>
+    <t>пунктом</t>
+  </si>
+  <si>
+    <t>инициализировал</t>
+  </si>
+  <si>
+    <t>объявлял</t>
+  </si>
+  <si>
+    <t>репозиторий</t>
+  </si>
+  <si>
+    <t>карьере</t>
+  </si>
+  <si>
+    <t>развитии</t>
+  </si>
+  <si>
+    <t>классическую</t>
+  </si>
+  <si>
+    <t>обычную</t>
+  </si>
+  <si>
+    <t>мини-</t>
+  </si>
+  <si>
+    <t>простое-</t>
+  </si>
+  <si>
+    <t>сигнал</t>
+  </si>
+  <si>
+    <t>звонок</t>
+  </si>
+  <si>
+    <t>тревога</t>
+  </si>
+  <si>
+    <t>сигнализация</t>
+  </si>
+  <si>
+    <t>тревожное оповещение</t>
+  </si>
+  <si>
+    <t>сигнатура</t>
+  </si>
+  <si>
+    <t>ярлык</t>
+  </si>
+  <si>
+    <t>оригинальной</t>
+  </si>
+  <si>
+    <t>изначальной</t>
+  </si>
+  <si>
+    <t>модель</t>
+  </si>
+  <si>
+    <t>прообраз</t>
+  </si>
+  <si>
+    <t>подходы</t>
+  </si>
+  <si>
+    <t>комбинирует</t>
+  </si>
+  <si>
+    <t>сочетает</t>
+  </si>
+  <si>
+    <t>комбинирования</t>
+  </si>
+  <si>
+    <t>соединения</t>
+  </si>
+  <si>
+    <t>скомбинированные</t>
+  </si>
+  <si>
+    <t>объединенные</t>
+  </si>
+  <si>
+    <t>комментарий</t>
+  </si>
+  <si>
+    <t>примечание</t>
+  </si>
+  <si>
+    <t>комплекс</t>
+  </si>
+  <si>
+    <t>совокупность</t>
+  </si>
+  <si>
+    <t>компания</t>
+  </si>
+  <si>
+    <t>предприятие</t>
+  </si>
+  <si>
+    <t>Конвенция</t>
+  </si>
+  <si>
+    <t>условие</t>
+  </si>
+  <si>
+    <t>Лаконичный</t>
+  </si>
+  <si>
+    <t>краткий</t>
+  </si>
+  <si>
+    <t>комментировать</t>
+  </si>
+  <si>
+    <t>вносить примечания в</t>
+  </si>
+  <si>
+    <t>закомментированным</t>
+  </si>
+  <si>
+    <t>с примечаниями</t>
+  </si>
+  <si>
+    <t>коммуникации</t>
+  </si>
+  <si>
+    <t>связи</t>
+  </si>
+  <si>
+    <t>константного</t>
+  </si>
+  <si>
+    <t>константы</t>
+  </si>
+  <si>
+    <t>зацикливания</t>
+  </si>
+  <si>
+    <t>замыкания</t>
+  </si>
+  <si>
+    <t>Конкатенация</t>
+  </si>
+  <si>
+    <t>сцепление</t>
+  </si>
+  <si>
+    <t>конкурирующих</t>
+  </si>
+  <si>
+    <t>состязающихся</t>
+  </si>
+  <si>
+    <t>контент</t>
+  </si>
+  <si>
+    <t>содержание</t>
+  </si>
+  <si>
+    <t>конструктор</t>
+  </si>
+  <si>
+    <t>строитель</t>
+  </si>
+  <si>
+    <t>консервативные</t>
+  </si>
+  <si>
+    <t>устоявшиеся</t>
+  </si>
+  <si>
+    <t>конструирования</t>
+  </si>
+  <si>
+    <t>разработки</t>
+  </si>
+  <si>
+    <t>версионирование</t>
+  </si>
+  <si>
+    <t>управление исполнениями</t>
+  </si>
+  <si>
+    <t>вездеприменимые</t>
+  </si>
+  <si>
+    <t>универсальные</t>
+  </si>
+  <si>
+    <t>гибкие</t>
+  </si>
+  <si>
+    <t>крейт</t>
+  </si>
+  <si>
+    <t>ящик</t>
+  </si>
+  <si>
+    <t>трейт</t>
+  </si>
+  <si>
+    <t>паттерн</t>
+  </si>
+  <si>
+    <t>условиям</t>
+  </si>
+  <si>
+    <t>критериям</t>
+  </si>
+  <si>
+    <t>признакам</t>
+  </si>
+  <si>
+    <t>атрибут</t>
+  </si>
+  <si>
+    <t>типичного</t>
+  </si>
+  <si>
+    <t>обычного</t>
+  </si>
+  <si>
+    <t>шаблон</t>
+  </si>
+  <si>
+    <t>прототипирование</t>
+  </si>
+  <si>
+    <t>создание опытного образца</t>
+  </si>
+  <si>
+    <t>объединений</t>
+  </si>
+  <si>
+    <t>шанс</t>
+  </si>
+  <si>
+    <t>качественное</t>
+  </si>
+  <si>
+    <t>эффекта</t>
+  </si>
+  <si>
+    <t>последствия</t>
+  </si>
+  <si>
+    <t>неэффективных</t>
+  </si>
+  <si>
+    <t>бесполезных</t>
+  </si>
+  <si>
+    <t>эффективно</t>
+  </si>
+  <si>
+    <t>Nightly rust</t>
+  </si>
+  <si>
+    <t>ночное издание ржавчины</t>
+  </si>
+  <si>
+    <t>стадии</t>
+  </si>
+  <si>
+    <t>этапе</t>
+  </si>
+  <si>
+    <t>паника</t>
+  </si>
+  <si>
+    <t>запаниковал</t>
+  </si>
+  <si>
+    <t>вызвал сбой</t>
+  </si>
+  <si>
+    <t>паникует</t>
+  </si>
+  <si>
+    <t>вызывает сбой</t>
+  </si>
+  <si>
+    <t>цикл</t>
+  </si>
+  <si>
+    <t>круговорот</t>
+  </si>
+  <si>
+    <t>зацикленность</t>
+  </si>
+  <si>
+    <t>замкнутость</t>
+  </si>
+  <si>
+    <t>резерв</t>
+  </si>
+  <si>
+    <t>зарезервированные</t>
+  </si>
+  <si>
+    <t>забронированные</t>
+  </si>
+  <si>
+    <t>резервному</t>
+  </si>
+  <si>
+    <t>запасному</t>
+  </si>
+  <si>
+    <t>проект</t>
+  </si>
+  <si>
+    <t>дело</t>
+  </si>
+  <si>
+    <t>корректор</t>
+  </si>
+  <si>
+    <t>изменитель</t>
+  </si>
+  <si>
+    <t>модератор</t>
+  </si>
+  <si>
+    <t>писарь</t>
+  </si>
+  <si>
+    <t>группа</t>
+  </si>
+  <si>
+    <t>модуль</t>
+  </si>
+  <si>
+    <t>функционал</t>
+  </si>
+  <si>
+    <t>функциональные</t>
+  </si>
+  <si>
+    <t>полезные</t>
+  </si>
+  <si>
+    <t>модификатор</t>
+  </si>
+  <si>
+    <t>функциональности</t>
+  </si>
+  <si>
+    <t>кортежей</t>
+  </si>
+  <si>
+    <t>упорядоченных рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кортежи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Упорядоченные ряды</t>
+  </si>
+  <si>
+    <t>корректной</t>
+  </si>
+  <si>
+    <t>праивльной</t>
+  </si>
+  <si>
+    <t>спецификацией</t>
+  </si>
+  <si>
+    <t>сводом требований</t>
+  </si>
+  <si>
+    <t>релизов</t>
+  </si>
+  <si>
+    <t>исполнений</t>
+  </si>
+  <si>
+    <t>регрессия</t>
+  </si>
+  <si>
+    <t>отступление</t>
+  </si>
+  <si>
+    <t>экосистемы</t>
+  </si>
+  <si>
+    <t>внутреннего устройства</t>
+  </si>
+  <si>
+    <t>функциональных</t>
+  </si>
+  <si>
+    <t>полезных</t>
+  </si>
+  <si>
+    <t>шаблонные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> образцовые</t>
+  </si>
+  <si>
+    <t>Семантический</t>
+  </si>
+  <si>
+    <t>Смысловой</t>
+  </si>
+  <si>
+    <t>дистрибутива</t>
+  </si>
+  <si>
+    <t>установочного набора</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> фрагментом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">отрывком </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> импортировали</t>
+  </si>
+  <si>
+    <t>подключили</t>
+  </si>
+  <si>
+    <t>дескрипторе</t>
+  </si>
+  <si>
+    <t>указателе</t>
+  </si>
+  <si>
+    <t>Генерация</t>
+  </si>
+  <si>
+    <t>тривиальное</t>
+  </si>
+  <si>
+    <t>обыкновенное</t>
+  </si>
+  <si>
+    <t>Некорректны</t>
+  </si>
+  <si>
+    <t>неправильный</t>
+  </si>
+  <si>
+    <t>Публикация</t>
+  </si>
+  <si>
+    <t>обнародование</t>
+  </si>
+  <si>
+    <t>Генерирование</t>
+  </si>
+  <si>
+    <t>модификации</t>
+  </si>
+  <si>
+    <t>спецификатора</t>
+  </si>
+  <si>
+    <t>определителя</t>
+  </si>
+  <si>
+    <t>проектное</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> расчетное</t>
+  </si>
+  <si>
+    <t>модульной</t>
+  </si>
+  <si>
+    <t>состоящей из звеньев</t>
+  </si>
+  <si>
+    <t>Импорт</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> импорта</t>
+  </si>
+  <si>
+    <t>подключения</t>
+  </si>
+  <si>
+    <t>импортироваться</t>
+  </si>
+  <si>
+    <t>вставляться</t>
+  </si>
+  <si>
+    <t>приватные</t>
+  </si>
+  <si>
+    <t>закрытые</t>
+  </si>
+  <si>
+    <t>реализацией</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выполнением</t>
+  </si>
+  <si>
+    <t>моду</t>
+  </si>
+  <si>
+    <t>режиму</t>
+  </si>
+  <si>
+    <t>дескриптор</t>
+  </si>
+  <si>
+    <t>модифицированный</t>
+  </si>
+  <si>
+    <t>измененный</t>
+  </si>
+  <si>
+    <t>публичных</t>
+  </si>
+  <si>
+    <t>открытых</t>
+  </si>
+  <si>
+    <t>модифицируют</t>
+  </si>
+  <si>
+    <t>изменяют</t>
+  </si>
+  <si>
+    <t>адаптерами</t>
+  </si>
+  <si>
+    <t>переходниками</t>
+  </si>
+  <si>
+    <t>переходник</t>
+  </si>
+  <si>
+    <t>адаптер</t>
+  </si>
+  <si>
+    <t>спецификацию</t>
+  </si>
+  <si>
+    <t>свод требований</t>
+  </si>
+  <si>
+    <t>инварианты</t>
+  </si>
+  <si>
+    <t>неизменные величины</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> спроектирован</t>
+  </si>
+  <si>
+    <t>расчитан</t>
+  </si>
+  <si>
+    <t>проектирования</t>
+  </si>
+  <si>
+    <t>публичный</t>
+  </si>
+  <si>
+    <t>открытый</t>
+  </si>
+  <si>
+    <t>Деструктуризация</t>
+  </si>
+  <si>
+    <t>Разъединение</t>
+  </si>
+  <si>
+    <t>генерации</t>
+  </si>
+  <si>
+    <t>создания</t>
+  </si>
+  <si>
+    <t>экономит</t>
+  </si>
+  <si>
+    <t>уменьшает</t>
+  </si>
+  <si>
+    <t>спецификация</t>
+  </si>
+  <si>
+    <t>согласно принятых требований</t>
+  </si>
+  <si>
+    <t>функционировать</t>
+  </si>
+  <si>
+    <t>исполняться</t>
+  </si>
+  <si>
+    <t>корректно</t>
+  </si>
+  <si>
+    <t>публичные</t>
+  </si>
+  <si>
+    <t>открытые</t>
+  </si>
+  <si>
+    <t>функционала</t>
+  </si>
+  <si>
+    <t>реализуйте</t>
+  </si>
+  <si>
+    <t>выполните</t>
+  </si>
+  <si>
+    <t>блокировка</t>
+  </si>
+  <si>
+    <t>запрет</t>
+  </si>
+  <si>
+    <t>разблокировать</t>
+  </si>
+  <si>
+    <t>снять запрет</t>
+  </si>
+  <si>
+    <t>флаг</t>
+  </si>
+  <si>
+    <t>клеймо</t>
+  </si>
+  <si>
+    <t>активной</t>
+  </si>
+  <si>
+    <t>усиленной</t>
+  </si>
+  <si>
+    <t>активных</t>
+  </si>
+  <si>
+    <t>неугомонных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">активно </t>
+  </si>
+  <si>
+    <t>стагнации</t>
+  </si>
+  <si>
+    <t>застоя</t>
+  </si>
+  <si>
+    <t>мьютекс</t>
+  </si>
+  <si>
+    <t>взаимное исключение</t>
+  </si>
+  <si>
+    <t>конференция</t>
+  </si>
+  <si>
+    <t>встреча</t>
+  </si>
+  <si>
+    <t>стимулов</t>
+  </si>
+  <si>
+    <t>преимуществ</t>
+  </si>
+  <si>
+    <t>ресурсы</t>
+  </si>
+  <si>
+    <t>мощности</t>
+  </si>
+  <si>
+    <t>унифицированный</t>
+  </si>
+  <si>
+    <t>клиент</t>
+  </si>
+  <si>
+    <t>браузера</t>
+  </si>
+  <si>
+    <t>суммирует</t>
+  </si>
+  <si>
+    <t>анализатор</t>
+  </si>
+  <si>
+    <t>онлайн</t>
+  </si>
+  <si>
+    <t>в сети</t>
+  </si>
+  <si>
+    <t>единый</t>
+  </si>
+  <si>
+    <t>конечный потребитель</t>
+  </si>
+  <si>
+    <t>обозревателя</t>
+  </si>
+  <si>
+    <t>веб</t>
+  </si>
+  <si>
+    <t>сетевой</t>
+  </si>
+  <si>
+    <t>коэффициентов</t>
+  </si>
+  <si>
+    <t>складывает</t>
+  </si>
+  <si>
+    <t>множителей</t>
+  </si>
+  <si>
+    <t>синтаксический</t>
+  </si>
+  <si>
+    <t>связанный</t>
+  </si>
+  <si>
+    <t>оценщик</t>
+  </si>
+  <si>
+    <t>оценка</t>
+  </si>
+  <si>
+    <t>административной</t>
+  </si>
+  <si>
+    <t>управленческой</t>
+  </si>
+  <si>
+    <t>привилегий</t>
+  </si>
+  <si>
+    <t>серию</t>
+  </si>
+  <si>
+    <t>администратор</t>
+  </si>
+  <si>
+    <t>хозяина</t>
+  </si>
+  <si>
+    <t>прав</t>
+  </si>
+  <si>
+    <t>последовательность</t>
+  </si>
+  <si>
+    <t>сервер</t>
+  </si>
+  <si>
+    <t>отдельный вычислитель</t>
+  </si>
+  <si>
+    <t>оператор</t>
+  </si>
+  <si>
+    <t>приказчик</t>
+  </si>
+  <si>
+    <t>символ</t>
+  </si>
+  <si>
+    <t>символизирует</t>
+  </si>
+  <si>
+    <t>представляет</t>
+  </si>
+  <si>
+    <t>символической</t>
+  </si>
+  <si>
+    <t>условной</t>
+  </si>
+  <si>
+    <t>логический</t>
+  </si>
+  <si>
+    <t>разумный</t>
+  </si>
+  <si>
+    <t>индикатор</t>
+  </si>
+  <si>
+    <t>логичный</t>
+  </si>
+  <si>
+    <t>здоровый</t>
+  </si>
+  <si>
+    <t>логику</t>
+  </si>
+  <si>
+    <t>ход мыслей</t>
+  </si>
+  <si>
+    <t>абсолют</t>
+  </si>
+  <si>
+    <t>логировании</t>
+  </si>
+  <si>
+    <t>записи действий</t>
+  </si>
+  <si>
+    <t>блог</t>
+  </si>
+  <si>
+    <t>дневник</t>
+  </si>
+  <si>
+    <t>точно</t>
+  </si>
+  <si>
+    <t>законченно</t>
+  </si>
+  <si>
+    <t>безусловно</t>
+  </si>
+  <si>
+    <t>показатель</t>
+  </si>
+  <si>
+    <t>сценарии</t>
+  </si>
+  <si>
+    <t>задумки</t>
+  </si>
+  <si>
+    <t>код</t>
+  </si>
+  <si>
+    <t>рукопись</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>письменность</t>
+  </si>
+  <si>
+    <t>документ</t>
+  </si>
+  <si>
+    <t>свиток</t>
+  </si>
+  <si>
+    <t>пособие</t>
+  </si>
+  <si>
+    <t>обстоятельств</t>
+  </si>
+  <si>
+    <t>Авторы</t>
+  </si>
+  <si>
+    <t>составители</t>
+  </si>
+  <si>
+    <t>автомате</t>
+  </si>
+  <si>
+    <t>устройстве</t>
+  </si>
+  <si>
+    <t>авто</t>
+  </si>
+  <si>
+    <t>само</t>
+  </si>
+  <si>
+    <t>Студенты</t>
+  </si>
+  <si>
+    <t>учащиеся</t>
+  </si>
+  <si>
+    <t>проанализируем</t>
+  </si>
+  <si>
+    <t>рассмотрим</t>
+  </si>
+  <si>
+    <t>анализирует</t>
+  </si>
+  <si>
+    <t>рассматривает</t>
+  </si>
+  <si>
+    <t>анализируем</t>
+  </si>
+  <si>
+    <t>рассматриваем</t>
+  </si>
+  <si>
+    <t>философия</t>
+  </si>
+  <si>
+    <t>мировоззрение</t>
+  </si>
+  <si>
+    <t>интернет</t>
+  </si>
+  <si>
+    <t>мировая сеть</t>
+  </si>
+  <si>
+    <t>документация</t>
+  </si>
+  <si>
+    <t>Анатомия</t>
+  </si>
+  <si>
+    <t>кодировка</t>
+  </si>
+  <si>
+    <t>постоянные переменные</t>
+  </si>
+  <si>
+    <t>установленный порядок</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>экспериментировать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	проводить опыты</t>
+  </si>
+  <si>
+    <t>экспериментальные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предварительные </t>
+  </si>
+  <si>
+    <t>экспериментов</t>
+  </si>
+  <si>
+    <t>жёстко закодированных</t>
+  </si>
+  <si>
+    <t>опытов</t>
+  </si>
+  <si>
+    <t>строго определенных</t>
+  </si>
+  <si>
+    <t>чат</t>
+  </si>
+  <si>
+    <t>окно сообщений</t>
+  </si>
+  <si>
+    <t>обмен сообщений</t>
+  </si>
+  <si>
+    <t>кодировании</t>
+  </si>
+  <si>
+    <t>преобразовании</t>
+  </si>
+  <si>
+    <t>алгоритм</t>
+  </si>
+  <si>
+    <t>распорядок</t>
+  </si>
+  <si>
+    <t>линейного</t>
+  </si>
+  <si>
+    <t>последовательного</t>
+  </si>
+  <si>
+    <t>атакам</t>
+  </si>
+  <si>
+    <t>нападениям</t>
+  </si>
+  <si>
+    <t>хаос</t>
+  </si>
+  <si>
+    <t>разгром</t>
+  </si>
+  <si>
+    <t>сортировки</t>
+  </si>
+  <si>
+    <t>упорядочивания</t>
+  </si>
+  <si>
+    <t>отсортированных</t>
+  </si>
+  <si>
+    <t>упорядоченных</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> темы</t>
+  </si>
+  <si>
+    <t>сути</t>
+  </si>
+  <si>
+    <t>темах</t>
+  </si>
+  <si>
+    <t>вопросах</t>
+  </si>
+  <si>
+    <t>домене</t>
+  </si>
+  <si>
+    <t>области владения</t>
+  </si>
+  <si>
+    <t>визуального</t>
+  </si>
+  <si>
+    <t>внешнего</t>
+  </si>
+  <si>
+    <t>Визуализации</t>
+  </si>
+  <si>
+    <t>отображения</t>
+  </si>
+  <si>
+    <t>идиома</t>
+  </si>
+  <si>
+    <t>устойчивое выражение</t>
+  </si>
+  <si>
+    <t>идиоматический</t>
+  </si>
+  <si>
+    <t>принятый</t>
+  </si>
+  <si>
+    <t>неидиоматическим</t>
+  </si>
+  <si>
+    <t>не обычным</t>
+  </si>
+  <si>
+    <t>согласно принятых договоренностей</t>
+  </si>
+  <si>
+    <t>идиоматически</t>
+  </si>
+  <si>
+    <t>идиоматические</t>
+  </si>
+  <si>
+    <t>клонирования</t>
+  </si>
+  <si>
+    <t>раздваивания</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2845,6 +4099,34 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FFFFDCE0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2869,10 +4151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2885,8 +4168,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3220,22 +4515,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H454"/>
+  <dimension ref="A1:H687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.1328125" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
         <v>850</v>
       </c>
@@ -3243,7 +4538,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" ht="15.75">
       <c r="B2" s="5" t="s">
         <v>848</v>
       </c>
@@ -3251,7 +4546,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="15.75">
       <c r="B3" s="5" t="s">
         <v>845</v>
       </c>
@@ -3259,7 +4554,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>843</v>
       </c>
@@ -3267,7 +4562,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>841</v>
       </c>
@@ -3275,7 +4570,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>837</v>
       </c>
@@ -3283,7 +4578,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>835</v>
       </c>
@@ -3291,7 +4586,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>833</v>
       </c>
@@ -3299,7 +4594,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>829</v>
       </c>
@@ -3307,7 +4602,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>826</v>
       </c>
@@ -3315,7 +4610,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>735</v>
       </c>
@@ -3323,7 +4618,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>827</v>
       </c>
@@ -3331,7 +4626,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>793</v>
       </c>
@@ -3339,12 +4634,12 @@
         <v>794</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>692</v>
       </c>
@@ -3352,7 +4647,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>178</v>
       </c>
@@ -3360,7 +4655,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>735</v>
       </c>
@@ -3368,7 +4663,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>440</v>
       </c>
@@ -3376,7 +4671,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -3387,12 +4682,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>210</v>
       </c>
@@ -3400,7 +4695,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>210</v>
       </c>
@@ -3411,7 +4706,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>717</v>
       </c>
@@ -3419,12 +4714,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -3434,8 +4724,11 @@
       <c r="D25" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>481</v>
       </c>
@@ -3443,7 +4736,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>482</v>
       </c>
@@ -3451,7 +4744,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>82</v>
       </c>
@@ -3459,7 +4752,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>138</v>
       </c>
@@ -3467,7 +4760,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>298</v>
       </c>
@@ -3475,7 +4768,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>710</v>
       </c>
@@ -3483,7 +4776,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
         <v>119</v>
       </c>
@@ -3491,7 +4784,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>51</v>
       </c>
@@ -3499,7 +4792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>659</v>
       </c>
@@ -3510,7 +4803,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>28</v>
       </c>
@@ -3521,7 +4814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>445</v>
       </c>
@@ -3529,7 +4822,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>305</v>
       </c>
@@ -3537,7 +4830,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +4841,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
         <v>77</v>
       </c>
@@ -3556,7 +4849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
         <v>201</v>
       </c>
@@ -3564,7 +4857,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
         <v>402</v>
       </c>
@@ -3572,7 +4865,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5">
       <c r="B42" t="s">
         <v>402</v>
       </c>
@@ -3580,7 +4873,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
         <v>271</v>
       </c>
@@ -3594,7 +4887,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5">
       <c r="B44" t="s">
         <v>85</v>
       </c>
@@ -3605,7 +4898,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5">
       <c r="B45" t="s">
         <v>189</v>
       </c>
@@ -3613,3553 +4906,5479 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
         <v>705</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
         <v>226</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>112</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
+    <row r="49" spans="1:5">
+      <c r="B49" t="s">
         <v>377</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49">
+    <row r="50" spans="1:5">
+      <c r="A50">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>379</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
+    <row r="51" spans="1:5">
+      <c r="B51" t="s">
         <v>43</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>44</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>112</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
+    <row r="52" spans="1:5">
+      <c r="B52" t="s">
         <v>307</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
+    <row r="53" spans="1:5">
+      <c r="B53" t="s">
         <v>492</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
+    <row r="54" spans="1:5">
+      <c r="B54" t="s">
         <v>491</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
+    <row r="55" spans="1:5">
+      <c r="B55" t="s">
         <v>493</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
+    <row r="56" spans="1:5">
+      <c r="B56" t="s">
         <v>494</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
+    <row r="57" spans="1:5">
+      <c r="B57" t="s">
         <v>171</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
+    <row r="58" spans="1:5">
+      <c r="B58" t="s">
         <v>291</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
         <v>407</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>408</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
+      <c r="E59" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
         <v>625</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
+    <row r="61" spans="1:5">
+      <c r="B61" t="s">
         <v>477</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>478</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>479</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B61" t="s">
+    <row r="62" spans="1:5">
+      <c r="B62" t="s">
         <v>473</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>474</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>475</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
+    <row r="63" spans="1:5">
+      <c r="B63" t="s">
         <v>245</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>246</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>269</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
         <v>639</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
         <v>229</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B65" t="s">
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
         <v>642</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B66" s="2" t="s">
+    <row r="67" spans="2:4">
+      <c r="B67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B67" t="s">
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
         <v>61</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>62</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
         <v>108</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
         <v>592</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
         <v>283</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B71" t="s">
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
         <v>503</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
         <v>161</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>162</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B73" t="s">
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
         <v>615</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B74" s="2" t="s">
+    <row r="75" spans="2:4">
+      <c r="B75" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B75" t="s">
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
         <v>582</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B76" t="s">
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
         <v>629</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B77" t="s">
-        <v>286</v>
-      </c>
-      <c r="C77" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:4">
       <c r="B78" t="s">
         <v>286</v>
       </c>
       <c r="C78" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
         <v>511</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
         <v>463</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B81" t="s">
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
         <v>314</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>340</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B82" t="s">
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
         <v>216</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
         <v>374</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
         <v>561</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B85" t="s">
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
         <v>563</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
         <v>565</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B87" t="s">
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
         <v>559</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B88" t="s">
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
         <v>663</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B89" t="s">
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
         <v>65</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>66</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B90" t="s">
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
         <v>586</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B91" t="s">
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
         <v>588</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B92" t="s">
+    <row r="93" spans="2:4">
+      <c r="B93" t="s">
         <v>774</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B93" t="s">
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
         <v>840</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B94" t="s">
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
         <v>839</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B95" t="s">
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
         <v>728</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B96" t="s">
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
         <v>730</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B97" t="s">
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
         <v>265</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B98" t="s">
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
         <v>76</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>115</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B99" t="s">
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
         <v>153</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>154</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>120</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B100" t="s">
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
         <v>12</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B101" t="s">
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
         <v>97</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>96</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B102" t="s">
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
         <v>250</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B104" t="s">
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
         <v>125</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B105" t="s">
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
         <v>713</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B106" t="s">
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
         <v>518</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>519</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>520</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B107" t="s">
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
         <v>63</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>64</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B108" t="s">
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
         <v>457</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B109" t="s">
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
         <v>110</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>111</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B110" t="s">
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
         <v>24</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B111" t="s">
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
         <v>460</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B112" t="s">
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
         <v>34</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B113" t="s">
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
         <v>739</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>740</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B114" t="s">
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
         <v>737</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B115" t="s">
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
         <v>741</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B116" t="s">
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
         <v>743</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B117" t="s">
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
         <v>293</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>292</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B118" t="s">
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
         <v>770</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B119" t="s">
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
         <v>772</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B120" t="s">
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
         <v>431</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B121" t="s">
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
         <v>146</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>596</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B122" t="s">
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
         <v>428</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>429</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B123" t="s">
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
         <v>208</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B124" t="s">
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
         <v>102</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B125" t="s">
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
         <v>768</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B126" t="s">
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
         <v>326</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B127" t="s">
+      <c r="D127" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
         <v>732</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>733</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B128" t="s">
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
         <v>188</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B129" t="s">
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
         <v>185</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B130" t="s">
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
         <v>637</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B131" t="s">
+    <row r="132" spans="2:4">
+      <c r="B132" t="s">
         <v>69</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>70</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B133" t="s">
+    <row r="134" spans="2:4">
+      <c r="B134" t="s">
         <v>86</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B134" t="s">
+      <c r="D134" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
         <v>121</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C138" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B135" t="s">
+    <row r="139" spans="2:4">
+      <c r="B139" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" t="s">
         <v>675</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C140" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B136" t="s">
+    <row r="141" spans="2:4">
+      <c r="B141" t="s">
         <v>537</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C141" t="s">
         <v>539</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D141" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B137" t="s">
+    <row r="142" spans="2:4">
+      <c r="B142" t="s">
         <v>333</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C142" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B138" t="s">
+    <row r="143" spans="2:4">
+      <c r="B143" t="s">
         <v>5</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C143" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B139" t="s">
+    <row r="144" spans="2:4">
+      <c r="B144" t="s">
         <v>180</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C144" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B140" t="s">
+    <row r="145" spans="2:6">
+      <c r="B145" t="s">
         <v>159</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C145" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B141" t="s">
+    <row r="146" spans="2:6">
+      <c r="B146" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" t="s">
         <v>550</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C147" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B142" t="s">
+    <row r="148" spans="2:6">
+      <c r="B148" t="s">
         <v>618</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C148" t="s">
         <v>621</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D148" t="s">
         <v>619</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E148" t="s">
         <v>620</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F148" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B143" t="s">
+    <row r="149" spans="2:6">
+      <c r="B149" t="s">
         <v>155</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C149" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B144" t="s">
+    <row r="150" spans="2:6">
+      <c r="B150" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" t="s">
         <v>644</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C151" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A145">
+    <row r="152" spans="2:6">
+      <c r="B152" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C157" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
         <v>24</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B161" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B146" t="s">
+    <row r="162" spans="1:4">
+      <c r="B162" t="s">
         <v>646</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C162" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B147" t="s">
+    <row r="163" spans="1:4">
+      <c r="B163" t="s">
         <v>151</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C163" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B148" t="s">
+      <c r="D163" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="B164" t="s">
         <v>392</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C164" t="s">
         <v>393</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D164" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B149" t="s">
+    <row r="165" spans="1:4">
+      <c r="B165" t="s">
         <v>540</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C165" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B150" t="s">
+    <row r="166" spans="1:4">
+      <c r="B166" t="s">
         <v>98</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C166" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B151" t="s">
+    <row r="167" spans="1:4">
+      <c r="B167" t="s">
         <v>193</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C167" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B152" t="s">
+    <row r="168" spans="1:4">
+      <c r="B168" t="s">
         <v>448</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C168" t="s">
         <v>446</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D168" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B153" t="s">
+    <row r="169" spans="1:4">
+      <c r="B169" t="s">
         <v>296</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C169" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B155" t="s">
+    <row r="170" spans="1:4">
+      <c r="B170" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="B171" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="B172" t="s">
         <v>627</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C172" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B156" t="s">
+    <row r="173" spans="1:4">
+      <c r="B173" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="B175" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="B176" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" t="s">
         <v>579</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C177" t="s">
         <v>100</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D177" t="s">
         <v>580</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E177" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B157" t="s">
+    <row r="178" spans="2:6">
+      <c r="B178" t="s">
         <v>778</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C178" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B158" t="s">
+    <row r="179" spans="2:6">
+      <c r="B179" t="s">
         <v>572</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C179" t="s">
         <v>573</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D179" t="s">
         <v>574</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E179" t="s">
         <v>577</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F179" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B159" t="s">
+    <row r="180" spans="2:6">
+      <c r="B180" t="s">
         <v>575</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C180" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B160" t="s">
+    <row r="181" spans="2:6">
+      <c r="B181" t="s">
         <v>310</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C181" t="s">
         <v>311</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D181" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B161" t="s">
+    <row r="182" spans="2:6">
+      <c r="B182" t="s">
         <v>386</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C182" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B162" t="s">
+    <row r="183" spans="2:6">
+      <c r="B183" t="s">
         <v>388</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C183" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B163" t="s">
+    <row r="184" spans="2:6">
+      <c r="B184" t="s">
         <v>755</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C184" t="s">
         <v>756</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D184" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B164" t="s">
+    <row r="185" spans="2:6">
+      <c r="B185" t="s">
         <v>760</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C185" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B165" t="s">
+    <row r="186" spans="2:6">
+      <c r="B186" t="s">
         <v>757</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C186" t="s">
         <v>758</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D186" t="s">
         <v>857</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E186" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B166" s="3" t="s">
+    <row r="187" spans="2:6">
+      <c r="B187" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C187" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B167" t="s">
+    <row r="188" spans="2:6">
+      <c r="B188" t="s">
         <v>2</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C188" t="s">
         <v>135</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D188" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B168" t="s">
+    <row r="189" spans="2:6">
+      <c r="B189" t="s">
         <v>726</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C189" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B169" t="s">
+    <row r="190" spans="2:6">
+      <c r="B190" t="s">
         <v>45</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C190" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B170" t="s">
+    <row r="191" spans="2:6">
+      <c r="B191" t="s">
         <v>7</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C191" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B171" t="s">
+    <row r="192" spans="2:6">
+      <c r="B192" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B172" t="s">
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
         <v>71</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C193" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B173" t="s">
+    <row r="194" spans="2:5">
+      <c r="B194" t="s">
         <v>609</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C194" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B174" t="s">
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
         <v>746</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C195" t="s">
         <v>747</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D195" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B175" t="s">
+    <row r="196" spans="2:5">
+      <c r="B196" t="s">
         <v>749</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C196" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B176" t="s">
+    <row r="197" spans="2:5">
+      <c r="B197" t="s">
         <v>557</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C197" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B177" t="s">
+    <row r="198" spans="2:5">
+      <c r="B198" t="s">
         <v>360</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C198" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B178" t="s">
+    <row r="199" spans="2:5">
+      <c r="B199" t="s">
         <v>104</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C199" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B179" t="s">
+    <row r="200" spans="2:5">
+      <c r="B200" t="s">
         <v>57</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C200" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B180" t="s">
+    <row r="201" spans="2:5">
+      <c r="B201" t="s">
         <v>552</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C201" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B181" t="s">
+    <row r="202" spans="2:5">
+      <c r="B202" t="s">
         <v>554</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C202" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B182" t="s">
+    <row r="203" spans="2:5">
+      <c r="B203" t="s">
         <v>556</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C203" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B183" t="s">
+    <row r="204" spans="2:5">
+      <c r="B204" t="s">
         <v>212</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C204" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B184" t="s">
+    <row r="205" spans="2:5">
+      <c r="B205" t="s">
         <v>241</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C205" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B185" t="s">
+    <row r="206" spans="2:5">
+      <c r="B206" t="s">
         <v>92</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C206" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B186" t="s">
+    <row r="207" spans="2:5">
+      <c r="B207" t="s">
         <v>277</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C207" t="s">
         <v>93</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D207" t="s">
         <v>278</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E207" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B187" t="s">
+    <row r="208" spans="2:5">
+      <c r="B208" t="s">
         <v>623</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C208" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B188" t="s">
+    <row r="209" spans="2:7">
+      <c r="B209" t="s">
         <v>59</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C209" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B189" t="s">
+    <row r="210" spans="2:7">
+      <c r="B210" t="s">
         <v>499</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C210" t="s">
         <v>500</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D210" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B190" t="s">
+    <row r="211" spans="2:7">
+      <c r="B211" t="s">
         <v>203</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C211" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B191" t="s">
+    <row r="212" spans="2:7">
+      <c r="B212" t="s">
         <v>682</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C212" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B192" t="s">
+    <row r="213" spans="2:7">
+      <c r="B213" t="s">
         <v>684</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C213" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B193" t="s">
+    <row r="214" spans="2:7">
+      <c r="B214" t="s">
         <v>680</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C214" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B194" t="s">
+    <row r="215" spans="2:7">
+      <c r="B215" t="s">
         <v>686</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C215" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B195" t="s">
+    <row r="216" spans="2:7">
+      <c r="B216" t="s">
         <v>128</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C216" t="s">
         <v>449</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D216" t="s">
         <v>450</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E216" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B196" t="s">
+      <c r="F216" t="s">
+        <v>516</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" t="s">
         <v>80</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C217" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B197" t="s">
+    <row r="218" spans="2:7">
+      <c r="B218" t="s">
         <v>149</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C218" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B198" t="s">
+    <row r="219" spans="2:7">
+      <c r="B219" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B199" t="s">
+    <row r="220" spans="2:7">
+      <c r="B220" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B200" t="s">
+    <row r="221" spans="2:7">
+      <c r="B221" t="s">
         <v>275</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C221" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B201" t="s">
+    <row r="222" spans="2:7">
+      <c r="B222" t="s">
         <v>224</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C222" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B202" t="s">
+    <row r="223" spans="2:7">
+      <c r="B223" t="s">
         <v>342</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C223" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B203" t="s">
+    <row r="224" spans="2:7">
+      <c r="B224" t="s">
         <v>698</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C224" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B204" t="s">
+    <row r="225" spans="2:5">
+      <c r="B225" t="s">
         <v>205</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C225" t="s">
         <v>300</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D225" t="s">
         <v>467</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E225" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B205" t="s">
+    <row r="226" spans="2:5">
+      <c r="B226" t="s">
         <v>419</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C226" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B206" t="s">
+    <row r="227" spans="2:5">
+      <c r="B227" t="s">
         <v>766</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C227" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B207" t="s">
+    <row r="228" spans="2:5">
+      <c r="B228" t="s">
         <v>231</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C228" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B208" t="s">
+    <row r="229" spans="2:5">
+      <c r="B229" t="s">
         <v>751</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C229" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B209" t="s">
+    <row r="230" spans="2:5">
+      <c r="B230" t="s">
         <v>753</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C230" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B210" t="s">
+    <row r="231" spans="2:5">
+      <c r="B231" t="s">
         <v>389</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C231" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B211" t="s">
+    <row r="232" spans="2:5">
+      <c r="B232" t="s">
         <v>869</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C232" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B212" t="s">
+    <row r="233" spans="2:5">
+      <c r="B233" t="s">
         <v>871</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C233" t="s">
         <v>441</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D233" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B213" t="s">
+    <row r="234" spans="2:5">
+      <c r="B234" t="s">
         <v>220</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C234" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B214" t="s">
+    <row r="235" spans="2:5">
+      <c r="B235" t="s">
         <v>671</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C235" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B215" t="s">
+    <row r="236" spans="2:5">
+      <c r="B236" t="s">
         <v>723</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C236" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B216" t="s">
+    <row r="237" spans="2:5">
+      <c r="B237" t="s">
         <v>139</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C237" t="s">
         <v>140</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D237" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B217" t="s">
+    <row r="238" spans="2:5">
+      <c r="B238" t="s">
         <v>248</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C238" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B218" t="s">
+    <row r="239" spans="2:5">
+      <c r="B239" t="s">
         <v>106</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C239" t="s">
         <v>107</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D239" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B219" t="s">
+    <row r="240" spans="2:5">
+      <c r="B240" t="s">
         <v>762</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C240" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B220" t="s">
+    <row r="241" spans="2:4">
+      <c r="B241" t="s">
         <v>372</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C241" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B221" t="s">
+    <row r="242" spans="2:4">
+      <c r="B242" t="s">
         <v>369</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C242" t="s">
         <v>370</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D242" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B222" t="s">
+    <row r="243" spans="2:4">
+      <c r="B243" t="s">
         <v>67</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C243" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B223" t="s">
+    <row r="244" spans="2:4">
+      <c r="B244" t="s">
         <v>452</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C244" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B224" t="s">
+    <row r="245" spans="2:4">
+      <c r="B245" t="s">
         <v>207</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C245" t="s">
         <v>247</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D245" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B225" t="s">
+    <row r="246" spans="2:4">
+      <c r="B246" t="s">
         <v>381</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C246" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B226" t="s">
+    <row r="247" spans="2:4">
+      <c r="B247" t="s">
         <v>258</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C247" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B227" t="s">
+    <row r="248" spans="2:4">
+      <c r="B248" t="s">
         <v>355</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C248" t="s">
         <v>356</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D248" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B228" t="s">
+    <row r="249" spans="2:4">
+      <c r="B249" t="s">
         <v>673</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C249" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B229" t="s">
+    <row r="250" spans="2:4">
+      <c r="B250" t="s">
         <v>404</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C250" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B230" t="s">
+    <row r="251" spans="2:4">
+      <c r="B251" t="s">
         <v>652</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C251" t="s">
         <v>653</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D251" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B231" t="s">
+    <row r="252" spans="2:4">
+      <c r="B252" t="s">
         <v>648</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C252" t="s">
         <v>649</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D252" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B232" t="s">
+    <row r="253" spans="2:4">
+      <c r="B253" t="s">
         <v>651</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C253" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B233" t="s">
+    <row r="254" spans="2:4">
+      <c r="B254" t="s">
         <v>657</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C254" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B234" t="s">
+    <row r="255" spans="2:4">
+      <c r="B255" t="s">
         <v>889</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C255" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B235" t="s">
+    <row r="256" spans="2:4">
+      <c r="B256" t="s">
         <v>887</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C256" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B236" t="s">
+    <row r="257" spans="2:7">
+      <c r="B257" t="s">
         <v>196</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C257" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B237" t="s">
+    <row r="258" spans="2:7">
+      <c r="B258" t="s">
         <v>655</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C258" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B238" t="s">
+    <row r="259" spans="2:7">
+      <c r="B259" t="s">
         <v>426</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C259" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B239" t="s">
+    <row r="260" spans="2:7">
+      <c r="B260" t="s">
         <v>222</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C260" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B240" t="s">
+      <c r="D260" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E260" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7">
+      <c r="B261" t="s">
         <v>233</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C261" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B241" t="s">
+    <row r="262" spans="2:7">
+      <c r="B262" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B242" t="s">
+    <row r="263" spans="2:7">
+      <c r="B263" t="s">
         <v>206</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C263" t="s">
         <v>599</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D263" t="s">
         <v>600</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E263" t="s">
         <v>603</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F263" t="s">
         <v>604</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G263" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B243" t="s">
+    <row r="264" spans="2:7">
+      <c r="B264" t="s">
         <v>607</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C264" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B244" t="s">
+    <row r="265" spans="2:7">
+      <c r="B265" t="s">
         <v>601</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C265" t="s">
         <v>581</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D265" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C245" t="s">
+    <row r="266" spans="2:7">
+      <c r="C266" t="s">
         <v>158</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D266" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B246" t="s">
+    <row r="267" spans="2:7">
+      <c r="B267" t="s">
         <v>892</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C267" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B247" t="s">
+    <row r="268" spans="2:7">
+      <c r="B268" t="s">
         <v>776</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C268" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B248" t="s">
+    <row r="269" spans="2:7">
+      <c r="B269" t="s">
         <v>14</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C269" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B249" t="s">
+    <row r="270" spans="2:7">
+      <c r="B270" t="s">
         <v>454</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C270" t="s">
         <v>455</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D270" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B250" t="s">
+    <row r="271" spans="2:7">
+      <c r="B271" t="s">
         <v>421</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C271" t="s">
         <v>422</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D271" t="s">
         <v>423</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E271" t="s">
         <v>424</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F271" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B251" t="s">
+    <row r="272" spans="2:7">
+      <c r="B272" t="s">
         <v>895</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C272" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B252" t="s">
+    <row r="273" spans="2:8">
+      <c r="B273" t="s">
         <v>893</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C273" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B253" t="s">
+    <row r="274" spans="2:8">
+      <c r="B274" t="s">
         <v>410</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C274" t="s">
         <v>411</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D274" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B254" t="s">
+    <row r="275" spans="2:8">
+      <c r="B275" t="s">
         <v>183</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C275" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B255" t="s">
+    <row r="276" spans="2:8">
+      <c r="B276" t="s">
         <v>417</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C276" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B256" t="s">
+    <row r="277" spans="2:8">
+      <c r="B277" t="s">
         <v>413</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C277" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B257" t="s">
+    <row r="278" spans="2:8">
+      <c r="B278" t="s">
         <v>415</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C278" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B258" t="s">
+    <row r="279" spans="2:8">
+      <c r="B279" t="s">
         <v>367</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C279" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B259" t="s">
+    <row r="280" spans="2:8">
+      <c r="B280" t="s">
         <v>896</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C280" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B260" t="s">
+    <row r="281" spans="2:8">
+      <c r="B281" t="s">
         <v>590</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C281" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B261" t="s">
+    <row r="282" spans="2:8">
+      <c r="B282" t="s">
         <v>304</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C282" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B262" t="s">
+    <row r="283" spans="2:8">
+      <c r="B283" t="s">
         <v>288</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C283" t="s">
         <v>289</v>
       </c>
-      <c r="H262">
+      <c r="H283">
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B263" t="s">
+    <row r="284" spans="2:8">
+      <c r="B284" t="s">
         <v>168</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C284" t="s">
         <v>294</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D284" t="s">
         <v>295</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E284" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B264" t="s">
+    <row r="285" spans="2:8">
+      <c r="B285" t="s">
         <v>899</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C285" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B265" t="s">
+    <row r="286" spans="2:8">
+      <c r="B286" t="s">
         <v>465</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C286" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B266" t="s">
+    <row r="287" spans="2:8">
+      <c r="B287" t="s">
         <v>616</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C287" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B267" t="s">
+    <row r="288" spans="2:8">
+      <c r="B288" t="s">
         <v>613</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C288" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B268" t="s">
+    <row r="289" spans="2:4">
+      <c r="B289" t="s">
         <v>597</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C289" t="s">
         <v>95</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D289" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B269" t="s">
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
         <v>16</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C290" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B270" t="s">
+    <row r="291" spans="2:4">
+      <c r="B291" t="s">
         <v>400</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C291" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B271" t="s">
+    <row r="292" spans="2:4">
+      <c r="B292" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B272" t="s">
+    <row r="293" spans="2:4">
+      <c r="B293" t="s">
         <v>690</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C293" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B273" t="s">
+    <row r="294" spans="2:4">
+      <c r="B294" t="s">
         <v>677</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C294" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B274" t="s">
+    <row r="295" spans="2:4">
+      <c r="B295" t="s">
         <v>214</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C295" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B275" t="s">
+    <row r="296" spans="2:4">
+      <c r="B296" t="s">
         <v>679</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C296" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B276" t="s">
+    <row r="297" spans="2:4">
+      <c r="B297" t="s">
         <v>49</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C297" t="s">
         <v>50</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D297" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B277" t="s">
+    <row r="298" spans="2:4">
+      <c r="B298" t="s">
         <v>773</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C298" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B278" t="s">
+    <row r="299" spans="2:4">
+      <c r="B299" t="s">
         <v>47</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C299" t="s">
         <v>48</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D299" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B279" t="s">
+    <row r="300" spans="2:4">
+      <c r="B300" t="s">
         <v>337</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C300" t="s">
         <v>338</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D300" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B280" t="s">
+    <row r="301" spans="2:4">
+      <c r="B301" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B281" t="s">
+    <row r="302" spans="2:4">
+      <c r="B302" t="s">
         <v>169</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C302" t="s">
         <v>174</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D302" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B282" t="s">
+    <row r="303" spans="2:4">
+      <c r="B303" t="s">
         <v>218</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C303" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B283" t="s">
+    <row r="304" spans="2:4">
+      <c r="B304" t="s">
         <v>243</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C304" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B284" t="s">
+    <row r="305" spans="2:6">
+      <c r="B305" t="s">
         <v>532</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C305" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B285" t="s">
+    <row r="306" spans="2:6">
+      <c r="B306" t="s">
         <v>94</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C306" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B286" t="s">
+    <row r="307" spans="2:6">
+      <c r="B307" t="s">
         <v>509</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C307" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B287" t="s">
+    <row r="308" spans="2:6">
+      <c r="B308" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B288" t="s">
+    <row r="309" spans="2:6">
+      <c r="B309" t="s">
         <v>173</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C309" t="s">
         <v>505</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D309" t="s">
         <v>506</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E309" t="s">
         <v>507</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F309" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B289" t="s">
+    <row r="310" spans="2:6">
+      <c r="B310" t="s">
         <v>528</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C310" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B290" t="s">
+    <row r="311" spans="2:6">
+      <c r="B311" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6">
+      <c r="B312" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B291" t="s">
-        <v>22</v>
-      </c>
-      <c r="C291" t="s">
+      <c r="C312" t="s">
         <v>515</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D312" t="s">
         <v>517</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E312" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B292" t="s">
+    <row r="313" spans="2:6">
+      <c r="B313" t="s">
         <v>55</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C313" t="s">
         <v>56</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D313" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B293" t="s">
+    <row r="314" spans="2:6">
+      <c r="B314" t="s">
         <v>227</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C314" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B295" t="s">
+    <row r="316" spans="2:6">
+      <c r="B316" t="s">
         <v>694</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C316" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B296" t="s">
+    <row r="317" spans="2:6">
+      <c r="B317" t="s">
         <v>696</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C317" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B297" t="s">
+    <row r="318" spans="2:6">
+      <c r="B318" t="s">
         <v>548</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C318" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B298" t="s">
+    <row r="319" spans="2:6">
+      <c r="B319" t="s">
         <v>88</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C319" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B299" t="s">
+    <row r="320" spans="2:6">
+      <c r="B320" t="s">
+        <v>992</v>
+      </c>
+      <c r="C320" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5">
+      <c r="B321" t="s">
         <v>113</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C321" t="s">
         <v>114</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D321" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B301" t="s">
+    <row r="322" spans="2:5">
+      <c r="B322" t="s">
+        <v>989</v>
+      </c>
+      <c r="C322" t="s">
+        <v>718</v>
+      </c>
+      <c r="D322" t="s">
+        <v>990</v>
+      </c>
+      <c r="E322" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5">
+      <c r="B323" t="s">
         <v>721</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C323" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B302" t="s">
+    <row r="324" spans="2:5">
+      <c r="B324" t="s">
         <v>132</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C324" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B303" t="s">
+    <row r="325" spans="2:5">
+      <c r="B325" t="s">
         <v>707</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C325" t="s">
         <v>708</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D325" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B304" t="s">
+    <row r="326" spans="2:5">
+      <c r="B326" t="s">
         <v>273</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C326" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B305" t="s">
+    <row r="327" spans="2:5">
+      <c r="B327" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B306" t="s">
+    <row r="328" spans="2:5">
+      <c r="B328" t="s">
         <v>79</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C328" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B307" t="s">
+    <row r="329" spans="2:5">
+      <c r="B329" t="s">
         <v>780</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C329" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B308" t="s">
+    <row r="330" spans="2:5">
+      <c r="B330" t="s">
         <v>199</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C330" t="s">
         <v>200</v>
-      </c>
-      <c r="D308" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B309" t="s">
-        <v>611</v>
-      </c>
-      <c r="C309" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B310" t="s">
-        <v>502</v>
-      </c>
-      <c r="C310" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B311" t="s">
-        <v>542</v>
-      </c>
-      <c r="C311" t="s">
-        <v>543</v>
-      </c>
-      <c r="D311" t="s">
-        <v>544</v>
-      </c>
-      <c r="E311" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B312" t="s">
-        <v>724</v>
-      </c>
-      <c r="C312" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B313" t="s">
-        <v>73</v>
-      </c>
-      <c r="C313" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B314" t="s">
-        <v>73</v>
-      </c>
-      <c r="C314" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B315" t="s">
-        <v>901</v>
-      </c>
-      <c r="C315" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B316" t="s">
-        <v>715</v>
-      </c>
-      <c r="C316" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B317" t="s">
-        <v>191</v>
-      </c>
-      <c r="C317" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B318" t="s">
-        <v>30</v>
-      </c>
-      <c r="C318" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B319" t="s">
-        <v>336</v>
-      </c>
-      <c r="C319" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B320" t="s">
-        <v>488</v>
-      </c>
-      <c r="C320" t="s">
-        <v>489</v>
-      </c>
-      <c r="D320" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B321" t="s">
-        <v>0</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B322" t="s">
-        <v>486</v>
-      </c>
-      <c r="C322" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B323" t="s">
-        <v>195</v>
-      </c>
-      <c r="C323" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B324" t="s">
-        <v>126</v>
-      </c>
-      <c r="C324" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B325" t="s">
-        <v>163</v>
-      </c>
-      <c r="C325" t="s">
-        <v>317</v>
-      </c>
-      <c r="D325" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B326" t="s">
-        <v>669</v>
-      </c>
-      <c r="C326" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B327" t="s">
-        <v>665</v>
-      </c>
-      <c r="C327" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B328" t="s">
-        <v>667</v>
-      </c>
-      <c r="C328" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B329" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B330" t="s">
-        <v>765</v>
-      </c>
-      <c r="C330" t="s">
-        <v>356</v>
       </c>
       <c r="D330" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:5">
       <c r="B331" t="s">
+        <v>611</v>
+      </c>
+      <c r="C331" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5">
+      <c r="B332" t="s">
+        <v>502</v>
+      </c>
+      <c r="C332" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5">
+      <c r="B333" t="s">
+        <v>542</v>
+      </c>
+      <c r="C333" t="s">
+        <v>543</v>
+      </c>
+      <c r="D333" t="s">
+        <v>544</v>
+      </c>
+      <c r="E333" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5">
+      <c r="B334" t="s">
+        <v>724</v>
+      </c>
+      <c r="C334" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5">
+      <c r="B335" t="s">
+        <v>73</v>
+      </c>
+      <c r="C335" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5">
+      <c r="B336" t="s">
+        <v>73</v>
+      </c>
+      <c r="C336" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4">
+      <c r="B337" t="s">
+        <v>901</v>
+      </c>
+      <c r="C337" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4">
+      <c r="B338" t="s">
+        <v>715</v>
+      </c>
+      <c r="C338" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4">
+      <c r="B339" t="s">
+        <v>191</v>
+      </c>
+      <c r="C339" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4">
+      <c r="B340" t="s">
+        <v>30</v>
+      </c>
+      <c r="C340" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="B341" t="s">
+        <v>336</v>
+      </c>
+      <c r="C341" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4">
+      <c r="B342" t="s">
+        <v>488</v>
+      </c>
+      <c r="C342" t="s">
+        <v>489</v>
+      </c>
+      <c r="D342" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="B344" t="s">
+        <v>486</v>
+      </c>
+      <c r="C344" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4">
+      <c r="B345" t="s">
+        <v>195</v>
+      </c>
+      <c r="C345" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4">
+      <c r="B346" t="s">
+        <v>126</v>
+      </c>
+      <c r="C346" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4">
+      <c r="B347" t="s">
+        <v>163</v>
+      </c>
+      <c r="C347" t="s">
+        <v>317</v>
+      </c>
+      <c r="D347" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4">
+      <c r="B348" t="s">
+        <v>669</v>
+      </c>
+      <c r="C348" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4">
+      <c r="B349" t="s">
+        <v>665</v>
+      </c>
+      <c r="C349" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4">
+      <c r="B350" t="s">
+        <v>667</v>
+      </c>
+      <c r="C350" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4">
+      <c r="B351" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4">
+      <c r="B352" t="s">
+        <v>765</v>
+      </c>
+      <c r="C352" t="s">
+        <v>356</v>
+      </c>
+      <c r="D352" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6">
+      <c r="B353" t="s">
         <v>26</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C353" t="s">
         <v>75</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D353" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B332" t="s">
+    <row r="354" spans="2:6">
+      <c r="B354" t="s">
         <v>631</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C354" t="s">
         <v>632</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D354" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B333" t="s">
+    <row r="355" spans="2:6">
+      <c r="B355" t="s">
         <v>134</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C355" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B334" t="s">
+    <row r="356" spans="2:6">
+      <c r="B356" t="s">
         <v>134</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C356" t="s">
         <v>135</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D356" t="s">
         <v>634</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E356" t="s">
         <v>81</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F356" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B335" t="s">
+    <row r="357" spans="2:6">
+      <c r="B357" t="s">
         <v>84</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C357" t="s">
         <v>100</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D357" t="s">
         <v>101</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E357" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B336" t="s">
+    <row r="358" spans="2:6">
+      <c r="B358" t="s">
         <v>526</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C358" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B337" t="s">
+    <row r="359" spans="2:6">
+      <c r="B359" t="s">
         <v>530</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C359" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B338" t="s">
+    <row r="360" spans="2:6">
+      <c r="B360" t="s">
         <v>522</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C360" t="s">
         <v>523</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D360" t="s">
         <v>524</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E360" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B339" t="s">
+    <row r="361" spans="2:6">
+      <c r="B361" t="s">
         <v>435</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C361" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B340" t="s">
+    <row r="362" spans="2:6">
+      <c r="B362" t="s">
         <v>435</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C362" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B341" t="s">
+    <row r="363" spans="2:6">
+      <c r="B363" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B342" t="s">
+    <row r="364" spans="2:6">
+      <c r="B364" t="s">
         <v>688</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C364" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B343" t="s">
+    <row r="365" spans="2:6">
+      <c r="B365" t="s">
         <v>118</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C365" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B345" t="s">
+    <row r="367" spans="2:6">
+      <c r="B367" t="s">
         <v>315</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C367" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B346" t="s">
+    <row r="368" spans="2:6">
+      <c r="B368" t="s">
         <v>433</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C368" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B347" t="s">
+    <row r="369" spans="2:4">
+      <c r="B369" t="s">
         <v>328</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C369" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B348" t="s">
+    <row r="370" spans="2:4">
+      <c r="B370" t="s">
         <v>260</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C370" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B349" t="s">
+    <row r="371" spans="2:4">
+      <c r="B371" t="s">
         <v>321</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C371" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B350" t="s">
+    <row r="372" spans="2:4">
+      <c r="B372" t="s">
         <v>130</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C372" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B351" t="s">
+    <row r="373" spans="2:4">
+      <c r="B373" t="s">
         <v>906</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C373" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B352" t="s">
+    <row r="374" spans="2:4">
+      <c r="B374" t="s">
         <v>442</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C374" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B353" t="s">
+    <row r="375" spans="2:4">
+      <c r="B375" t="s">
         <v>235</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C375" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B354" t="s">
+    <row r="376" spans="2:4">
+      <c r="B376" t="s">
         <v>237</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C376" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B355" t="s">
+    <row r="377" spans="2:4">
+      <c r="B377" t="s">
         <v>362</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C377" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B356" s="1" t="s">
+    <row r="378" spans="2:4">
+      <c r="B378" t="s">
+        <v>313</v>
+      </c>
+      <c r="C378" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4">
+      <c r="B379" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C379" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B357" t="s">
+    <row r="380" spans="2:4">
+      <c r="B380" t="s">
         <v>284</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C380" t="s">
         <v>285</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D380" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B358" t="s">
+    <row r="381" spans="2:4">
+      <c r="B381" t="s">
         <v>280</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C381" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B359" t="s">
+    <row r="382" spans="2:4">
+      <c r="B382" t="s">
         <v>280</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C382" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B360" t="s">
+    <row r="383" spans="2:4">
+      <c r="B383" t="s">
         <v>568</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C383" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B361" t="s">
+    <row r="384" spans="2:4">
+      <c r="B384" t="s">
         <v>594</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C384" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B362" t="s">
+    <row r="385" spans="2:4">
+      <c r="B385" t="s">
         <v>18</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C385" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B363" t="s">
+    <row r="386" spans="2:4">
+      <c r="B386" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4">
+      <c r="B387" t="s">
         <v>365</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C387" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B364" t="s">
+      <c r="D387" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4">
+      <c r="B388" t="s">
         <v>908</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C388" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B365" t="s">
+    <row r="389" spans="2:4">
+      <c r="B389" t="s">
         <v>32</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C389" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B366" t="s">
+    <row r="390" spans="2:4">
+      <c r="B390" t="s">
         <v>397</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C390" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C367" t="s">
+    <row r="391" spans="2:4">
+      <c r="C391" t="s">
         <v>301</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D391" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B368" t="s">
+    <row r="392" spans="2:4">
+      <c r="B392" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4">
+      <c r="B393" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C393" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4">
+      <c r="B394" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C394" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4">
+      <c r="B395" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C395" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4">
+      <c r="B396" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4">
+      <c r="B397" t="s">
         <v>176</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C397" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B369" t="s">
+    <row r="398" spans="2:4">
+      <c r="B398" t="s">
         <v>89</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C398" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B370" t="s">
+    <row r="399" spans="2:4">
+      <c r="B399" t="s">
         <v>262</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C399" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B371" t="s">
+    <row r="400" spans="2:4">
+      <c r="B400" t="s">
         <v>484</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C400" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B372" t="s">
+    <row r="401" spans="2:4">
+      <c r="B401" t="s">
         <v>912</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C401" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B373" t="s">
+    <row r="402" spans="2:4">
+      <c r="B402" t="s">
         <v>123</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C402" t="s">
         <v>253</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D402" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B374" t="s">
+    <row r="403" spans="2:4">
+      <c r="B403" t="s">
         <v>330</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C403" t="s">
         <v>331</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D403" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B375" t="s">
+    <row r="404" spans="2:4">
+      <c r="B404" t="s">
         <v>764</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C404" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B376" t="s">
+    <row r="405" spans="2:4">
+      <c r="B405" t="s">
         <v>570</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C405" t="s">
         <v>571</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D405" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B377" t="s">
+    <row r="406" spans="2:4">
+      <c r="B406" t="s">
         <v>267</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C406" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B378" t="s">
+    <row r="407" spans="2:4">
+      <c r="B407" t="s">
         <v>395</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C407" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B379" t="s">
+    <row r="408" spans="2:4">
+      <c r="B408" t="s">
         <v>914</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C408" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B380" t="s">
+    <row r="409" spans="2:4">
+      <c r="B409" t="s">
         <v>916</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C409" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B381" t="s">
+    <row r="410" spans="2:4">
+      <c r="B410" t="s">
         <v>263</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C410" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B382" t="s">
+    <row r="411" spans="2:4">
+      <c r="B411" t="s">
         <v>147</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C411" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B383" t="s">
+    <row r="412" spans="2:4">
+      <c r="B412" t="s">
         <v>312</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C412" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B384" t="s">
+    <row r="413" spans="2:4">
+      <c r="B413" t="s">
         <v>319</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C413" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B385" t="s">
+    <row r="414" spans="2:4">
+      <c r="B414" t="s">
         <v>319</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C414" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B386" t="s">
+    <row r="415" spans="2:4">
+      <c r="B415" t="s">
         <v>382</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C415" t="s">
         <v>384</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D415" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B387" t="s">
+    <row r="416" spans="2:4">
+      <c r="B416" t="s">
         <v>136</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C416" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B388" t="s">
+    <row r="417" spans="2:5">
+      <c r="B417" t="s">
         <v>513</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C417" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B389" t="s">
+    <row r="418" spans="2:5">
+      <c r="B418" t="s">
         <v>38</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C418" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B390" t="s">
+    <row r="419" spans="2:5">
+      <c r="B419" t="s">
         <v>345</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C419" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B391" t="s">
+    <row r="420" spans="2:5">
+      <c r="B420" t="s">
         <v>346</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C420" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B392" t="s">
+    <row r="421" spans="2:5">
+      <c r="B421" t="s">
         <v>313</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C421" t="s">
         <v>348</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D421" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B393" t="s">
+    <row r="422" spans="2:5">
+      <c r="B422" t="s">
         <v>36</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C422" t="s">
         <v>37</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D422" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B394" t="s">
+    <row r="423" spans="2:5">
+      <c r="B423" t="s">
         <v>438</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C423" t="s">
         <v>439</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D423" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B395" t="s">
+    <row r="424" spans="2:5">
+      <c r="B424" t="s">
         <v>256</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C424" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B396" t="s">
+    <row r="425" spans="2:5">
+      <c r="B425" t="s">
         <v>660</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C425" t="s">
         <v>661</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D425" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B397" t="s">
+    <row r="426" spans="2:5">
+      <c r="B426" t="s">
         <v>719</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C426" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B398" t="s">
+    <row r="427" spans="2:5">
+      <c r="B427" t="s">
         <v>124</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C427" t="s">
         <v>352</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D427" t="s">
         <v>353</v>
       </c>
-      <c r="E398" t="s">
+      <c r="E427" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B399" t="s">
+    <row r="428" spans="2:5">
+      <c r="B428" t="s">
         <v>323</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C428" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B400" t="s">
+    <row r="429" spans="2:5">
+      <c r="B429" t="s">
         <v>533</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C429" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B401" t="s">
+    <row r="430" spans="2:5">
+      <c r="B430" t="s">
         <v>535</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C430" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B402" t="s">
+    <row r="431" spans="2:5">
+      <c r="B431" t="s">
         <v>23</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C431" t="s">
         <v>11</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D431" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B403" t="s">
+    <row r="432" spans="2:5">
+      <c r="B432" t="s">
         <v>170</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C432" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B404" t="s">
+    <row r="433" spans="2:6">
+      <c r="B433" t="s">
         <v>701</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C433" t="s">
         <v>622</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D433" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B405" t="s">
+    <row r="434" spans="2:6">
+      <c r="B434" t="s">
         <v>239</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C434" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B406" t="s">
+    <row r="435" spans="2:6">
+      <c r="B435" t="s">
         <v>699</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C435" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B407" t="s">
+    <row r="436" spans="2:6">
+      <c r="B436" t="s">
         <v>703</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C436" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B408" t="s">
+    <row r="437" spans="2:6">
+      <c r="B437" t="s">
         <v>21</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C437" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B409" t="s">
+    <row r="438" spans="2:6">
+      <c r="B438" t="s">
         <v>364</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C438" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B410" t="s">
+    <row r="439" spans="2:6">
+      <c r="B439" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="440" spans="2:6">
+      <c r="B440" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C440" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="441" spans="2:6">
+      <c r="B441" t="s">
         <v>470</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C441" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B411" t="s">
+    <row r="442" spans="2:6">
+      <c r="B442" t="s">
         <v>471</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C442" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B412" t="s">
+      <c r="D442" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="443" spans="2:6">
+      <c r="B443" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="444" spans="2:6">
+      <c r="B444" t="s">
         <v>143</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C444" t="s">
         <v>144</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D444" t="s">
         <v>157</v>
       </c>
-      <c r="E412" t="s">
+      <c r="E444" t="s">
         <v>401</v>
       </c>
-      <c r="F412" t="s">
+      <c r="F444" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B413" t="s">
+    <row r="445" spans="2:6">
+      <c r="B445" t="s">
         <v>782</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C445" t="s">
         <v>783</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D445" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B414" t="s">
+    <row r="446" spans="2:6">
+      <c r="B446" t="s">
         <v>785</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C446" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B415" t="s">
+    <row r="447" spans="2:6">
+      <c r="B447" t="s">
         <v>787</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C447" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B416" t="s">
+    <row r="448" spans="2:6">
+      <c r="B448" t="s">
         <v>790</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C448" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B417" t="s">
+    <row r="449" spans="2:3">
+      <c r="B449" t="s">
         <v>791</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C449" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B418" t="s">
+    <row r="450" spans="2:3">
+      <c r="B450" t="s">
         <v>795</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C450" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B419" t="s">
+    <row r="451" spans="2:3">
+      <c r="B451" t="s">
         <v>797</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C451" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B420" t="s">
+    <row r="452" spans="2:3">
+      <c r="B452" t="s">
         <v>799</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C452" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B421" t="s">
+    <row r="453" spans="2:3">
+      <c r="B453" t="s">
         <v>801</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C453" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B422" t="s">
+    <row r="454" spans="2:3">
+      <c r="B454" t="s">
         <v>803</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C454" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B423" t="s">
+    <row r="455" spans="2:3">
+      <c r="B455" t="s">
         <v>805</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C455" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B424" t="s">
+    <row r="456" spans="2:3">
+      <c r="B456" t="s">
         <v>806</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C456" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="425" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B425" s="4" t="s">
+    <row r="457" spans="2:3">
+      <c r="B457" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C457" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B426" t="s">
+    <row r="458" spans="2:3">
+      <c r="B458" t="s">
         <v>810</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C458" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="427" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B427" s="4" t="s">
+    <row r="459" spans="2:3">
+      <c r="B459" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C459" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="428" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B428" s="4" t="s">
+    <row r="460" spans="2:3">
+      <c r="B460" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C460" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="429" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B429" s="4" t="s">
+    <row r="461" spans="2:3">
+      <c r="B461" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C461" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="430" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B430" s="4" t="s">
+    <row r="462" spans="2:3">
+      <c r="B462" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C462" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="431" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B431" s="4" t="s">
+    <row r="463" spans="2:3">
+      <c r="B463" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C463" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B432" t="s">
+    <row r="464" spans="2:3">
+      <c r="B464" t="s">
         <v>852</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C464" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B433" t="s">
+    <row r="465" spans="2:5">
+      <c r="B465" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B434" t="s">
+    <row r="466" spans="2:5">
+      <c r="B466" t="s">
         <v>856</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C466" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B435" t="s">
+    <row r="467" spans="2:5">
+      <c r="B467" t="s">
         <v>860</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C467" t="s">
         <v>861</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D467" t="s">
         <v>864</v>
       </c>
-      <c r="E435" t="s">
+      <c r="E467" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B436" t="s">
+    <row r="468" spans="2:5">
+      <c r="B468" t="s">
         <v>862</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C468" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B437" t="s">
+    <row r="469" spans="2:5">
+      <c r="B469" t="s">
         <v>275</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C469" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B438" t="s">
+    <row r="470" spans="2:5">
+      <c r="B470" t="s">
+        <v>998</v>
+      </c>
+      <c r="C470" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5">
+      <c r="B471" t="s">
         <v>867</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C471" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B439" t="s">
+      <c r="D471" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="472" spans="2:5">
+      <c r="B472" t="s">
         <v>138</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C472" t="s">
         <v>406</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D472" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B440" t="s">
+    <row r="473" spans="2:5">
+      <c r="B473" t="s">
         <v>873</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C473" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B441" t="s">
+    <row r="474" spans="2:5">
+      <c r="B474" t="s">
         <v>874</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C474" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B442" t="s">
+    <row r="475" spans="2:5">
+      <c r="B475" t="s">
         <v>876</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C475" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B443" t="s">
+    <row r="476" spans="2:5">
+      <c r="B476" t="s">
         <v>878</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C476" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B444" t="s">
+    <row r="477" spans="2:5">
+      <c r="B477" t="s">
         <v>452</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C477" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B445" t="s">
+    <row r="478" spans="2:5">
+      <c r="B478" t="s">
         <v>881</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C478" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B446" t="s">
+    <row r="479" spans="2:5">
+      <c r="B479" t="s">
+        <v>996</v>
+      </c>
+      <c r="C479" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="480" spans="2:5">
+      <c r="B480" t="s">
         <v>883</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C480" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B447" t="s">
+    <row r="481" spans="2:3">
+      <c r="B481" t="s">
         <v>885</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C481" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B448" t="s">
+    <row r="482" spans="2:3">
+      <c r="B482" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B449" t="s">
+    <row r="483" spans="2:3">
+      <c r="B483" t="s">
         <v>904</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C483" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B451" t="s">
+    <row r="485" spans="2:3">
+      <c r="B485" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C485" t="s">
         <v>920</v>
       </c>
-      <c r="C451" t="s">
+    </row>
+    <row r="486" spans="2:3">
+      <c r="B486" t="s">
+        <v>323</v>
+      </c>
+      <c r="C486" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3">
+      <c r="B487" t="s">
+        <v>910</v>
+      </c>
+      <c r="C487" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3">
+      <c r="B488" t="s">
+        <v>918</v>
+      </c>
+      <c r="C488" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3">
+      <c r="B489" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B452" t="s">
-        <v>323</v>
-      </c>
-      <c r="C452" t="s">
+      <c r="C489" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3">
+      <c r="B490" t="s">
+        <v>923</v>
+      </c>
+      <c r="C490" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3">
+      <c r="B491" t="s">
+        <v>925</v>
+      </c>
+      <c r="C491" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3">
+      <c r="B492" t="s">
+        <v>927</v>
+      </c>
+      <c r="C492" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3">
+      <c r="B493" t="s">
+        <v>929</v>
+      </c>
+      <c r="C493" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3">
+      <c r="B494" t="s">
+        <v>931</v>
+      </c>
+      <c r="C494" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3">
+      <c r="B495" t="s">
+        <v>932</v>
+      </c>
+      <c r="C495" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3">
+      <c r="B496" t="s">
+        <v>934</v>
+      </c>
+      <c r="C496" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3">
+      <c r="B497" t="s">
+        <v>936</v>
+      </c>
+      <c r="C497" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3">
+      <c r="B498" t="s">
+        <v>939</v>
+      </c>
+      <c r="C498" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3">
+      <c r="B499" t="s">
+        <v>941</v>
+      </c>
+      <c r="C499" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3">
+      <c r="B500" t="s">
+        <v>943</v>
+      </c>
+      <c r="C500" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3">
+      <c r="B501" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3">
+      <c r="B502" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3">
+      <c r="B503" t="s">
+        <v>947</v>
+      </c>
+      <c r="C503" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3">
+      <c r="B504" t="s">
+        <v>948</v>
+      </c>
+      <c r="C504" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3">
+      <c r="B505" t="s">
+        <v>949</v>
+      </c>
+      <c r="C505" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3">
+      <c r="B506" t="s">
+        <v>951</v>
+      </c>
+      <c r="C506" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3">
+      <c r="B507" t="s">
+        <v>953</v>
+      </c>
+      <c r="C507" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3">
+      <c r="B508" t="s">
+        <v>955</v>
+      </c>
+      <c r="C508" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3">
+      <c r="B509" t="s">
+        <v>14</v>
+      </c>
+      <c r="C509" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3">
+      <c r="B510" t="s">
+        <v>958</v>
+      </c>
+      <c r="C510" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3">
+      <c r="B511" t="s">
+        <v>959</v>
+      </c>
+      <c r="C511" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3">
+      <c r="B512" t="s">
+        <v>961</v>
+      </c>
+      <c r="C512" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3">
+      <c r="B513" t="s">
+        <v>963</v>
+      </c>
+      <c r="C513" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3">
+      <c r="B514" t="s">
+        <v>965</v>
+      </c>
+      <c r="C514" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3">
+      <c r="B515" t="s">
+        <v>968</v>
+      </c>
+      <c r="C515" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3">
+      <c r="B516" t="s">
+        <v>970</v>
+      </c>
+      <c r="C516" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3">
+      <c r="B517" t="s">
+        <v>972</v>
+      </c>
+      <c r="C517" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3">
+      <c r="B518" t="s">
+        <v>973</v>
+      </c>
+      <c r="C518" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3">
+      <c r="B519" t="s">
+        <v>975</v>
+      </c>
+      <c r="C519" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3">
+      <c r="B520" t="s">
+        <v>977</v>
+      </c>
+      <c r="C520" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3">
+      <c r="B521" t="s">
+        <v>978</v>
+      </c>
+      <c r="C521" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3">
+      <c r="B522" t="s">
+        <v>980</v>
+      </c>
+      <c r="C522" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3">
+      <c r="B523" t="s">
+        <v>982</v>
+      </c>
+      <c r="C523" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3">
+      <c r="B524" t="s">
+        <v>983</v>
+      </c>
+      <c r="C524" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3">
+      <c r="B525" t="s">
+        <v>985</v>
+      </c>
+      <c r="C525" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3">
+      <c r="B526" t="s">
+        <v>987</v>
+      </c>
+      <c r="C526" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3">
+      <c r="B527" t="s">
+        <v>994</v>
+      </c>
+      <c r="C527" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3">
+      <c r="B528" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3">
+      <c r="B529" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3">
+      <c r="B530" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3">
+      <c r="B531" t="s">
+        <v>407</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3">
+      <c r="B532" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C532" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3">
+      <c r="B533" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3">
+      <c r="B534" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3">
+      <c r="B535" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C535" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3">
+      <c r="B536" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3">
+      <c r="B537" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3">
+      <c r="B538" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3">
+      <c r="B539" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3">
+      <c r="B540" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3">
+      <c r="B541" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3">
+      <c r="B542" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3">
+      <c r="B543" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3">
+      <c r="B544" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3">
+      <c r="B545" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3">
+      <c r="B546" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3">
+      <c r="B547" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C547" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3">
+      <c r="B548" t="s">
+        <v>84</v>
+      </c>
+      <c r="C548" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3">
+      <c r="B549" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C549" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3">
+      <c r="B550" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C550" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3">
+      <c r="B551" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3">
+      <c r="B552" t="s">
+        <v>47</v>
+      </c>
+      <c r="C552" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3">
+      <c r="B553" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C553" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B453" t="s">
-        <v>910</v>
-      </c>
-      <c r="C453" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B454" t="s">
-        <v>918</v>
-      </c>
-      <c r="C454" t="s">
-        <v>919</v>
+    <row r="554" spans="2:3">
+      <c r="B554" t="s">
+        <v>284</v>
+      </c>
+      <c r="C554" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3">
+      <c r="B555" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3">
+      <c r="B556" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C556" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3">
+      <c r="B557" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3">
+      <c r="B558" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3">
+      <c r="B559" t="s">
+        <v>271</v>
+      </c>
+      <c r="C559" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3">
+      <c r="B560" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3">
+      <c r="B561" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3">
+      <c r="B562" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3">
+      <c r="B563" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3">
+      <c r="B564" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3">
+      <c r="B565" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3">
+      <c r="B566" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3">
+      <c r="B567" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3">
+      <c r="B568" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3">
+      <c r="B569" t="s">
+        <v>494</v>
+      </c>
+      <c r="C569" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3">
+      <c r="B570" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3">
+      <c r="B571" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3">
+      <c r="B572" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3">
+      <c r="B573" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3">
+      <c r="B574" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3">
+      <c r="B575" t="s">
+        <v>492</v>
+      </c>
+      <c r="C575" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3">
+      <c r="B576" t="s">
+        <v>795</v>
+      </c>
+      <c r="C576" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3">
+      <c r="B577" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="578" spans="2:3">
+      <c r="B578" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="579" spans="2:3">
+      <c r="B579" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C579" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="580" spans="2:3">
+      <c r="B580" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C580" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3">
+      <c r="B581" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="582" spans="2:3">
+      <c r="B582" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="583" spans="2:3">
+      <c r="B583" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="584" spans="2:3">
+      <c r="B584" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C584" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="585" spans="2:3">
+      <c r="B585" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3">
+      <c r="B586" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3">
+      <c r="B587" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3">
+      <c r="B588" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3">
+      <c r="B589" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3">
+      <c r="B590" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C590" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="591" spans="2:3">
+      <c r="B591" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3">
+      <c r="B592" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3">
+      <c r="B593" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3">
+      <c r="B594" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3">
+      <c r="B595" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="596" spans="2:3">
+      <c r="B596" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3">
+      <c r="B597" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3">
+      <c r="B598" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3">
+      <c r="B599" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="600" spans="2:3">
+      <c r="B600" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="601" spans="2:3">
+      <c r="B601" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3">
+      <c r="B602" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="603" spans="2:3">
+      <c r="B603" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3">
+      <c r="B604" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="605" spans="2:3">
+      <c r="B605" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="606" spans="2:3">
+      <c r="B606" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="607" spans="2:3">
+      <c r="B607" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C607" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3">
+      <c r="B608" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="609" spans="2:4">
+      <c r="B609" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C609" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="610" spans="2:4">
+      <c r="B610" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="611" spans="2:4">
+      <c r="B611" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="612" spans="2:4">
+      <c r="B612" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="613" spans="2:4">
+      <c r="B613" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="614" spans="2:4">
+      <c r="B614" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D614" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="615" spans="2:4">
+      <c r="B615" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="616" spans="2:4">
+      <c r="B616" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C616" t="s">
+        <v>244</v>
+      </c>
+      <c r="D616" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="617" spans="2:4">
+      <c r="B617" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="618" spans="2:4">
+      <c r="B618" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="619" spans="2:4">
+      <c r="B619" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="620" spans="2:4">
+      <c r="B620" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="621" spans="2:4">
+      <c r="B621" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="622" spans="2:4">
+      <c r="B622" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="623" spans="2:4">
+      <c r="B623" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="624" spans="2:4">
+      <c r="B624" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="625" spans="2:3">
+      <c r="B625" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="626" spans="2:3">
+      <c r="B626" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="627" spans="2:3">
+      <c r="B627" s="9"/>
+    </row>
+    <row r="628" spans="2:3">
+      <c r="B628" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="629" spans="2:3">
+      <c r="B629" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="630" spans="2:3">
+      <c r="B630" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="631" spans="2:3">
+      <c r="B631" t="s">
+        <v>54</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="632" spans="2:3">
+      <c r="B632" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="633" spans="2:3">
+      <c r="B633" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="634" spans="2:3">
+      <c r="B634" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="635" spans="2:3">
+      <c r="B635" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="636" spans="2:3">
+      <c r="B636" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="637" spans="2:3">
+      <c r="B637" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="638" spans="2:3">
+      <c r="B638" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C638" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="639" spans="2:3">
+      <c r="B639" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="640" spans="2:3">
+      <c r="B640" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="641" spans="2:6">
+      <c r="B641" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="642" spans="2:6">
+      <c r="B642" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="643" spans="2:6">
+      <c r="B643" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="644" spans="2:6">
+      <c r="B644" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="645" spans="2:6">
+      <c r="B645" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C645" t="s">
+        <v>366</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F645" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="646" spans="2:6">
+      <c r="B646" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="647" spans="2:6">
+      <c r="B647" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="648" spans="2:6">
+      <c r="B648" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="649" spans="2:6">
+      <c r="B649" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="650" spans="2:6">
+      <c r="B650" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="651" spans="2:6">
+      <c r="B651" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="652" spans="2:6">
+      <c r="B652" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="653" spans="2:6">
+      <c r="B653" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="654" spans="2:6">
+      <c r="B654" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="655" spans="2:6">
+      <c r="B655" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="656" spans="2:6">
+      <c r="B656" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="657" spans="2:4">
+      <c r="B657" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="658" spans="2:4">
+      <c r="B658" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="659" spans="2:4">
+      <c r="B659" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="660" spans="2:4">
+      <c r="B660" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="661" spans="2:4">
+      <c r="B661" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="662" spans="2:4">
+      <c r="B662" s="10" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C662" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="663" spans="2:4">
+      <c r="B663" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C663" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="664" spans="2:4">
+      <c r="B664" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="665" spans="2:4">
+      <c r="B665" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="666" spans="2:4">
+      <c r="B666" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="667" spans="2:4">
+      <c r="B667" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="668" spans="2:4">
+      <c r="B668" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="669" spans="2:4">
+      <c r="B669" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="670" spans="2:4">
+      <c r="B670" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="671" spans="2:4">
+      <c r="B671" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="672" spans="2:4">
+      <c r="B672" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="673" spans="2:3">
+      <c r="B673" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="674" spans="2:3">
+      <c r="B674" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="675" spans="2:3">
+      <c r="B675" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="676" spans="2:3">
+      <c r="B676" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="677" spans="2:3">
+      <c r="B677" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="678" spans="2:3">
+      <c r="B678" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="679" spans="2:3">
+      <c r="B679" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="680" spans="2:3">
+      <c r="B680" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="681" spans="2:3">
+      <c r="B681" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="682" spans="2:3">
+      <c r="B682" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="683" spans="2:3">
+      <c r="B683" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="684" spans="2:3">
+      <c r="B684" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="685" spans="2:3">
+      <c r="B685" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="686" spans="2:3">
+      <c r="B686" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C686" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="687" spans="2:3">
+      <c r="B687" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1339</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:H415">
-    <sortCondition ref="B14:B415"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K471:K518">
+    <sortCondition ref="K471:K518"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B655" location="Студенты" display="Студенты" xr:uid="{63C3D122-C227-4FB5-8AD4-2B57826D3FC5}"/>
+    <hyperlink ref="B662" location="Анатомия-программы-на-rust" display="Анатомия-программы-на-rust" xr:uid="{869F9762-C34F-4FF3-B9E4-E37A4EF79510}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\обучение\программирование\rust\книги\xchange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rust\rustbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16D7616-A99F-4E7B-8F7E-8C856CD26CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1C742-57CD-4ADA-827A-FD71D333B801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1348">
   <si>
     <t>специальный</t>
   </si>
@@ -4056,6 +4056,30 @@
   </si>
   <si>
     <t>раздваивания</t>
+  </si>
+  <si>
+    <t>писание</t>
+  </si>
+  <si>
+    <t>текстовый</t>
+  </si>
+  <si>
+    <t>письменный</t>
+  </si>
+  <si>
+    <t>сообщение</t>
+  </si>
+  <si>
+    <t>фигурных</t>
+  </si>
+  <si>
+    <t>узорчатых</t>
+  </si>
+  <si>
+    <t>конфигурируемым</t>
+  </si>
+  <si>
+    <t>настраиваемым</t>
   </si>
 </sst>
 </file>
@@ -4515,10 +4539,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H687"/>
+  <dimension ref="A1:H691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A661" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C691" sqref="C691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10250,7 +10274,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="673" spans="2:3">
+    <row r="673" spans="2:4">
       <c r="B673" t="s">
         <v>1311</v>
       </c>
@@ -10258,7 +10282,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="674" spans="2:3">
+    <row r="674" spans="2:4">
       <c r="B674" t="s">
         <v>1313</v>
       </c>
@@ -10266,7 +10290,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="675" spans="2:3">
+    <row r="675" spans="2:4">
       <c r="B675" s="9" t="s">
         <v>1315</v>
       </c>
@@ -10274,7 +10298,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="676" spans="2:3">
+    <row r="676" spans="2:4">
       <c r="B676" s="9" t="s">
         <v>1317</v>
       </c>
@@ -10282,7 +10306,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="677" spans="2:3">
+    <row r="677" spans="2:4">
       <c r="B677" t="s">
         <v>1319</v>
       </c>
@@ -10290,7 +10314,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="678" spans="2:3">
+    <row r="678" spans="2:4">
       <c r="B678" t="s">
         <v>1321</v>
       </c>
@@ -10298,7 +10322,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="679" spans="2:3">
+    <row r="679" spans="2:4">
       <c r="B679" t="s">
         <v>1323</v>
       </c>
@@ -10306,7 +10330,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="680" spans="2:3">
+    <row r="680" spans="2:4">
       <c r="B680" t="s">
         <v>1325</v>
       </c>
@@ -10314,7 +10338,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="681" spans="2:3">
+    <row r="681" spans="2:4">
       <c r="B681" t="s">
         <v>1327</v>
       </c>
@@ -10322,7 +10346,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="682" spans="2:3">
+    <row r="682" spans="2:4">
       <c r="B682" t="s">
         <v>1329</v>
       </c>
@@ -10330,7 +10354,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="683" spans="2:3">
+    <row r="683" spans="2:4">
       <c r="B683" t="s">
         <v>1331</v>
       </c>
@@ -10338,7 +10362,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="684" spans="2:3">
+    <row r="684" spans="2:4">
       <c r="B684" t="s">
         <v>1333</v>
       </c>
@@ -10346,7 +10370,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="685" spans="2:3">
+    <row r="685" spans="2:4">
       <c r="B685" t="s">
         <v>1336</v>
       </c>
@@ -10354,7 +10378,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="686" spans="2:3">
+    <row r="686" spans="2:4">
       <c r="B686" t="s">
         <v>1337</v>
       </c>
@@ -10362,12 +10386,47 @@
         <v>935</v>
       </c>
     </row>
-    <row r="687" spans="2:3">
+    <row r="687" spans="2:4">
       <c r="B687" t="s">
         <v>1338</v>
       </c>
       <c r="C687" t="s">
         <v>1339</v>
+      </c>
+    </row>
+    <row r="688" spans="2:4">
+      <c r="B688" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="689" spans="2:3">
+      <c r="B689" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="690" spans="2:3">
+      <c r="B690" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="691" spans="2:3">
+      <c r="B691" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rust\rustbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1C742-57CD-4ADA-827A-FD71D333B801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4517527-C31B-45E3-81ED-54A4E16388BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1352">
   <si>
     <t>специальный</t>
   </si>
@@ -4080,6 +4080,18 @@
   </si>
   <si>
     <t>настраиваемым</t>
+  </si>
+  <si>
+    <t>результирующего</t>
+  </si>
+  <si>
+    <t>итогового</t>
+  </si>
+  <si>
+    <t>эквивалентна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	равнозначна</t>
   </si>
 </sst>
 </file>
@@ -4539,10 +4551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H691"/>
+  <dimension ref="A1:H693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A661" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C691" sqref="C691"/>
+    <sheetView tabSelected="1" topLeftCell="A677" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C693" sqref="C693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10429,6 +10441,22 @@
         <v>1347</v>
       </c>
     </row>
+    <row r="692" spans="2:3">
+      <c r="B692" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="693" spans="2:3">
+      <c r="B693" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1351</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K471:K518">
     <sortCondition ref="K471:K518"/>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCC783-FC93-4099-8E9C-C581DB95772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8957C-E2BC-4530-B087-39C8C67C6C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="924">
   <si>
     <t>специальный</t>
   </si>
@@ -2802,6 +2802,12 @@
   </si>
   <si>
     <t>создает</t>
+  </si>
+  <si>
+    <t>объемного</t>
+  </si>
+  <si>
+    <t>большого</t>
   </si>
 </sst>
 </file>
@@ -3220,10 +3226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H454"/>
+  <dimension ref="A1:H456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView tabSelected="1" topLeftCell="A426" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B457" sqref="B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7156,6 +7162,22 @@
         <v>919</v>
       </c>
     </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B455" t="s">
+        <v>139</v>
+      </c>
+      <c r="C455" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B456" t="s">
+        <v>922</v>
+      </c>
+      <c r="C456" t="s">
+        <v>923</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:H415">
     <sortCondition ref="B14:B415"/>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8957C-E2BC-4530-B087-39C8C67C6C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0C57AE-D75C-4D4B-A4DE-7E790165FC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="926">
   <si>
     <t>специальный</t>
   </si>
@@ -2808,6 +2808,12 @@
   </si>
   <si>
     <t>большого</t>
+  </si>
+  <si>
+    <t>глоссарий</t>
+  </si>
+  <si>
+    <t>свод</t>
   </si>
 </sst>
 </file>
@@ -3226,10 +3232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H456"/>
+  <dimension ref="A1:H457"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A426" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B457" sqref="B457"/>
+      <selection activeCell="C458" sqref="C458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7178,6 +7184,14 @@
         <v>923</v>
       </c>
     </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B457" t="s">
+        <v>924</v>
+      </c>
+      <c r="C457" t="s">
+        <v>925</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:H415">
     <sortCondition ref="B14:B415"/>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0C57AE-D75C-4D4B-A4DE-7E790165FC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D88356-1349-4449-B8FB-96BF5EDE5A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$11:$D$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="953">
   <si>
     <t>специальный</t>
   </si>
@@ -2814,6 +2814,87 @@
   </si>
   <si>
     <t>свод</t>
+  </si>
+  <si>
+    <t>сущность</t>
+  </si>
+  <si>
+    <t>память</t>
+  </si>
+  <si>
+    <t>слово</t>
+  </si>
+  <si>
+    <t>1 исход</t>
+  </si>
+  <si>
+    <t>2 исход</t>
+  </si>
+  <si>
+    <t>3 исход</t>
+  </si>
+  <si>
+    <t>4 исход</t>
+  </si>
+  <si>
+    <t>5 исход</t>
+  </si>
+  <si>
+    <t>6 исход</t>
+  </si>
+  <si>
+    <t>формальная</t>
+  </si>
+  <si>
+    <t>механика</t>
+  </si>
+  <si>
+    <t>резюмировать</t>
+  </si>
+  <si>
+    <t>подытожим</t>
+  </si>
+  <si>
+    <t>валидации</t>
+  </si>
+  <si>
+    <t>проверки</t>
+  </si>
+  <si>
+    <t>аннулирует</t>
+  </si>
+  <si>
+    <t>отменяет</t>
+  </si>
+  <si>
+    <t>валидный</t>
+  </si>
+  <si>
+    <t>верный</t>
+  </si>
+  <si>
+    <t>правильный</t>
+  </si>
+  <si>
+    <t>валидной</t>
+  </si>
+  <si>
+    <t>дискуссий</t>
+  </si>
+  <si>
+    <t>споров</t>
+  </si>
+  <si>
+    <t>бонус</t>
+  </si>
+  <si>
+    <t>преимущество</t>
+  </si>
+  <si>
+    <t>актуальные</t>
+  </si>
+  <si>
+    <t>действительные</t>
   </si>
 </sst>
 </file>
@@ -3232,10 +3313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H457"/>
+  <dimension ref="A1:H459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C458" sqref="C458"/>
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B457" sqref="B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3247,79 +3328,94 @@
     <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>850</v>
+        <v>928</v>
       </c>
       <c r="C1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
-        <v>848</v>
+        <v>929</v>
+      </c>
+      <c r="D1" t="s">
+        <v>930</v>
+      </c>
+      <c r="E1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F1" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1" t="s">
+        <v>933</v>
+      </c>
+      <c r="H1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>782</v>
       </c>
       <c r="C2" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>845</v>
+        <v>783</v>
+      </c>
+      <c r="D2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>799</v>
       </c>
       <c r="C3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>843</v>
-      </c>
-      <c r="C4" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>841</v>
+        <v>692</v>
       </c>
       <c r="C5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>837</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>835</v>
+        <v>735</v>
       </c>
       <c r="C7" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>833</v>
+        <v>735</v>
       </c>
       <c r="C8" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>829</v>
+        <v>440</v>
       </c>
       <c r="C9" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>826</v>
       </c>
@@ -3327,253 +3423,256 @@
         <v>825</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>735</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>827</v>
-      </c>
-      <c r="C12" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>793</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
       <c r="C15" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>735</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>736</v>
+        <v>363</v>
+      </c>
+      <c r="D17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="C18" t="s">
-        <v>441</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>482</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>210</v>
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>406</v>
       </c>
       <c r="D22" t="s">
-        <v>547</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>717</v>
+        <v>873</v>
       </c>
       <c r="C23" t="s">
-        <v>718</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>874</v>
+      </c>
+      <c r="C24" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>298</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" t="s">
-        <v>546</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>481</v>
+        <v>793</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>482</v>
+        <v>827</v>
       </c>
       <c r="C27" t="s">
-        <v>483</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>710</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>406</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C30" t="s">
-        <v>299</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>710</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>711</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>119</v>
+        <v>659</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>633</v>
+      </c>
+      <c r="D32" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>51</v>
+        <v>829</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>659</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>633</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>812</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>445</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>445</v>
+        <v>305</v>
       </c>
       <c r="C36" t="s">
-        <v>444</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>305</v>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>306</v>
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
-        <v>3</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>831</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
@@ -3586,143 +3685,143 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>402</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>403</v>
+        <v>272</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>578</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>399</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>189</v>
+        <v>705</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>705</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>706</v>
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C48" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
-        <v>379</v>
-      </c>
-      <c r="C49" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>307</v>
+        <v>492</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C52" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C53" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>496</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>171</v>
+        <v>924</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>925</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
@@ -3782,3420 +3881,3512 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>245</v>
+        <v>805</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" t="s">
-        <v>269</v>
-      </c>
-      <c r="E62" t="s">
-        <v>800</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>639</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>640</v>
+        <v>246</v>
+      </c>
+      <c r="D63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>229</v>
+        <v>639</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
         <v>642</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B66" s="2" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>62</v>
+      </c>
+      <c r="D68" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>592</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>593</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>283</v>
+        <v>592</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>593</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>503</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
-        <v>504</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
+        <v>503</v>
+      </c>
+      <c r="C72" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B73" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C73" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
         <v>161</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>162</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B73" t="s">
-        <v>615</v>
-      </c>
-      <c r="C73" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B74" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="C75" t="s">
-        <v>583</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B76" t="s">
-        <v>629</v>
-      </c>
-      <c r="C76" t="s">
-        <v>630</v>
+      <c r="B76" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>286</v>
+        <v>582</v>
       </c>
       <c r="C77" t="s">
-        <v>287</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>286</v>
+        <v>629</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>511</v>
+        <v>889</v>
       </c>
       <c r="C79" t="s">
-        <v>512</v>
+        <v>890</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="C80" t="s">
-        <v>464</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C81" t="s">
-        <v>340</v>
-      </c>
-      <c r="D81" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
-        <v>216</v>
+        <v>511</v>
       </c>
       <c r="C82" t="s">
-        <v>217</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
       <c r="C83" t="s">
-        <v>375</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>561</v>
+        <v>835</v>
       </c>
       <c r="C84" t="s">
-        <v>562</v>
+        <v>836</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
-        <v>563</v>
+        <v>314</v>
       </c>
       <c r="C85" t="s">
-        <v>564</v>
+        <v>340</v>
+      </c>
+      <c r="D85" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
-        <v>565</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>566</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>559</v>
+        <v>374</v>
       </c>
       <c r="C87" t="s">
-        <v>560</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="C88" t="s">
-        <v>664</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>65</v>
+        <v>563</v>
       </c>
       <c r="C89" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89" t="s">
-        <v>350</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="C90" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="C91" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>774</v>
+        <v>663</v>
       </c>
       <c r="C92" t="s">
-        <v>775</v>
+        <v>664</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>840</v>
+        <v>65</v>
       </c>
       <c r="C93" t="s">
-        <v>585</v>
+        <v>66</v>
+      </c>
+      <c r="D93" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C94" t="s">
-        <v>584</v>
+        <v>838</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>728</v>
+        <v>840</v>
       </c>
       <c r="C95" t="s">
-        <v>729</v>
+        <v>585</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>730</v>
+        <v>839</v>
       </c>
       <c r="C96" t="s">
-        <v>731</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>265</v>
+        <v>586</v>
       </c>
       <c r="C97" t="s">
-        <v>266</v>
+        <v>587</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>76</v>
+        <v>588</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" t="s">
-        <v>129</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>153</v>
+        <v>774</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
-      </c>
-      <c r="D99" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99" t="s">
-        <v>269</v>
+        <v>775</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>12</v>
+        <v>728</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>729</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>97</v>
+        <v>841</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
-      </c>
-      <c r="D101" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>250</v>
+        <v>730</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>265</v>
+      </c>
+      <c r="C103" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>712</v>
+        <v>115</v>
+      </c>
+      <c r="D104" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>713</v>
+        <v>787</v>
       </c>
       <c r="C105" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B106" t="s">
-        <v>518</v>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B106" s="5" t="s">
+        <v>845</v>
       </c>
       <c r="C106" t="s">
-        <v>519</v>
-      </c>
-      <c r="D106" t="s">
-        <v>520</v>
-      </c>
-      <c r="E106" t="s">
-        <v>521</v>
+        <v>846</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>63</v>
+        <v>790</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
-      </c>
-      <c r="D107" t="s">
-        <v>461</v>
+        <v>789</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>457</v>
+        <v>785</v>
       </c>
       <c r="C108" t="s">
-        <v>458</v>
+        <v>786</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>120</v>
+      </c>
+      <c r="E109" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B112" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C112" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
+        <v>713</v>
+      </c>
+      <c r="C115" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
+        <v>518</v>
+      </c>
+      <c r="C116" t="s">
+        <v>519</v>
+      </c>
+      <c r="D116" t="s">
+        <v>520</v>
+      </c>
+      <c r="E116" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B117" t="s">
+        <v>856</v>
+      </c>
+      <c r="C117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B119" t="s">
+        <v>457</v>
+      </c>
+      <c r="C119" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B120" t="s">
+        <v>833</v>
+      </c>
+      <c r="C120" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B121" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" t="s">
+        <v>111</v>
+      </c>
+      <c r="D121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B123" t="s">
         <v>460</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C123" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B112" t="s">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B124" t="s">
         <v>34</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C124" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B113" t="s">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B125" t="s">
         <v>739</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C125" t="s">
         <v>740</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D125" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B114" t="s">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B126" t="s">
         <v>737</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C126" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B115" t="s">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B127" t="s">
         <v>741</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C127" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B116" t="s">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B128" t="s">
         <v>743</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C128" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B117" t="s">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B129" t="s">
         <v>293</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C129" t="s">
         <v>292</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D129" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B118" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
         <v>770</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C130" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B119" t="s">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B131" t="s">
         <v>772</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C131" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B120" t="s">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B132" t="s">
         <v>431</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B121" t="s">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>850</v>
+      </c>
+      <c r="C133" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B134" t="s">
         <v>146</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C134" t="s">
         <v>596</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D134" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B122" t="s">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B135" t="s">
+        <v>918</v>
+      </c>
+      <c r="C135" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B136" t="s">
         <v>428</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C136" t="s">
         <v>429</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D136" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B123" t="s">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B137" t="s">
         <v>208</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C137" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B124" t="s">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B138" t="s">
         <v>102</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C138" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B125" t="s">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
         <v>768</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C139" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B126" t="s">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B140" t="s">
         <v>326</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C140" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B127" t="s">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B141" t="s">
         <v>732</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C141" t="s">
         <v>733</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D141" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B128" t="s">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B142" t="s">
         <v>188</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C142" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B129" t="s">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B143" t="s">
         <v>185</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C143" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B130" t="s">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B144" t="s">
         <v>637</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C144" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B131" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B145" t="s">
         <v>69</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C145" t="s">
         <v>70</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D145" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B133" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>24</v>
+      </c>
+      <c r="B146" t="s">
         <v>86</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C146" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B134" t="s">
-        <v>121</v>
-      </c>
-      <c r="C134" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B135" t="s">
-        <v>675</v>
-      </c>
-      <c r="C135" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B136" t="s">
-        <v>537</v>
-      </c>
-      <c r="C136" t="s">
-        <v>539</v>
-      </c>
-      <c r="D136" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B137" t="s">
-        <v>333</v>
-      </c>
-      <c r="C137" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B139" t="s">
-        <v>180</v>
-      </c>
-      <c r="C139" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B140" t="s">
-        <v>159</v>
-      </c>
-      <c r="C140" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B141" t="s">
-        <v>550</v>
-      </c>
-      <c r="C141" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B142" t="s">
-        <v>618</v>
-      </c>
-      <c r="C142" t="s">
-        <v>621</v>
-      </c>
-      <c r="D142" t="s">
-        <v>619</v>
-      </c>
-      <c r="E142" t="s">
-        <v>620</v>
-      </c>
-      <c r="F142" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B143" t="s">
-        <v>155</v>
-      </c>
-      <c r="C143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B144" t="s">
-        <v>644</v>
-      </c>
-      <c r="C144" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A145">
-        <v>24</v>
-      </c>
-      <c r="B145" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B146" t="s">
-        <v>646</v>
-      </c>
-      <c r="C146" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C147" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
-        <v>392</v>
+        <v>675</v>
       </c>
       <c r="C148" t="s">
-        <v>393</v>
-      </c>
-      <c r="D148" t="s">
-        <v>394</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C149" t="s">
-        <v>541</v>
+        <v>539</v>
+      </c>
+      <c r="D149" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
-        <v>193</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
-        <v>448</v>
+        <v>180</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
-      </c>
-      <c r="D152" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="C153" t="s">
-        <v>297</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B154" t="s">
+        <v>550</v>
+      </c>
+      <c r="C154" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C155" t="s">
-        <v>628</v>
+        <v>621</v>
+      </c>
+      <c r="D155" t="s">
+        <v>619</v>
+      </c>
+      <c r="E155" t="s">
+        <v>620</v>
+      </c>
+      <c r="F155" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
-        <v>579</v>
+        <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>100</v>
-      </c>
-      <c r="D156" t="s">
-        <v>580</v>
-      </c>
-      <c r="E156" t="s">
-        <v>517</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
-        <v>778</v>
+        <v>644</v>
       </c>
       <c r="C157" t="s">
-        <v>779</v>
+        <v>645</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
-        <v>572</v>
-      </c>
-      <c r="C158" t="s">
-        <v>573</v>
-      </c>
-      <c r="D158" t="s">
-        <v>574</v>
-      </c>
-      <c r="E158" t="s">
-        <v>577</v>
-      </c>
-      <c r="F158" t="s">
-        <v>578</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="C159" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B161" t="s">
+        <v>392</v>
+      </c>
+      <c r="C161" t="s">
+        <v>393</v>
+      </c>
+      <c r="D161" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B162" t="s">
+        <v>540</v>
+      </c>
+      <c r="C162" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B164" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B165" t="s">
+        <v>193</v>
+      </c>
+      <c r="C165" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B166" t="s">
+        <v>448</v>
+      </c>
+      <c r="C166" t="s">
+        <v>446</v>
+      </c>
+      <c r="D166" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B167" t="s">
+        <v>296</v>
+      </c>
+      <c r="C167" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B168" t="s">
+        <v>627</v>
+      </c>
+      <c r="C168" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B169" t="s">
+        <v>579</v>
+      </c>
+      <c r="C169" t="s">
+        <v>100</v>
+      </c>
+      <c r="D169" t="s">
+        <v>580</v>
+      </c>
+      <c r="E169" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B170" t="s">
+        <v>778</v>
+      </c>
+      <c r="C170" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B171" t="s">
+        <v>572</v>
+      </c>
+      <c r="C171" t="s">
+        <v>573</v>
+      </c>
+      <c r="D171" t="s">
+        <v>574</v>
+      </c>
+      <c r="E171" t="s">
+        <v>577</v>
+      </c>
+      <c r="F171" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B172" t="s">
+        <v>575</v>
+      </c>
+      <c r="C172" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B173" t="s">
+        <v>843</v>
+      </c>
+      <c r="C173" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B174" t="s">
         <v>310</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C174" t="s">
         <v>311</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D174" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B161" t="s">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B175" t="s">
         <v>386</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C175" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B162" t="s">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B176" t="s">
         <v>388</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C176" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B163" t="s">
-        <v>755</v>
-      </c>
-      <c r="C163" t="s">
-        <v>756</v>
-      </c>
-      <c r="D163" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B164" t="s">
-        <v>760</v>
-      </c>
-      <c r="C164" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B165" t="s">
-        <v>757</v>
-      </c>
-      <c r="C165" t="s">
-        <v>758</v>
-      </c>
-      <c r="D165" t="s">
-        <v>857</v>
-      </c>
-      <c r="E165" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B166" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C166" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B167" t="s">
-        <v>2</v>
-      </c>
-      <c r="C167" t="s">
-        <v>135</v>
-      </c>
-      <c r="D167" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B168" t="s">
-        <v>726</v>
-      </c>
-      <c r="C168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B169" t="s">
-        <v>45</v>
-      </c>
-      <c r="C169" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B170" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B171" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B172" t="s">
-        <v>71</v>
-      </c>
-      <c r="C172" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B173" t="s">
-        <v>609</v>
-      </c>
-      <c r="C173" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B174" t="s">
-        <v>746</v>
-      </c>
-      <c r="C174" t="s">
-        <v>747</v>
-      </c>
-      <c r="D174" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B175" t="s">
-        <v>749</v>
-      </c>
-      <c r="C175" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B176" t="s">
-        <v>557</v>
-      </c>
-      <c r="C176" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
-        <v>360</v>
+        <v>755</v>
       </c>
       <c r="C177" t="s">
-        <v>361</v>
+        <v>756</v>
+      </c>
+      <c r="D177" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
-        <v>104</v>
+        <v>760</v>
       </c>
       <c r="C178" t="s">
-        <v>105</v>
+        <v>761</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
-        <v>57</v>
+        <v>757</v>
       </c>
       <c r="C179" t="s">
-        <v>58</v>
+        <v>758</v>
+      </c>
+      <c r="D179" t="s">
+        <v>857</v>
+      </c>
+      <c r="E179" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B180" t="s">
-        <v>552</v>
+      <c r="B180" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C180" t="s">
-        <v>553</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B181" t="s">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>555</v>
+        <v>135</v>
+      </c>
+      <c r="D181" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>727</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B185" t="s">
-        <v>92</v>
-      </c>
-      <c r="C185" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B186" t="s">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="C186" t="s">
-        <v>93</v>
-      </c>
-      <c r="D186" t="s">
-        <v>278</v>
-      </c>
-      <c r="E186" t="s">
-        <v>279</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="C187" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B188" t="s">
-        <v>59</v>
+        <v>746</v>
       </c>
       <c r="C188" t="s">
-        <v>60</v>
+        <v>747</v>
+      </c>
+      <c r="D188" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
-        <v>499</v>
+        <v>749</v>
       </c>
       <c r="C189" t="s">
-        <v>500</v>
-      </c>
-      <c r="D189" t="s">
-        <v>501</v>
+        <v>750</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B190" t="s">
-        <v>203</v>
+        <v>557</v>
       </c>
       <c r="C190" t="s">
-        <v>204</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
-        <v>682</v>
+        <v>360</v>
       </c>
       <c r="C191" t="s">
-        <v>683</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B192" t="s">
-        <v>684</v>
+        <v>104</v>
       </c>
       <c r="C192" t="s">
-        <v>685</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
-        <v>680</v>
+        <v>57</v>
       </c>
       <c r="C193" t="s">
-        <v>681</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B194" t="s">
-        <v>686</v>
+        <v>552</v>
       </c>
       <c r="C194" t="s">
-        <v>687</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B195" t="s">
-        <v>128</v>
+        <v>554</v>
       </c>
       <c r="C195" t="s">
-        <v>449</v>
-      </c>
-      <c r="D195" t="s">
-        <v>450</v>
-      </c>
-      <c r="E195" t="s">
-        <v>451</v>
+        <v>555</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B196" t="s">
-        <v>80</v>
+        <v>556</v>
       </c>
       <c r="C196" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B197" t="s">
-        <v>149</v>
+        <v>797</v>
       </c>
       <c r="C197" t="s">
-        <v>150</v>
+        <v>798</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B198" t="s">
-        <v>42</v>
+        <v>212</v>
+      </c>
+      <c r="C198" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
-        <v>145</v>
+        <v>241</v>
+      </c>
+      <c r="C199" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B200" t="s">
-        <v>275</v>
+        <v>860</v>
       </c>
       <c r="C200" t="s">
-        <v>276</v>
+        <v>861</v>
+      </c>
+      <c r="D200" t="s">
+        <v>864</v>
+      </c>
+      <c r="E200" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B201" t="s">
-        <v>224</v>
+        <v>862</v>
       </c>
       <c r="C201" t="s">
-        <v>225</v>
+        <v>863</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B202" t="s">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="C202" t="s">
-        <v>343</v>
+        <v>93</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B203" t="s">
-        <v>698</v>
+        <v>277</v>
       </c>
       <c r="C203" t="s">
-        <v>197</v>
+        <v>93</v>
+      </c>
+      <c r="D203" t="s">
+        <v>278</v>
+      </c>
+      <c r="E203" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B204" t="s">
-        <v>205</v>
+        <v>623</v>
       </c>
       <c r="C204" t="s">
-        <v>300</v>
-      </c>
-      <c r="D204" t="s">
-        <v>467</v>
-      </c>
-      <c r="E204" t="s">
-        <v>468</v>
+        <v>624</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B205" t="s">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="C205" t="s">
-        <v>420</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B206" t="s">
-        <v>766</v>
+        <v>499</v>
       </c>
       <c r="C206" t="s">
-        <v>767</v>
+        <v>500</v>
+      </c>
+      <c r="D206" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B207" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C207" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B208" t="s">
-        <v>751</v>
+        <v>682</v>
       </c>
       <c r="C208" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B209" t="s">
-        <v>753</v>
+        <v>684</v>
       </c>
       <c r="C209" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B210" t="s">
-        <v>389</v>
+        <v>680</v>
       </c>
       <c r="C210" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B211" t="s">
-        <v>869</v>
+        <v>686</v>
       </c>
       <c r="C211" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B212" t="s">
-        <v>871</v>
+        <v>128</v>
       </c>
       <c r="C212" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D212" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+      <c r="E212" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B213" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="C213" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B214" t="s">
-        <v>671</v>
+        <v>149</v>
       </c>
       <c r="C214" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B215" t="s">
-        <v>723</v>
-      </c>
-      <c r="C215" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B216" t="s">
-        <v>139</v>
-      </c>
-      <c r="C216" t="s">
-        <v>140</v>
-      </c>
-      <c r="D216" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B217" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C217" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B218" t="s">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="C218" t="s">
-        <v>107</v>
-      </c>
-      <c r="D218" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B219" t="s">
-        <v>762</v>
+        <v>224</v>
       </c>
       <c r="C219" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B220" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="C220" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B221" t="s">
-        <v>369</v>
+        <v>867</v>
       </c>
       <c r="C221" t="s">
-        <v>370</v>
-      </c>
-      <c r="D221" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B222" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="C222" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B223" t="s">
-        <v>452</v>
+        <v>205</v>
       </c>
       <c r="C223" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+      <c r="D223" t="s">
+        <v>467</v>
+      </c>
+      <c r="E223" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B224" t="s">
-        <v>207</v>
+        <v>419</v>
       </c>
       <c r="C224" t="s">
-        <v>247</v>
-      </c>
-      <c r="D224" t="s">
-        <v>745</v>
+        <v>420</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B225" t="s">
-        <v>381</v>
+        <v>766</v>
       </c>
       <c r="C225" t="s">
-        <v>292</v>
+        <v>767</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B226" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="C226" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B227" t="s">
-        <v>355</v>
+        <v>751</v>
       </c>
       <c r="C227" t="s">
-        <v>356</v>
-      </c>
-      <c r="D227" t="s">
-        <v>819</v>
+        <v>752</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B228" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="C228" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B229" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C229" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B230" t="s">
-        <v>652</v>
+        <v>871</v>
       </c>
       <c r="C230" t="s">
-        <v>653</v>
+        <v>441</v>
       </c>
       <c r="D230" t="s">
-        <v>654</v>
+        <v>872</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B231" t="s">
-        <v>648</v>
+        <v>869</v>
       </c>
       <c r="C231" t="s">
-        <v>649</v>
-      </c>
-      <c r="D231" t="s">
-        <v>658</v>
+        <v>870</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B232" t="s">
-        <v>651</v>
+        <v>220</v>
       </c>
       <c r="C232" t="s">
-        <v>650</v>
+        <v>221</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B233" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="C233" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B234" t="s">
-        <v>889</v>
+        <v>723</v>
       </c>
       <c r="C234" t="s">
-        <v>890</v>
+        <v>702</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B235" t="s">
-        <v>887</v>
+        <v>139</v>
       </c>
       <c r="C235" t="s">
-        <v>888</v>
+        <v>140</v>
+      </c>
+      <c r="D235" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B236" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="C236" t="s">
-        <v>197</v>
+        <v>683</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B237" t="s">
-        <v>655</v>
+        <v>876</v>
       </c>
       <c r="C237" t="s">
-        <v>656</v>
+        <v>877</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B238" t="s">
-        <v>426</v>
+        <v>922</v>
       </c>
       <c r="C238" t="s">
-        <v>427</v>
+        <v>923</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B239" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C239" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B240" t="s">
+        <v>106</v>
+      </c>
+      <c r="C240" t="s">
+        <v>107</v>
+      </c>
+      <c r="D240" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B241" t="s">
+        <v>762</v>
+      </c>
+      <c r="C241" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B242" t="s">
+        <v>372</v>
+      </c>
+      <c r="C242" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B243" t="s">
+        <v>369</v>
+      </c>
+      <c r="C243" t="s">
+        <v>370</v>
+      </c>
+      <c r="D243" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B244" t="s">
+        <v>67</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B245" t="s">
+        <v>883</v>
+      </c>
+      <c r="C245" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B246" t="s">
+        <v>452</v>
+      </c>
+      <c r="C246" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B247" t="s">
+        <v>452</v>
+      </c>
+      <c r="C247" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B248" t="s">
+        <v>881</v>
+      </c>
+      <c r="C248" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B249" t="s">
+        <v>878</v>
+      </c>
+      <c r="C249" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B250" t="s">
+        <v>207</v>
+      </c>
+      <c r="C250" t="s">
+        <v>247</v>
+      </c>
+      <c r="D250" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B251" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C251" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B252" t="s">
+        <v>381</v>
+      </c>
+      <c r="C252" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B253" t="s">
+        <v>885</v>
+      </c>
+      <c r="C253" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B254" t="s">
+        <v>258</v>
+      </c>
+      <c r="C254" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B255" t="s">
+        <v>355</v>
+      </c>
+      <c r="C255" t="s">
+        <v>356</v>
+      </c>
+      <c r="D255" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B256" t="s">
+        <v>673</v>
+      </c>
+      <c r="C256" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B257" t="s">
+        <v>916</v>
+      </c>
+      <c r="C257" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B258" t="s">
+        <v>404</v>
+      </c>
+      <c r="C258" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B259" t="s">
+        <v>652</v>
+      </c>
+      <c r="C259" t="s">
+        <v>653</v>
+      </c>
+      <c r="D259" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B260" t="s">
+        <v>648</v>
+      </c>
+      <c r="C260" t="s">
+        <v>649</v>
+      </c>
+      <c r="D260" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B261" t="s">
+        <v>651</v>
+      </c>
+      <c r="C261" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B262" t="s">
+        <v>657</v>
+      </c>
+      <c r="C262" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B263" t="s">
+        <v>196</v>
+      </c>
+      <c r="C263" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B264" t="s">
+        <v>887</v>
+      </c>
+      <c r="C264" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B265" t="s">
+        <v>655</v>
+      </c>
+      <c r="C265" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B266" t="s">
+        <v>426</v>
+      </c>
+      <c r="C266" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B267" t="s">
+        <v>222</v>
+      </c>
+      <c r="C267" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B268" t="s">
         <v>233</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C268" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B241" t="s">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B269" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B242" t="s">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B270" t="s">
         <v>206</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C270" t="s">
         <v>599</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D270" t="s">
         <v>600</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E270" t="s">
         <v>603</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F270" t="s">
         <v>604</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G270" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B243" t="s">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B271" t="s">
         <v>607</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C271" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B244" t="s">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B272" t="s">
         <v>601</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C272" t="s">
         <v>581</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D272" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C245" t="s">
-        <v>158</v>
-      </c>
-      <c r="D245" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B246" t="s">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B273" t="s">
+        <v>893</v>
+      </c>
+      <c r="C273" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B274" t="s">
+        <v>776</v>
+      </c>
+      <c r="C274" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B275" t="s">
         <v>892</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C275" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B247" t="s">
-        <v>776</v>
-      </c>
-      <c r="C247" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B248" t="s">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B276" t="s">
         <v>14</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C276" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B249" t="s">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B277" t="s">
         <v>454</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C277" t="s">
         <v>455</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D277" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B250" t="s">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B278" t="s">
         <v>421</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C278" t="s">
         <v>422</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D278" t="s">
         <v>423</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E278" t="s">
         <v>424</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F278" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B251" t="s">
+      <c r="G278" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B279" t="s">
         <v>895</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C279" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B252" t="s">
-        <v>893</v>
-      </c>
-      <c r="C252" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B253" t="s">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B280" t="s">
         <v>410</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C280" t="s">
         <v>411</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D280" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B254" t="s">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B281" t="s">
         <v>183</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C281" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B255" t="s">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B282" t="s">
         <v>417</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C282" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B256" t="s">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B283" t="s">
         <v>413</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C283" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B257" t="s">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B284" t="s">
         <v>415</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C284" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B258" t="s">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B285" t="s">
         <v>367</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C285" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B259" t="s">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B286" t="s">
+        <v>590</v>
+      </c>
+      <c r="C286" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B287" t="s">
         <v>896</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C287" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B260" t="s">
-        <v>590</v>
-      </c>
-      <c r="C260" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B261" t="s">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B288" t="s">
         <v>304</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C288" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B262" t="s">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B289" t="s">
         <v>288</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C289" t="s">
         <v>289</v>
       </c>
-      <c r="H262">
+      <c r="H289">
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B263" t="s">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B290" t="s">
         <v>168</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C290" t="s">
         <v>294</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D290" t="s">
         <v>295</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E290" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B264" t="s">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B291" t="s">
         <v>899</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C291" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B265" t="s">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B292" t="s">
         <v>465</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C292" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B266" t="s">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B293" t="s">
+        <v>801</v>
+      </c>
+      <c r="C293" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B294" t="s">
+        <v>803</v>
+      </c>
+      <c r="C294" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B295" t="s">
         <v>616</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C295" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B267" t="s">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B296" t="s">
         <v>613</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C296" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B268" t="s">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B297" t="s">
         <v>597</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C297" t="s">
         <v>95</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D297" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B269" t="s">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B298" t="s">
         <v>16</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C298" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B270" t="s">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B299" t="s">
         <v>400</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C299" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B271" t="s">
+    <row r="300" spans="2:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B300" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C300" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B301" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B272" t="s">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B302" t="s">
         <v>690</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C302" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B273" t="s">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B303" t="s">
         <v>677</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C303" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B274" t="s">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B304" t="s">
         <v>214</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C304" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B275" t="s">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B305" t="s">
         <v>679</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C305" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B276" t="s">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B306" t="s">
         <v>49</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C306" t="s">
         <v>50</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D306" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B277" t="s">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B307" t="s">
         <v>773</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C307" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B278" t="s">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B308" t="s">
         <v>47</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C308" t="s">
         <v>48</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D308" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B279" t="s">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B309" t="s">
         <v>337</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C309" t="s">
         <v>338</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D309" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B280" t="s">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B310" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B281" t="s">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B311" t="s">
         <v>169</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C311" t="s">
         <v>174</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D311" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B282" t="s">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B312" t="s">
         <v>218</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C312" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B283" t="s">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B313" t="s">
         <v>243</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C313" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B284" t="s">
+    <row r="314" spans="2:6" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B314" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C314" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B315" t="s">
         <v>532</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C315" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B285" t="s">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B316" t="s">
         <v>94</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C316" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B286" t="s">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B317" t="s">
         <v>509</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C317" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B287" t="s">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B318" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B288" t="s">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B319" t="s">
         <v>173</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C319" t="s">
         <v>505</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D319" t="s">
         <v>506</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E319" t="s">
         <v>507</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F319" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B289" t="s">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B320" t="s">
         <v>528</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C320" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B290" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B291" t="s">
-        <v>22</v>
-      </c>
-      <c r="C291" t="s">
-        <v>515</v>
-      </c>
-      <c r="D291" t="s">
-        <v>517</v>
-      </c>
-      <c r="E291" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B292" t="s">
-        <v>55</v>
-      </c>
-      <c r="C292" t="s">
-        <v>56</v>
-      </c>
-      <c r="D292" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B293" t="s">
-        <v>227</v>
-      </c>
-      <c r="C293" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B295" t="s">
-        <v>694</v>
-      </c>
-      <c r="C295" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B296" t="s">
-        <v>696</v>
-      </c>
-      <c r="C296" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B297" t="s">
-        <v>548</v>
-      </c>
-      <c r="C297" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B298" t="s">
-        <v>88</v>
-      </c>
-      <c r="C298" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B299" t="s">
-        <v>113</v>
-      </c>
-      <c r="C299" t="s">
-        <v>114</v>
-      </c>
-      <c r="D299" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B301" t="s">
-        <v>721</v>
-      </c>
-      <c r="C301" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B302" t="s">
-        <v>132</v>
-      </c>
-      <c r="C302" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B303" t="s">
-        <v>707</v>
-      </c>
-      <c r="C303" t="s">
-        <v>708</v>
-      </c>
-      <c r="D303" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B304" t="s">
-        <v>273</v>
-      </c>
-      <c r="C304" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B305" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B306" t="s">
-        <v>79</v>
-      </c>
-      <c r="C306" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B307" t="s">
-        <v>780</v>
-      </c>
-      <c r="C307" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B308" t="s">
-        <v>199</v>
-      </c>
-      <c r="C308" t="s">
-        <v>200</v>
-      </c>
-      <c r="D308" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B309" t="s">
-        <v>611</v>
-      </c>
-      <c r="C309" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B310" t="s">
-        <v>502</v>
-      </c>
-      <c r="C310" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B311" t="s">
-        <v>542</v>
-      </c>
-      <c r="C311" t="s">
-        <v>543</v>
-      </c>
-      <c r="D311" t="s">
-        <v>544</v>
-      </c>
-      <c r="E311" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B312" t="s">
-        <v>724</v>
-      </c>
-      <c r="C312" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B313" t="s">
-        <v>73</v>
-      </c>
-      <c r="C313" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B314" t="s">
-        <v>73</v>
-      </c>
-      <c r="C314" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B315" t="s">
-        <v>901</v>
-      </c>
-      <c r="C315" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B316" t="s">
-        <v>715</v>
-      </c>
-      <c r="C316" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B317" t="s">
-        <v>191</v>
-      </c>
-      <c r="C317" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B318" t="s">
-        <v>30</v>
-      </c>
-      <c r="C318" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B319" t="s">
-        <v>336</v>
-      </c>
-      <c r="C319" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B320" t="s">
-        <v>488</v>
-      </c>
-      <c r="C320" t="s">
-        <v>489</v>
-      </c>
-      <c r="D320" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B321" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C321" t="s">
-        <v>1</v>
+        <v>515</v>
+      </c>
+      <c r="D321" t="s">
+        <v>517</v>
+      </c>
+      <c r="E321" t="s">
+        <v>516</v>
+      </c>
+      <c r="F321" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B322" t="s">
-        <v>486</v>
+        <v>910</v>
       </c>
       <c r="C322" t="s">
-        <v>487</v>
+        <v>911</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B323" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="C323" t="s">
-        <v>198</v>
+        <v>56</v>
+      </c>
+      <c r="D323" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B324" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="C324" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B325" t="s">
-        <v>163</v>
+        <v>694</v>
       </c>
       <c r="C325" t="s">
-        <v>317</v>
-      </c>
-      <c r="D325" t="s">
-        <v>318</v>
+        <v>695</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B326" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="C326" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B327" t="s">
-        <v>665</v>
+        <v>548</v>
       </c>
       <c r="C327" t="s">
-        <v>666</v>
+        <v>549</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B328" t="s">
-        <v>667</v>
+        <v>88</v>
       </c>
       <c r="C328" t="s">
-        <v>668</v>
+        <v>91</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B329" t="s">
-        <v>166</v>
+        <v>113</v>
+      </c>
+      <c r="C329" t="s">
+        <v>114</v>
+      </c>
+      <c r="D329" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B330" t="s">
-        <v>765</v>
+        <v>721</v>
       </c>
       <c r="C330" t="s">
-        <v>356</v>
-      </c>
-      <c r="D330" t="s">
-        <v>581</v>
+        <v>722</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B331" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="C331" t="s">
-        <v>75</v>
-      </c>
-      <c r="D331" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B332" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="C332" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="D332" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B333" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="C333" t="s">
-        <v>135</v>
+        <v>274</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B334" t="s">
-        <v>134</v>
-      </c>
-      <c r="C334" t="s">
-        <v>135</v>
-      </c>
-      <c r="D334" t="s">
-        <v>634</v>
-      </c>
-      <c r="E334" t="s">
-        <v>81</v>
-      </c>
-      <c r="F334" t="s">
-        <v>635</v>
+        <v>79</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B335" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C335" t="s">
-        <v>100</v>
-      </c>
-      <c r="D335" t="s">
-        <v>101</v>
-      </c>
-      <c r="E335" t="s">
-        <v>327</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B336" t="s">
-        <v>526</v>
+        <v>780</v>
       </c>
       <c r="C336" t="s">
-        <v>527</v>
+        <v>781</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B337" t="s">
-        <v>530</v>
+        <v>199</v>
       </c>
       <c r="C337" t="s">
-        <v>531</v>
+        <v>200</v>
+      </c>
+      <c r="D337" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B338" t="s">
-        <v>522</v>
+        <v>611</v>
       </c>
       <c r="C338" t="s">
-        <v>523</v>
-      </c>
-      <c r="D338" t="s">
-        <v>524</v>
-      </c>
-      <c r="E338" t="s">
-        <v>525</v>
+        <v>612</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B339" t="s">
-        <v>435</v>
+        <v>852</v>
       </c>
       <c r="C339" t="s">
-        <v>436</v>
+        <v>853</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B340" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="C340" t="s">
-        <v>437</v>
+        <v>316</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B341" t="s">
-        <v>148</v>
+        <v>542</v>
+      </c>
+      <c r="C341" t="s">
+        <v>543</v>
+      </c>
+      <c r="D341" t="s">
+        <v>544</v>
+      </c>
+      <c r="E341" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B342" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="C342" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B343" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C343" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B344" t="s">
+        <v>73</v>
+      </c>
+      <c r="C344" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B345" t="s">
-        <v>315</v>
+        <v>715</v>
       </c>
       <c r="C345" t="s">
-        <v>316</v>
+        <v>716</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B346" t="s">
-        <v>433</v>
+        <v>901</v>
       </c>
       <c r="C346" t="s">
-        <v>434</v>
+        <v>902</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B347" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="C347" t="s">
-        <v>329</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B348" t="s">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="C348" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B349" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C349" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B350" t="s">
-        <v>130</v>
+        <v>488</v>
       </c>
       <c r="C350" t="s">
-        <v>131</v>
+        <v>489</v>
+      </c>
+      <c r="D350" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B351" t="s">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="C351" t="s">
-        <v>907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B352" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="C352" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B353" t="s">
-        <v>235</v>
+        <v>810</v>
       </c>
       <c r="C353" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B354" t="s">
-        <v>237</v>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B354" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="C354" t="s">
-        <v>238</v>
+        <v>809</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B355" t="s">
-        <v>362</v>
+        <v>195</v>
       </c>
       <c r="C355" t="s">
-        <v>363</v>
+        <v>198</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B356" s="1" t="s">
-        <v>40</v>
+      <c r="B356" t="s">
+        <v>126</v>
       </c>
       <c r="C356" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B357" t="s">
-        <v>284</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B357" s="4" t="s">
+        <v>820</v>
       </c>
       <c r="C357" t="s">
-        <v>285</v>
-      </c>
-      <c r="D357" t="s">
-        <v>117</v>
+        <v>821</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B358" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="C358" t="s">
-        <v>281</v>
+        <v>317</v>
+      </c>
+      <c r="D358" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B359" t="s">
-        <v>280</v>
+        <v>669</v>
       </c>
       <c r="C359" t="s">
-        <v>281</v>
+        <v>670</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B360" t="s">
-        <v>568</v>
+        <v>904</v>
       </c>
       <c r="C360" t="s">
-        <v>569</v>
+        <v>905</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B361" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="C361" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B362" t="s">
-        <v>18</v>
+        <v>667</v>
       </c>
       <c r="C362" t="s">
-        <v>19</v>
+        <v>668</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B363" t="s">
-        <v>365</v>
-      </c>
-      <c r="C363" t="s">
-        <v>366</v>
+        <v>166</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B364" t="s">
-        <v>908</v>
+        <v>765</v>
       </c>
       <c r="C364" t="s">
-        <v>909</v>
+        <v>356</v>
+      </c>
+      <c r="D364" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B365" t="s">
-        <v>32</v>
+        <v>795</v>
       </c>
       <c r="C365" t="s">
-        <v>33</v>
+        <v>796</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B366" t="s">
-        <v>397</v>
+        <v>26</v>
       </c>
       <c r="C366" t="s">
-        <v>398</v>
+        <v>75</v>
+      </c>
+      <c r="D366" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B367" t="s">
+        <v>631</v>
+      </c>
       <c r="C367" t="s">
-        <v>301</v>
+        <v>632</v>
       </c>
       <c r="D367" t="s">
-        <v>302</v>
+        <v>633</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B368" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C368" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B369" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C369" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+      <c r="D369" t="s">
+        <v>634</v>
+      </c>
+      <c r="E369" t="s">
+        <v>81</v>
+      </c>
+      <c r="F369" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B370" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="C370" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="D370" t="s">
+        <v>101</v>
+      </c>
+      <c r="E370" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B371" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="C371" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.45">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B372" t="s">
-        <v>912</v>
+        <v>530</v>
       </c>
       <c r="C372" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.45">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B373" t="s">
-        <v>123</v>
+        <v>522</v>
       </c>
       <c r="C373" t="s">
-        <v>253</v>
+        <v>523</v>
       </c>
       <c r="D373" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+      <c r="E373" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B374" t="s">
-        <v>330</v>
+        <v>435</v>
       </c>
       <c r="C374" t="s">
-        <v>331</v>
-      </c>
-      <c r="D374" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.45">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B375" t="s">
-        <v>764</v>
+        <v>435</v>
       </c>
       <c r="C375" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.45">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B376" t="s">
-        <v>570</v>
-      </c>
-      <c r="C376" t="s">
-        <v>571</v>
-      </c>
-      <c r="D376" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B377" t="s">
-        <v>267</v>
+        <v>688</v>
       </c>
       <c r="C377" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.45">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B378" t="s">
-        <v>395</v>
+        <v>118</v>
       </c>
       <c r="C378" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B379" t="s">
-        <v>914</v>
+        <v>315</v>
       </c>
       <c r="C379" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.45">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B380" t="s">
-        <v>916</v>
+        <v>433</v>
       </c>
       <c r="C380" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B381" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="C381" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.45">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B382" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="C382" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.45">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B383" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C383" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B384" t="s">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="C384" t="s">
-        <v>309</v>
+        <v>131</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B385" t="s">
-        <v>319</v>
+        <v>442</v>
       </c>
       <c r="C385" t="s">
-        <v>567</v>
+        <v>443</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B386" t="s">
-        <v>382</v>
+        <v>906</v>
       </c>
       <c r="C386" t="s">
-        <v>384</v>
-      </c>
-      <c r="D386" t="s">
-        <v>385</v>
+        <v>907</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B387" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="C387" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B388" t="s">
-        <v>513</v>
+        <v>806</v>
       </c>
       <c r="C388" t="s">
-        <v>514</v>
+        <v>807</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B389" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="C389" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B390" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="C390" t="s">
-        <v>117</v>
+        <v>363</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B391" t="s">
-        <v>346</v>
+      <c r="B391" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C391" t="s">
-        <v>347</v>
+        <v>41</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B392" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="C392" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="D392" t="s">
-        <v>349</v>
+        <v>117</v>
+      </c>
+      <c r="E392" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B393" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="C393" t="s">
-        <v>37</v>
-      </c>
-      <c r="D393" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B394" t="s">
-        <v>438</v>
+        <v>280</v>
       </c>
       <c r="C394" t="s">
-        <v>439</v>
-      </c>
-      <c r="D394" t="s">
-        <v>605</v>
+        <v>281</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B395" t="s">
-        <v>256</v>
+        <v>568</v>
       </c>
       <c r="C395" t="s">
-        <v>257</v>
+        <v>569</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B396" t="s">
-        <v>660</v>
+        <v>594</v>
       </c>
       <c r="C396" t="s">
-        <v>661</v>
-      </c>
-      <c r="D396" t="s">
-        <v>662</v>
+        <v>595</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B397" t="s">
-        <v>719</v>
+        <v>18</v>
       </c>
       <c r="C397" t="s">
-        <v>720</v>
+        <v>19</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B398" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="C398" t="s">
-        <v>352</v>
-      </c>
-      <c r="D398" t="s">
-        <v>353</v>
-      </c>
-      <c r="E398" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B399" t="s">
-        <v>323</v>
+        <v>32</v>
       </c>
       <c r="C399" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B400" t="s">
+        <v>908</v>
+      </c>
+      <c r="C400" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B401" t="s">
+        <v>397</v>
+      </c>
+      <c r="C401" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B402" t="s">
+        <v>176</v>
+      </c>
+      <c r="C402" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B403" t="s">
+        <v>89</v>
+      </c>
+      <c r="C403" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B404" t="s">
+        <v>262</v>
+      </c>
+      <c r="C404" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B405" t="s">
+        <v>791</v>
+      </c>
+      <c r="C405" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B406" t="s">
+        <v>484</v>
+      </c>
+      <c r="C406" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B407" t="s">
+        <v>912</v>
+      </c>
+      <c r="C407" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B408" t="s">
+        <v>123</v>
+      </c>
+      <c r="C408" t="s">
+        <v>253</v>
+      </c>
+      <c r="D408" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B409" t="s">
+        <v>330</v>
+      </c>
+      <c r="C409" t="s">
+        <v>331</v>
+      </c>
+      <c r="D409" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B410" t="s">
+        <v>764</v>
+      </c>
+      <c r="C410" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B411" t="s">
+        <v>570</v>
+      </c>
+      <c r="C411" t="s">
+        <v>571</v>
+      </c>
+      <c r="D411" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B412" t="s">
+        <v>267</v>
+      </c>
+      <c r="C412" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B413" t="s">
+        <v>395</v>
+      </c>
+      <c r="C413" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B414" t="s">
+        <v>263</v>
+      </c>
+      <c r="C414" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B415" t="s">
+        <v>914</v>
+      </c>
+      <c r="C415" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B416" t="s">
+        <v>147</v>
+      </c>
+      <c r="C416" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B417" t="s">
+        <v>920</v>
+      </c>
+      <c r="C417" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B418" t="s">
+        <v>312</v>
+      </c>
+      <c r="C418" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B419" t="s">
+        <v>319</v>
+      </c>
+      <c r="C419" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B420" t="s">
+        <v>319</v>
+      </c>
+      <c r="C420" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B421" t="s">
+        <v>382</v>
+      </c>
+      <c r="C421" t="s">
+        <v>384</v>
+      </c>
+      <c r="D421" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B422" t="s">
+        <v>136</v>
+      </c>
+      <c r="C422" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B423" t="s">
+        <v>513</v>
+      </c>
+      <c r="C423" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B424" t="s">
+        <v>38</v>
+      </c>
+      <c r="C424" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B425" t="s">
+        <v>345</v>
+      </c>
+      <c r="C425" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B426" t="s">
+        <v>346</v>
+      </c>
+      <c r="C426" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B427" t="s">
+        <v>313</v>
+      </c>
+      <c r="C427" t="s">
+        <v>348</v>
+      </c>
+      <c r="D427" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B428" t="s">
+        <v>36</v>
+      </c>
+      <c r="C428" t="s">
+        <v>37</v>
+      </c>
+      <c r="D428" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B429" t="s">
+        <v>438</v>
+      </c>
+      <c r="C429" t="s">
+        <v>439</v>
+      </c>
+      <c r="D429" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B430" t="s">
+        <v>256</v>
+      </c>
+      <c r="C430" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B431" t="s">
+        <v>660</v>
+      </c>
+      <c r="C431" t="s">
+        <v>661</v>
+      </c>
+      <c r="D431" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B432" t="s">
+        <v>719</v>
+      </c>
+      <c r="C432" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="433" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B433" t="s">
+        <v>124</v>
+      </c>
+      <c r="C433" t="s">
+        <v>352</v>
+      </c>
+      <c r="D433" t="s">
+        <v>353</v>
+      </c>
+      <c r="E433" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="434" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B434" t="s">
+        <v>323</v>
+      </c>
+      <c r="C434" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="435" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B435" t="s">
+        <v>323</v>
+      </c>
+      <c r="C435" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="436" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B436" t="s">
         <v>533</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C436" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B401" t="s">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B437" t="s">
         <v>535</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C437" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B402" t="s">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B438" t="s">
         <v>23</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C438" t="s">
         <v>11</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D438" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B403" t="s">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B439" t="s">
         <v>170</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C439" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B404" t="s">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B440" t="s">
         <v>701</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C440" t="s">
         <v>622</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D440" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B405" t="s">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B441" t="s">
         <v>239</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C441" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B406" t="s">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B442" t="s">
         <v>699</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C442" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B407" t="s">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B443" t="s">
         <v>703</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C443" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B408" t="s">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B444" t="s">
         <v>21</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C444" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B409" t="s">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B445" t="s">
         <v>364</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C445" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B410" t="s">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B446" t="s">
         <v>470</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C446" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B411" t="s">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B447" t="s">
         <v>471</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C447" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B412" t="s">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B448" t="s">
         <v>143</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C448" t="s">
         <v>144</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D448" t="s">
         <v>157</v>
       </c>
-      <c r="E412" t="s">
+      <c r="E448" t="s">
         <v>401</v>
       </c>
-      <c r="F412" t="s">
+      <c r="F448" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B413" t="s">
-        <v>782</v>
-      </c>
-      <c r="C413" t="s">
-        <v>783</v>
-      </c>
-      <c r="D413" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B414" t="s">
-        <v>785</v>
-      </c>
-      <c r="C414" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B415" t="s">
-        <v>787</v>
-      </c>
-      <c r="C415" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B416" t="s">
-        <v>790</v>
-      </c>
-      <c r="C416" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B417" t="s">
-        <v>791</v>
-      </c>
-      <c r="C417" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B418" t="s">
-        <v>795</v>
-      </c>
-      <c r="C418" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B419" t="s">
-        <v>797</v>
-      </c>
-      <c r="C419" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B420" t="s">
-        <v>799</v>
-      </c>
-      <c r="C420" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B421" t="s">
-        <v>801</v>
-      </c>
-      <c r="C421" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B422" t="s">
-        <v>803</v>
-      </c>
-      <c r="C422" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B423" t="s">
-        <v>805</v>
-      </c>
-      <c r="C423" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B424" t="s">
-        <v>806</v>
-      </c>
-      <c r="C424" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="425" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B425" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="C425" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B426" t="s">
-        <v>810</v>
-      </c>
-      <c r="C426" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="427" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B427" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="C427" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="428" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B428" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="C428" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="429" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B429" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="C429" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="430" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B430" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="C430" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="431" spans="2:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B431" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="C431" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B432" t="s">
-        <v>852</v>
-      </c>
-      <c r="C432" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B433" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B434" t="s">
-        <v>856</v>
-      </c>
-      <c r="C434" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B435" t="s">
-        <v>860</v>
-      </c>
-      <c r="C435" t="s">
-        <v>861</v>
-      </c>
-      <c r="D435" t="s">
-        <v>864</v>
-      </c>
-      <c r="E435" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B436" t="s">
-        <v>862</v>
-      </c>
-      <c r="C436" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B437" t="s">
-        <v>275</v>
-      </c>
-      <c r="C437" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B438" t="s">
-        <v>867</v>
-      </c>
-      <c r="C438" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B439" t="s">
-        <v>138</v>
-      </c>
-      <c r="C439" t="s">
-        <v>406</v>
-      </c>
-      <c r="D439" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B440" t="s">
-        <v>873</v>
-      </c>
-      <c r="C440" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B441" t="s">
-        <v>874</v>
-      </c>
-      <c r="C441" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B442" t="s">
-        <v>876</v>
-      </c>
-      <c r="C442" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B443" t="s">
-        <v>878</v>
-      </c>
-      <c r="C443" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B444" t="s">
-        <v>452</v>
-      </c>
-      <c r="C444" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B445" t="s">
-        <v>881</v>
-      </c>
-      <c r="C445" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B446" t="s">
-        <v>883</v>
-      </c>
-      <c r="C446" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B447" t="s">
-        <v>885</v>
-      </c>
-      <c r="C447" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B448" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="449" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B449" t="s">
-        <v>904</v>
+        <v>935</v>
       </c>
       <c r="C449" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+      <c r="D449" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B450" t="s">
+        <v>158</v>
+      </c>
+      <c r="C450" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B451" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="C451" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B452" t="s">
-        <v>323</v>
+        <v>937</v>
       </c>
       <c r="C452" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.45">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B453" t="s">
-        <v>910</v>
+        <v>939</v>
       </c>
       <c r="C453" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.45">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B454" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
       <c r="C454" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.45">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="455" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B455" t="s">
-        <v>139</v>
+        <v>943</v>
       </c>
       <c r="C455" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.45">
+        <v>944</v>
+      </c>
+      <c r="D455" t="s">
+        <v>945</v>
+      </c>
+      <c r="E455" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B456" t="s">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="C456" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B457" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
       <c r="C457" t="s">
-        <v>925</v>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B458" t="s">
+        <v>949</v>
+      </c>
+      <c r="C458" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B459" t="s">
+        <v>951</v>
+      </c>
+      <c r="C459" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:H415">
-    <sortCondition ref="B14:B415"/>
+  <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H458">
+    <sortCondition ref="B2:B458"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D88356-1349-4449-B8FB-96BF5EDE5A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245CAB4F-A2E7-4DA6-8495-9BEA10A95894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="973">
   <si>
     <t>специальный</t>
   </si>
@@ -2895,6 +2895,66 @@
   </si>
   <si>
     <t>действительные</t>
+  </si>
+  <si>
+    <t>исторически</t>
+  </si>
+  <si>
+    <t>Так сложилось, что</t>
+  </si>
+  <si>
+    <t>во все времена</t>
+  </si>
+  <si>
+    <t>историческая</t>
+  </si>
+  <si>
+    <t>летописная</t>
+  </si>
+  <si>
+    <t>размышления</t>
+  </si>
+  <si>
+    <t>рефлексии</t>
+  </si>
+  <si>
+    <t>трейт</t>
+  </si>
+  <si>
+    <t>декларацию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	объявление</t>
+  </si>
+  <si>
+    <t>декларативные</t>
+  </si>
+  <si>
+    <t>объявляющие</t>
+  </si>
+  <si>
+    <t>неэффективна</t>
+  </si>
+  <si>
+    <t>непроизводительна</t>
+  </si>
+  <si>
+    <t>гипотетических</t>
+  </si>
+  <si>
+    <t>предполагаемых</t>
+  </si>
+  <si>
+    <t>тематических</t>
+  </si>
+  <si>
+    <t>связанных между собой</t>
+  </si>
+  <si>
+    <t>профилирования</t>
+  </si>
+  <si>
+    <t>рассмотрения</t>
   </si>
 </sst>
 </file>
@@ -3313,10 +3373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H459"/>
+  <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B457" sqref="B457"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7381,6 +7441,89 @@
         <v>952</v>
       </c>
     </row>
+    <row r="460" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B460" t="s">
+        <v>960</v>
+      </c>
+      <c r="C460" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B461" t="s">
+        <v>953</v>
+      </c>
+      <c r="C461" t="s">
+        <v>954</v>
+      </c>
+      <c r="D461" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B462" t="s">
+        <v>956</v>
+      </c>
+      <c r="C462" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="463" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B463" t="s">
+        <v>959</v>
+      </c>
+      <c r="C463" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="464" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B464" t="s">
+        <v>963</v>
+      </c>
+      <c r="C464" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B465" t="s">
+        <v>961</v>
+      </c>
+      <c r="C465" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B466" t="s">
+        <v>965</v>
+      </c>
+      <c r="C466" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B467" t="s">
+        <v>967</v>
+      </c>
+      <c r="C467" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B468" t="s">
+        <v>969</v>
+      </c>
+      <c r="C468" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B469" t="s">
+        <v>971</v>
+      </c>
+      <c r="C469" t="s">
+        <v>972</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H458">

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245CAB4F-A2E7-4DA6-8495-9BEA10A95894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EB323C-0F28-4987-ABCC-BB455CCC856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="985">
   <si>
     <t>специальный</t>
   </si>
@@ -2955,6 +2955,42 @@
   </si>
   <si>
     <t>рассмотрения</t>
+  </si>
+  <si>
+    <t>диагностировать</t>
+  </si>
+  <si>
+    <t>выявить</t>
+  </si>
+  <si>
+    <t>сценарий</t>
+  </si>
+  <si>
+    <t>инкапсуляция</t>
+  </si>
+  <si>
+    <t>семья</t>
+  </si>
+  <si>
+    <t>типичных</t>
+  </si>
+  <si>
+    <t>отредактировали</t>
+  </si>
+  <si>
+    <t>изменили</t>
+  </si>
+  <si>
+    <t>консолидировать</t>
+  </si>
+  <si>
+    <t>объединить</t>
+  </si>
+  <si>
+    <t>регистра</t>
+  </si>
+  <si>
+    <t>заглавных или строчных букв</t>
   </si>
 </sst>
 </file>
@@ -3373,10 +3409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H469"/>
+  <dimension ref="A1:H476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B388" sqref="B388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6337,11 +6373,6 @@
         <v>274</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B334" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B335" t="s">
         <v>79</v>
@@ -6349,6 +6380,9 @@
       <c r="C335" t="s">
         <v>13</v>
       </c>
+      <c r="D335" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B336" t="s">
@@ -7522,6 +7556,59 @@
       </c>
       <c r="C469" t="s">
         <v>972</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B470" t="s">
+        <v>973</v>
+      </c>
+      <c r="C470" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B471" t="s">
+        <v>975</v>
+      </c>
+      <c r="C471" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B472" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B473" t="s">
+        <v>978</v>
+      </c>
+      <c r="C473" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B474" t="s">
+        <v>979</v>
+      </c>
+      <c r="C474" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B475" t="s">
+        <v>981</v>
+      </c>
+      <c r="C475" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B476" t="s">
+        <v>983</v>
+      </c>
+      <c r="C476" t="s">
+        <v>984</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EB323C-0F28-4987-ABCC-BB455CCC856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A037D1B0-B474-49ED-B1F7-6F7D036C5867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1026">
   <si>
     <t>специальный</t>
   </si>
@@ -2991,13 +2991,136 @@
   </si>
   <si>
     <t>заглавных или строчных букв</t>
+  </si>
+  <si>
+    <t>секции</t>
+  </si>
+  <si>
+    <t>раскомментировать</t>
+  </si>
+  <si>
+    <t>убрать примечания</t>
+  </si>
+  <si>
+    <t>разделы</t>
+  </si>
+  <si>
+    <t>комментирования</t>
+  </si>
+  <si>
+    <t>написания примечаний</t>
+  </si>
+  <si>
+    <t>парсинга</t>
+  </si>
+  <si>
+    <t>разбора</t>
+  </si>
+  <si>
+    <t>атрибут</t>
+  </si>
+  <si>
+    <t>Константа</t>
+  </si>
+  <si>
+    <t>постоянная переменная</t>
+  </si>
+  <si>
+    <t>статическое</t>
+  </si>
+  <si>
+    <t>вечное</t>
+  </si>
+  <si>
+    <t>публичное</t>
+  </si>
+  <si>
+    <t>открытое</t>
+  </si>
+  <si>
+    <t>публичным</t>
+  </si>
+  <si>
+    <t>открытым</t>
+  </si>
+  <si>
+    <t>приватным</t>
+  </si>
+  <si>
+    <t>закрытым</t>
+  </si>
+  <si>
+    <t>проблема</t>
+  </si>
+  <si>
+    <t>оператор</t>
+  </si>
+  <si>
+    <t>приказчик</t>
+  </si>
+  <si>
+    <t>кортеж</t>
+  </si>
+  <si>
+    <t>упорядоченный ряд</t>
+  </si>
+  <si>
+    <t>демонстрирует</t>
+  </si>
+  <si>
+    <t>Функционал</t>
+  </si>
+  <si>
+    <t>возможности</t>
+  </si>
+  <si>
+    <t>Функциональность</t>
+  </si>
+  <si>
+    <t>конкретный</t>
+  </si>
+  <si>
+    <t>определенный</t>
+  </si>
+  <si>
+    <t>лаконично</t>
+  </si>
+  <si>
+    <t>коротко</t>
+  </si>
+  <si>
+    <t>шаблон</t>
+  </si>
+  <si>
+    <t>логическое</t>
+  </si>
+  <si>
+    <t>разумное</t>
+  </si>
+  <si>
+    <t>приоритета</t>
+  </si>
+  <si>
+    <t>предпочтения</t>
+  </si>
+  <si>
+    <t>сигнатура</t>
+  </si>
+  <si>
+    <t>описание</t>
+  </si>
+  <si>
+    <t>модификатора</t>
+  </si>
+  <si>
+    <t>переключатель</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3034,6 +3157,13 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3061,7 +3191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3074,6 +3204,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3409,10 +3540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H476"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B388" sqref="B388"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3486,6 +3617,9 @@
       <c r="C6" t="s">
         <v>179</v>
       </c>
+      <c r="D6" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
@@ -5772,6 +5906,9 @@
       <c r="C267" t="s">
         <v>223</v>
       </c>
+      <c r="D267" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B268" t="s">
@@ -5965,152 +6102,152 @@
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B288" t="s">
-        <v>304</v>
+        <v>1004</v>
       </c>
       <c r="C288" t="s">
-        <v>303</v>
+        <v>898</v>
       </c>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B289" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C289" t="s">
-        <v>289</v>
-      </c>
-      <c r="H289">
-        <v>75</v>
+        <v>303</v>
       </c>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B290" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="C290" t="s">
-        <v>294</v>
-      </c>
-      <c r="D290" t="s">
-        <v>295</v>
-      </c>
-      <c r="E290" t="s">
-        <v>898</v>
+        <v>289</v>
+      </c>
+      <c r="H290">
+        <v>75</v>
       </c>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B291" t="s">
-        <v>899</v>
+        <v>168</v>
       </c>
       <c r="C291" t="s">
-        <v>900</v>
+        <v>294</v>
+      </c>
+      <c r="D291" t="s">
+        <v>295</v>
+      </c>
+      <c r="E291" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B292" t="s">
-        <v>465</v>
+        <v>899</v>
       </c>
       <c r="C292" t="s">
-        <v>466</v>
+        <v>900</v>
       </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B293" t="s">
-        <v>801</v>
+        <v>465</v>
       </c>
       <c r="C293" t="s">
-        <v>802</v>
+        <v>466</v>
       </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B294" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C294" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B295" t="s">
-        <v>616</v>
+        <v>803</v>
       </c>
       <c r="C295" t="s">
-        <v>617</v>
+        <v>804</v>
       </c>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B296" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C296" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B297" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="C297" t="s">
-        <v>95</v>
-      </c>
-      <c r="D297" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B298" t="s">
-        <v>16</v>
+        <v>597</v>
       </c>
       <c r="C298" t="s">
-        <v>17</v>
+        <v>95</v>
+      </c>
+      <c r="D298" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B299" t="s">
+        <v>16</v>
+      </c>
+      <c r="C299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B300" t="s">
         <v>400</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C300" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="300" spans="2:8" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B300" s="5" t="s">
+    <row r="301" spans="2:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B301" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C301" t="s">
         <v>849</v>
-      </c>
-    </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B301" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B302" t="s">
-        <v>690</v>
-      </c>
-      <c r="C302" t="s">
-        <v>691</v>
+        <v>141</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B303" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="C303" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B304" t="s">
-        <v>214</v>
+        <v>677</v>
       </c>
       <c r="C304" t="s">
-        <v>215</v>
+        <v>678</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B305" t="s">
-        <v>679</v>
+        <v>214</v>
       </c>
       <c r="C305" t="s">
         <v>215</v>
@@ -6118,343 +6255,343 @@
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B306" t="s">
-        <v>49</v>
+        <v>679</v>
       </c>
       <c r="C306" t="s">
-        <v>50</v>
-      </c>
-      <c r="D306" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B307" t="s">
-        <v>773</v>
+        <v>49</v>
       </c>
       <c r="C307" t="s">
-        <v>408</v>
+        <v>50</v>
+      </c>
+      <c r="D307" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B308" t="s">
-        <v>47</v>
+        <v>773</v>
       </c>
       <c r="C308" t="s">
-        <v>48</v>
-      </c>
-      <c r="D308" t="s">
-        <v>27</v>
+        <v>408</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B309" t="s">
-        <v>337</v>
+        <v>47</v>
       </c>
       <c r="C309" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="D309" t="s">
-        <v>339</v>
+        <v>27</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B310" t="s">
-        <v>290</v>
+        <v>337</v>
+      </c>
+      <c r="C310" t="s">
+        <v>338</v>
+      </c>
+      <c r="D310" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B311" t="s">
-        <v>169</v>
-      </c>
-      <c r="C311" t="s">
-        <v>174</v>
-      </c>
-      <c r="D311" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B312" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C312" t="s">
-        <v>219</v>
+        <v>174</v>
+      </c>
+      <c r="D312" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B313" t="s">
+        <v>218</v>
+      </c>
+      <c r="C313" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B314" t="s">
         <v>243</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C314" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="314" spans="2:6" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B314" s="4" t="s">
+    <row r="315" spans="2:6" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B315" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C315" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B315" t="s">
-        <v>532</v>
-      </c>
-      <c r="C315" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B316" t="s">
-        <v>94</v>
+        <v>532</v>
       </c>
       <c r="C316" t="s">
-        <v>95</v>
+        <v>399</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B317" t="s">
-        <v>509</v>
+        <v>94</v>
       </c>
       <c r="C317" t="s">
-        <v>510</v>
+        <v>95</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B318" t="s">
-        <v>173</v>
+        <v>509</v>
+      </c>
+      <c r="C318" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B319" t="s">
         <v>173</v>
       </c>
-      <c r="C319" t="s">
-        <v>505</v>
-      </c>
-      <c r="D319" t="s">
-        <v>506</v>
-      </c>
-      <c r="E319" t="s">
-        <v>507</v>
-      </c>
-      <c r="F319" t="s">
-        <v>508</v>
-      </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B320" t="s">
-        <v>528</v>
+        <v>173</v>
       </c>
       <c r="C320" t="s">
-        <v>529</v>
+        <v>505</v>
+      </c>
+      <c r="D320" t="s">
+        <v>506</v>
+      </c>
+      <c r="E320" t="s">
+        <v>507</v>
+      </c>
+      <c r="F320" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B321" t="s">
-        <v>22</v>
+        <v>528</v>
       </c>
       <c r="C321" t="s">
-        <v>515</v>
-      </c>
-      <c r="D321" t="s">
-        <v>517</v>
-      </c>
-      <c r="E321" t="s">
-        <v>516</v>
-      </c>
-      <c r="F321" t="s">
-        <v>927</v>
+        <v>529</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B322" t="s">
-        <v>910</v>
+        <v>22</v>
       </c>
       <c r="C322" t="s">
-        <v>911</v>
+        <v>515</v>
+      </c>
+      <c r="D322" t="s">
+        <v>517</v>
+      </c>
+      <c r="E322" t="s">
+        <v>516</v>
+      </c>
+      <c r="F322" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B323" t="s">
-        <v>55</v>
+        <v>910</v>
       </c>
       <c r="C323" t="s">
-        <v>56</v>
-      </c>
-      <c r="D323" t="s">
-        <v>101</v>
+        <v>911</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B324" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="C324" t="s">
-        <v>228</v>
+        <v>56</v>
+      </c>
+      <c r="D324" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B325" t="s">
-        <v>694</v>
+        <v>227</v>
       </c>
       <c r="C325" t="s">
-        <v>695</v>
+        <v>228</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B326" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C326" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B327" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="C327" t="s">
-        <v>549</v>
+        <v>697</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B328" t="s">
-        <v>88</v>
+        <v>548</v>
       </c>
       <c r="C328" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B329" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C329" t="s">
-        <v>114</v>
-      </c>
-      <c r="D329" t="s">
-        <v>641</v>
+        <v>91</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B330" t="s">
-        <v>721</v>
+        <v>113</v>
       </c>
       <c r="C330" t="s">
-        <v>722</v>
+        <v>114</v>
+      </c>
+      <c r="D330" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B331" t="s">
-        <v>132</v>
+        <v>721</v>
       </c>
       <c r="C331" t="s">
-        <v>133</v>
+        <v>722</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B332" t="s">
-        <v>707</v>
+        <v>132</v>
       </c>
       <c r="C332" t="s">
-        <v>708</v>
-      </c>
-      <c r="D332" t="s">
-        <v>709</v>
+        <v>133</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B333" t="s">
+        <v>707</v>
+      </c>
+      <c r="C333" t="s">
+        <v>708</v>
+      </c>
+      <c r="D333" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B334" t="s">
         <v>273</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C334" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B335" t="s">
-        <v>79</v>
-      </c>
-      <c r="C335" t="s">
-        <v>13</v>
-      </c>
-      <c r="D335" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B336" t="s">
-        <v>780</v>
+        <v>79</v>
       </c>
       <c r="C336" t="s">
-        <v>781</v>
+        <v>13</v>
+      </c>
+      <c r="D336" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B337" t="s">
-        <v>199</v>
+        <v>780</v>
       </c>
       <c r="C337" t="s">
-        <v>200</v>
-      </c>
-      <c r="D337" t="s">
-        <v>581</v>
+        <v>781</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B338" t="s">
-        <v>611</v>
+        <v>199</v>
       </c>
       <c r="C338" t="s">
-        <v>612</v>
+        <v>200</v>
+      </c>
+      <c r="D338" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B339" t="s">
-        <v>852</v>
+        <v>611</v>
       </c>
       <c r="C339" t="s">
-        <v>853</v>
+        <v>612</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B340" t="s">
-        <v>502</v>
+        <v>852</v>
       </c>
       <c r="C340" t="s">
-        <v>316</v>
+        <v>853</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B341" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="C341" t="s">
-        <v>543</v>
-      </c>
-      <c r="D341" t="s">
-        <v>544</v>
-      </c>
-      <c r="E341" t="s">
-        <v>545</v>
+        <v>316</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B342" t="s">
-        <v>724</v>
+        <v>542</v>
       </c>
       <c r="C342" t="s">
-        <v>725</v>
+        <v>543</v>
+      </c>
+      <c r="D342" t="s">
+        <v>544</v>
+      </c>
+      <c r="E342" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B343" t="s">
-        <v>73</v>
+        <v>724</v>
       </c>
       <c r="C343" t="s">
-        <v>74</v>
+        <v>725</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.45">
@@ -6467,515 +6604,515 @@
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B345" t="s">
-        <v>715</v>
+        <v>73</v>
       </c>
       <c r="C345" t="s">
-        <v>716</v>
+        <v>74</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B346" t="s">
-        <v>901</v>
+        <v>715</v>
       </c>
       <c r="C346" t="s">
-        <v>902</v>
+        <v>716</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B347" t="s">
-        <v>191</v>
+        <v>901</v>
       </c>
       <c r="C347" t="s">
-        <v>109</v>
+        <v>902</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B348" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="C348" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B349" t="s">
-        <v>336</v>
+        <v>30</v>
       </c>
       <c r="C349" t="s">
-        <v>344</v>
+        <v>31</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B350" t="s">
-        <v>488</v>
+        <v>336</v>
       </c>
       <c r="C350" t="s">
-        <v>489</v>
-      </c>
-      <c r="D350" t="s">
-        <v>490</v>
+        <v>344</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B351" t="s">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="C351" t="s">
-        <v>1</v>
+        <v>489</v>
+      </c>
+      <c r="D351" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B352" t="s">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="C352" t="s">
-        <v>487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B353" t="s">
+        <v>486</v>
+      </c>
+      <c r="C353" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B354" t="s">
         <v>810</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C354" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="354" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B354" s="4" t="s">
+    <row r="355" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B355" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C355" t="s">
         <v>809</v>
-      </c>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B355" t="s">
-        <v>195</v>
-      </c>
-      <c r="C355" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B356" t="s">
+        <v>195</v>
+      </c>
+      <c r="C356" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B357" t="s">
         <v>126</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C357" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="357" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B357" s="4" t="s">
+    <row r="358" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="B358" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C358" t="s">
         <v>821</v>
-      </c>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B358" t="s">
-        <v>163</v>
-      </c>
-      <c r="C358" t="s">
-        <v>317</v>
-      </c>
-      <c r="D358" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B359" t="s">
-        <v>669</v>
+        <v>163</v>
       </c>
       <c r="C359" t="s">
-        <v>670</v>
+        <v>317</v>
+      </c>
+      <c r="D359" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B360" t="s">
-        <v>904</v>
+        <v>669</v>
       </c>
       <c r="C360" t="s">
-        <v>905</v>
+        <v>670</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B361" t="s">
-        <v>665</v>
+        <v>904</v>
       </c>
       <c r="C361" t="s">
-        <v>666</v>
+        <v>905</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B362" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C362" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B363" t="s">
-        <v>166</v>
+        <v>996</v>
+      </c>
+      <c r="C363" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B364" t="s">
-        <v>765</v>
+        <v>667</v>
       </c>
       <c r="C364" t="s">
-        <v>356</v>
-      </c>
-      <c r="D364" t="s">
-        <v>581</v>
+        <v>668</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B365" t="s">
-        <v>795</v>
-      </c>
-      <c r="C365" t="s">
-        <v>796</v>
+        <v>166</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B366" t="s">
-        <v>26</v>
+        <v>765</v>
       </c>
       <c r="C366" t="s">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="D366" t="s">
-        <v>41</v>
+        <v>581</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B367" t="s">
-        <v>631</v>
+        <v>795</v>
       </c>
       <c r="C367" t="s">
-        <v>632</v>
-      </c>
-      <c r="D367" t="s">
-        <v>633</v>
+        <v>796</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B368" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="C368" t="s">
-        <v>135</v>
+        <v>75</v>
+      </c>
+      <c r="D368" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B369" t="s">
-        <v>134</v>
+        <v>631</v>
       </c>
       <c r="C369" t="s">
-        <v>135</v>
+        <v>632</v>
       </c>
       <c r="D369" t="s">
-        <v>634</v>
-      </c>
-      <c r="E369" t="s">
-        <v>81</v>
-      </c>
-      <c r="F369" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B370" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C370" t="s">
-        <v>100</v>
-      </c>
-      <c r="D370" t="s">
-        <v>101</v>
-      </c>
-      <c r="E370" t="s">
-        <v>327</v>
+        <v>135</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B371" t="s">
-        <v>526</v>
+        <v>134</v>
       </c>
       <c r="C371" t="s">
-        <v>527</v>
+        <v>135</v>
+      </c>
+      <c r="D371" t="s">
+        <v>634</v>
+      </c>
+      <c r="E371" t="s">
+        <v>81</v>
+      </c>
+      <c r="F371" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B372" t="s">
-        <v>530</v>
+        <v>84</v>
       </c>
       <c r="C372" t="s">
-        <v>531</v>
+        <v>100</v>
+      </c>
+      <c r="D372" t="s">
+        <v>101</v>
+      </c>
+      <c r="E372" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B373" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C373" t="s">
-        <v>523</v>
-      </c>
-      <c r="D373" t="s">
-        <v>524</v>
-      </c>
-      <c r="E373" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B374" t="s">
-        <v>435</v>
+        <v>530</v>
       </c>
       <c r="C374" t="s">
-        <v>436</v>
+        <v>531</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B375" t="s">
-        <v>435</v>
+        <v>522</v>
       </c>
       <c r="C375" t="s">
-        <v>437</v>
+        <v>523</v>
+      </c>
+      <c r="D375" t="s">
+        <v>524</v>
+      </c>
+      <c r="E375" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B376" t="s">
-        <v>148</v>
+        <v>435</v>
+      </c>
+      <c r="C376" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B377" t="s">
-        <v>688</v>
+        <v>435</v>
       </c>
       <c r="C377" t="s">
-        <v>689</v>
+        <v>437</v>
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B378" t="s">
-        <v>118</v>
-      </c>
-      <c r="C378" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B379" t="s">
-        <v>315</v>
+        <v>688</v>
       </c>
       <c r="C379" t="s">
-        <v>316</v>
+        <v>689</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B380" t="s">
-        <v>433</v>
+        <v>118</v>
       </c>
       <c r="C380" t="s">
-        <v>434</v>
+        <v>116</v>
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B381" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C381" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B382" t="s">
-        <v>260</v>
+        <v>433</v>
       </c>
       <c r="C382" t="s">
-        <v>261</v>
+        <v>434</v>
       </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B383" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C383" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B384" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="C384" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B385" t="s">
-        <v>442</v>
+        <v>321</v>
       </c>
       <c r="C385" t="s">
-        <v>443</v>
+        <v>322</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B386" t="s">
-        <v>906</v>
+        <v>130</v>
       </c>
       <c r="C386" t="s">
-        <v>907</v>
+        <v>131</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B387" t="s">
-        <v>235</v>
+        <v>442</v>
       </c>
       <c r="C387" t="s">
-        <v>236</v>
+        <v>443</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B388" t="s">
-        <v>806</v>
+        <v>906</v>
       </c>
       <c r="C388" t="s">
-        <v>807</v>
+        <v>907</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B389" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C389" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B390" t="s">
-        <v>362</v>
+        <v>806</v>
       </c>
       <c r="C390" t="s">
-        <v>363</v>
+        <v>807</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B391" s="1" t="s">
-        <v>40</v>
+      <c r="B391" t="s">
+        <v>237</v>
       </c>
       <c r="C391" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B392" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="C392" t="s">
-        <v>285</v>
-      </c>
-      <c r="D392" t="s">
-        <v>117</v>
-      </c>
-      <c r="E392" t="s">
-        <v>926</v>
+        <v>363</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B393" t="s">
-        <v>280</v>
+      <c r="B393" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C393" t="s">
-        <v>281</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B394" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C394" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="D394" t="s">
+        <v>117</v>
+      </c>
+      <c r="E394" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B395" t="s">
-        <v>568</v>
+        <v>280</v>
       </c>
       <c r="C395" t="s">
-        <v>569</v>
+        <v>281</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B396" t="s">
-        <v>594</v>
+        <v>280</v>
       </c>
       <c r="C396" t="s">
-        <v>595</v>
+        <v>281</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B397" t="s">
-        <v>18</v>
+        <v>568</v>
       </c>
       <c r="C397" t="s">
-        <v>19</v>
+        <v>569</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B398" t="s">
-        <v>365</v>
+        <v>594</v>
       </c>
       <c r="C398" t="s">
-        <v>366</v>
+        <v>595</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B399" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C399" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B400" t="s">
-        <v>908</v>
+        <v>365</v>
       </c>
       <c r="C400" t="s">
-        <v>909</v>
+        <v>366</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B401" t="s">
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="C401" t="s">
-        <v>398</v>
+        <v>33</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B402" t="s">
-        <v>176</v>
+        <v>908</v>
       </c>
       <c r="C402" t="s">
-        <v>177</v>
+        <v>909</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B403" t="s">
-        <v>89</v>
+        <v>397</v>
       </c>
       <c r="C403" t="s">
-        <v>90</v>
+        <v>398</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B404" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="C404" t="s">
         <v>177</v>
@@ -6983,638 +7120,822 @@
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B405" t="s">
-        <v>791</v>
+        <v>89</v>
       </c>
       <c r="C405" t="s">
-        <v>792</v>
+        <v>90</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B406" t="s">
-        <v>484</v>
+        <v>262</v>
       </c>
       <c r="C406" t="s">
-        <v>485</v>
+        <v>177</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B407" t="s">
-        <v>912</v>
+        <v>791</v>
       </c>
       <c r="C407" t="s">
-        <v>913</v>
+        <v>792</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B408" t="s">
-        <v>123</v>
+        <v>484</v>
       </c>
       <c r="C408" t="s">
-        <v>253</v>
-      </c>
-      <c r="D408" t="s">
-        <v>254</v>
+        <v>485</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B409" t="s">
-        <v>330</v>
+        <v>912</v>
       </c>
       <c r="C409" t="s">
-        <v>331</v>
-      </c>
-      <c r="D409" t="s">
-        <v>332</v>
+        <v>913</v>
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B410" t="s">
-        <v>764</v>
+        <v>123</v>
       </c>
       <c r="C410" t="s">
+        <v>253</v>
+      </c>
+      <c r="D410" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B411" t="s">
-        <v>570</v>
+        <v>330</v>
       </c>
       <c r="C411" t="s">
-        <v>571</v>
+        <v>331</v>
       </c>
       <c r="D411" t="s">
-        <v>41</v>
+        <v>332</v>
       </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B412" t="s">
-        <v>267</v>
+        <v>764</v>
       </c>
       <c r="C412" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B413" t="s">
-        <v>395</v>
+        <v>570</v>
       </c>
       <c r="C413" t="s">
-        <v>396</v>
+        <v>571</v>
+      </c>
+      <c r="D413" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B414" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C414" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B415" t="s">
-        <v>914</v>
+        <v>395</v>
       </c>
       <c r="C415" t="s">
-        <v>915</v>
+        <v>396</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B416" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="C416" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B417" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C417" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B418" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="C418" t="s">
-        <v>383</v>
+        <v>252</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B419" t="s">
-        <v>319</v>
+        <v>920</v>
       </c>
       <c r="C419" t="s">
-        <v>309</v>
+        <v>921</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B420" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C420" t="s">
-        <v>567</v>
+        <v>383</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B421" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="C421" t="s">
-        <v>384</v>
-      </c>
-      <c r="D421" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B422" t="s">
-        <v>136</v>
+        <v>319</v>
       </c>
       <c r="C422" t="s">
-        <v>137</v>
+        <v>567</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B423" t="s">
-        <v>513</v>
+        <v>382</v>
       </c>
       <c r="C423" t="s">
-        <v>514</v>
+        <v>384</v>
+      </c>
+      <c r="D423" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B424" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C424" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B425" t="s">
-        <v>345</v>
+        <v>513</v>
       </c>
       <c r="C425" t="s">
-        <v>117</v>
+        <v>514</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B426" t="s">
-        <v>346</v>
+        <v>38</v>
       </c>
       <c r="C426" t="s">
-        <v>347</v>
+        <v>39</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B427" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C427" t="s">
-        <v>348</v>
-      </c>
-      <c r="D427" t="s">
-        <v>349</v>
+        <v>117</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B428" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="C428" t="s">
-        <v>37</v>
-      </c>
-      <c r="D428" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B429" t="s">
-        <v>438</v>
+        <v>313</v>
       </c>
       <c r="C429" t="s">
-        <v>439</v>
+        <v>348</v>
       </c>
       <c r="D429" t="s">
-        <v>605</v>
+        <v>349</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B430" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="C430" t="s">
-        <v>257</v>
+        <v>37</v>
+      </c>
+      <c r="D430" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B431" t="s">
-        <v>660</v>
+        <v>438</v>
       </c>
       <c r="C431" t="s">
-        <v>661</v>
+        <v>439</v>
       </c>
       <c r="D431" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B432" t="s">
+        <v>256</v>
+      </c>
+      <c r="C432" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B433" t="s">
+        <v>660</v>
+      </c>
+      <c r="C433" t="s">
+        <v>661</v>
+      </c>
+      <c r="D433" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B434" t="s">
         <v>719</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C434" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B433" t="s">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B435" t="s">
         <v>124</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C435" t="s">
         <v>352</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D435" t="s">
         <v>353</v>
       </c>
-      <c r="E433" t="s">
+      <c r="E435" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B434" t="s">
+    <row r="436" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B436" t="s">
         <v>323</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C436" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B435" t="s">
+    <row r="437" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B437" t="s">
         <v>323</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C437" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B436" t="s">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B438" t="s">
         <v>533</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C438" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B437" t="s">
+    <row r="439" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B439" t="s">
         <v>535</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C439" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B438" t="s">
+    <row r="440" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B440" t="s">
         <v>23</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C440" t="s">
         <v>11</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D440" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B439" t="s">
+    <row r="441" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B441" t="s">
         <v>170</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C441" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B440" t="s">
+    <row r="442" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B442" t="s">
         <v>701</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C442" t="s">
         <v>622</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D442" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B441" t="s">
+    <row r="443" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B443" t="s">
         <v>239</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C443" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B442" t="s">
+    <row r="444" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B444" t="s">
         <v>699</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C444" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B443" t="s">
+    <row r="445" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B445" t="s">
         <v>703</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C445" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B444" t="s">
+    <row r="446" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B446" t="s">
         <v>21</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C446" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B445" t="s">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B447" t="s">
         <v>364</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C447" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B446" t="s">
+    <row r="448" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B448" t="s">
         <v>470</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C448" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B447" t="s">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B449" t="s">
         <v>471</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C449" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B448" t="s">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B450" t="s">
         <v>143</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C450" t="s">
         <v>144</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D450" t="s">
         <v>157</v>
       </c>
-      <c r="E448" t="s">
+      <c r="E450" t="s">
         <v>401</v>
       </c>
-      <c r="F448" t="s">
+      <c r="F450" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="449" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B449" t="s">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B451" t="s">
         <v>935</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C451" t="s">
         <v>301</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D451" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B450" t="s">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B452" t="s">
         <v>158</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C452" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B451" t="s">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B453" t="s">
         <v>936</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C453" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B452" t="s">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B454" t="s">
         <v>937</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C454" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="453" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B453" t="s">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B455" t="s">
         <v>939</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C455" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="454" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B454" t="s">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B456" t="s">
         <v>941</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C456" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B455" t="s">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B457" t="s">
         <v>943</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C457" t="s">
         <v>944</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D457" t="s">
         <v>945</v>
       </c>
-      <c r="E455" t="s">
+      <c r="E457" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B456" t="s">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B458" t="s">
         <v>946</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C458" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="457" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B457" t="s">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B459" t="s">
         <v>947</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C459" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="458" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B458" t="s">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B460" t="s">
         <v>949</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C460" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B459" t="s">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B461" t="s">
         <v>951</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C461" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="460" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B460" t="s">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B462" t="s">
         <v>960</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C462" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B461" t="s">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B463" t="s">
         <v>953</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C463" t="s">
         <v>954</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D463" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B462" t="s">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B464" t="s">
         <v>956</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C464" t="s">
         <v>957</v>
-      </c>
-    </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B463" t="s">
-        <v>959</v>
-      </c>
-      <c r="C463" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="464" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B464" t="s">
-        <v>963</v>
-      </c>
-      <c r="C464" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B465" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C465" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B466" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C466" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B467" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C467" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B468" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C468" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B469" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C469" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B470" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C470" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B471" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C471" t="s">
-        <v>269</v>
+        <v>972</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B472" t="s">
-        <v>976</v>
+        <v>973</v>
+      </c>
+      <c r="C472" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B473" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C473" t="s">
-        <v>870</v>
+        <v>269</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B474" t="s">
-        <v>979</v>
-      </c>
-      <c r="C474" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B475" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C475" t="s">
-        <v>982</v>
+        <v>870</v>
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B476" t="s">
+        <v>979</v>
+      </c>
+      <c r="C476" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B477" t="s">
+        <v>981</v>
+      </c>
+      <c r="C477" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B478" t="s">
         <v>983</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C478" t="s">
         <v>984</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B479" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="C479" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B480" t="s">
+        <v>986</v>
+      </c>
+      <c r="C480" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B481" t="s">
+        <v>989</v>
+      </c>
+      <c r="C481" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B482" t="s">
+        <v>991</v>
+      </c>
+      <c r="C482" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B483" t="s">
+        <v>993</v>
+      </c>
+      <c r="C483" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B484" t="s">
+        <v>994</v>
+      </c>
+      <c r="C484" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B485" t="s">
+        <v>998</v>
+      </c>
+      <c r="C485" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B486" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B487" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B488" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B489" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B490" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C490" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B491" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B492" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B493" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B494" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B495" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C495" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B496" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B497" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B498" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B499" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H458">
-    <sortCondition ref="B2:B458"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H460">
+    <sortCondition ref="B2:B460"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A037D1B0-B474-49ED-B1F7-6F7D036C5867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFBFB2-E910-44B1-BFAD-3C9D4A3E6525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1028">
   <si>
     <t>специальный</t>
   </si>
@@ -3114,6 +3114,12 @@
   </si>
   <si>
     <t>переключатель</t>
+  </si>
+  <si>
+    <t>спойлер</t>
+  </si>
+  <si>
+    <t>к сведению</t>
   </si>
 </sst>
 </file>
@@ -3542,8 +3548,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6518,6 +6524,14 @@
         <v>274</v>
       </c>
     </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B335" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1027</v>
+      </c>
+    </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B336" t="s">
         <v>79</v>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFBFB2-E910-44B1-BFAD-3C9D4A3E6525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604E9A5B-E53E-4B5A-860E-4118D3EDE190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1029">
   <si>
     <t>специальный</t>
   </si>
@@ -3120,6 +3120,9 @@
   </si>
   <si>
     <t>к сведению</t>
+  </si>
+  <si>
+    <t>диаграмма</t>
   </si>
 </sst>
 </file>
@@ -3546,10 +3549,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H499"/>
+  <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C335" sqref="C335"/>
+    <sheetView tabSelected="1" topLeftCell="A473" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7946,6 +7949,14 @@
         <v>1025</v>
       </c>
     </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B500" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C500" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H460">

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604E9A5B-E53E-4B5A-860E-4118D3EDE190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40409203-5242-4A35-8A56-14F47A9000BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1034">
   <si>
     <t>специальный</t>
   </si>
@@ -3123,6 +3123,21 @@
   </si>
   <si>
     <t>диаграмма</t>
+  </si>
+  <si>
+    <t>стопка (вид данных)</t>
+  </si>
+  <si>
+    <t>пикселях</t>
+  </si>
+  <si>
+    <t>точках</t>
+  </si>
+  <si>
+    <t>связанных</t>
+  </si>
+  <si>
+    <t>стопка(вид)</t>
   </si>
 </sst>
 </file>
@@ -3549,10 +3564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H500"/>
+  <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B501" sqref="B501"/>
+    <sheetView tabSelected="1" topLeftCell="A372" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J390" sqref="J390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3561,7 +3576,7 @@
     <col min="3" max="3" width="21.1328125" customWidth="1"/>
     <col min="4" max="4" width="20.3984375" customWidth="1"/>
     <col min="5" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.45">
@@ -3824,6 +3839,9 @@
       <c r="B30" t="s">
         <v>903</v>
       </c>
+      <c r="C30" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
@@ -5062,6 +5080,9 @@
       <c r="E169" t="s">
         <v>517</v>
       </c>
+      <c r="F169" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
@@ -6820,7 +6841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B369" t="s">
         <v>631</v>
       </c>
@@ -6831,7 +6852,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B370" t="s">
         <v>134</v>
       </c>
@@ -6839,7 +6860,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B371" t="s">
         <v>134</v>
       </c>
@@ -6856,7 +6877,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B372" t="s">
         <v>84</v>
       </c>
@@ -6869,8 +6890,14 @@
       <c r="E372" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F372" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G372" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B373" t="s">
         <v>526</v>
       </c>
@@ -6878,7 +6905,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B374" t="s">
         <v>530</v>
       </c>
@@ -6886,7 +6913,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B375" t="s">
         <v>522</v>
       </c>
@@ -6900,7 +6927,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="376" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B376" t="s">
         <v>435</v>
       </c>
@@ -6908,7 +6935,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="377" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B377" t="s">
         <v>435</v>
       </c>
@@ -6916,12 +6943,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="378" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B378" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="379" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B379" t="s">
         <v>688</v>
       </c>
@@ -6929,7 +6956,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="380" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B380" t="s">
         <v>118</v>
       </c>
@@ -6937,7 +6964,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="381" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B381" t="s">
         <v>315</v>
       </c>
@@ -6945,7 +6972,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="382" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B382" t="s">
         <v>433</v>
       </c>
@@ -6953,7 +6980,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="383" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B383" t="s">
         <v>328</v>
       </c>
@@ -6961,7 +6988,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="384" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B384" t="s">
         <v>260</v>
       </c>
@@ -7955,6 +7982,14 @@
       </c>
       <c r="C500" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B501" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1031</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40409203-5242-4A35-8A56-14F47A9000BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263C357-7E26-4F13-8207-2F02BA64B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1042">
   <si>
     <t>специальный</t>
   </si>
@@ -3138,6 +3138,30 @@
   </si>
   <si>
     <t>стопка(вид)</t>
+  </si>
+  <si>
+    <t>аллоцируются</t>
+  </si>
+  <si>
+    <t>распределяются</t>
+  </si>
+  <si>
+    <t>находятся</t>
+  </si>
+  <si>
+    <t>Деструктуризация</t>
+  </si>
+  <si>
+    <t>разбор</t>
+  </si>
+  <si>
+    <t>Алиасинг</t>
+  </si>
+  <si>
+    <t>псевдонимы</t>
+  </si>
+  <si>
+    <t>официальный</t>
   </si>
 </sst>
 </file>
@@ -3564,10 +3588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J390" sqref="J390"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7952,7 +7976,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B497" t="s">
         <v>1020</v>
       </c>
@@ -7960,7 +7984,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B498" t="s">
         <v>1022</v>
       </c>
@@ -7968,7 +7992,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B499" t="s">
         <v>1024</v>
       </c>
@@ -7976,7 +8000,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B500" t="s">
         <v>1028</v>
       </c>
@@ -7984,12 +8008,47 @@
         <v>350</v>
       </c>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B501" t="s">
         <v>1030</v>
       </c>
       <c r="C501" t="s">
         <v>1031</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B502" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B503" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B504" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B505" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C505" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263C357-7E26-4F13-8207-2F02BA64B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631770F9-4871-4DA2-8EF8-A10D6CD07C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1044">
   <si>
     <t>специальный</t>
   </si>
@@ -3162,13 +3162,19 @@
   </si>
   <si>
     <t>официальный</t>
+  </si>
+  <si>
+    <t>перечень</t>
+  </si>
+  <si>
+    <t>устройство управления</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3212,6 +3218,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3239,7 +3252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3253,6 +3266,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3588,10 +3604,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:H512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A502" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F506" sqref="F506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7976,7 +7992,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B497" t="s">
         <v>1020</v>
       </c>
@@ -7984,7 +8000,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B498" t="s">
         <v>1022</v>
       </c>
@@ -7992,7 +8008,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B499" t="s">
         <v>1024</v>
       </c>
@@ -8000,7 +8016,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B500" t="s">
         <v>1028</v>
       </c>
@@ -8008,7 +8024,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B501" t="s">
         <v>1030</v>
       </c>
@@ -8016,7 +8032,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B502" t="s">
         <v>1034</v>
       </c>
@@ -8027,7 +8043,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B503" t="s">
         <v>1037</v>
       </c>
@@ -8035,7 +8051,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="504" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="504" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B504" t="s">
         <v>1039</v>
       </c>
@@ -8043,13 +8059,33 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="505" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B505" t="s">
         <v>1041</v>
       </c>
       <c r="C505" t="s">
         <v>823</v>
       </c>
+    </row>
+    <row r="506" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B506" t="s">
+        <v>79</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D506" t="s">
+        <v>100</v>
+      </c>
+      <c r="E506" t="s">
+        <v>13</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="512" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C512" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631770F9-4871-4DA2-8EF8-A10D6CD07C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CDE859-FCA4-4BA2-B95F-1083DCB2672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="1052">
   <si>
     <t>специальный</t>
   </si>
@@ -3168,6 +3168,30 @@
   </si>
   <si>
     <t>устройство управления</t>
+  </si>
+  <si>
+    <t>использовать</t>
+  </si>
+  <si>
+    <t>предоставляет</t>
+  </si>
+  <si>
+    <t>реестр</t>
+  </si>
+  <si>
+    <t>код</t>
+  </si>
+  <si>
+    <t>рукопись</t>
+  </si>
+  <si>
+    <t>кодирование</t>
+  </si>
+  <si>
+    <t>крейт</t>
+  </si>
+  <si>
+    <t>делать</t>
   </si>
 </sst>
 </file>
@@ -3606,8 +3630,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F506" sqref="F506"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6315,7 +6339,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B305" t="s">
         <v>214</v>
       </c>
@@ -6323,7 +6347,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B306" t="s">
         <v>679</v>
       </c>
@@ -6331,7 +6355,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B307" t="s">
         <v>49</v>
       </c>
@@ -6342,7 +6366,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B308" t="s">
         <v>773</v>
       </c>
@@ -6350,7 +6374,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B309" t="s">
         <v>47</v>
       </c>
@@ -6360,8 +6384,17 @@
       <c r="D309" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E309" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G309" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B310" t="s">
         <v>337</v>
       </c>
@@ -6372,12 +6405,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B311" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B312" t="s">
         <v>169</v>
       </c>
@@ -6388,7 +6421,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B313" t="s">
         <v>218</v>
       </c>
@@ -6396,7 +6429,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B314" t="s">
         <v>243</v>
       </c>
@@ -6404,7 +6437,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="315" spans="2:6" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:7" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B315" s="4" t="s">
         <v>815</v>
       </c>
@@ -6412,7 +6445,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B316" t="s">
         <v>532</v>
       </c>
@@ -6420,7 +6453,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B317" t="s">
         <v>94</v>
       </c>
@@ -6428,7 +6461,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B318" t="s">
         <v>509</v>
       </c>
@@ -6436,12 +6469,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B319" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B320" t="s">
         <v>173</v>
       </c>
@@ -8082,6 +8115,38 @@
       </c>
       <c r="F506" t="s">
         <v>1043</v>
+      </c>
+    </row>
+    <row r="507" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B507" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="508" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B508" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="509" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B509" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C509" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="510" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B510" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C510" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="512" spans="2:6" x14ac:dyDescent="0.45">

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CDE859-FCA4-4BA2-B95F-1083DCB2672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F7A07F-11B0-4C5F-97A4-6FC87BD62F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3630,8 +3630,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D511" sqref="D511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F7A07F-11B0-4C5F-97A4-6FC87BD62F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C215107-A5F4-4624-911E-D5BF8DFD9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="1064">
   <si>
     <t>специальный</t>
   </si>
@@ -3192,6 +3192,42 @@
   </si>
   <si>
     <t>делать</t>
+  </si>
+  <si>
+    <t>арсенал</t>
+  </si>
+  <si>
+    <t>набор</t>
+  </si>
+  <si>
+    <t>запас</t>
+  </si>
+  <si>
+    <t>первоисточник</t>
+  </si>
+  <si>
+    <t>оригинальные</t>
+  </si>
+  <si>
+    <t>изначальные</t>
+  </si>
+  <si>
+    <t>адаптирован</t>
+  </si>
+  <si>
+    <t>приспособлен</t>
+  </si>
+  <si>
+    <t>интеграция</t>
+  </si>
+  <si>
+    <t>встраивание</t>
+  </si>
+  <si>
+    <t>конструктор</t>
+  </si>
+  <si>
+    <t>строитель</t>
   </si>
 </sst>
 </file>
@@ -3208,45 +3244,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -3278,21 +3313,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3628,10 +3661,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H512"/>
+  <dimension ref="A1:H515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D511" sqref="D511"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B515" sqref="B515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3643,4519 +3676,7496 @@
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50">
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
         <v>25</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B61" t="s">
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B65" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B67" s="2" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="2"/>
+      <c r="B67" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B71" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B73" s="4" t="s">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="2"/>
+      <c r="B73" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B74" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B75" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B76" s="2" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="2"/>
+      <c r="B76" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B77" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B78" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B81" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B82" t="s">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B85" t="s">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B87" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B88" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B89" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B90" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B91" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B92" t="s">
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B93" t="s">
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B94" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B95" t="s">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B96" t="s">
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B97" t="s">
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B98" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B99" t="s">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B100" t="s">
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B101" t="s">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B102" t="s">
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B103" t="s">
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B104" t="s">
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B105" t="s">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B106" s="5" t="s">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A106" s="2"/>
+      <c r="B106" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B107" t="s">
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B108" t="s">
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B109" t="s">
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B110" t="s">
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B111" t="s">
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B112" s="4" t="s">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A112" s="2"/>
+      <c r="B112" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B113" t="s">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B114" t="s">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B115" t="s">
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B116" t="s">
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B117" t="s">
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B118" t="s">
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B119" t="s">
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B120" t="s">
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B121" t="s">
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B122" t="s">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B123" t="s">
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B124" t="s">
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B125" t="s">
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="2" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B126" t="s">
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B127" t="s">
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B128" t="s">
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B129" t="s">
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B130" t="s">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B131" t="s">
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B132" t="s">
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B133" t="s">
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B134" t="s">
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B135" t="s">
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B136" t="s">
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B137" t="s">
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B138" t="s">
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B139" t="s">
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B140" t="s">
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B141" t="s">
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B142" t="s">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B143" t="s">
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B144" t="s">
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B145" t="s">
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A146">
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A146" s="2">
         <v>24</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B147" t="s">
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B148" t="s">
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B149" t="s">
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B150" t="s">
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B151" t="s">
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B152" t="s">
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B153" t="s">
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B154" t="s">
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B155" t="s">
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B156" t="s">
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B157" t="s">
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B158" t="s">
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B159" t="s">
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B160" t="s">
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B161" t="s">
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B162" t="s">
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B163" t="s">
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B164" t="s">
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B165" t="s">
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B166" t="s">
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B167" t="s">
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B168" t="s">
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B169" t="s">
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="2" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B170" t="s">
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="2" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B171" t="s">
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B172" t="s">
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B173" t="s">
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="2" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B174" t="s">
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B175" t="s">
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B176" t="s">
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B177" t="s">
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B178" t="s">
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B179" t="s">
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B180" s="3" t="s">
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A180" s="2"/>
+      <c r="B180" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B181" t="s">
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B182" t="s">
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B183" t="s">
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B184" t="s">
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B185" t="s">
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B186" t="s">
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B187" t="s">
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B188" t="s">
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B189" t="s">
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B190" t="s">
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B191" t="s">
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B192" t="s">
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B193" t="s">
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B194" t="s">
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B195" t="s">
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B196" t="s">
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B197" t="s">
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B198" t="s">
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B199" t="s">
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B200" t="s">
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B201" t="s">
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="2" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B202" t="s">
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B203" t="s">
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B204" t="s">
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B205" t="s">
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B206" t="s">
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B207" t="s">
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B208" t="s">
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B209" t="s">
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B210" t="s">
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="2" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B211" t="s">
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B212" t="s">
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B213" t="s">
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B214" t="s">
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B215" t="s">
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B216" t="s">
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B217" t="s">
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B218" t="s">
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="2" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B219" t="s">
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B220" t="s">
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B221" t="s">
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="2" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B222" t="s">
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B223" t="s">
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B224" t="s">
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B225" t="s">
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B226" t="s">
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B227" t="s">
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B228" t="s">
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B229" t="s">
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B230" t="s">
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B231" t="s">
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B232" t="s">
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B233" t="s">
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B234" t="s">
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B235" t="s">
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B236" t="s">
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B237" t="s">
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="2" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B238" t="s">
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="2" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B239" t="s">
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B240" t="s">
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B241" t="s">
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B242" t="s">
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B243" t="s">
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B244" t="s">
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B245" t="s">
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C246" s="2" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B246" t="s">
+      <c r="D246" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C247" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B247" t="s">
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C248" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B248" t="s">
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C249" s="2" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B249" t="s">
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C250" s="2" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B250" t="s">
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C251" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D251" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="251" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B251" s="4" t="s">
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A252" s="2"/>
+      <c r="B252" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C252" s="2" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B252" t="s">
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C253" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B253" t="s">
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C254" s="2" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B254" t="s">
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B255" t="s">
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C256" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D256" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B256" t="s">
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C257" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B257" t="s">
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C258" s="2" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B258" t="s">
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C259" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B259" t="s">
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C260" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D260" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B260" t="s">
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D261" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B261" t="s">
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C262" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B262" t="s">
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C263" s="2" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B263" t="s">
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C264" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B264" t="s">
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C265" s="2" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B265" t="s">
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C266" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B266" t="s">
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C267" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B267" t="s">
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C268" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D268" s="2" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B268" t="s">
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C269" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B269" t="s">
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B270" t="s">
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C271" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D271" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E271" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F271" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G271" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B271" t="s">
+      <c r="H271" s="2"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C272" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B272" t="s">
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C273" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D273" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B273" t="s">
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C274" s="2" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B274" t="s">
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C275" s="2" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B275" t="s">
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C276" s="2" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B276" t="s">
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C277" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B277" t="s">
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C278" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D278" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B278" t="s">
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C279" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D279" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E279" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F279" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G279" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B279" t="s">
+      <c r="H279" s="2"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C280" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B280" t="s">
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C281" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D281" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B281" t="s">
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C282" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B282" t="s">
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B283" t="s">
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C284" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B284" t="s">
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C285" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B285" t="s">
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C286" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B286" t="s">
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A287" s="2"/>
+      <c r="B287" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C287" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B287" t="s">
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C288" s="2" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B288" t="s">
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="2"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A289" s="2"/>
+      <c r="B289" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C289" s="2" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B289" t="s">
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
+      <c r="H289" s="2"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C290" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B290" t="s">
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C291" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H290">
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B291" t="s">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C292" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D292" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E292" s="2" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B292" t="s">
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A293" s="2"/>
+      <c r="B293" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C293" s="2" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B293" t="s">
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A294" s="2"/>
+      <c r="B294" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C294" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B294" t="s">
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="2"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C295" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B295" t="s">
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="2"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A296" s="2"/>
+      <c r="B296" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C296" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B296" t="s">
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A297" s="2"/>
+      <c r="B297" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C297" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B297" t="s">
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C298" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B298" t="s">
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C299" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D299" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B299" t="s">
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C300" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B300" t="s">
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C301" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="301" spans="2:8" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B301" s="5" t="s">
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2"/>
+    </row>
+    <row r="302" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A302" s="2"/>
+      <c r="B302" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C302" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B302" t="s">
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B303" t="s">
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
+      <c r="H303" s="2"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C304" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B304" t="s">
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="2"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C305" s="2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B305" t="s">
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C306" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B306" t="s">
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C307" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B307" t="s">
+      <c r="D307" s="2"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+      <c r="H307" s="2"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C308" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D308" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B308" t="s">
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A309" s="2"/>
+      <c r="B309" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C309" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B309" t="s">
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="2"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C310" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D310" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E310" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F310" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G310" s="2" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B310" t="s">
+      <c r="H310" s="2"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A311" s="2"/>
+      <c r="B311" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C311" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D311" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B311" t="s">
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+      <c r="H311" s="2"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B312" t="s">
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="2"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A313" s="2"/>
+      <c r="B313" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C313" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D313" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B313" t="s">
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+      <c r="H313" s="2"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C314" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B314" t="s">
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="2"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A315" s="2"/>
+      <c r="B315" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C315" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="315" spans="2:7" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B315" s="4" t="s">
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
+      <c r="H315" s="2"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A316" s="2"/>
+      <c r="B316" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C316" s="2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B316" t="s">
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+      <c r="H316" s="2"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A317" s="2"/>
+      <c r="B317" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C317" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B317" t="s">
+      <c r="D317" s="2"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
+      <c r="H317" s="2"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C318" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B318" t="s">
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+      <c r="H318" s="2"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A319" s="2"/>
+      <c r="B319" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C319" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B319" t="s">
+      <c r="D319" s="2"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
+      <c r="G319" s="2"/>
+      <c r="H319" s="2"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A320" s="2"/>
+      <c r="B320" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B320" t="s">
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
+      <c r="G320" s="2"/>
+      <c r="H320" s="2"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A321" s="2"/>
+      <c r="B321" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C321" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D321" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E321" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F321" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B321" t="s">
+      <c r="G321" s="2"/>
+      <c r="H321" s="2"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A322" s="2"/>
+      <c r="B322" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C322" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B322" t="s">
+      <c r="D322" s="2"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
+      <c r="G322" s="2"/>
+      <c r="H322" s="2"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A323" s="2"/>
+      <c r="B323" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C323" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D323" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E323" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F323" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B323" t="s">
+      <c r="G323" s="2"/>
+      <c r="H323" s="2"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A324" s="2"/>
+      <c r="B324" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C324" s="2" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B324" t="s">
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+      <c r="G324" s="2"/>
+      <c r="H324" s="2"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A325" s="2"/>
+      <c r="B325" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C325" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D325" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B325" t="s">
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="2"/>
+      <c r="H325" s="2"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A326" s="2"/>
+      <c r="B326" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C326" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B326" t="s">
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
+      <c r="H326" s="2"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A327" s="2"/>
+      <c r="B327" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C327" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B327" t="s">
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
+      <c r="H327" s="2"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C328" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B328" t="s">
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
+      <c r="H328" s="2"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A329" s="2"/>
+      <c r="B329" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C329" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B329" t="s">
+      <c r="D329" s="2"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
+      <c r="G329" s="2"/>
+      <c r="H329" s="2"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A330" s="2"/>
+      <c r="B330" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C330" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B330" t="s">
+      <c r="D330" s="2"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+      <c r="G330" s="2"/>
+      <c r="H330" s="2"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A331" s="2"/>
+      <c r="B331" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C331" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D331" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B331" t="s">
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
+      <c r="G331" s="2"/>
+      <c r="H331" s="2"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C332" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B332" t="s">
+      <c r="D332" s="2"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+      <c r="G332" s="2"/>
+      <c r="H332" s="2"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A333" s="2"/>
+      <c r="B333" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C333" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B333" t="s">
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
+      <c r="H333" s="2"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A334" s="2"/>
+      <c r="B334" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C334" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D334" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B334" t="s">
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+      <c r="H334" s="2"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A335" s="2"/>
+      <c r="B335" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C335" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B335" t="s">
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A336" s="2"/>
+      <c r="B336" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C336" s="2" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B336" t="s">
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
+      <c r="H336" s="2"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C337" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D337" s="2" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B337" t="s">
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
+      <c r="H337" s="2"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A338" s="2"/>
+      <c r="B338" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C338" s="2" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B338" t="s">
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="2"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A339" s="2"/>
+      <c r="B339" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C339" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D339" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B339" t="s">
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="2"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A340" s="2"/>
+      <c r="B340" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C340" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B340" t="s">
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
+      <c r="H340" s="2"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A341" s="2"/>
+      <c r="B341" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C341" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B341" t="s">
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
+      <c r="H341" s="2"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A342" s="2"/>
+      <c r="B342" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C342" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B342" t="s">
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A343" s="2"/>
+      <c r="B343" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C343" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D343" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E343" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B343" t="s">
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A344" s="2"/>
+      <c r="B344" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C344" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B344" t="s">
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+      <c r="H344" s="2"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A345" s="2"/>
+      <c r="B345" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C345" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B345" t="s">
+      <c r="D345" s="2"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
+      <c r="H345" s="2"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A346" s="2"/>
+      <c r="B346" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C346" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B346" t="s">
+      <c r="D346" s="2"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
+      <c r="H346" s="2"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A347" s="2"/>
+      <c r="B347" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C347" s="2" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B347" t="s">
+      <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
+      <c r="H347" s="2"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A348" s="2"/>
+      <c r="B348" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C348" s="2" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B348" t="s">
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+      <c r="H348" s="2"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A349" s="2"/>
+      <c r="B349" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C349" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B349" t="s">
+      <c r="D349" s="2"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
+      <c r="G349" s="2"/>
+      <c r="H349" s="2"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C350" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B350" t="s">
+      <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
+      <c r="H350" s="2"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A351" s="2"/>
+      <c r="B351" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C351" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B351" t="s">
+      <c r="D351" s="2"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
+      <c r="H351" s="2"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C352" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D352" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B352" t="s">
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+      <c r="H352" s="2"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C353" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B353" t="s">
+      <c r="D353" s="2"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
+      <c r="H353" s="2"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A354" s="2"/>
+      <c r="B354" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C354" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B354" t="s">
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="2"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A355" s="2"/>
+      <c r="B355" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C355" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="355" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B355" s="4" t="s">
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
+      <c r="H355" s="2"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A356" s="2"/>
+      <c r="B356" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C356" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B356" t="s">
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
+      <c r="H356" s="2"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A357" s="2"/>
+      <c r="B357" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C357" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B357" t="s">
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
+      <c r="H357" s="2"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C358" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="358" spans="2:4" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B358" s="4" t="s">
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
+      <c r="H358" s="2"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A359" s="2"/>
+      <c r="B359" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C359" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B359" t="s">
+      <c r="D359" s="2"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="2"/>
+      <c r="G359" s="2"/>
+      <c r="H359" s="2"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C360" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D360" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B360" t="s">
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
+      <c r="H360" s="2"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A361" s="2"/>
+      <c r="B361" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C361" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B361" t="s">
+      <c r="D361" s="2"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
+      <c r="H361" s="2"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A362" s="2"/>
+      <c r="B362" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C362" s="2" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B362" t="s">
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
+      <c r="H362" s="2"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C363" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B363" t="s">
+      <c r="D363" s="2"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="2"/>
+      <c r="G363" s="2"/>
+      <c r="H363" s="2"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A364" s="2"/>
+      <c r="B364" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C364" s="2" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B364" t="s">
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
+      <c r="H364" s="2"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A365" s="2"/>
+      <c r="B365" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C365" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B365" t="s">
+      <c r="D365" s="2"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
+      <c r="H365" s="2"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B366" t="s">
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
+      <c r="H366" s="2"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C367" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D367" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B367" t="s">
+      <c r="E367" s="2"/>
+      <c r="F367" s="2"/>
+      <c r="G367" s="2"/>
+      <c r="H367" s="2"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C368" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B368" t="s">
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
+      <c r="H368" s="2"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A369" s="2"/>
+      <c r="B369" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C369" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D369" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B369" t="s">
+      <c r="E369" s="2"/>
+      <c r="F369" s="2"/>
+      <c r="G369" s="2"/>
+      <c r="H369" s="2"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C370" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D370" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B370" t="s">
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+      <c r="H370" s="2"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A371" s="2"/>
+      <c r="B371" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C371" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B371" t="s">
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+      <c r="H371" s="2"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C372" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D372" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E371" t="s">
+      <c r="E372" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F371" t="s">
+      <c r="F372" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B372" t="s">
+      <c r="G372" s="2"/>
+      <c r="H372" s="2"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A373" s="2"/>
+      <c r="B373" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C373" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D373" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E372" t="s">
+      <c r="E373" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F372" t="s">
+      <c r="F373" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="G372" t="s">
+      <c r="G373" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B373" t="s">
+      <c r="H373" s="2"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C374" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B374" t="s">
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+      <c r="H374" s="2"/>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A375" s="2"/>
+      <c r="B375" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C375" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B375" t="s">
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
+      <c r="G375" s="2"/>
+      <c r="H375" s="2"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C376" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D376" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E376" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B376" t="s">
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
+      <c r="H376" s="2"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C377" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B377" t="s">
+      <c r="D377" s="2"/>
+      <c r="E377" s="2"/>
+      <c r="F377" s="2"/>
+      <c r="G377" s="2"/>
+      <c r="H377" s="2"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C378" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B378" t="s">
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
+      <c r="H378" s="2"/>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A379" s="2"/>
+      <c r="B379" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B379" t="s">
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+      <c r="E379" s="2"/>
+      <c r="F379" s="2"/>
+      <c r="G379" s="2"/>
+      <c r="H379" s="2"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C380" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B380" t="s">
+      <c r="D380" s="2"/>
+      <c r="E380" s="2"/>
+      <c r="F380" s="2"/>
+      <c r="G380" s="2"/>
+      <c r="H380" s="2"/>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C381" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B381" t="s">
+      <c r="D381" s="2"/>
+      <c r="E381" s="2"/>
+      <c r="F381" s="2"/>
+      <c r="G381" s="2"/>
+      <c r="H381" s="2"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A382" s="2"/>
+      <c r="B382" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C382" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B382" t="s">
+      <c r="D382" s="2"/>
+      <c r="E382" s="2"/>
+      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
+      <c r="H382" s="2"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A383" s="2"/>
+      <c r="B383" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C383" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B383" t="s">
+      <c r="D383" s="2"/>
+      <c r="E383" s="2"/>
+      <c r="F383" s="2"/>
+      <c r="G383" s="2"/>
+      <c r="H383" s="2"/>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A384" s="2"/>
+      <c r="B384" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C384" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B384" t="s">
+      <c r="D384" s="2"/>
+      <c r="E384" s="2"/>
+      <c r="F384" s="2"/>
+      <c r="G384" s="2"/>
+      <c r="H384" s="2"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A385" s="2"/>
+      <c r="B385" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C385" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B385" t="s">
+      <c r="D385" s="2"/>
+      <c r="E385" s="2"/>
+      <c r="F385" s="2"/>
+      <c r="G385" s="2"/>
+      <c r="H385" s="2"/>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A386" s="2"/>
+      <c r="B386" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C386" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B386" t="s">
+      <c r="D386" s="2"/>
+      <c r="E386" s="2"/>
+      <c r="F386" s="2"/>
+      <c r="G386" s="2"/>
+      <c r="H386" s="2"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A387" s="2"/>
+      <c r="B387" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C387" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B387" t="s">
+      <c r="D387" s="2"/>
+      <c r="E387" s="2"/>
+      <c r="F387" s="2"/>
+      <c r="G387" s="2"/>
+      <c r="H387" s="2"/>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A388" s="2"/>
+      <c r="B388" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C388" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B388" t="s">
+      <c r="D388" s="2"/>
+      <c r="E388" s="2"/>
+      <c r="F388" s="2"/>
+      <c r="G388" s="2"/>
+      <c r="H388" s="2"/>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A389" s="2"/>
+      <c r="B389" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C389" s="2" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B389" t="s">
+      <c r="D389" s="2"/>
+      <c r="E389" s="2"/>
+      <c r="F389" s="2"/>
+      <c r="G389" s="2"/>
+      <c r="H389" s="2"/>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A390" s="2"/>
+      <c r="B390" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C390" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B390" t="s">
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
+      <c r="H390" s="2"/>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A391" s="2"/>
+      <c r="B391" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C391" s="2" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B391" t="s">
+      <c r="D391" s="2"/>
+      <c r="E391" s="2"/>
+      <c r="F391" s="2"/>
+      <c r="G391" s="2"/>
+      <c r="H391" s="2"/>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A392" s="2"/>
+      <c r="B392" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C392" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B392" t="s">
+      <c r="D392" s="2"/>
+      <c r="E392" s="2"/>
+      <c r="F392" s="2"/>
+      <c r="G392" s="2"/>
+      <c r="H392" s="2"/>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A393" s="2"/>
+      <c r="B393" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C393" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B393" s="1" t="s">
+      <c r="D393" s="2"/>
+      <c r="E393" s="2"/>
+      <c r="F393" s="2"/>
+      <c r="G393" s="2"/>
+      <c r="H393" s="2"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A394" s="2"/>
+      <c r="B394" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C394" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B394" t="s">
+      <c r="D394" s="2"/>
+      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
+      <c r="G394" s="2"/>
+      <c r="H394" s="2"/>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C395" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D395" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E395" s="2" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B395" t="s">
+      <c r="F395" s="2"/>
+      <c r="G395" s="2"/>
+      <c r="H395" s="2"/>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C396" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B396" t="s">
+      <c r="D396" s="2"/>
+      <c r="E396" s="2"/>
+      <c r="F396" s="2"/>
+      <c r="G396" s="2"/>
+      <c r="H396" s="2"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A397" s="2"/>
+      <c r="B397" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C397" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B397" t="s">
+      <c r="D397" s="2"/>
+      <c r="E397" s="2"/>
+      <c r="F397" s="2"/>
+      <c r="G397" s="2"/>
+      <c r="H397" s="2"/>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A398" s="2"/>
+      <c r="B398" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C398" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B398" t="s">
+      <c r="D398" s="2"/>
+      <c r="E398" s="2"/>
+      <c r="F398" s="2"/>
+      <c r="G398" s="2"/>
+      <c r="H398" s="2"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A399" s="2"/>
+      <c r="B399" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C399" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B399" t="s">
+      <c r="D399" s="2"/>
+      <c r="E399" s="2"/>
+      <c r="F399" s="2"/>
+      <c r="G399" s="2"/>
+      <c r="H399" s="2"/>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A400" s="2"/>
+      <c r="B400" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C400" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B400" t="s">
+      <c r="D400" s="2"/>
+      <c r="E400" s="2"/>
+      <c r="F400" s="2"/>
+      <c r="G400" s="2"/>
+      <c r="H400" s="2"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A401" s="2"/>
+      <c r="B401" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C401" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B401" t="s">
+      <c r="D401" s="2"/>
+      <c r="E401" s="2"/>
+      <c r="F401" s="2"/>
+      <c r="G401" s="2"/>
+      <c r="H401" s="2"/>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A402" s="2"/>
+      <c r="B402" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C402" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B402" t="s">
+      <c r="D402" s="2"/>
+      <c r="E402" s="2"/>
+      <c r="F402" s="2"/>
+      <c r="G402" s="2"/>
+      <c r="H402" s="2"/>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A403" s="2"/>
+      <c r="B403" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C403" s="2" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B403" t="s">
+      <c r="D403" s="2"/>
+      <c r="E403" s="2"/>
+      <c r="F403" s="2"/>
+      <c r="G403" s="2"/>
+      <c r="H403" s="2"/>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A404" s="2"/>
+      <c r="B404" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C404" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B404" t="s">
+      <c r="D404" s="2"/>
+      <c r="E404" s="2"/>
+      <c r="F404" s="2"/>
+      <c r="G404" s="2"/>
+      <c r="H404" s="2"/>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A405" s="2"/>
+      <c r="B405" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C405" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B405" t="s">
+      <c r="D405" s="2"/>
+      <c r="E405" s="2"/>
+      <c r="F405" s="2"/>
+      <c r="G405" s="2"/>
+      <c r="H405" s="2"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A406" s="2"/>
+      <c r="B406" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C406" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B406" t="s">
+      <c r="D406" s="2"/>
+      <c r="E406" s="2"/>
+      <c r="F406" s="2"/>
+      <c r="G406" s="2"/>
+      <c r="H406" s="2"/>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A407" s="2"/>
+      <c r="B407" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C407" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B407" t="s">
+      <c r="D407" s="2"/>
+      <c r="E407" s="2"/>
+      <c r="F407" s="2"/>
+      <c r="G407" s="2"/>
+      <c r="H407" s="2"/>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A408" s="2"/>
+      <c r="B408" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C408" s="2" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B408" t="s">
+      <c r="D408" s="2"/>
+      <c r="E408" s="2"/>
+      <c r="F408" s="2"/>
+      <c r="G408" s="2"/>
+      <c r="H408" s="2"/>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A409" s="2"/>
+      <c r="B409" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C409" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B409" t="s">
+      <c r="D409" s="2"/>
+      <c r="E409" s="2"/>
+      <c r="F409" s="2"/>
+      <c r="G409" s="2"/>
+      <c r="H409" s="2"/>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A410" s="2"/>
+      <c r="B410" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C410" s="2" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B410" t="s">
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+      <c r="F410" s="2"/>
+      <c r="G410" s="2"/>
+      <c r="H410" s="2"/>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A411" s="2"/>
+      <c r="B411" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C411" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D411" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B411" t="s">
+      <c r="E411" s="2"/>
+      <c r="F411" s="2"/>
+      <c r="G411" s="2"/>
+      <c r="H411" s="2"/>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A412" s="2"/>
+      <c r="B412" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C412" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D412" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B412" t="s">
+      <c r="E412" s="2"/>
+      <c r="F412" s="2"/>
+      <c r="G412" s="2"/>
+      <c r="H412" s="2"/>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C413" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B413" t="s">
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="2"/>
+      <c r="G413" s="2"/>
+      <c r="H413" s="2"/>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C414" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D414" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B414" t="s">
+      <c r="E414" s="2"/>
+      <c r="F414" s="2"/>
+      <c r="G414" s="2"/>
+      <c r="H414" s="2"/>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A415" s="2"/>
+      <c r="B415" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C415" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B415" t="s">
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="2"/>
+      <c r="G415" s="2"/>
+      <c r="H415" s="2"/>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A416" s="2"/>
+      <c r="B416" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C416" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B416" t="s">
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="2"/>
+      <c r="G416" s="2"/>
+      <c r="H416" s="2"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A417" s="2"/>
+      <c r="B417" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C417" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B417" t="s">
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
+      <c r="H417" s="2"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A418" s="2"/>
+      <c r="B418" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C418" s="2" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B418" t="s">
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="2"/>
+      <c r="G418" s="2"/>
+      <c r="H418" s="2"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A419" s="2"/>
+      <c r="B419" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C419" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B419" t="s">
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
+      <c r="H419" s="2"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A420" s="2"/>
+      <c r="B420" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C420" s="2" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B420" t="s">
+      <c r="D420" s="2"/>
+      <c r="E420" s="2"/>
+      <c r="F420" s="2"/>
+      <c r="G420" s="2"/>
+      <c r="H420" s="2"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A421" s="2"/>
+      <c r="B421" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C421" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B421" t="s">
+      <c r="D421" s="2"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="2"/>
+      <c r="G421" s="2"/>
+      <c r="H421" s="2"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A422" s="2"/>
+      <c r="B422" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C422" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B422" t="s">
+      <c r="D422" s="2"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="2"/>
+      <c r="G422" s="2"/>
+      <c r="H422" s="2"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A423" s="2"/>
+      <c r="B423" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C423" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B423" t="s">
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A424" s="2"/>
+      <c r="B424" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C424" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D424" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B424" t="s">
+      <c r="E424" s="2"/>
+      <c r="F424" s="2"/>
+      <c r="G424" s="2"/>
+      <c r="H424" s="2"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A425" s="2"/>
+      <c r="B425" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C425" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B425" t="s">
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
+      <c r="G425" s="2"/>
+      <c r="H425" s="2"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A426" s="2"/>
+      <c r="B426" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C426" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B426" t="s">
+      <c r="D426" s="2"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="2"/>
+      <c r="G426" s="2"/>
+      <c r="H426" s="2"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A427" s="2"/>
+      <c r="B427" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C427" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B427" t="s">
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="2"/>
+      <c r="G427" s="2"/>
+      <c r="H427" s="2"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A428" s="2"/>
+      <c r="B428" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C428" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B428" t="s">
+      <c r="D428" s="2"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="2"/>
+      <c r="G428" s="2"/>
+      <c r="H428" s="2"/>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A429" s="2"/>
+      <c r="B429" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C429" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B429" t="s">
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="2"/>
+      <c r="G429" s="2"/>
+      <c r="H429" s="2"/>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A430" s="2"/>
+      <c r="B430" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C430" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D430" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B430" t="s">
+      <c r="E430" s="2"/>
+      <c r="F430" s="2"/>
+      <c r="G430" s="2"/>
+      <c r="H430" s="2"/>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A431" s="2"/>
+      <c r="B431" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C431" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D431" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B431" t="s">
+      <c r="E431" s="2"/>
+      <c r="F431" s="2"/>
+      <c r="G431" s="2"/>
+      <c r="H431" s="2"/>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A432" s="2"/>
+      <c r="B432" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C432" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D432" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B432" t="s">
+      <c r="E432" s="2"/>
+      <c r="F432" s="2"/>
+      <c r="G432" s="2"/>
+      <c r="H432" s="2"/>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A433" s="2"/>
+      <c r="B433" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C433" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B433" t="s">
+      <c r="D433" s="2"/>
+      <c r="E433" s="2"/>
+      <c r="F433" s="2"/>
+      <c r="G433" s="2"/>
+      <c r="H433" s="2"/>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A434" s="2"/>
+      <c r="B434" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C434" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D434" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B434" t="s">
+      <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
+      <c r="H434" s="2"/>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A435" s="2"/>
+      <c r="B435" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C435" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B435" t="s">
+      <c r="D435" s="2"/>
+      <c r="E435" s="2"/>
+      <c r="F435" s="2"/>
+      <c r="G435" s="2"/>
+      <c r="H435" s="2"/>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A436" s="2"/>
+      <c r="B436" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C436" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D436" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E435" t="s">
+      <c r="E436" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B436" t="s">
+      <c r="F436" s="2"/>
+      <c r="G436" s="2"/>
+      <c r="H436" s="2"/>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A437" s="2"/>
+      <c r="B437" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C437" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B437" t="s">
+      <c r="D437" s="2"/>
+      <c r="E437" s="2"/>
+      <c r="F437" s="2"/>
+      <c r="G437" s="2"/>
+      <c r="H437" s="2"/>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A438" s="2"/>
+      <c r="B438" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C438" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B438" t="s">
+      <c r="D438" s="2"/>
+      <c r="E438" s="2"/>
+      <c r="F438" s="2"/>
+      <c r="G438" s="2"/>
+      <c r="H438" s="2"/>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A439" s="2"/>
+      <c r="B439" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C439" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B439" t="s">
+      <c r="D439" s="2"/>
+      <c r="E439" s="2"/>
+      <c r="F439" s="2"/>
+      <c r="G439" s="2"/>
+      <c r="H439" s="2"/>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A440" s="2"/>
+      <c r="B440" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C440" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B440" t="s">
+      <c r="D440" s="2"/>
+      <c r="E440" s="2"/>
+      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
+      <c r="H440" s="2"/>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A441" s="2"/>
+      <c r="B441" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C441" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D441" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B441" t="s">
+      <c r="E441" s="2"/>
+      <c r="F441" s="2"/>
+      <c r="G441" s="2"/>
+      <c r="H441" s="2"/>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A442" s="2"/>
+      <c r="B442" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C442" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B442" t="s">
+      <c r="D442" s="2"/>
+      <c r="E442" s="2"/>
+      <c r="F442" s="2"/>
+      <c r="G442" s="2"/>
+      <c r="H442" s="2"/>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A443" s="2"/>
+      <c r="B443" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C443" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D443" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B443" t="s">
+      <c r="E443" s="2"/>
+      <c r="F443" s="2"/>
+      <c r="G443" s="2"/>
+      <c r="H443" s="2"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A444" s="2"/>
+      <c r="B444" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C444" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B444" t="s">
+      <c r="D444" s="2"/>
+      <c r="E444" s="2"/>
+      <c r="F444" s="2"/>
+      <c r="G444" s="2"/>
+      <c r="H444" s="2"/>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A445" s="2"/>
+      <c r="B445" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C445" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B445" t="s">
+      <c r="D445" s="2"/>
+      <c r="E445" s="2"/>
+      <c r="F445" s="2"/>
+      <c r="G445" s="2"/>
+      <c r="H445" s="2"/>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A446" s="2"/>
+      <c r="B446" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C446" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B446" t="s">
+      <c r="D446" s="2"/>
+      <c r="E446" s="2"/>
+      <c r="F446" s="2"/>
+      <c r="G446" s="2"/>
+      <c r="H446" s="2"/>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A447" s="2"/>
+      <c r="B447" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C447" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B447" t="s">
+      <c r="D447" s="2"/>
+      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
+      <c r="H447" s="2"/>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A448" s="2"/>
+      <c r="B448" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C448" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B448" t="s">
+      <c r="D448" s="2"/>
+      <c r="E448" s="2"/>
+      <c r="F448" s="2"/>
+      <c r="G448" s="2"/>
+      <c r="H448" s="2"/>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A449" s="2"/>
+      <c r="B449" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C449" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B449" t="s">
+      <c r="D449" s="2"/>
+      <c r="E449" s="2"/>
+      <c r="F449" s="2"/>
+      <c r="G449" s="2"/>
+      <c r="H449" s="2"/>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A450" s="2"/>
+      <c r="B450" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C450" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B450" t="s">
+      <c r="D450" s="2"/>
+      <c r="E450" s="2"/>
+      <c r="F450" s="2"/>
+      <c r="G450" s="2"/>
+      <c r="H450" s="2"/>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A451" s="2"/>
+      <c r="B451" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C451" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D451" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E450" t="s">
+      <c r="E451" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F450" t="s">
+      <c r="F451" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B451" t="s">
+      <c r="G451" s="2"/>
+      <c r="H451" s="2"/>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A452" s="2"/>
+      <c r="B452" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C452" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D452" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B452" t="s">
+      <c r="E452" s="2"/>
+      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
+      <c r="H452" s="2"/>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A453" s="2"/>
+      <c r="B453" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C453" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B453" t="s">
+      <c r="D453" s="2"/>
+      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
+      <c r="H453" s="2"/>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A454" s="2"/>
+      <c r="B454" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C454" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B454" t="s">
+      <c r="D454" s="2"/>
+      <c r="E454" s="2"/>
+      <c r="F454" s="2"/>
+      <c r="G454" s="2"/>
+      <c r="H454" s="2"/>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A455" s="2"/>
+      <c r="B455" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C455" s="2" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B455" t="s">
+      <c r="D455" s="2"/>
+      <c r="E455" s="2"/>
+      <c r="F455" s="2"/>
+      <c r="G455" s="2"/>
+      <c r="H455" s="2"/>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A456" s="2"/>
+      <c r="B456" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C456" s="2" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B456" t="s">
+      <c r="D456" s="2"/>
+      <c r="E456" s="2"/>
+      <c r="F456" s="2"/>
+      <c r="G456" s="2"/>
+      <c r="H456" s="2"/>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A457" s="2"/>
+      <c r="B457" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C457" s="2" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B457" t="s">
+      <c r="D457" s="2"/>
+      <c r="E457" s="2"/>
+      <c r="F457" s="2"/>
+      <c r="G457" s="2"/>
+      <c r="H457" s="2"/>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A458" s="2"/>
+      <c r="B458" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C458" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D458" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="E457" t="s">
+      <c r="E458" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B458" t="s">
+      <c r="F458" s="2"/>
+      <c r="G458" s="2"/>
+      <c r="H458" s="2"/>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A459" s="2"/>
+      <c r="B459" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C459" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B459" t="s">
+      <c r="D459" s="2"/>
+      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
+      <c r="H459" s="2"/>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A460" s="2"/>
+      <c r="B460" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C460" s="2" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B460" t="s">
+      <c r="D460" s="2"/>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
+      <c r="H460" s="2"/>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A461" s="2"/>
+      <c r="B461" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C461" s="2" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B461" t="s">
+      <c r="D461" s="2"/>
+      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
+      <c r="H461" s="2"/>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A462" s="2"/>
+      <c r="B462" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C462" s="2" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B462" t="s">
+      <c r="D462" s="2"/>
+      <c r="E462" s="2"/>
+      <c r="F462" s="2"/>
+      <c r="G462" s="2"/>
+      <c r="H462" s="2"/>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A463" s="2"/>
+      <c r="B463" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C463" s="2" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B463" t="s">
+      <c r="D463" s="2"/>
+      <c r="E463" s="2"/>
+      <c r="F463" s="2"/>
+      <c r="G463" s="2"/>
+      <c r="H463" s="2"/>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A464" s="2"/>
+      <c r="B464" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C464" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D464" s="2" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B464" t="s">
+      <c r="E464" s="2"/>
+      <c r="F464" s="2"/>
+      <c r="G464" s="2"/>
+      <c r="H464" s="2"/>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A465" s="2"/>
+      <c r="B465" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C465" s="2" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B465" t="s">
+      <c r="D465" s="2"/>
+      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
+      <c r="G465" s="2"/>
+      <c r="H465" s="2"/>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A466" s="2"/>
+      <c r="B466" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C466" s="2" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B466" t="s">
+      <c r="D466" s="2"/>
+      <c r="E466" s="2"/>
+      <c r="F466" s="2"/>
+      <c r="G466" s="2"/>
+      <c r="H466" s="2"/>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A467" s="2"/>
+      <c r="B467" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C467" s="2" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B467" t="s">
+      <c r="D467" s="2"/>
+      <c r="E467" s="2"/>
+      <c r="F467" s="2"/>
+      <c r="G467" s="2"/>
+      <c r="H467" s="2"/>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A468" s="2"/>
+      <c r="B468" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C468" s="2" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B468" t="s">
+      <c r="D468" s="2"/>
+      <c r="E468" s="2"/>
+      <c r="F468" s="2"/>
+      <c r="G468" s="2"/>
+      <c r="H468" s="2"/>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A469" s="2"/>
+      <c r="B469" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C469" s="2" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B469" t="s">
+      <c r="D469" s="2"/>
+      <c r="E469" s="2"/>
+      <c r="F469" s="2"/>
+      <c r="G469" s="2"/>
+      <c r="H469" s="2"/>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A470" s="2"/>
+      <c r="B470" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C470" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B470" t="s">
+      <c r="D470" s="2"/>
+      <c r="E470" s="2"/>
+      <c r="F470" s="2"/>
+      <c r="G470" s="2"/>
+      <c r="H470" s="2"/>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A471" s="2"/>
+      <c r="B471" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C471" s="2" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B471" t="s">
+      <c r="D471" s="2"/>
+      <c r="E471" s="2"/>
+      <c r="F471" s="2"/>
+      <c r="G471" s="2"/>
+      <c r="H471" s="2"/>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A472" s="2"/>
+      <c r="B472" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C472" s="2" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B472" t="s">
+      <c r="D472" s="2"/>
+      <c r="E472" s="2"/>
+      <c r="F472" s="2"/>
+      <c r="G472" s="2"/>
+      <c r="H472" s="2"/>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A473" s="2"/>
+      <c r="B473" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C473" s="2" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B473" t="s">
+      <c r="D473" s="2"/>
+      <c r="E473" s="2"/>
+      <c r="F473" s="2"/>
+      <c r="G473" s="2"/>
+      <c r="H473" s="2"/>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A474" s="2"/>
+      <c r="B474" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C474" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B474" t="s">
+      <c r="D474" s="2"/>
+      <c r="E474" s="2"/>
+      <c r="F474" s="2"/>
+      <c r="G474" s="2"/>
+      <c r="H474" s="2"/>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A475" s="2"/>
+      <c r="B475" s="2" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B475" t="s">
+      <c r="C475" s="2"/>
+      <c r="D475" s="2"/>
+      <c r="E475" s="2"/>
+      <c r="F475" s="2"/>
+      <c r="G475" s="2"/>
+      <c r="H475" s="2"/>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A476" s="2"/>
+      <c r="B476" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C476" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B476" t="s">
+      <c r="D476" s="2"/>
+      <c r="E476" s="2"/>
+      <c r="F476" s="2"/>
+      <c r="G476" s="2"/>
+      <c r="H476" s="2"/>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A477" s="2"/>
+      <c r="B477" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C477" s="2" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B477" t="s">
+      <c r="D477" s="2"/>
+      <c r="E477" s="2"/>
+      <c r="F477" s="2"/>
+      <c r="G477" s="2"/>
+      <c r="H477" s="2"/>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A478" s="2"/>
+      <c r="B478" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C478" s="2" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B478" t="s">
+      <c r="D478" s="2"/>
+      <c r="E478" s="2"/>
+      <c r="F478" s="2"/>
+      <c r="G478" s="2"/>
+      <c r="H478" s="2"/>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A479" s="2"/>
+      <c r="B479" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C479" s="2" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B479" s="6" t="s">
+      <c r="D479" s="2"/>
+      <c r="E479" s="2"/>
+      <c r="F479" s="2"/>
+      <c r="G479" s="2"/>
+      <c r="H479" s="2"/>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A480" s="2"/>
+      <c r="B480" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C480" s="2" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B480" t="s">
+      <c r="D480" s="2"/>
+      <c r="E480" s="2"/>
+      <c r="F480" s="2"/>
+      <c r="G480" s="2"/>
+      <c r="H480" s="2"/>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A481" s="2"/>
+      <c r="B481" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C481" s="2" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B481" t="s">
+      <c r="D481" s="2"/>
+      <c r="E481" s="2"/>
+      <c r="F481" s="2"/>
+      <c r="G481" s="2"/>
+      <c r="H481" s="2"/>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A482" s="2"/>
+      <c r="B482" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C482" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B482" t="s">
+      <c r="D482" s="2"/>
+      <c r="E482" s="2"/>
+      <c r="F482" s="2"/>
+      <c r="G482" s="2"/>
+      <c r="H482" s="2"/>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A483" s="2"/>
+      <c r="B483" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C483" s="2" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B483" t="s">
+      <c r="D483" s="2"/>
+      <c r="E483" s="2"/>
+      <c r="F483" s="2"/>
+      <c r="G483" s="2"/>
+      <c r="H483" s="2"/>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A484" s="2"/>
+      <c r="B484" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C484" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B484" t="s">
+      <c r="D484" s="2"/>
+      <c r="E484" s="2"/>
+      <c r="F484" s="2"/>
+      <c r="G484" s="2"/>
+      <c r="H484" s="2"/>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A485" s="2"/>
+      <c r="B485" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C485" s="2" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B485" t="s">
+      <c r="D485" s="2"/>
+      <c r="E485" s="2"/>
+      <c r="F485" s="2"/>
+      <c r="G485" s="2"/>
+      <c r="H485" s="2"/>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A486" s="2"/>
+      <c r="B486" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C486" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B486" t="s">
+      <c r="D486" s="2"/>
+      <c r="E486" s="2"/>
+      <c r="F486" s="2"/>
+      <c r="G486" s="2"/>
+      <c r="H486" s="2"/>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A487" s="2"/>
+      <c r="B487" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C487" s="2" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B487" t="s">
+      <c r="D487" s="2"/>
+      <c r="E487" s="2"/>
+      <c r="F487" s="2"/>
+      <c r="G487" s="2"/>
+      <c r="H487" s="2"/>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A488" s="2"/>
+      <c r="B488" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C488" s="2" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B488" t="s">
+      <c r="D488" s="2"/>
+      <c r="E488" s="2"/>
+      <c r="F488" s="2"/>
+      <c r="G488" s="2"/>
+      <c r="H488" s="2"/>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A489" s="2"/>
+      <c r="B489" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C489" s="2" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B489" t="s">
+      <c r="D489" s="2"/>
+      <c r="E489" s="2"/>
+      <c r="F489" s="2"/>
+      <c r="G489" s="2"/>
+      <c r="H489" s="2"/>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A490" s="2"/>
+      <c r="B490" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C490" s="2" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B490" t="s">
+      <c r="D490" s="2"/>
+      <c r="E490" s="2"/>
+      <c r="F490" s="2"/>
+      <c r="G490" s="2"/>
+      <c r="H490" s="2"/>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A491" s="2"/>
+      <c r="B491" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C491" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B491" t="s">
+      <c r="D491" s="2"/>
+      <c r="E491" s="2"/>
+      <c r="F491" s="2"/>
+      <c r="G491" s="2"/>
+      <c r="H491" s="2"/>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A492" s="2"/>
+      <c r="B492" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C492" s="2" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B492" t="s">
+      <c r="D492" s="2"/>
+      <c r="E492" s="2"/>
+      <c r="F492" s="2"/>
+      <c r="G492" s="2"/>
+      <c r="H492" s="2"/>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A493" s="2"/>
+      <c r="B493" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="C492" t="s">
+      <c r="C493" s="2" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B493" t="s">
+      <c r="D493" s="2"/>
+      <c r="E493" s="2"/>
+      <c r="F493" s="2"/>
+      <c r="G493" s="2"/>
+      <c r="H493" s="2"/>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A494" s="2"/>
+      <c r="B494" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="C493" t="s">
+      <c r="C494" s="2" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B494" t="s">
+      <c r="D494" s="2"/>
+      <c r="E494" s="2"/>
+      <c r="F494" s="2"/>
+      <c r="G494" s="2"/>
+      <c r="H494" s="2"/>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A495" s="2"/>
+      <c r="B495" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C495" s="2" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B495" t="s">
+      <c r="D495" s="2"/>
+      <c r="E495" s="2"/>
+      <c r="F495" s="2"/>
+      <c r="G495" s="2"/>
+      <c r="H495" s="2"/>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A496" s="2"/>
+      <c r="B496" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C496" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B496" t="s">
+      <c r="D496" s="2"/>
+      <c r="E496" s="2"/>
+      <c r="F496" s="2"/>
+      <c r="G496" s="2"/>
+      <c r="H496" s="2"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A497" s="2"/>
+      <c r="B497" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="C496" t="s">
+      <c r="C497" s="2" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B497" t="s">
+      <c r="D497" s="2"/>
+      <c r="E497" s="2"/>
+      <c r="F497" s="2"/>
+      <c r="G497" s="2"/>
+      <c r="H497" s="2"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A498" s="2"/>
+      <c r="B498" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C498" s="2" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B498" t="s">
+      <c r="D498" s="2"/>
+      <c r="E498" s="2"/>
+      <c r="F498" s="2"/>
+      <c r="G498" s="2"/>
+      <c r="H498" s="2"/>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A499" s="2"/>
+      <c r="B499" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C499" s="2" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B499" t="s">
+      <c r="D499" s="2"/>
+      <c r="E499" s="2"/>
+      <c r="F499" s="2"/>
+      <c r="G499" s="2"/>
+      <c r="H499" s="2"/>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A500" s="2"/>
+      <c r="B500" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C500" s="2" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B500" t="s">
+      <c r="D500" s="2"/>
+      <c r="E500" s="2"/>
+      <c r="F500" s="2"/>
+      <c r="G500" s="2"/>
+      <c r="H500" s="2"/>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A501" s="2"/>
+      <c r="B501" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C501" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B501" t="s">
+      <c r="D501" s="2"/>
+      <c r="E501" s="2"/>
+      <c r="F501" s="2"/>
+      <c r="G501" s="2"/>
+      <c r="H501" s="2"/>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A502" s="2"/>
+      <c r="B502" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C502" s="2" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B502" t="s">
+      <c r="D502" s="2"/>
+      <c r="E502" s="2"/>
+      <c r="F502" s="2"/>
+      <c r="G502" s="2"/>
+      <c r="H502" s="2"/>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A503" s="2"/>
+      <c r="B503" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="C502" t="s">
+      <c r="C503" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="D502" t="s">
+      <c r="D503" s="2" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B503" t="s">
+      <c r="E503" s="2"/>
+      <c r="F503" s="2"/>
+      <c r="G503" s="2"/>
+      <c r="H503" s="2"/>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A504" s="2"/>
+      <c r="B504" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="C503" t="s">
+      <c r="C504" s="2" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B504" t="s">
+      <c r="D504" s="2"/>
+      <c r="E504" s="2"/>
+      <c r="F504" s="2"/>
+      <c r="G504" s="2"/>
+      <c r="H504" s="2"/>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A505" s="2"/>
+      <c r="B505" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C505" s="2" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B505" t="s">
+      <c r="D505" s="2"/>
+      <c r="E505" s="2"/>
+      <c r="F505" s="2"/>
+      <c r="G505" s="2"/>
+      <c r="H505" s="2"/>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A506" s="2"/>
+      <c r="B506" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="C505" t="s">
+      <c r="C506" s="2" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B506" t="s">
+      <c r="D506" s="2"/>
+      <c r="E506" s="2"/>
+      <c r="F506" s="2"/>
+      <c r="G506" s="2"/>
+      <c r="H506" s="2"/>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A507" s="2"/>
+      <c r="B507" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C506" t="s">
+      <c r="C507" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="D506" t="s">
+      <c r="D507" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E506" t="s">
+      <c r="E507" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F506" t="s">
+      <c r="F507" s="2" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B507" t="s">
+      <c r="G507" s="2"/>
+      <c r="H507" s="2"/>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A508" s="2"/>
+      <c r="B508" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="C507" t="s">
+      <c r="C508" s="2" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B508" t="s">
+      <c r="D508" s="2"/>
+      <c r="E508" s="2"/>
+      <c r="F508" s="2"/>
+      <c r="G508" s="2"/>
+      <c r="H508" s="2"/>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A509" s="2"/>
+      <c r="B509" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C509" s="2" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B509" t="s">
+      <c r="D509" s="2"/>
+      <c r="E509" s="2"/>
+      <c r="F509" s="2"/>
+      <c r="G509" s="2"/>
+      <c r="H509" s="2"/>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A510" s="2"/>
+      <c r="B510" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="C509" t="s">
+      <c r="C510" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B510" t="s">
+      <c r="D510" s="2"/>
+      <c r="E510" s="2"/>
+      <c r="F510" s="2"/>
+      <c r="G510" s="2"/>
+      <c r="H510" s="2"/>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A511" s="2"/>
+      <c r="B511" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="C510" t="s">
+      <c r="C511" s="2" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C512" s="7"/>
+      <c r="D511" s="2"/>
+      <c r="E511" s="2"/>
+      <c r="F511" s="2"/>
+      <c r="G511" s="2"/>
+      <c r="H511" s="2"/>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A512" s="2"/>
+      <c r="B512" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E512" s="2"/>
+      <c r="F512" s="2"/>
+      <c r="G512" s="2"/>
+      <c r="H512" s="2"/>
+    </row>
+    <row r="513" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A513" s="2"/>
+      <c r="B513" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D513" s="2"/>
+      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
+      <c r="G513" s="2"/>
+      <c r="H513" s="2"/>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B514" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B515" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>1063</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H460">
-    <sortCondition ref="B2:B460"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
+    <sortCondition ref="B2:B461"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C215107-A5F4-4624-911E-D5BF8DFD9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C3268-D8E0-4ACF-868A-1EDA68EF03B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2783,9 +2783,6 @@
     <t>форматирование</t>
   </si>
   <si>
-    <t>изменение</t>
-  </si>
-  <si>
     <t>переформатирует</t>
   </si>
   <si>
@@ -3228,6 +3225,9 @@
   </si>
   <si>
     <t>строитель</t>
+  </si>
+  <si>
+    <t>разметка</t>
   </si>
 </sst>
 </file>
@@ -3663,8 +3663,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B515" sqref="B515"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3679,25 +3679,25 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -4104,7 +4104,7 @@
         <v>903</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4485,10 +4485,10 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -5635,10 +5635,10 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6139,7 +6139,7 @@
         <v>517</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
@@ -7133,10 +7133,10 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -7235,10 +7235,10 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -7255,7 +7255,7 @@
         <v>884</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -7423,10 +7423,10 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -7573,7 +7573,7 @@
         <v>223</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
@@ -7883,7 +7883,7 @@
     <row r="289" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>898</v>
@@ -8194,13 +8194,13 @@
         <v>27</v>
       </c>
       <c r="E310" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F310" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="F310" s="2" t="s">
-        <v>1045</v>
-      </c>
       <c r="G310" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H310" s="2"/>
     </row>
@@ -8393,7 +8393,7 @@
         <v>516</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
@@ -8575,10 +8575,10 @@
     <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -8595,7 +8595,7 @@
         <v>13</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
@@ -8979,10 +8979,10 @@
     <row r="364" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A364" s="2"/>
       <c r="B364" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>996</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -9127,7 +9127,7 @@
         <v>327</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G373" s="2" t="s">
         <v>81</v>
@@ -9442,7 +9442,7 @@
         <v>117</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
@@ -9768,7 +9768,7 @@
         <v>914</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>915</v>
+        <v>1063</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -9793,10 +9793,10 @@
     <row r="420" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A420" s="2"/>
       <c r="B420" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>921</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -10265,7 +10265,7 @@
     <row r="452" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A452" s="2"/>
       <c r="B452" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>301</v>
@@ -10295,7 +10295,7 @@
     <row r="454" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A454" s="2"/>
       <c r="B454" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>100</v>
@@ -10309,10 +10309,10 @@
     <row r="455" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A455" s="2"/>
       <c r="B455" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -10323,10 +10323,10 @@
     <row r="456" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A456" s="2"/>
       <c r="B456" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -10337,10 +10337,10 @@
     <row r="457" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A457" s="2"/>
       <c r="B457" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>942</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -10351,13 +10351,13 @@
     <row r="458" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A458" s="2"/>
       <c r="B458" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C458" s="2" t="s">
+      <c r="D458" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>174</v>
@@ -10369,7 +10369,7 @@
     <row r="459" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A459" s="2"/>
       <c r="B459" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>338</v>
@@ -10383,10 +10383,10 @@
     <row r="460" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A460" s="2"/>
       <c r="B460" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -10397,10 +10397,10 @@
     <row r="461" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A461" s="2"/>
       <c r="B461" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -10411,10 +10411,10 @@
     <row r="462" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A462" s="2"/>
       <c r="B462" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C462" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -10425,10 +10425,10 @@
     <row r="463" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A463" s="2"/>
       <c r="B463" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -10439,13 +10439,13 @@
     <row r="464" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A464" s="2"/>
       <c r="B464" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="D464" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>955</v>
       </c>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
@@ -10455,10 +10455,10 @@
     <row r="465" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A465" s="2"/>
       <c r="B465" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -10469,10 +10469,10 @@
     <row r="466" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A466" s="2"/>
       <c r="B466" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -10483,10 +10483,10 @@
     <row r="467" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A467" s="2"/>
       <c r="B467" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -10497,10 +10497,10 @@
     <row r="468" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A468" s="2"/>
       <c r="B468" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -10511,10 +10511,10 @@
     <row r="469" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A469" s="2"/>
       <c r="B469" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C469" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -10525,10 +10525,10 @@
     <row r="470" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A470" s="2"/>
       <c r="B470" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C470" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -10539,10 +10539,10 @@
     <row r="471" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A471" s="2"/>
       <c r="B471" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C471" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>970</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -10553,10 +10553,10 @@
     <row r="472" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A472" s="2"/>
       <c r="B472" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C472" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -10567,10 +10567,10 @@
     <row r="473" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A473" s="2"/>
       <c r="B473" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -10581,7 +10581,7 @@
     <row r="474" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A474" s="2"/>
       <c r="B474" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>269</v>
@@ -10595,7 +10595,7 @@
     <row r="475" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A475" s="2"/>
       <c r="B475" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -10607,7 +10607,7 @@
     <row r="476" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A476" s="2"/>
       <c r="B476" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>870</v>
@@ -10621,10 +10621,10 @@
     <row r="477" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A477" s="2"/>
       <c r="B477" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C477" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>980</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -10635,10 +10635,10 @@
     <row r="478" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A478" s="2"/>
       <c r="B478" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C478" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>982</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -10649,10 +10649,10 @@
     <row r="479" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A479" s="2"/>
       <c r="B479" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C479" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -10663,10 +10663,10 @@
     <row r="480" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A480" s="2"/>
       <c r="B480" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -10677,10 +10677,10 @@
     <row r="481" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A481" s="2"/>
       <c r="B481" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C481" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>987</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -10691,10 +10691,10 @@
     <row r="482" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A482" s="2"/>
       <c r="B482" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C482" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -10705,10 +10705,10 @@
     <row r="483" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A483" s="2"/>
       <c r="B483" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C483" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>992</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -10719,7 +10719,7 @@
     <row r="484" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A484" s="2"/>
       <c r="B484" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>819</v>
@@ -10733,10 +10733,10 @@
     <row r="485" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A485" s="2"/>
       <c r="B485" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C485" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -10747,10 +10747,10 @@
     <row r="486" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A486" s="2"/>
       <c r="B486" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C486" s="2" t="s">
         <v>998</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>999</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -10761,10 +10761,10 @@
     <row r="487" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A487" s="2"/>
       <c r="B487" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C487" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>1001</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -10775,10 +10775,10 @@
     <row r="488" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A488" s="2"/>
       <c r="B488" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>1003</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -10789,10 +10789,10 @@
     <row r="489" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A489" s="2"/>
       <c r="B489" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C489" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>1006</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -10803,10 +10803,10 @@
     <row r="490" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A490" s="2"/>
       <c r="B490" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C490" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>1008</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -10817,7 +10817,7 @@
     <row r="491" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A491" s="2"/>
       <c r="B491" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>838</v>
@@ -10831,10 +10831,10 @@
     <row r="492" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A492" s="2"/>
       <c r="B492" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>1011</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -10845,10 +10845,10 @@
     <row r="493" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A493" s="2"/>
       <c r="B493" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -10859,10 +10859,10 @@
     <row r="494" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A494" s="2"/>
       <c r="B494" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>1013</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>1014</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -10873,10 +10873,10 @@
     <row r="495" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A495" s="2"/>
       <c r="B495" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C495" s="2" t="s">
         <v>1015</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>1016</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -10887,7 +10887,7 @@
     <row r="496" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A496" s="2"/>
       <c r="B496" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>324</v>
@@ -10901,10 +10901,10 @@
     <row r="497" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A497" s="2"/>
       <c r="B497" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>1019</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -10915,10 +10915,10 @@
     <row r="498" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A498" s="2"/>
       <c r="B498" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -10929,10 +10929,10 @@
     <row r="499" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A499" s="2"/>
       <c r="B499" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>1023</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -10943,10 +10943,10 @@
     <row r="500" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A500" s="2"/>
       <c r="B500" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>1025</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -10957,7 +10957,7 @@
     <row r="501" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A501" s="2"/>
       <c r="B501" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>350</v>
@@ -10971,10 +10971,10 @@
     <row r="502" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A502" s="2"/>
       <c r="B502" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -10985,13 +10985,13 @@
     <row r="503" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A503" s="2"/>
       <c r="B503" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C503" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="C503" s="2" t="s">
+      <c r="D503" s="2" t="s">
         <v>1035</v>
-      </c>
-      <c r="D503" s="2" t="s">
-        <v>1036</v>
       </c>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
@@ -11001,10 +11001,10 @@
     <row r="504" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A504" s="2"/>
       <c r="B504" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C504" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>1038</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -11015,10 +11015,10 @@
     <row r="505" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A505" s="2"/>
       <c r="B505" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C505" s="2" t="s">
         <v>1039</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>1040</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -11029,7 +11029,7 @@
     <row r="506" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A506" s="2"/>
       <c r="B506" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>823</v>
@@ -11046,7 +11046,7 @@
         <v>79</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>100</v>
@@ -11055,7 +11055,7 @@
         <v>13</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
@@ -11063,10 +11063,10 @@
     <row r="508" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A508" s="2"/>
       <c r="B508" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -11077,10 +11077,10 @@
     <row r="509" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A509" s="2"/>
       <c r="B509" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C509" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="C509" s="2" t="s">
-        <v>1048</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -11091,7 +11091,7 @@
     <row r="510" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A510" s="2"/>
       <c r="B510" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>541</v>
@@ -11105,7 +11105,7 @@
     <row r="511" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A511" s="2"/>
       <c r="B511" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>779</v>
@@ -11119,13 +11119,13 @@
     <row r="512" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A512" s="2"/>
       <c r="B512" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C512" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="C512" s="2" t="s">
+      <c r="D512" s="2" t="s">
         <v>1053</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>1054</v>
       </c>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
@@ -11135,10 +11135,10 @@
     <row r="513" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A513" s="2"/>
       <c r="B513" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C513" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -11148,18 +11148,18 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B514" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C514" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="C514" s="2" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B515" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C515" s="2" t="s">
         <v>1062</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>1063</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C3268-D8E0-4ACF-868A-1EDA68EF03B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9A3B32-B24E-4166-9154-D6453A40C062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="однословно" sheetId="1" r:id="rId1"/>
+    <sheet name="многословно" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">однословно!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1092">
   <si>
     <t>специальный</t>
   </si>
@@ -3228,6 +3229,90 @@
   </si>
   <si>
     <t>разметка</t>
+  </si>
+  <si>
+    <t>подобную сочетание</t>
+  </si>
+  <si>
+    <t>подобное сочетание</t>
+  </si>
+  <si>
+    <t>вызовет сбой</t>
+  </si>
+  <si>
+    <t>вызовет изъян</t>
+  </si>
+  <si>
+    <t>рукопись был правильным</t>
+  </si>
+  <si>
+    <t>рукопись была правильной</t>
+  </si>
+  <si>
+    <t>жёстко закодирован</t>
+  </si>
+  <si>
+    <t>жёстко задан</t>
+  </si>
+  <si>
+    <t>остальная ход мыслей</t>
+  </si>
+  <si>
+    <t>остальной ход мыслей</t>
+  </si>
+  <si>
+    <t>Язык программирования Rust</t>
+  </si>
+  <si>
+    <t>the rust programming language</t>
+  </si>
+  <si>
+    <t>Согласно правил написания</t>
+  </si>
+  <si>
+    <t>начало строки\Правила написания</t>
+  </si>
+  <si>
+    <t>многословную устройство</t>
+  </si>
+  <si>
+    <t>многословное устройство</t>
+  </si>
+  <si>
+    <t>подходящим соглашением</t>
+  </si>
+  <si>
+    <t>подходящим решением</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> о стопки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> о стопке</t>
+  </si>
+  <si>
+    <t>случай, в которой</t>
+  </si>
+  <si>
+    <t>случай, в котором</t>
+  </si>
+  <si>
+    <t>ход мыслей которая</t>
+  </si>
+  <si>
+    <t>ход мыслей который</t>
+  </si>
+  <si>
+    <t>средств ржавчине</t>
+  </si>
+  <si>
+    <t>средств Ржавчины</t>
+  </si>
+  <si>
+    <t>кодовой хранилища</t>
+  </si>
+  <si>
+    <t>хранилища рукописей</t>
   </si>
 </sst>
 </file>
@@ -3663,8 +3748,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView topLeftCell="A147" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11170,4 +11255,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="34.796875" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9A3B32-B24E-4166-9154-D6453A40C062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE78979-79A6-47B0-8E27-7856A9E30AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="1138">
   <si>
     <t>специальный</t>
   </si>
@@ -3313,6 +3313,148 @@
   </si>
   <si>
     <t>хранилища рукописей</t>
+  </si>
+  <si>
+    <t>рукопись выполняющая</t>
+  </si>
+  <si>
+    <t>рукопись, выполняющую</t>
+  </si>
+  <si>
+    <t>основного рукописи</t>
+  </si>
+  <si>
+    <t>основной рукописи</t>
+  </si>
+  <si>
+    <t>вложенный среда</t>
+  </si>
+  <si>
+    <t>вложенная среда</t>
+  </si>
+  <si>
+    <t>написан рукопись</t>
+  </si>
+  <si>
+    <t>написана рукопись</t>
+  </si>
+  <si>
+    <t>рукопись имеющий</t>
+  </si>
+  <si>
+    <t>рукопись, имеющая</t>
+  </si>
+  <si>
+    <t>управлять устройство</t>
+  </si>
+  <si>
+    <t>управлять устройством</t>
+  </si>
+  <si>
+    <t>Рукопись следующий</t>
+  </si>
+  <si>
+    <t>Рукопись следующая</t>
+  </si>
+  <si>
+    <t>звено закрыт</t>
+  </si>
+  <si>
+    <t>звено закрыто</t>
+  </si>
+  <si>
+    <t>пустой проверка</t>
+  </si>
+  <si>
+    <t>пустую проверку</t>
+  </si>
+  <si>
+    <t>в последующей разделы</t>
+  </si>
+  <si>
+    <t>в последующих разделах</t>
+  </si>
+  <si>
+    <t>данную возможности</t>
+  </si>
+  <si>
+    <t>данные возможности</t>
+  </si>
+  <si>
+    <t>такую устройство</t>
+  </si>
+  <si>
+    <t>такое устройство</t>
+  </si>
+  <si>
+    <t>Разумная создание</t>
+  </si>
+  <si>
+    <t>Разумное создание</t>
+  </si>
+  <si>
+    <t>сигнализируют</t>
+  </si>
+  <si>
+    <t>сообщают</t>
+  </si>
+  <si>
+    <t>Пренебрегаем
+их</t>
+  </si>
+  <si>
+    <t>Пренебрегаем
+ими</t>
+  </si>
+  <si>
+    <t>выполняемый
+дело</t>
+  </si>
+  <si>
+    <t>выполняемое
+дело</t>
+  </si>
+  <si>
+    <t>в этой же папки</t>
+  </si>
+  <si>
+    <t>в этой же папке</t>
+  </si>
+  <si>
+    <t>Такая создание</t>
+  </si>
+  <si>
+    <t>Такое создание</t>
+  </si>
+  <si>
+    <t>стороннего рукописи</t>
+  </si>
+  <si>
+    <t>сторонней рукописи</t>
+  </si>
+  <si>
+    <t>какой-либо рукописи</t>
+  </si>
+  <si>
+    <t>какая-либо рукописи</t>
+  </si>
+  <si>
+    <t>Рукопись собрался</t>
+  </si>
+  <si>
+    <t>Рукопись собралась</t>
+  </si>
+  <si>
+    <t>неиспользованным рукописью</t>
+  </si>
+  <si>
+    <t>неиспользованной рукописью</t>
+  </si>
+  <si>
+    <t>корневой звено</t>
+  </si>
+  <si>
+    <t>корневое звено</t>
   </si>
 </sst>
 </file>
@@ -3396,7 +3538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3411,6 +3553,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3746,10 +3891,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H515"/>
+  <dimension ref="A1:H516"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView topLeftCell="A499" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B517" sqref="B517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11247,6 +11392,14 @@
         <v>1062</v>
       </c>
     </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B516" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
@@ -11259,10 +11412,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
-  <dimension ref="B2:C15"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="B2:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11383,6 +11537,182 @@
         <v>1091</v>
       </c>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE78979-79A6-47B0-8E27-7856A9E30AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A6641-1383-462B-BCB6-CAFA0A6B10F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1147">
   <si>
     <t>специальный</t>
   </si>
@@ -3455,6 +3455,33 @@
   </si>
   <si>
     <t>корневое звено</t>
+  </si>
+  <si>
+    <t>модуль</t>
+  </si>
+  <si>
+    <t>со разделами</t>
+  </si>
+  <si>
+    <t>с разделами</t>
+  </si>
+  <si>
+    <t>среда в котором</t>
+  </si>
+  <si>
+    <t>среда в которой</t>
+  </si>
+  <si>
+    <t>солидное</t>
+  </si>
+  <si>
+    <t>важное</t>
+  </si>
+  <si>
+    <t>с исходной рукописью</t>
+  </si>
+  <si>
+    <t>с исходным рукописью</t>
   </si>
 </sst>
 </file>
@@ -3891,10 +3918,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H516"/>
+  <dimension ref="A1:H518"/>
   <sheetViews>
-    <sheetView topLeftCell="A499" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B517" sqref="B517"/>
+    <sheetView topLeftCell="A496" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B519" sqref="B519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11400,6 +11427,22 @@
         <v>1119</v>
       </c>
     </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B517" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B518" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
@@ -11413,10 +11456,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:C37"/>
+  <dimension ref="B2:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11713,6 +11756,38 @@
         <v>1137</v>
       </c>
     </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A6641-1383-462B-BCB6-CAFA0A6B10F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809DEFB2-DB2F-4E6D-936B-7E0ED2B80D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1182">
   <si>
     <t>специальный</t>
   </si>
@@ -3482,6 +3482,111 @@
   </si>
   <si>
     <t>с исходным рукописью</t>
+  </si>
+  <si>
+    <t>общей подходом</t>
+  </si>
+  <si>
+    <t>общим подходом</t>
+  </si>
+  <si>
+    <t>корневое раздел</t>
+  </si>
+  <si>
+    <t>корневой раздел</t>
+  </si>
+  <si>
+    <t>набор возможности</t>
+  </si>
+  <si>
+    <t>набор возможностей</t>
+  </si>
+  <si>
+    <t>дополнение, содержащий</t>
+  </si>
+  <si>
+    <t>дополнение, содержащее</t>
+  </si>
+  <si>
+    <t>своего рукописи</t>
+  </si>
+  <si>
+    <t>своей рукописи</t>
+  </si>
+  <si>
+    <t>ту же ход мыслей</t>
+  </si>
+  <si>
+    <t>тот же ход мыслей</t>
+  </si>
+  <si>
+    <t>первые части состоящей</t>
+  </si>
+  <si>
+    <t>первые части состоящие</t>
+  </si>
+  <si>
+    <t>рукописи, найденном</t>
+  </si>
+  <si>
+    <t>рукописи, найденной</t>
+  </si>
+  <si>
+    <t>связанного рукописи</t>
+  </si>
+  <si>
+    <t>связанной рукописи</t>
+  </si>
+  <si>
+    <t>на согласовании рукописи</t>
+  </si>
+  <si>
+    <t>на согласования рукописи</t>
+  </si>
+  <si>
+    <t>фронт</t>
+  </si>
+  <si>
+    <t>перед</t>
+  </si>
+  <si>
+    <t>объединенном рукописи</t>
+  </si>
+  <si>
+    <t>объединенной рукописи</t>
+  </si>
+  <si>
+    <t>показать ржавчина</t>
+  </si>
+  <si>
+    <t>показать ржавчине</t>
+  </si>
+  <si>
+    <t>Данная изложение</t>
+  </si>
+  <si>
+    <t>Данное изложение</t>
+  </si>
+  <si>
+    <t>через проверка</t>
+  </si>
+  <si>
+    <t>через проверку</t>
+  </si>
+  <si>
+    <t>такой согласования рукописи</t>
+  </si>
+  <si>
+    <t>такого согласования рукописи</t>
+  </si>
+  <si>
+    <t>таком согласовании рукописи</t>
+  </si>
+  <si>
+    <t>согласованном рукописи</t>
+  </si>
+  <si>
+    <t>согласованной рукописи</t>
   </si>
 </sst>
 </file>
@@ -3918,10 +4023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H518"/>
+  <dimension ref="A1:H520"/>
   <sheetViews>
-    <sheetView topLeftCell="A496" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B519" sqref="B519"/>
+    <sheetView tabSelected="1" topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D497" sqref="D497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11443,6 +11548,22 @@
         <v>1144</v>
       </c>
     </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B519" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B520" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
@@ -11456,10 +11577,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:C41"/>
+  <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11788,6 +11909,137 @@
         <v>1145</v>
       </c>
     </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809DEFB2-DB2F-4E6D-936B-7E0ED2B80D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD8574-8993-462C-9B02-049CFD5D4335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1184">
   <si>
     <t>специальный</t>
   </si>
@@ -3587,6 +3587,12 @@
   </si>
   <si>
     <t>согласованной рукописи</t>
+  </si>
+  <si>
+    <t>сообщаем Ржавчина</t>
+  </si>
+  <si>
+    <t>сообщаем Ржавчине</t>
   </si>
 </sst>
 </file>
@@ -4025,8 +4031,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D497" sqref="D497"/>
+    <sheetView topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B521" sqref="B521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11577,10 +11583,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D57"/>
+  <dimension ref="B2:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12040,6 +12046,14 @@
         <v>1181</v>
       </c>
     </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD8574-8993-462C-9B02-049CFD5D4335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8505124C-415B-4099-90B7-720BE2D2F877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1209">
   <si>
     <t>специальный</t>
   </si>
@@ -3593,6 +3593,81 @@
   </si>
   <si>
     <t>сообщаем Ржавчине</t>
+  </si>
+  <si>
+    <t>в корне устройство</t>
+  </si>
+  <si>
+    <t>в корне устройства</t>
+  </si>
+  <si>
+    <t>мы используется</t>
+  </si>
+  <si>
+    <t>мы используем</t>
+  </si>
+  <si>
+    <t>с такой же устройством</t>
+  </si>
+  <si>
+    <t>с таким же устройством</t>
+  </si>
+  <si>
+    <t>рукописью использующим</t>
+  </si>
+  <si>
+    <t>рукописью использующей</t>
+  </si>
+  <si>
+    <t>он ещё не собирается</t>
+  </si>
+  <si>
+    <t>она ещё не собирается</t>
+  </si>
+  <si>
+    <t>видеть среда</t>
+  </si>
+  <si>
+    <t>видеть среду</t>
+  </si>
+  <si>
+    <t>внутреннего рукописи</t>
+  </si>
+  <si>
+    <t>внутренней рукописи</t>
+  </si>
+  <si>
+    <t>внешнего рукописи</t>
+  </si>
+  <si>
+    <t>внешней рукописи</t>
+  </si>
+  <si>
+    <t>ход мыслей такая же</t>
+  </si>
+  <si>
+    <t>ход мыслей такой же</t>
+  </si>
+  <si>
+    <t>лучшие опытов</t>
+  </si>
+  <si>
+    <t>лучшие опыты</t>
+  </si>
+  <si>
+    <t>рукописью, написанным</t>
+  </si>
+  <si>
+    <t>рукописью, написанной</t>
+  </si>
+  <si>
+    <t>метафора</t>
+  </si>
+  <si>
+    <t>сравнение</t>
+  </si>
+  <si>
+    <t>директория</t>
   </si>
 </sst>
 </file>
@@ -4029,10 +4104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H520"/>
+  <dimension ref="A1:H522"/>
   <sheetViews>
-    <sheetView topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B521" sqref="B521"/>
+    <sheetView tabSelected="1" topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11570,6 +11645,22 @@
         <v>704</v>
       </c>
     </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B521" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B522" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
@@ -11583,10 +11674,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D58"/>
+  <dimension ref="B2:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12054,6 +12145,94 @@
         <v>1183</v>
       </c>
     </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8505124C-415B-4099-90B7-720BE2D2F877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2E616-5EF1-4B38-B8CD-6F3AD3B687A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1217">
   <si>
     <t>специальный</t>
   </si>
@@ -3668,6 +3668,30 @@
   </si>
   <si>
     <t>директория</t>
+  </si>
+  <si>
+    <t>Данная стопки</t>
+  </si>
+  <si>
+    <t>Данная стопка</t>
+  </si>
+  <si>
+    <t>Иная выполнение</t>
+  </si>
+  <si>
+    <t>Иное выполнение</t>
+  </si>
+  <si>
+    <t>обнародованную размещение</t>
+  </si>
+  <si>
+    <t>обнародованное размещение</t>
+  </si>
+  <si>
+    <t>условной выполнения</t>
+  </si>
+  <si>
+    <t>условного выполнения</t>
   </si>
 </sst>
 </file>
@@ -4106,7 +4130,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
@@ -11674,10 +11698,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D69"/>
+  <dimension ref="B2:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12233,6 +12257,38 @@
         <v>1205</v>
       </c>
     </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2E616-5EF1-4B38-B8CD-6F3AD3B687A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4454FF1-5987-48F6-A80C-B715AC9A4E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1221">
   <si>
     <t>специальный</t>
   </si>
@@ -3692,6 +3692,18 @@
   </si>
   <si>
     <t>условного выполнения</t>
+  </si>
+  <si>
+    <t>во второй указания</t>
+  </si>
+  <si>
+    <t>во втором указании</t>
+  </si>
+  <si>
+    <t>внешний дополнение</t>
+  </si>
+  <si>
+    <t>внешнее дополнение</t>
   </si>
 </sst>
 </file>
@@ -11698,10 +11710,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D73"/>
+  <dimension ref="B2:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12289,6 +12301,22 @@
         <v>1216</v>
       </c>
     </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4454FF1-5987-48F6-A80C-B715AC9A4E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3016D06-D169-4DE2-9F49-10B2FFA790FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1231">
   <si>
     <t>специальный</t>
   </si>
@@ -3704,6 +3704,36 @@
   </si>
   <si>
     <t>внешнее дополнение</t>
+  </si>
+  <si>
+    <t>среду, в котором</t>
+  </si>
+  <si>
+    <t>среду, в которой</t>
+  </si>
+  <si>
+    <t>две указания</t>
+  </si>
+  <si>
+    <t>два указания</t>
+  </si>
+  <si>
+    <t>одинаковым приставкой</t>
+  </si>
+  <si>
+    <t>одинаковой приставкой</t>
+  </si>
+  <si>
+    <t>в одной указания</t>
+  </si>
+  <si>
+    <t>в одном указании</t>
+  </si>
+  <si>
+    <t>одну указанию</t>
+  </si>
+  <si>
+    <t>одно указание</t>
   </si>
 </sst>
 </file>
@@ -11710,10 +11740,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D75"/>
+  <dimension ref="B2:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12317,6 +12347,46 @@
         <v>1220</v>
       </c>
     </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3016D06-D169-4DE2-9F49-10B2FFA790FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EBFF1-DCB5-4734-B118-21A01909A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
     <sheet name="многословно" sheetId="2" r:id="rId2"/>
+    <sheet name="втор слово" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">однословно!$A$1:$H$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="1267">
   <si>
     <t>специальный</t>
   </si>
@@ -3734,6 +3735,114 @@
   </si>
   <si>
     <t>одно указание</t>
+  </si>
+  <si>
+    <t>эта указание</t>
+  </si>
+  <si>
+    <t>это указание</t>
+  </si>
+  <si>
+    <t>навигацию</t>
+  </si>
+  <si>
+    <t>поиск</t>
+  </si>
+  <si>
+    <t>навигации</t>
+  </si>
+  <si>
+    <t>поиске</t>
+  </si>
+  <si>
+    <t>из приложении</t>
+  </si>
+  <si>
+    <t>из приложения</t>
+  </si>
+  <si>
+    <t>создаём папка</t>
+  </si>
+  <si>
+    <t>создаём папку</t>
+  </si>
+  <si>
+    <t>создаем папка</t>
+  </si>
+  <si>
+    <t>создаем папку</t>
+  </si>
+  <si>
+    <t>в отдельный папка</t>
+  </si>
+  <si>
+    <t>в отдельную папку</t>
+  </si>
+  <si>
+    <t>текущий рабочий папка</t>
+  </si>
+  <si>
+    <t>текущая рабочая папка</t>
+  </si>
+  <si>
+    <t>обрабатывает папку</t>
+  </si>
+  <si>
+    <t>обрабатывает папка</t>
+  </si>
+  <si>
+    <t>создайте папка</t>
+  </si>
+  <si>
+    <t>создайте папку</t>
+  </si>
+  <si>
+    <t>один папка</t>
+  </si>
+  <si>
+    <t>одна папка</t>
+  </si>
+  <si>
+    <t>свой собственный папка</t>
+  </si>
+  <si>
+    <t>свою собственную папку</t>
+  </si>
+  <si>
+    <t>из папка</t>
+  </si>
+  <si>
+    <t>из папки</t>
+  </si>
+  <si>
+    <t>сборщиком Ржавчина</t>
+  </si>
+  <si>
+    <t>сборщиком Ржавчины</t>
+  </si>
+  <si>
+    <t>старый исполнение</t>
+  </si>
+  <si>
+    <t>старое исполнение</t>
+  </si>
+  <si>
+    <t>любым рукописью</t>
+  </si>
+  <si>
+    <t>любой рукописью</t>
+  </si>
+  <si>
+    <t>важный мгновение</t>
+  </si>
+  <si>
+    <t>важное мгновение</t>
+  </si>
+  <si>
+    <t>сообщили Ржавчина</t>
+  </si>
+  <si>
+    <t>сообщили Ржавчине</t>
   </si>
 </sst>
 </file>
@@ -4170,10 +4279,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H522"/>
+  <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497"/>
+      <selection activeCell="B524" sqref="B524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11727,6 +11836,14 @@
         <v>704</v>
       </c>
     </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B523" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
@@ -11740,10 +11857,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D80"/>
+  <dimension ref="B2:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12387,6 +12504,161 @@
         <v>1230</v>
       </c>
     </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593019BE-D65E-409E-BFDB-A37DC678A27C}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EBFF1-DCB5-4734-B118-21A01909A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A719B74B-83C0-4FAF-A328-49CCC093F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1283">
   <si>
     <t>специальный</t>
   </si>
@@ -3843,6 +3843,54 @@
   </si>
   <si>
     <t>сообщили Ржавчине</t>
+  </si>
+  <si>
+    <t>одновременную изменение</t>
+  </si>
+  <si>
+    <t>одновременное изменение</t>
+  </si>
+  <si>
+    <t>ржавчина позволял</t>
+  </si>
+  <si>
+    <t>ржавчина позволяла</t>
+  </si>
+  <si>
+    <t>был бы возможность</t>
+  </si>
+  <si>
+    <t>была бы возможность</t>
+  </si>
+  <si>
+    <t>то техника</t>
+  </si>
+  <si>
+    <t>то способ</t>
+  </si>
+  <si>
+    <t>об действиях</t>
+  </si>
+  <si>
+    <t>о действиях</t>
+  </si>
+  <si>
+    <t>библиотекой ржавчина</t>
+  </si>
+  <si>
+    <t>библиотекой ржавчины</t>
+  </si>
+  <si>
+    <t>использовании Ржавчина</t>
+  </si>
+  <si>
+    <t>использовании Ржавчины</t>
+  </si>
+  <si>
+    <t>повторение завершена</t>
+  </si>
+  <si>
+    <t>повторение завершено</t>
   </si>
 </sst>
 </file>
@@ -4279,10 +4327,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B524" sqref="B524"/>
+      <selection activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11844,6 +11892,14 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B524" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
@@ -11857,10 +11913,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D96"/>
+  <dimension ref="B2:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12630,6 +12686,70 @@
       </c>
       <c r="C96" t="s">
         <v>1266</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1282</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A719B74B-83C0-4FAF-A328-49CCC093F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D496E8DA-06A2-4D52-9376-507822453AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1287">
   <si>
     <t>специальный</t>
   </si>
@@ -3891,6 +3891,18 @@
   </si>
   <si>
     <t>повторение завершено</t>
+  </si>
+  <si>
+    <t>равнозначным рукописи</t>
+  </si>
+  <si>
+    <t>равнозначной рукописи</t>
+  </si>
+  <si>
+    <t>кодированные</t>
+  </si>
+  <si>
+    <t>преобразованные</t>
   </si>
 </sst>
 </file>
@@ -4327,10 +4339,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H524"/>
+  <dimension ref="A1:H525"/>
   <sheetViews>
-    <sheetView topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B525" sqref="B525"/>
+    <sheetView tabSelected="1" topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B526" sqref="B526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11900,6 +11912,14 @@
         <v>794</v>
       </c>
     </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B525" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
@@ -11913,9 +11933,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D104"/>
+  <dimension ref="B2:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
@@ -12750,6 +12770,14 @@
       </c>
       <c r="C104" t="s">
         <v>1282</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1284</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D496E8DA-06A2-4D52-9376-507822453AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530B737C-5E86-4ADE-ADF0-EB16AD498A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="1288">
   <si>
     <t>специальный</t>
   </si>
@@ -3903,6 +3903,9 @@
   </si>
   <si>
     <t>преобразованные</t>
+  </si>
+  <si>
+    <t>функция</t>
   </si>
 </sst>
 </file>
@@ -4339,10 +4342,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H525"/>
+  <dimension ref="A1:H526"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B526" sqref="B526"/>
+      <selection activeCell="B527" sqref="B527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11918,6 +11921,14 @@
       </c>
       <c r="C525" s="2" t="s">
         <v>1286</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B526" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530B737C-5E86-4ADE-ADF0-EB16AD498A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D9242-037C-4E9F-BC58-044D3F40174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="1319">
   <si>
     <t>специальный</t>
   </si>
@@ -3906,6 +3906,99 @@
   </si>
   <si>
     <t>функция</t>
+  </si>
+  <si>
+    <t>к ярлыке</t>
+  </si>
+  <si>
+    <t>к ярлыку</t>
+  </si>
+  <si>
+    <t>чья ярлык</t>
+  </si>
+  <si>
+    <t>чей ярлык</t>
+  </si>
+  <si>
+    <t>второй свойство</t>
+  </si>
+  <si>
+    <t>второе свойство</t>
+  </si>
+  <si>
+    <t>данная выполнение</t>
+  </si>
+  <si>
+    <t>данное выполнение</t>
+  </si>
+  <si>
+    <t>более производительна</t>
+  </si>
+  <si>
+    <t>более производительно</t>
+  </si>
+  <si>
+    <t>ни один из его свойств</t>
+  </si>
+  <si>
+    <t>ни одно из его свойств</t>
+  </si>
+  <si>
+    <t>неверный рукопись</t>
+  </si>
+  <si>
+    <t>неверная рукопись</t>
+  </si>
+  <si>
+    <t>неверную рукопись</t>
+  </si>
+  <si>
+    <t>необходимую преобразование</t>
+  </si>
+  <si>
+    <t>необходимое преобразование</t>
+  </si>
+  <si>
+    <t>ржавчина понадобилось</t>
+  </si>
+  <si>
+    <t>ржавчине понадобилось</t>
+  </si>
+  <si>
+    <t>программ ржавчина</t>
+  </si>
+  <si>
+    <t>программ ржавчины</t>
+  </si>
+  <si>
+    <t>В встроенной</t>
+  </si>
+  <si>
+    <t>Во встроенной</t>
+  </si>
+  <si>
+    <t>Эта ярлык</t>
+  </si>
+  <si>
+    <t>Этот ярлык</t>
+  </si>
+  <si>
+    <t>добавлен рукопись</t>
+  </si>
+  <si>
+    <t>добавлена рукопись</t>
+  </si>
+  <si>
+    <t>определён второе</t>
+  </si>
+  <si>
+    <t>определено второе</t>
+  </si>
+  <si>
+    <t>допустимым рукописью</t>
+  </si>
+  <si>
+    <t>допустимой рукописью</t>
   </si>
 </sst>
 </file>
@@ -4344,8 +4437,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B527" sqref="B527"/>
+    <sheetView topLeftCell="A377" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D378" sqref="D378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11944,10 +12037,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D105"/>
+  <dimension ref="B2:D120"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12719,7 +12812,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>1267</v>
       </c>
@@ -12727,7 +12820,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>1269</v>
       </c>
@@ -12735,7 +12828,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>1271</v>
       </c>
@@ -12743,7 +12836,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>1273</v>
       </c>
@@ -12751,7 +12844,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>1275</v>
       </c>
@@ -12759,7 +12852,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>1277</v>
       </c>
@@ -12767,7 +12860,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>1279</v>
       </c>
@@ -12775,7 +12868,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>1281</v>
       </c>
@@ -12783,12 +12876,135 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>1283</v>
       </c>
       <c r="C105" t="s">
         <v>1284</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B111" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B112" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1318</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D9242-037C-4E9F-BC58-044D3F40174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE9BD2-F939-4569-8FE6-FC38F4CB9905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1321">
   <si>
     <t>специальный</t>
   </si>
@@ -3999,6 +3999,12 @@
   </si>
   <si>
     <t>допустимой рукописью</t>
+  </si>
+  <si>
+    <t>у Ржавчина</t>
+  </si>
+  <si>
+    <t>у Ржавчины</t>
   </si>
 </sst>
 </file>
@@ -12037,9 +12043,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D120"/>
+  <dimension ref="B2:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
       <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
@@ -13005,6 +13011,14 @@
       </c>
       <c r="C120" t="s">
         <v>1318</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1320</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE9BD2-F939-4569-8FE6-FC38F4CB9905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D7C46-221D-407C-9008-BC93D827B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1337">
   <si>
     <t>специальный</t>
   </si>
@@ -4005,6 +4005,54 @@
   </si>
   <si>
     <t>у Ржавчины</t>
+  </si>
+  <si>
+    <t>трассировка</t>
+  </si>
+  <si>
+    <t>отсчёт</t>
+  </si>
+  <si>
+    <t>приведён рукопись</t>
+  </si>
+  <si>
+    <t>приведена рукопись</t>
+  </si>
+  <si>
+    <t>поведение ржавчина</t>
+  </si>
+  <si>
+    <t>поведение ржавчины</t>
+  </si>
+  <si>
+    <t>исполнения ржавчина</t>
+  </si>
+  <si>
+    <t>исполнения Ржавчины</t>
+  </si>
+  <si>
+    <t>с этой сведениями</t>
+  </si>
+  <si>
+    <t>с этими сведениями</t>
+  </si>
+  <si>
+    <t>правильное преобразование</t>
+  </si>
+  <si>
+    <t>правильная преобразование</t>
+  </si>
+  <si>
+    <t>в выполнения</t>
+  </si>
+  <si>
+    <t>в выполнении</t>
+  </si>
+  <si>
+    <t>критичными</t>
+  </si>
+  <si>
+    <t>существенными</t>
   </si>
 </sst>
 </file>
@@ -4441,10 +4489,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H526"/>
+  <dimension ref="A1:H528"/>
   <sheetViews>
-    <sheetView topLeftCell="A377" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D378" sqref="D378"/>
+    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12030,6 +12078,22 @@
         <v>81</v>
       </c>
     </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B527" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B528" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
@@ -12043,10 +12107,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D121"/>
+  <dimension ref="B2:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13019,6 +13083,54 @@
       </c>
       <c r="C121" t="s">
         <v>1320</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1334</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D7C46-221D-407C-9008-BC93D827B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694259EF-0395-402A-8E56-2D119F21CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="1339">
   <si>
     <t>специальный</t>
   </si>
@@ -4053,6 +4053,12 @@
   </si>
   <si>
     <t>существенными</t>
+  </si>
+  <si>
+    <t>вызывающему рукописи</t>
+  </si>
+  <si>
+    <t>вызывающей рукописи</t>
   </si>
 </sst>
 </file>
@@ -4491,8 +4497,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505"/>
+    <sheetView topLeftCell="A494" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H512" sqref="H512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12107,10 +12113,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D127"/>
+  <dimension ref="B2:D128"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13131,6 +13137,14 @@
       </c>
       <c r="C127" t="s">
         <v>1334</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1338</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694259EF-0395-402A-8E56-2D119F21CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4744FC-CC3F-4AF9-903E-FE36213034AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1346">
   <si>
     <t>специальный</t>
   </si>
@@ -4059,6 +4059,27 @@
   </si>
   <si>
     <t>вызывающей рукописи</t>
+  </si>
+  <si>
+    <t>определённую ход мыслей</t>
+  </si>
+  <si>
+    <t>определённый ход мыслей</t>
+  </si>
+  <si>
+    <t>ход мыслей, которая</t>
+  </si>
+  <si>
+    <t>ход мыслей, который</t>
+  </si>
+  <si>
+    <t>вся ход мыслей</t>
+  </si>
+  <si>
+    <t>весь ход мыслей</t>
+  </si>
+  <si>
+    <t>ход мыслей, которую</t>
   </si>
 </sst>
 </file>
@@ -4495,10 +4516,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H528"/>
+  <dimension ref="A1:H529"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H512" sqref="H512"/>
+    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C529" sqref="C529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12100,6 +12121,14 @@
         <v>1336</v>
       </c>
     </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B529" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
@@ -12113,10 +12142,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D128"/>
+  <dimension ref="B2:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13145,6 +13174,38 @@
       </c>
       <c r="C128" t="s">
         <v>1338</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4744FC-CC3F-4AF9-903E-FE36213034AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FAD9B-FD10-4125-8251-A715B2B1C963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4519,7 +4519,7 @@
   <dimension ref="A1:H529"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C529" sqref="C529"/>
+      <selection activeCell="F497" sqref="F497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FAD9B-FD10-4125-8251-A715B2B1C963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB26F34-D7CD-4C94-89F9-F267E9F9A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1382">
   <si>
     <t>специальный</t>
   </si>
@@ -4080,6 +4080,114 @@
   </si>
   <si>
     <t>ход мыслей, которую</t>
+  </si>
+  <si>
+    <t>пропорциональна</t>
+  </si>
+  <si>
+    <t>соразмерна</t>
+  </si>
+  <si>
+    <t>документация</t>
+  </si>
+  <si>
+    <t>организована</t>
+  </si>
+  <si>
+    <t>представлена</t>
+  </si>
+  <si>
+    <t>оптизировать</t>
+  </si>
+  <si>
+    <t>увеличить</t>
+  </si>
+  <si>
+    <t>Этот дополнение</t>
+  </si>
+  <si>
+    <t>Это дополнение</t>
+  </si>
+  <si>
+    <t>эта руководство</t>
+  </si>
+  <si>
+    <t>это руководство</t>
+  </si>
+  <si>
+    <t>исходный рукопись</t>
+  </si>
+  <si>
+    <t>исходная рукопись</t>
+  </si>
+  <si>
+    <t>полиморфны</t>
+  </si>
+  <si>
+    <t>многообразны</t>
+  </si>
+  <si>
+    <t>комментарий</t>
+  </si>
+  <si>
+    <t>примечание</t>
+  </si>
+  <si>
+    <t>флаг</t>
+  </si>
+  <si>
+    <t>условие</t>
+  </si>
+  <si>
+    <t>сокращению времени</t>
+  </si>
+  <si>
+    <t>конкуренция</t>
+  </si>
+  <si>
+    <t>очередь</t>
+  </si>
+  <si>
+    <t>клонировав</t>
+  </si>
+  <si>
+    <t>повторно создав</t>
+  </si>
+  <si>
+    <t>моменты</t>
+  </si>
+  <si>
+    <t>представляется</t>
+  </si>
+  <si>
+    <t>аналогично</t>
+  </si>
+  <si>
+    <t>также как</t>
+  </si>
+  <si>
+    <t>анализатор</t>
+  </si>
+  <si>
+    <t>оценщик</t>
+  </si>
+  <si>
+    <t>класс</t>
+  </si>
+  <si>
+    <t>очередности</t>
+  </si>
+  <si>
+    <t>игнорируются</t>
+  </si>
+  <si>
+    <t>опускаются</t>
+  </si>
+  <si>
+    <t>структурированное</t>
+  </si>
+  <si>
+    <t>упорядоченное</t>
   </si>
 </sst>
 </file>
@@ -4516,10 +4624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H529"/>
+  <dimension ref="A1:H544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F497" sqref="F497"/>
+    <sheetView tabSelected="1" topLeftCell="A540" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C544" sqref="C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6393,7 +6501,9 @@
       <c r="C128" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="2" t="s">
+        <v>1371</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -6584,7 +6694,9 @@
       <c r="D141" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E141" s="2"/>
+      <c r="E141" s="2" t="s">
+        <v>987</v>
+      </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -7359,7 +7471,9 @@
       <c r="C194" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D194" s="2"/>
+      <c r="D194" s="2" t="s">
+        <v>718</v>
+      </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -8051,7 +8165,9 @@
       <c r="C242" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D242" s="2"/>
+      <c r="D242" s="2" t="s">
+        <v>1365</v>
+      </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -11775,7 +11891,9 @@
       <c r="C498" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="D498" s="2"/>
+      <c r="D498" s="2" t="s">
+        <v>1377</v>
+      </c>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
@@ -12127,6 +12245,126 @@
       </c>
       <c r="C529" s="2" t="s">
         <v>640</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B530" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B531" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B532" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B533" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B534" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B535" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B536" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B537" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B538" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B539" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B540" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B541" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B542" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B543" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B544" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>1381</v>
       </c>
     </row>
   </sheetData>
@@ -12142,10 +12380,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D132"/>
+  <dimension ref="B2:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView topLeftCell="A127" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13208,8 +13446,33 @@
         <v>1342</v>
       </c>
     </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB26F34-D7CD-4C94-89F9-F267E9F9A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F212B9DF-6844-4D1E-AFEB-BA7568190612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1393">
   <si>
     <t>специальный</t>
   </si>
@@ -4188,6 +4188,39 @@
   </si>
   <si>
     <t>упорядоченное</t>
+  </si>
+  <si>
+    <t>исходную рукопись</t>
+  </si>
+  <si>
+    <t>суммируем</t>
+  </si>
+  <si>
+    <t>обобщим</t>
+  </si>
+  <si>
+    <t>контролировать</t>
+  </si>
+  <si>
+    <t>отслеживать</t>
+  </si>
+  <si>
+    <t>пропорциональное</t>
+  </si>
+  <si>
+    <t>сопоставимое</t>
+  </si>
+  <si>
+    <t>кодовые точки</t>
+  </si>
+  <si>
+    <t>знаки</t>
+  </si>
+  <si>
+    <t>спецификации</t>
+  </si>
+  <si>
+    <t>перечня</t>
   </si>
 </sst>
 </file>
@@ -4624,10 +4657,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H544"/>
+  <dimension ref="A1:H548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A540" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C544" sqref="C544"/>
+    <sheetView tabSelected="1" topLeftCell="A541" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B552" sqref="B552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4865,9 +4898,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -12240,12 +12271,8 @@
       </c>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B529" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>640</v>
-      </c>
+      <c r="B529" s="2"/>
+      <c r="C529" s="2"/>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B530" s="2" t="s">
@@ -12365,6 +12392,38 @@
       </c>
       <c r="C544" s="2" t="s">
         <v>1381</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B545" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B546" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B547" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B548" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>1392</v>
       </c>
     </row>
   </sheetData>
@@ -12380,10 +12439,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D135"/>
+  <dimension ref="B2:D136"/>
   <sheetViews>
     <sheetView topLeftCell="A127" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13414,7 +13473,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>1339</v>
       </c>
@@ -13422,7 +13481,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>1341</v>
       </c>
@@ -13430,7 +13489,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>1343</v>
       </c>
@@ -13438,7 +13497,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>1345</v>
       </c>
@@ -13446,7 +13505,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>1353</v>
       </c>
@@ -13454,7 +13513,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>1355</v>
       </c>
@@ -13462,12 +13521,23 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>1357</v>
       </c>
       <c r="C135" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D135" t="s">
         <v>1358</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B136" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1384</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F212B9DF-6844-4D1E-AFEB-BA7568190612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD9B296-2EBD-4F1A-A23E-BFA8049E0D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1398">
   <si>
     <t>специальный</t>
   </si>
@@ -4221,6 +4221,21 @@
   </si>
   <si>
     <t>перечня</t>
+  </si>
+  <si>
+    <t>контента</t>
+  </si>
+  <si>
+    <t>окружения</t>
+  </si>
+  <si>
+    <t>нюансы</t>
+  </si>
+  <si>
+    <t>тонкости</t>
+  </si>
+  <si>
+    <t>и</t>
   </si>
 </sst>
 </file>
@@ -4657,10 +4672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H548"/>
+  <dimension ref="A1:H551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B552" sqref="B552"/>
+    <sheetView tabSelected="1" topLeftCell="A534" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C551" sqref="C551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12424,6 +12439,27 @@
       </c>
       <c r="C548" s="2" t="s">
         <v>1392</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B549" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B550" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C551" s="2" t="s">
+        <v>1397</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD9B296-2EBD-4F1A-A23E-BFA8049E0D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56431FA4-8D0C-4242-8C51-9B29E92F5A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1404">
   <si>
     <t>специальный</t>
   </si>
@@ -4235,7 +4235,25 @@
     <t>тонкости</t>
   </si>
   <si>
-    <t>и</t>
+    <t>системы владения</t>
+  </si>
+  <si>
+    <t>устройство владения</t>
+  </si>
+  <si>
+    <t>внешний источник</t>
+  </si>
+  <si>
+    <t>профиля</t>
+  </si>
+  <si>
+    <t>режима</t>
+  </si>
+  <si>
+    <t>необязательный свойство</t>
+  </si>
+  <si>
+    <t>необязательное свойство</t>
   </si>
 </sst>
 </file>
@@ -4674,8 +4692,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C551" sqref="C551"/>
+    <sheetView topLeftCell="A546" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B552" sqref="B552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9412,7 +9430,9 @@
       <c r="F323" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="G323" s="2"/>
+      <c r="G323" s="2" t="s">
+        <v>1399</v>
+      </c>
       <c r="H323" s="2"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.45">
@@ -12458,8 +12478,11 @@
       </c>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B551" s="2" t="s">
+        <v>1400</v>
+      </c>
       <c r="C551" s="2" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -12475,16 +12498,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:D136"/>
+  <dimension ref="B2:I137"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="34.796875" customWidth="1"/>
     <col min="3" max="3" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
@@ -13509,7 +13533,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>1339</v>
       </c>
@@ -13517,7 +13541,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>1341</v>
       </c>
@@ -13525,7 +13549,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>1343</v>
       </c>
@@ -13533,7 +13557,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>1345</v>
       </c>
@@ -13541,7 +13565,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>1353</v>
       </c>
@@ -13549,7 +13573,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>1355</v>
       </c>
@@ -13557,7 +13581,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>1357</v>
       </c>
@@ -13568,12 +13592,26 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>1383</v>
       </c>
       <c r="C136" t="s">
         <v>1384</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H137" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1403</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56431FA4-8D0C-4242-8C51-9B29E92F5A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3470B5E4-53BE-4FDA-A184-DFDD99D8A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1514">
   <si>
     <t>специальный</t>
   </si>
@@ -4254,13 +4254,343 @@
   </si>
   <si>
     <t>необязательное свойство</t>
+  </si>
+  <si>
+    <t>пересоздать</t>
+  </si>
+  <si>
+    <t>ресоздать</t>
+  </si>
+  <si>
+    <t>координации</t>
+  </si>
+  <si>
+    <t>взаимосвязи</t>
+  </si>
+  <si>
+    <t>проблемами</t>
+  </si>
+  <si>
+    <t>сложностями</t>
+  </si>
+  <si>
+    <t>синхрон</t>
+  </si>
+  <si>
+    <t>согласован</t>
+  </si>
+  <si>
+    <t>взаимодействия</t>
+  </si>
+  <si>
+    <t>процессов</t>
+  </si>
+  <si>
+    <t>этапов</t>
+  </si>
+  <si>
+    <t>потенциальной</t>
+  </si>
+  <si>
+    <t>имеющейся</t>
+  </si>
+  <si>
+    <t>детальном</t>
+  </si>
+  <si>
+    <t>подробном</t>
+  </si>
+  <si>
+    <t>на практике</t>
+  </si>
+  <si>
+    <t>конкурентностью</t>
+  </si>
+  <si>
+    <t>состязательностью</t>
+  </si>
+  <si>
+    <t>прогресса</t>
+  </si>
+  <si>
+    <t>выполнения</t>
+  </si>
+  <si>
+    <t>процесс</t>
+  </si>
+  <si>
+    <t>результаты</t>
+  </si>
+  <si>
+    <t>итоги</t>
+  </si>
+  <si>
+    <t>итога</t>
+  </si>
+  <si>
+    <t>параллельная</t>
+  </si>
+  <si>
+    <t>одновременная</t>
+  </si>
+  <si>
+    <t>коллега</t>
+  </si>
+  <si>
+    <t>напарник</t>
+  </si>
+  <si>
+    <t>одну действие</t>
+  </si>
+  <si>
+    <t>одно действие</t>
+  </si>
+  <si>
+    <t>в Ржавчина</t>
+  </si>
+  <si>
+    <t>в Ржавчине</t>
+  </si>
+  <si>
+    <t>интерфейсом</t>
+  </si>
+  <si>
+    <t>внешней оболочкой</t>
+  </si>
+  <si>
+    <t>Эта же концепция</t>
+  </si>
+  <si>
+    <t>Этот же взгляд</t>
+  </si>
+  <si>
+    <t>реализованы</t>
+  </si>
+  <si>
+    <t>воплощены</t>
+  </si>
+  <si>
+    <t>структурами данных</t>
+  </si>
+  <si>
+    <t>видами данных</t>
+  </si>
+  <si>
+    <t>реализуют</t>
+  </si>
+  <si>
+    <t>воплощают</t>
+  </si>
+  <si>
+    <t>свою собственную сведения</t>
+  </si>
+  <si>
+    <t>свои собственные сведения</t>
+  </si>
+  <si>
+    <t>успехе</t>
+  </si>
+  <si>
+    <t>прогрессе</t>
+  </si>
+  <si>
+    <t>реализовать</t>
+  </si>
+  <si>
+    <t>воплотить</t>
+  </si>
+  <si>
+    <t>типы</t>
+  </si>
+  <si>
+    <t>виды данных</t>
+  </si>
+  <si>
+    <t>реализациями</t>
+  </si>
+  <si>
+    <t>исполнениями</t>
+  </si>
+  <si>
+    <t>контейнера</t>
+  </si>
+  <si>
+    <t>дополнения</t>
+  </si>
+  <si>
+    <t>контейнере</t>
+  </si>
+  <si>
+    <t>дополнении</t>
+  </si>
+  <si>
+    <t>контейнеров</t>
+  </si>
+  <si>
+    <t>дополнений</t>
+  </si>
+  <si>
+    <t>экспериментов</t>
+  </si>
+  <si>
+    <t>опытов</t>
+  </si>
+  <si>
+    <t>комментарии</t>
+  </si>
+  <si>
+    <t>примечания</t>
+  </si>
+  <si>
+    <t>бинарный</t>
+  </si>
+  <si>
+    <t>двоичный</t>
+  </si>
+  <si>
+    <t>небольшой средство</t>
+  </si>
+  <si>
+    <t>небольшое средство</t>
+  </si>
+  <si>
+    <t>компилятора</t>
+  </si>
+  <si>
+    <t>сборщика</t>
+  </si>
+  <si>
+    <t>сборщик</t>
+  </si>
+  <si>
+    <t>компилятором</t>
+  </si>
+  <si>
+    <t>компилятору</t>
+  </si>
+  <si>
+    <t>сборщику</t>
+  </si>
+  <si>
+    <t>циклов</t>
+  </si>
+  <si>
+    <t>круговоротов</t>
+  </si>
+  <si>
+    <t>селектора</t>
+  </si>
+  <si>
+    <t>собирателя</t>
+  </si>
+  <si>
+    <t>итераторов</t>
+  </si>
+  <si>
+    <t>повторителей</t>
+  </si>
+  <si>
+    <t>итератора</t>
+  </si>
+  <si>
+    <t>повторителя</t>
+  </si>
+  <si>
+    <t>итераторы</t>
+  </si>
+  <si>
+    <t>повторители</t>
+  </si>
+  <si>
+    <t>компилирует</t>
+  </si>
+  <si>
+    <t>собирает</t>
+  </si>
+  <si>
+    <t>уникальный</t>
+  </si>
+  <si>
+    <t>неповторимый</t>
+  </si>
+  <si>
+    <t>реализует</t>
+  </si>
+  <si>
+    <t>использует</t>
+  </si>
+  <si>
+    <t>эквивалентно</t>
+  </si>
+  <si>
+    <t>эквивалентный</t>
+  </si>
+  <si>
+    <t>равноценный</t>
+  </si>
+  <si>
+    <t>эквивалента</t>
+  </si>
+  <si>
+    <t>подобия</t>
+  </si>
+  <si>
+    <t>преобразованной версии</t>
+  </si>
+  <si>
+    <t>преобразованного исполнения</t>
+  </si>
+  <si>
+    <t>Эта исполнение</t>
+  </si>
+  <si>
+    <t>Это исполнение</t>
+  </si>
+  <si>
+    <t>циклическая</t>
+  </si>
+  <si>
+    <t>замкнутая</t>
+  </si>
+  <si>
+    <t>цикла</t>
+  </si>
+  <si>
+    <t>круговорота</t>
+  </si>
+  <si>
+    <t>версии</t>
+  </si>
+  <si>
+    <t>исполнения</t>
+  </si>
+  <si>
+    <t>параметра</t>
+  </si>
+  <si>
+    <t>параметров</t>
+  </si>
+  <si>
+    <t>свойств</t>
+  </si>
+  <si>
+    <t>параметром</t>
+  </si>
+  <si>
+    <t>свойством</t>
+  </si>
+  <si>
+    <t>шаблону</t>
+  </si>
+  <si>
+    <t>образцу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4310,6 +4640,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4337,7 +4674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4355,6 +4692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4690,10 +5028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:H604"/>
   <sheetViews>
-    <sheetView topLeftCell="A546" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B552" sqref="B552"/>
+    <sheetView tabSelected="1" topLeftCell="A589" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C605" sqref="C605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7178,10 +7516,10 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>778</v>
+        <v>1456</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>779</v>
+        <v>1457</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -7192,30 +7530,24 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
-        <v>572</v>
+        <v>1458</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>578</v>
-      </c>
+        <v>1459</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
-        <v>575</v>
+        <v>1460</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>576</v>
+        <v>1461</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -7226,10 +7558,10 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>843</v>
+        <v>778</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>844</v>
+        <v>779</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -7240,26 +7572,30 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>310</v>
+        <v>572</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>311</v>
+        <v>573</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>387</v>
+        <v>576</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -7270,10 +7606,10 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
-        <v>388</v>
+        <v>843</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>390</v>
+        <v>844</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -7284,13 +7620,13 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
-        <v>755</v>
+        <v>310</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>756</v>
+        <v>311</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>759</v>
+        <v>855</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -7300,10 +7636,10 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>760</v>
+        <v>386</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>761</v>
+        <v>387</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -7314,30 +7650,28 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>757</v>
+        <v>388</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>858</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="2"/>
-      <c r="B180" s="6" t="s">
-        <v>358</v>
+      <c r="B180" s="2" t="s">
+        <v>755</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D180" s="2"/>
+        <v>756</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>759</v>
+      </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -7346,14 +7680,12 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>2</v>
+        <v>760</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>859</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -7362,24 +7694,28 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
+        <v>758</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
-      <c r="B183" s="2" t="s">
-        <v>45</v>
+      <c r="B183" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>46</v>
+        <v>359</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7390,12 +7726,14 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>859</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -7404,9 +7742,11 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C185" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>727</v>
+      </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -7416,10 +7756,10 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7430,10 +7770,10 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
-        <v>609</v>
+        <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>610</v>
+        <v>8</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7444,14 +7784,10 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>748</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -7460,10 +7796,10 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>749</v>
+        <v>71</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>750</v>
+        <v>72</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7474,10 +7810,10 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7488,12 +7824,14 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
-        <v>360</v>
+        <v>746</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D191" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>748</v>
+      </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -7502,10 +7840,10 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>104</v>
+        <v>749</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>105</v>
+        <v>750</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -7516,10 +7854,10 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
-        <v>57</v>
+        <v>557</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -7530,14 +7868,12 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>552</v>
+        <v>360</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>718</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -7546,10 +7882,10 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>554</v>
+        <v>104</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>555</v>
+        <v>105</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -7560,10 +7896,10 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
-        <v>556</v>
+        <v>57</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -7574,12 +7910,14 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>797</v>
+        <v>552</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="D197" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>718</v>
+      </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -7588,10 +7926,10 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>212</v>
+        <v>554</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>213</v>
+        <v>555</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -7602,10 +7940,10 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="2" t="s">
-        <v>241</v>
+        <v>556</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -7616,17 +7954,13 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" s="2"/>
       <c r="B200" s="2" t="s">
-        <v>860</v>
+        <v>797</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>865</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
@@ -7634,10 +7968,10 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201" s="2"/>
       <c r="B201" s="2" t="s">
-        <v>862</v>
+        <v>212</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>863</v>
+        <v>213</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -7648,10 +7982,10 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -7662,16 +7996,16 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
-        <v>277</v>
+        <v>860</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>93</v>
+        <v>861</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>278</v>
+        <v>864</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>279</v>
+        <v>865</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -7680,10 +8014,10 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
-        <v>623</v>
+        <v>862</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>624</v>
+        <v>863</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7694,10 +8028,10 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -7708,15 +8042,17 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>499</v>
+        <v>277</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>500</v>
+        <v>93</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E206" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
@@ -7724,10 +8060,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
-        <v>203</v>
+        <v>623</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>204</v>
+        <v>624</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7738,10 +8074,10 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>682</v>
+        <v>59</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>683</v>
+        <v>60</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -7752,12 +8088,14 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>684</v>
+        <v>499</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D209" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -7766,10 +8104,10 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>680</v>
+        <v>203</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>681</v>
+        <v>204</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -7780,10 +8118,10 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -7794,17 +8132,13 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>128</v>
+        <v>684</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>451</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -7812,10 +8146,10 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
-        <v>80</v>
+        <v>680</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>81</v>
+        <v>681</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -7826,10 +8160,10 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>149</v>
+        <v>686</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>150</v>
+        <v>687</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -7840,11 +8174,17 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
@@ -7852,9 +8192,11 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C216" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -7864,10 +8206,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7878,11 +8220,9 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>866</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -7892,11 +8232,9 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -7906,10 +8244,10 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7920,10 +8258,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
-        <v>867</v>
+        <v>275</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -7934,10 +8272,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
-        <v>698</v>
+        <v>224</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -7948,17 +8286,13 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>468</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
@@ -7966,10 +8300,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>419</v>
+        <v>867</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>420</v>
+        <v>868</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -7980,10 +8314,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>766</v>
+        <v>698</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>767</v>
+        <v>197</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -7994,13 +8328,17 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
@@ -8008,10 +8346,10 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>751</v>
+        <v>419</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>752</v>
+        <v>420</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -8022,10 +8360,10 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -8036,10 +8374,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>389</v>
+        <v>231</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>391</v>
+        <v>232</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8050,14 +8388,12 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>871</v>
+        <v>751</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>872</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -8066,10 +8402,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>869</v>
+        <v>753</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>870</v>
+        <v>754</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -8080,10 +8416,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>220</v>
+        <v>389</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>221</v>
+        <v>391</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -8094,12 +8430,14 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
-        <v>671</v>
+        <v>871</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D233" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>872</v>
+      </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -8108,10 +8446,10 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>702</v>
+        <v>870</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -8122,14 +8460,12 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>264</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -8138,10 +8474,10 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>139</v>
+        <v>671</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -8152,10 +8488,10 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
-        <v>876</v>
+        <v>723</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>877</v>
+        <v>702</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -8166,12 +8502,14 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>921</v>
+        <v>139</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="D238" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -8180,10 +8518,10 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>249</v>
+        <v>683</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -8194,14 +8532,12 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>106</v>
+        <v>876</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>877</v>
+      </c>
+      <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
@@ -8210,10 +8546,10 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>762</v>
+        <v>921</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>763</v>
+        <v>922</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -8224,14 +8560,12 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>372</v>
+        <v>248</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>1365</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -8240,13 +8574,13 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>370</v>
+        <v>107</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>371</v>
+        <v>154</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -8256,10 +8590,10 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>67</v>
+        <v>762</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>68</v>
+        <v>763</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -8270,12 +8604,14 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
-        <v>1055</v>
+        <v>372</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D245" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>1365</v>
+      </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
@@ -8284,13 +8620,13 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
-        <v>883</v>
+        <v>369</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>884</v>
+        <v>370</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1054</v>
+        <v>371</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -8300,10 +8636,10 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
-        <v>452</v>
+        <v>67</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>453</v>
+        <v>68</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -8314,10 +8650,10 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
-        <v>452</v>
+        <v>1055</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>880</v>
+        <v>1056</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -8328,12 +8664,14 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A249" s="2"/>
       <c r="B249" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="D249" s="2"/>
+        <v>884</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>1054</v>
+      </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -8342,10 +8680,10 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
-        <v>878</v>
+        <v>452</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>879</v>
+        <v>453</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -8356,14 +8694,12 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251" s="2"/>
       <c r="B251" s="2" t="s">
-        <v>207</v>
+        <v>452</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>745</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
@@ -8371,11 +8707,11 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252" s="2"/>
-      <c r="B252" s="5" t="s">
-        <v>822</v>
+      <c r="B252" s="2" t="s">
+        <v>881</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>823</v>
+        <v>882</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -8386,10 +8722,10 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253" s="2"/>
       <c r="B253" s="2" t="s">
-        <v>381</v>
+        <v>878</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>292</v>
+        <v>879</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -8400,12 +8736,14 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254" s="2"/>
       <c r="B254" s="2" t="s">
-        <v>885</v>
+        <v>207</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="D254" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>745</v>
+      </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
@@ -8413,11 +8751,11 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255" s="2"/>
-      <c r="B255" s="2" t="s">
-        <v>258</v>
+      <c r="B255" s="5" t="s">
+        <v>822</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>259</v>
+        <v>823</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -8428,14 +8766,12 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>819</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
@@ -8444,10 +8780,10 @@
     <row r="257" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A257" s="2"/>
       <c r="B257" s="2" t="s">
-        <v>673</v>
+        <v>885</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>674</v>
+        <v>886</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -8458,10 +8794,10 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
-        <v>915</v>
+        <v>258</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>916</v>
+        <v>259</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -8472,10 +8808,10 @@
     <row r="259" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A259" s="2"/>
       <c r="B259" s="2" t="s">
-        <v>404</v>
+        <v>1508</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>405</v>
+        <v>1509</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -8486,14 +8822,12 @@
     <row r="260" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A260" s="2"/>
       <c r="B260" s="2" t="s">
-        <v>652</v>
+        <v>1510</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>654</v>
-      </c>
+        <v>1511</v>
+      </c>
+      <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
@@ -8502,13 +8836,13 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
-        <v>648</v>
+        <v>1507</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>649</v>
+        <v>348</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>658</v>
+        <v>56</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -8518,12 +8852,14 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A262" s="2"/>
       <c r="B262" s="2" t="s">
-        <v>651</v>
+        <v>355</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D262" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>819</v>
+      </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -8532,10 +8868,10 @@
     <row r="263" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A263" s="2"/>
       <c r="B263" s="2" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -8546,10 +8882,10 @@
     <row r="264" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
-        <v>196</v>
+        <v>915</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>197</v>
+        <v>916</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -8560,10 +8896,10 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
-        <v>887</v>
+        <v>404</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>888</v>
+        <v>405</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -8574,12 +8910,14 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D266" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>654</v>
+      </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -8588,12 +8926,14 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
-        <v>426</v>
+        <v>648</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D267" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -8602,14 +8942,12 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A268" s="2"/>
       <c r="B268" s="2" t="s">
-        <v>222</v>
+        <v>651</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>949</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -8618,10 +8956,10 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A269" s="2"/>
       <c r="B269" s="2" t="s">
-        <v>233</v>
+        <v>657</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>234</v>
+        <v>653</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -8632,9 +8970,11 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A270" s="2"/>
       <c r="B270" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C270" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
@@ -8644,32 +8984,24 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A271" s="2"/>
       <c r="B271" s="2" t="s">
-        <v>206</v>
+        <v>887</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>606</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A272" s="2"/>
       <c r="B272" s="2" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>608</v>
+        <v>656</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -8680,14 +9012,12 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A273" s="2"/>
       <c r="B273" s="2" t="s">
-        <v>601</v>
+        <v>426</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>602</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -8696,12 +9026,14 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
-        <v>893</v>
+        <v>222</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="D274" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>949</v>
+      </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -8710,10 +9042,10 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
-        <v>776</v>
+        <v>233</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>777</v>
+        <v>234</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -8724,11 +9056,9 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>891</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -8738,28 +9068,34 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="H277" s="2"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
-        <v>454</v>
+        <v>607</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>456</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
@@ -8768,32 +9104,26 @@
     <row r="279" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>421</v>
+        <v>601</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>422</v>
+        <v>581</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>635</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>425</v>
+        <v>894</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -8804,14 +9134,12 @@
     <row r="281" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>410</v>
+        <v>776</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>412</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -8820,10 +9148,10 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
-        <v>183</v>
+        <v>892</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>184</v>
+        <v>891</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -8834,10 +9162,10 @@
     <row r="283" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
-        <v>417</v>
+        <v>14</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>418</v>
+        <v>15</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -8848,12 +9176,14 @@
     <row r="284" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D284" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -8862,24 +9192,32 @@
     <row r="285" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>635</v>
+      </c>
       <c r="H285" s="2"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
-        <v>367</v>
+        <v>895</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -8890,12 +9228,14 @@
     <row r="287" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
-        <v>590</v>
+        <v>410</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D287" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -8904,10 +9244,10 @@
     <row r="288" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
-        <v>896</v>
+        <v>183</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>897</v>
+        <v>184</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -8918,10 +9258,10 @@
     <row r="289" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
-        <v>1003</v>
+        <v>417</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>898</v>
+        <v>418</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -8932,10 +9272,10 @@
     <row r="290" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>304</v>
+        <v>413</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>303</v>
+        <v>414</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -8946,33 +9286,27 @@
     <row r="291" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>289</v>
+        <v>416</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
-      <c r="H291" s="2">
-        <v>75</v>
-      </c>
+      <c r="H291" s="2"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
-        <v>168</v>
+        <v>367</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>898</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
@@ -8980,10 +9314,10 @@
     <row r="293" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>899</v>
+        <v>590</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>900</v>
+        <v>591</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -8994,10 +9328,10 @@
     <row r="294" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>465</v>
+        <v>896</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>466</v>
+        <v>897</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -9008,10 +9342,10 @@
     <row r="295" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>801</v>
+        <v>1003</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>802</v>
+        <v>898</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -9022,10 +9356,10 @@
     <row r="296" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>803</v>
+        <v>304</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>804</v>
+        <v>303</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -9036,27 +9370,33 @@
     <row r="297" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>616</v>
+        <v>288</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>617</v>
+        <v>289</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
+      <c r="H297" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>613</v>
+        <v>168</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>898</v>
+      </c>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
@@ -9064,14 +9404,12 @@
     <row r="299" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
-        <v>597</v>
+        <v>899</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>598</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="D299" s="2"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -9080,10 +9418,10 @@
     <row r="300" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>16</v>
+        <v>465</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>17</v>
+        <v>466</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -9094,10 +9432,10 @@
     <row r="301" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>400</v>
+        <v>801</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>401</v>
+        <v>802</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -9105,13 +9443,13 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A302" s="2"/>
-      <c r="B302" s="1" t="s">
-        <v>848</v>
+      <c r="B302" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>849</v>
+        <v>804</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -9122,9 +9460,11 @@
     <row r="303" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C303" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>617</v>
+      </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
@@ -9134,10 +9474,10 @@
     <row r="304" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>690</v>
+        <v>613</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>691</v>
+        <v>614</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -9148,12 +9488,14 @@
     <row r="305" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
-        <v>677</v>
+        <v>597</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D305" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>598</v>
+      </c>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
@@ -9162,10 +9504,10 @@
     <row r="306" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -9176,10 +9518,10 @@
     <row r="307" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
-        <v>679</v>
+        <v>400</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>215</v>
+        <v>401</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -9187,17 +9529,15 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A308" s="2"/>
-      <c r="B308" s="2" t="s">
-        <v>49</v>
+      <c r="B308" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="D308" s="2"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
@@ -9206,11 +9546,9 @@
     <row r="309" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>408</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
@@ -9220,36 +9558,26 @@
     <row r="310" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
-        <v>47</v>
+        <v>690</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>1050</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>337</v>
+        <v>677</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>339</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="D311" s="2"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
@@ -9258,9 +9586,11 @@
     <row r="312" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C312" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
@@ -9270,14 +9600,12 @@
     <row r="313" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>169</v>
+        <v>679</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D313" s="2"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
@@ -9286,12 +9614,14 @@
     <row r="314" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D314" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
@@ -9300,10 +9630,10 @@
     <row r="315" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>243</v>
+        <v>773</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>244</v>
+        <v>408</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -9313,27 +9643,37 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A316" s="2"/>
-      <c r="B316" s="5" t="s">
-        <v>815</v>
+      <c r="B316" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
-      <c r="F316" s="2"/>
-      <c r="G316" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>1050</v>
+      </c>
       <c r="H316" s="2"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>532</v>
+        <v>337</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D317" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
@@ -9342,11 +9682,9 @@
     <row r="318" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
@@ -9356,12 +9694,14 @@
     <row r="319" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>509</v>
+        <v>169</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D319" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
@@ -9370,9 +9710,11 @@
     <row r="320" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C320" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
@@ -9382,30 +9724,24 @@
     <row r="321" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>508</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A322" s="2"/>
-      <c r="B322" s="2" t="s">
-        <v>528</v>
+      <c r="B322" s="5" t="s">
+        <v>815</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>529</v>
+        <v>816</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -9416,32 +9752,24 @@
     <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>22</v>
+        <v>532</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>1399</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
+      <c r="G323" s="2"/>
       <c r="H323" s="2"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>910</v>
+        <v>94</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>911</v>
+        <v>1427</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -9452,14 +9780,12 @@
     <row r="325" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>55</v>
+        <v>1425</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>1426</v>
+      </c>
+      <c r="D325" s="2"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -9468,10 +9794,10 @@
     <row r="326" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -9482,10 +9808,10 @@
     <row r="327" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>694</v>
+        <v>509</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>695</v>
+        <v>510</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -9496,11 +9822,9 @@
     <row r="328" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>697</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
@@ -9510,24 +9834,30 @@
     <row r="329" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>548</v>
+        <v>173</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>88</v>
+        <v>528</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>91</v>
+        <v>529</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -9538,26 +9868,32 @@
     <row r="331" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>114</v>
+        <v>515</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>1399</v>
+      </c>
       <c r="H331" s="2"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>721</v>
+        <v>910</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>722</v>
+        <v>911</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -9568,12 +9904,14 @@
     <row r="333" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D333" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
@@ -9582,14 +9920,12 @@
     <row r="334" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>707</v>
+        <v>227</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>709</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
@@ -9598,10 +9934,10 @@
     <row r="335" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
-        <v>273</v>
+        <v>694</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>274</v>
+        <v>695</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -9612,10 +9948,10 @@
     <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
-        <v>1025</v>
+        <v>696</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>1026</v>
+        <v>697</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -9626,14 +9962,12 @@
     <row r="337" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>976</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
@@ -9642,10 +9976,10 @@
     <row r="338" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
-        <v>780</v>
+        <v>88</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>781</v>
+        <v>91</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -9656,13 +9990,13 @@
     <row r="339" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>581</v>
+        <v>641</v>
       </c>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
@@ -9672,10 +10006,10 @@
     <row r="340" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
-        <v>611</v>
+        <v>721</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>612</v>
+        <v>722</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -9686,10 +10020,10 @@
     <row r="341" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
-        <v>852</v>
+        <v>132</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>853</v>
+        <v>133</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -9700,12 +10034,14 @@
     <row r="342" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
-        <v>502</v>
+        <v>707</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D342" s="2"/>
+        <v>708</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>709</v>
+      </c>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
@@ -9714,17 +10050,13 @@
     <row r="343" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
-        <v>542</v>
+        <v>273</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>545</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
@@ -9732,10 +10064,10 @@
     <row r="344" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
-        <v>724</v>
+        <v>1025</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>725</v>
+        <v>1026</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -9746,12 +10078,14 @@
     <row r="345" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A345" s="2"/>
       <c r="B345" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D345" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>976</v>
+      </c>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
@@ -9760,10 +10094,10 @@
     <row r="346" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
-        <v>73</v>
+        <v>780</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>74</v>
+        <v>781</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -9774,12 +10108,14 @@
     <row r="347" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
-        <v>715</v>
+        <v>199</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D347" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -9788,10 +10124,10 @@
     <row r="348" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A348" s="2"/>
       <c r="B348" s="2" t="s">
-        <v>901</v>
+        <v>611</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>902</v>
+        <v>612</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -9802,10 +10138,10 @@
     <row r="349" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A349" s="2"/>
       <c r="B349" s="2" t="s">
-        <v>191</v>
+        <v>852</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>109</v>
+        <v>853</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -9816,10 +10152,10 @@
     <row r="350" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A350" s="2"/>
       <c r="B350" s="2" t="s">
-        <v>30</v>
+        <v>502</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -9830,13 +10166,17 @@
     <row r="351" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A351" s="2"/>
       <c r="B351" s="2" t="s">
-        <v>336</v>
+        <v>542</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
@@ -9844,14 +10184,12 @@
     <row r="352" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A352" s="2"/>
       <c r="B352" s="2" t="s">
-        <v>488</v>
+        <v>724</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>490</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="D352" s="2"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -9860,10 +10198,10 @@
     <row r="353" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A353" s="2"/>
       <c r="B353" s="2" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -9874,10 +10212,10 @@
     <row r="354" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
-        <v>486</v>
+        <v>73</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>487</v>
+        <v>74</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -9888,10 +10226,10 @@
     <row r="355" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
-        <v>810</v>
+        <v>715</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>811</v>
+        <v>716</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -9901,11 +10239,11 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A356" s="2"/>
-      <c r="B356" s="5" t="s">
-        <v>808</v>
+      <c r="B356" s="2" t="s">
+        <v>901</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>809</v>
+        <v>902</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -9916,10 +10254,10 @@
     <row r="357" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A357" s="2"/>
       <c r="B357" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -9930,10 +10268,10 @@
     <row r="358" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A358" s="2"/>
       <c r="B358" s="2" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -9943,11 +10281,11 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A359" s="2"/>
-      <c r="B359" s="5" t="s">
-        <v>820</v>
+      <c r="B359" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>821</v>
+        <v>344</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -9958,13 +10296,13 @@
     <row r="360" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A360" s="2"/>
       <c r="B360" s="2" t="s">
-        <v>163</v>
+        <v>488</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>317</v>
+        <v>489</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>318</v>
+        <v>490</v>
       </c>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
@@ -9974,10 +10312,10 @@
     <row r="361" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>670</v>
+        <v>1</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -9988,10 +10326,10 @@
     <row r="362" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A362" s="2"/>
       <c r="B362" s="2" t="s">
-        <v>904</v>
+        <v>486</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>905</v>
+        <v>487</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -10002,10 +10340,10 @@
     <row r="363" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A363" s="2"/>
       <c r="B363" s="2" t="s">
-        <v>665</v>
+        <v>810</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>666</v>
+        <v>811</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -10015,11 +10353,11 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A364" s="2"/>
-      <c r="B364" s="2" t="s">
-        <v>995</v>
+      <c r="B364" s="5" t="s">
+        <v>808</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>996</v>
+        <v>809</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -10030,10 +10368,10 @@
     <row r="365" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A365" s="2"/>
       <c r="B365" s="2" t="s">
-        <v>667</v>
+        <v>195</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>668</v>
+        <v>198</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -10044,9 +10382,11 @@
     <row r="366" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A366" s="2"/>
       <c r="B366" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C366" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
@@ -10055,15 +10395,13 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A367" s="2"/>
-      <c r="B367" s="2" t="s">
-        <v>765</v>
+      <c r="B367" s="5" t="s">
+        <v>820</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>581</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="D367" s="2"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -10072,12 +10410,14 @@
     <row r="368" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A368" s="2"/>
       <c r="B368" s="2" t="s">
-        <v>795</v>
+        <v>163</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="D368" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
@@ -10086,14 +10426,12 @@
     <row r="369" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A369" s="2"/>
       <c r="B369" s="2" t="s">
-        <v>26</v>
+        <v>669</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="D369" s="2"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
@@ -10102,14 +10440,12 @@
     <row r="370" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A370" s="2"/>
       <c r="B370" s="2" t="s">
-        <v>631</v>
+        <v>904</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>633</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="D370" s="2"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
@@ -10118,10 +10454,10 @@
     <row r="371" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A371" s="2"/>
       <c r="B371" s="2" t="s">
-        <v>134</v>
+        <v>665</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>135</v>
+        <v>666</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -10132,53 +10468,37 @@
     <row r="372" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A372" s="2"/>
       <c r="B372" s="2" t="s">
-        <v>134</v>
+        <v>995</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="E372" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F372" s="2" t="s">
-        <v>635</v>
-      </c>
+        <v>996</v>
+      </c>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A373" s="2"/>
       <c r="B373" s="2" t="s">
-        <v>84</v>
+        <v>667</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E373" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F373" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G373" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
+      <c r="G373" s="2"/>
       <c r="H373" s="2"/>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A374" s="2"/>
       <c r="B374" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>527</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
@@ -10188,12 +10508,14 @@
     <row r="375" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A375" s="2"/>
       <c r="B375" s="2" t="s">
-        <v>530</v>
+        <v>765</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D375" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -10202,17 +10524,13 @@
     <row r="376" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A376" s="2"/>
       <c r="B376" s="2" t="s">
-        <v>522</v>
+        <v>795</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E376" s="2" t="s">
-        <v>525</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
@@ -10220,12 +10538,14 @@
     <row r="377" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A377" s="2"/>
       <c r="B377" s="2" t="s">
-        <v>435</v>
+        <v>26</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D377" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -10234,12 +10554,14 @@
     <row r="378" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A378" s="2"/>
       <c r="B378" s="2" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D378" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -10248,9 +10570,11 @@
     <row r="379" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A379" s="2"/>
       <c r="B379" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C379" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
@@ -10260,38 +10584,52 @@
     <row r="380" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A380" s="2"/>
       <c r="B380" s="2" t="s">
-        <v>688</v>
+        <v>134</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2"/>
-      <c r="F380" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>635</v>
+      </c>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A381" s="2"/>
       <c r="B381" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D381" s="2"/>
-      <c r="E381" s="2"/>
-      <c r="F381" s="2"/>
-      <c r="G381" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="H381" s="2"/>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A382" s="2"/>
       <c r="B382" s="2" t="s">
-        <v>315</v>
+        <v>526</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>316</v>
+        <v>527</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -10302,10 +10640,10 @@
     <row r="383" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A383" s="2"/>
       <c r="B383" s="2" t="s">
-        <v>433</v>
+        <v>530</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>434</v>
+        <v>531</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -10316,13 +10654,17 @@
     <row r="384" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A384" s="2"/>
       <c r="B384" s="2" t="s">
-        <v>328</v>
+        <v>522</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
@@ -10330,10 +10672,10 @@
     <row r="385" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A385" s="2"/>
       <c r="B385" s="2" t="s">
-        <v>260</v>
+        <v>435</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>261</v>
+        <v>436</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -10344,10 +10686,10 @@
     <row r="386" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A386" s="2"/>
       <c r="B386" s="2" t="s">
-        <v>321</v>
+        <v>435</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>322</v>
+        <v>437</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -10358,11 +10700,9 @@
     <row r="387" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A387" s="2"/>
       <c r="B387" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
@@ -10372,10 +10712,10 @@
     <row r="388" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A388" s="2"/>
       <c r="B388" s="2" t="s">
-        <v>442</v>
+        <v>688</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>443</v>
+        <v>689</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -10386,10 +10726,10 @@
     <row r="389" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A389" s="2"/>
       <c r="B389" s="2" t="s">
-        <v>906</v>
+        <v>118</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>907</v>
+        <v>116</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -10400,10 +10740,10 @@
     <row r="390" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A390" s="2"/>
       <c r="B390" s="2" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -10414,10 +10754,10 @@
     <row r="391" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A391" s="2"/>
       <c r="B391" s="2" t="s">
-        <v>806</v>
+        <v>433</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>807</v>
+        <v>434</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -10428,10 +10768,10 @@
     <row r="392" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A392" s="2"/>
       <c r="B392" s="2" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -10442,10 +10782,10 @@
     <row r="393" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A393" s="2"/>
       <c r="B393" s="2" t="s">
-        <v>362</v>
+        <v>260</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -10455,11 +10795,11 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A394" s="2"/>
-      <c r="B394" s="3" t="s">
-        <v>40</v>
+      <c r="B394" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -10470,17 +10810,13 @@
     <row r="395" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A395" s="2"/>
       <c r="B395" s="2" t="s">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>925</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
@@ -10488,10 +10824,10 @@
     <row r="396" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A396" s="2"/>
       <c r="B396" s="2" t="s">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>281</v>
+        <v>443</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -10502,10 +10838,10 @@
     <row r="397" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A397" s="2"/>
       <c r="B397" s="2" t="s">
-        <v>280</v>
+        <v>906</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>281</v>
+        <v>907</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -10516,10 +10852,10 @@
     <row r="398" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A398" s="2"/>
       <c r="B398" s="2" t="s">
-        <v>568</v>
+        <v>235</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>569</v>
+        <v>236</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -10530,10 +10866,10 @@
     <row r="399" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A399" s="2"/>
       <c r="B399" s="2" t="s">
-        <v>594</v>
+        <v>806</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>595</v>
+        <v>807</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -10544,10 +10880,10 @@
     <row r="400" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A400" s="2"/>
       <c r="B400" s="2" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -10558,10 +10894,10 @@
     <row r="401" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A401" s="2"/>
       <c r="B401" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -10571,11 +10907,11 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A402" s="2"/>
-      <c r="B402" s="2" t="s">
-        <v>32</v>
+      <c r="B402" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -10586,13 +10922,17 @@
     <row r="403" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A403" s="2"/>
       <c r="B403" s="2" t="s">
-        <v>908</v>
+        <v>284</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>925</v>
+      </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
@@ -10600,10 +10940,10 @@
     <row r="404" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A404" s="2"/>
       <c r="B404" s="2" t="s">
-        <v>397</v>
+        <v>280</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>398</v>
+        <v>281</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -10614,10 +10954,10 @@
     <row r="405" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A405" s="2"/>
       <c r="B405" s="2" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -10628,10 +10968,10 @@
     <row r="406" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A406" s="2"/>
       <c r="B406" s="2" t="s">
-        <v>89</v>
+        <v>568</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>90</v>
+        <v>569</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -10642,10 +10982,10 @@
     <row r="407" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A407" s="2"/>
       <c r="B407" s="2" t="s">
-        <v>262</v>
+        <v>594</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>177</v>
+        <v>595</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -10656,10 +10996,10 @@
     <row r="408" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A408" s="2"/>
       <c r="B408" s="2" t="s">
-        <v>791</v>
+        <v>18</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>792</v>
+        <v>19</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -10670,10 +11010,10 @@
     <row r="409" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A409" s="2"/>
       <c r="B409" s="2" t="s">
-        <v>484</v>
+        <v>365</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>485</v>
+        <v>366</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -10684,10 +11024,10 @@
     <row r="410" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A410" s="2"/>
       <c r="B410" s="2" t="s">
-        <v>912</v>
+        <v>32</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>913</v>
+        <v>33</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -10698,14 +11038,12 @@
     <row r="411" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A411" s="2"/>
       <c r="B411" s="2" t="s">
-        <v>123</v>
+        <v>908</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>254</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="D411" s="2"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -10714,14 +11052,12 @@
     <row r="412" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A412" s="2"/>
       <c r="B412" s="2" t="s">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="D412" s="2"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -10730,10 +11066,10 @@
     <row r="413" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A413" s="2"/>
       <c r="B413" s="2" t="s">
-        <v>764</v>
+        <v>176</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -10744,14 +11080,12 @@
     <row r="414" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A414" s="2"/>
       <c r="B414" s="2" t="s">
-        <v>570</v>
+        <v>89</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D414" s="2"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
@@ -10760,10 +11094,10 @@
     <row r="415" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A415" s="2"/>
       <c r="B415" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -10774,10 +11108,10 @@
     <row r="416" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A416" s="2"/>
       <c r="B416" s="2" t="s">
-        <v>395</v>
+        <v>791</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>396</v>
+        <v>792</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -10788,10 +11122,10 @@
     <row r="417" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A417" s="2"/>
       <c r="B417" s="2" t="s">
-        <v>263</v>
+        <v>484</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -10802,10 +11136,10 @@
     <row r="418" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A418" s="2"/>
       <c r="B418" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>1063</v>
+        <v>913</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -10816,12 +11150,14 @@
     <row r="419" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A419" s="2"/>
       <c r="B419" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D419" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
@@ -10830,12 +11166,14 @@
     <row r="420" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A420" s="2"/>
       <c r="B420" s="2" t="s">
-        <v>919</v>
+        <v>330</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="D420" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
@@ -10844,10 +11182,10 @@
     <row r="421" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A421" s="2"/>
       <c r="B421" s="2" t="s">
-        <v>312</v>
+        <v>764</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -10858,12 +11196,14 @@
     <row r="422" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A422" s="2"/>
       <c r="B422" s="2" t="s">
-        <v>319</v>
+        <v>570</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D422" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
@@ -10872,10 +11212,10 @@
     <row r="423" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A423" s="2"/>
       <c r="B423" s="2" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>567</v>
+        <v>268</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -10886,14 +11226,12 @@
     <row r="424" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A424" s="2"/>
       <c r="B424" s="2" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -10902,10 +11240,10 @@
     <row r="425" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A425" s="2"/>
       <c r="B425" s="2" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -10916,10 +11254,10 @@
     <row r="426" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A426" s="2"/>
       <c r="B426" s="2" t="s">
-        <v>513</v>
+        <v>914</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>514</v>
+        <v>1063</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -10930,10 +11268,10 @@
     <row r="427" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A427" s="2"/>
       <c r="B427" s="2" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -10944,10 +11282,10 @@
     <row r="428" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A428" s="2"/>
       <c r="B428" s="2" t="s">
-        <v>345</v>
+        <v>919</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>117</v>
+        <v>920</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -10958,10 +11296,10 @@
     <row r="429" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A429" s="2"/>
       <c r="B429" s="2" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -10972,14 +11310,12 @@
     <row r="430" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A430" s="2"/>
       <c r="B430" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>349</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
@@ -10988,14 +11324,12 @@
     <row r="431" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A431" s="2"/>
       <c r="B431" s="2" t="s">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>320</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
@@ -11004,13 +11338,13 @@
     <row r="432" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A432" s="2"/>
       <c r="B432" s="2" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>605</v>
+        <v>385</v>
       </c>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
@@ -11020,10 +11354,10 @@
     <row r="433" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A433" s="2"/>
       <c r="B433" s="2" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -11034,14 +11368,12 @@
     <row r="434" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A434" s="2"/>
       <c r="B434" s="2" t="s">
-        <v>660</v>
+        <v>513</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>662</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="D434" s="2"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
@@ -11050,10 +11382,10 @@
     <row r="435" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A435" s="2"/>
       <c r="B435" s="2" t="s">
-        <v>719</v>
+        <v>38</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>720</v>
+        <v>39</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -11064,17 +11396,13 @@
     <row r="436" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A436" s="2"/>
       <c r="B436" s="2" t="s">
-        <v>124</v>
+        <v>345</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E436" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D436" s="2"/>
+      <c r="E436" s="2"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
@@ -11082,10 +11410,10 @@
     <row r="437" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A437" s="2"/>
       <c r="B437" s="2" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -11096,12 +11424,14 @@
     <row r="438" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A438" s="2"/>
       <c r="B438" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D438" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
@@ -11110,12 +11440,14 @@
     <row r="439" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A439" s="2"/>
       <c r="B439" s="2" t="s">
-        <v>533</v>
+        <v>36</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D439" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
@@ -11124,12 +11456,14 @@
     <row r="440" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A440" s="2"/>
       <c r="B440" s="2" t="s">
-        <v>535</v>
+        <v>438</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D440" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>605</v>
+      </c>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
@@ -11138,14 +11472,12 @@
     <row r="441" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A441" s="2"/>
       <c r="B441" s="2" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D441" s="2"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
@@ -11154,12 +11486,14 @@
     <row r="442" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A442" s="2"/>
       <c r="B442" s="2" t="s">
-        <v>170</v>
+        <v>660</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D442" s="2"/>
+        <v>661</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>662</v>
+      </c>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
@@ -11168,14 +11502,12 @@
     <row r="443" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A443" s="2"/>
       <c r="B443" s="2" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="D443" s="2"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
@@ -11184,13 +11516,17 @@
     <row r="444" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A444" s="2"/>
       <c r="B444" s="2" t="s">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D444" s="2"/>
-      <c r="E444" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
@@ -11198,10 +11534,10 @@
     <row r="445" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A445" s="2"/>
       <c r="B445" s="2" t="s">
-        <v>699</v>
+        <v>323</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>700</v>
+        <v>324</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -11212,10 +11548,10 @@
     <row r="446" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A446" s="2"/>
       <c r="B446" s="2" t="s">
-        <v>703</v>
+        <v>323</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>704</v>
+        <v>324</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -11226,10 +11562,10 @@
     <row r="447" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A447" s="2"/>
       <c r="B447" s="2" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>255</v>
+        <v>534</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -11240,10 +11576,10 @@
     <row r="448" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A448" s="2"/>
       <c r="B448" s="2" t="s">
-        <v>364</v>
+        <v>535</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>324</v>
+        <v>536</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -11254,12 +11590,14 @@
     <row r="449" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A449" s="2"/>
       <c r="B449" s="2" t="s">
-        <v>470</v>
+        <v>23</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D449" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -11268,10 +11606,10 @@
     <row r="450" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A450" s="2"/>
       <c r="B450" s="2" t="s">
-        <v>471</v>
+        <v>170</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -11282,34 +11620,28 @@
     <row r="451" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A451" s="2"/>
       <c r="B451" s="2" t="s">
-        <v>143</v>
+        <v>701</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>144</v>
+        <v>622</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E451" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F451" s="2" t="s">
-        <v>469</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="E451" s="2"/>
+      <c r="F451" s="2"/>
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A452" s="2"/>
       <c r="B452" s="2" t="s">
-        <v>934</v>
+        <v>239</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D452" s="2"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
@@ -11318,10 +11650,10 @@
     <row r="453" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A453" s="2"/>
       <c r="B453" s="2" t="s">
-        <v>158</v>
+        <v>699</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>157</v>
+        <v>700</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -11332,10 +11664,10 @@
     <row r="454" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A454" s="2"/>
       <c r="B454" s="2" t="s">
-        <v>935</v>
+        <v>703</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>100</v>
+        <v>704</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -11346,10 +11678,10 @@
     <row r="455" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A455" s="2"/>
       <c r="B455" s="2" t="s">
-        <v>936</v>
+        <v>21</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>937</v>
+        <v>255</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -11360,10 +11692,10 @@
     <row r="456" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A456" s="2"/>
       <c r="B456" s="2" t="s">
-        <v>938</v>
+        <v>364</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>939</v>
+        <v>324</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -11374,10 +11706,10 @@
     <row r="457" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A457" s="2"/>
       <c r="B457" s="2" t="s">
-        <v>940</v>
+        <v>470</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>941</v>
+        <v>95</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -11388,17 +11720,13 @@
     <row r="458" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A458" s="2"/>
       <c r="B458" s="2" t="s">
-        <v>942</v>
+        <v>471</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="E458" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="D458" s="2"/>
+      <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
@@ -11406,26 +11734,34 @@
     <row r="459" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A459" s="2"/>
       <c r="B459" s="2" t="s">
-        <v>945</v>
+        <v>143</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A460" s="2"/>
       <c r="B460" s="2" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="D460" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
@@ -11434,10 +11770,10 @@
     <row r="461" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A461" s="2"/>
       <c r="B461" s="2" t="s">
-        <v>948</v>
+        <v>158</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>949</v>
+        <v>157</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -11448,10 +11784,10 @@
     <row r="462" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A462" s="2"/>
       <c r="B462" s="2" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>951</v>
+        <v>100</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -11462,10 +11798,10 @@
     <row r="463" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A463" s="2"/>
       <c r="B463" s="2" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -11476,14 +11812,12 @@
     <row r="464" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A464" s="2"/>
       <c r="B464" s="2" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>954</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="D464" s="2"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
       <c r="G464" s="2"/>
@@ -11492,10 +11826,10 @@
     <row r="465" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A465" s="2"/>
       <c r="B465" s="2" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -11506,13 +11840,17 @@
     <row r="466" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A466" s="2"/>
       <c r="B466" s="2" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="D466" s="2"/>
-      <c r="E466" s="2"/>
+        <v>943</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="F466" s="2"/>
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
@@ -11520,10 +11858,10 @@
     <row r="467" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A467" s="2"/>
       <c r="B467" s="2" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>963</v>
+        <v>338</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -11534,10 +11872,10 @@
     <row r="468" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A468" s="2"/>
       <c r="B468" s="2" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -11548,10 +11886,10 @@
     <row r="469" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A469" s="2"/>
       <c r="B469" s="2" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -11562,10 +11900,10 @@
     <row r="470" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A470" s="2"/>
       <c r="B470" s="2" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -11576,10 +11914,10 @@
     <row r="471" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A471" s="2"/>
       <c r="B471" s="2" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>969</v>
+        <v>925</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -11590,12 +11928,14 @@
     <row r="472" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A472" s="2"/>
       <c r="B472" s="2" t="s">
-        <v>970</v>
+        <v>952</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="D472" s="2"/>
+        <v>953</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>954</v>
+      </c>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="2"/>
@@ -11604,10 +11944,10 @@
     <row r="473" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A473" s="2"/>
       <c r="B473" s="2" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -11618,10 +11958,10 @@
     <row r="474" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A474" s="2"/>
       <c r="B474" s="2" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>269</v>
+        <v>957</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -11632,9 +11972,11 @@
     <row r="475" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A475" s="2"/>
       <c r="B475" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="C475" s="2"/>
+        <v>962</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>963</v>
+      </c>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
@@ -11644,10 +11986,10 @@
     <row r="476" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A476" s="2"/>
       <c r="B476" s="2" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>870</v>
+        <v>961</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -11658,10 +12000,10 @@
     <row r="477" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A477" s="2"/>
       <c r="B477" s="2" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -11672,10 +12014,10 @@
     <row r="478" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A478" s="2"/>
       <c r="B478" s="2" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -11686,10 +12028,10 @@
     <row r="479" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A479" s="2"/>
       <c r="B479" s="2" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -11699,11 +12041,11 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A480" s="2"/>
-      <c r="B480" s="7" t="s">
-        <v>984</v>
+      <c r="B480" s="2" t="s">
+        <v>970</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -11714,10 +12056,10 @@
     <row r="481" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A481" s="2"/>
       <c r="B481" s="2" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -11728,10 +12070,10 @@
     <row r="482" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A482" s="2"/>
       <c r="B482" s="2" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>989</v>
+        <v>269</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -11742,11 +12084,9 @@
     <row r="483" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A483" s="2"/>
       <c r="B483" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>991</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
@@ -11756,10 +12096,10 @@
     <row r="484" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A484" s="2"/>
       <c r="B484" s="2" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>819</v>
+        <v>870</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -11770,10 +12110,10 @@
     <row r="485" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A485" s="2"/>
       <c r="B485" s="2" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -11784,10 +12124,10 @@
     <row r="486" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A486" s="2"/>
       <c r="B486" s="2" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -11798,10 +12138,10 @@
     <row r="487" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A487" s="2"/>
       <c r="B487" s="2" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -11811,11 +12151,11 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A488" s="2"/>
-      <c r="B488" s="2" t="s">
-        <v>1001</v>
+      <c r="B488" s="7" t="s">
+        <v>984</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -11826,10 +12166,10 @@
     <row r="489" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A489" s="2"/>
       <c r="B489" s="2" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -11840,10 +12180,10 @@
     <row r="490" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A490" s="2"/>
       <c r="B490" s="2" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -11854,10 +12194,10 @@
     <row r="491" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A491" s="2"/>
       <c r="B491" s="2" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>838</v>
+        <v>991</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -11868,10 +12208,10 @@
     <row r="492" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A492" s="2"/>
       <c r="B492" s="2" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1010</v>
+        <v>819</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -11882,10 +12222,10 @@
     <row r="493" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A493" s="2"/>
       <c r="B493" s="2" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -11896,10 +12236,10 @@
     <row r="494" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A494" s="2"/>
       <c r="B494" s="2" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -11910,10 +12250,10 @@
     <row r="495" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A495" s="2"/>
       <c r="B495" s="2" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -11924,10 +12264,10 @@
     <row r="496" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A496" s="2"/>
       <c r="B496" s="2" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>324</v>
+        <v>1002</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -11938,10 +12278,10 @@
     <row r="497" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A497" s="2"/>
       <c r="B497" s="2" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -11952,14 +12292,12 @@
     <row r="498" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A498" s="2"/>
       <c r="B498" s="2" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D498" s="2" t="s">
-        <v>1377</v>
-      </c>
+        <v>1007</v>
+      </c>
+      <c r="D498" s="2"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
@@ -11968,10 +12306,10 @@
     <row r="499" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A499" s="2"/>
       <c r="B499" s="2" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1022</v>
+        <v>838</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -11982,10 +12320,10 @@
     <row r="500" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A500" s="2"/>
       <c r="B500" s="2" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -11996,10 +12334,10 @@
     <row r="501" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A501" s="2"/>
       <c r="B501" s="2" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>350</v>
+        <v>1010</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -12010,10 +12348,10 @@
     <row r="502" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A502" s="2"/>
       <c r="B502" s="2" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -12024,14 +12362,12 @@
     <row r="503" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A503" s="2"/>
       <c r="B503" s="2" t="s">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D503" s="2" t="s">
-        <v>1035</v>
-      </c>
+        <v>1015</v>
+      </c>
+      <c r="D503" s="2"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="2"/>
@@ -12040,10 +12376,10 @@
     <row r="504" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A504" s="2"/>
       <c r="B504" s="2" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1037</v>
+        <v>324</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -12054,10 +12390,10 @@
     <row r="505" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A505" s="2"/>
       <c r="B505" s="2" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -12068,12 +12404,14 @@
     <row r="506" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A506" s="2"/>
       <c r="B506" s="2" t="s">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D506" s="2"/>
+        <v>1020</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>1377</v>
+      </c>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
       <c r="G506" s="2"/>
@@ -12082,30 +12420,24 @@
     <row r="507" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A507" s="2"/>
       <c r="B507" s="2" t="s">
-        <v>79</v>
+        <v>1021</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F507" s="2" t="s">
-        <v>1042</v>
-      </c>
+        <v>1022</v>
+      </c>
+      <c r="D507" s="2"/>
+      <c r="E507" s="2"/>
+      <c r="F507" s="2"/>
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A508" s="2"/>
       <c r="B508" s="2" t="s">
-        <v>1045</v>
+        <v>1023</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -12116,10 +12448,10 @@
     <row r="509" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A509" s="2"/>
       <c r="B509" s="2" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1047</v>
+        <v>350</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -12130,10 +12462,10 @@
     <row r="510" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A510" s="2"/>
       <c r="B510" s="2" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>541</v>
+        <v>1030</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -12144,12 +12476,14 @@
     <row r="511" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A511" s="2"/>
       <c r="B511" s="2" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D511" s="2"/>
+        <v>1034</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>1035</v>
+      </c>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
       <c r="G511" s="2"/>
@@ -12158,26 +12492,24 @@
     <row r="512" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A512" s="2"/>
       <c r="B512" s="2" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>1053</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="D512" s="2"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
     </row>
-    <row r="513" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A513" s="2"/>
       <c r="B513" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>1058</v>
+        <v>1038</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>1039</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -12186,309 +12518,781 @@
       <c r="H513" s="2"/>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A514" s="2"/>
       <c r="B514" s="2" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1060</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="D514" s="2"/>
+      <c r="E514" s="2"/>
+      <c r="F514" s="2"/>
+      <c r="G514" s="2"/>
+      <c r="H514" s="2"/>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A515" s="2"/>
       <c r="B515" s="2" t="s">
-        <v>1061</v>
+        <v>79</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1062</v>
-      </c>
+        <v>1041</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G515" s="2"/>
+      <c r="H515" s="2"/>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A516" s="2"/>
       <c r="B516" s="2" t="s">
-        <v>1118</v>
+        <v>1045</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1119</v>
-      </c>
+        <v>1041</v>
+      </c>
+      <c r="D516" s="2"/>
+      <c r="E516" s="2"/>
+      <c r="F516" s="2"/>
+      <c r="G516" s="2"/>
+      <c r="H516" s="2"/>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A517" s="2"/>
       <c r="B517" s="2" t="s">
-        <v>1138</v>
+        <v>1046</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>403</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="D517" s="2"/>
+      <c r="E517" s="2"/>
+      <c r="F517" s="2"/>
+      <c r="G517" s="2"/>
+      <c r="H517" s="2"/>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A518" s="2"/>
       <c r="B518" s="2" t="s">
-        <v>1143</v>
+        <v>1048</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1144</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="D518" s="2"/>
+      <c r="E518" s="2"/>
+      <c r="F518" s="2"/>
+      <c r="G518" s="2"/>
+      <c r="H518" s="2"/>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A519" s="2"/>
       <c r="B519" s="2" t="s">
-        <v>1167</v>
+        <v>1049</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1168</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="D519" s="2"/>
+      <c r="E519" s="2"/>
+      <c r="F519" s="2"/>
+      <c r="G519" s="2"/>
+      <c r="H519" s="2"/>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A520" s="2"/>
       <c r="B520" s="2" t="s">
-        <v>703</v>
+        <v>1051</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1052</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E520" s="2"/>
+      <c r="F520" s="2"/>
+      <c r="G520" s="2"/>
+      <c r="H520" s="2"/>
+    </row>
+    <row r="521" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A521" s="2"/>
       <c r="B521" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C521" s="2" t="s">
-        <v>1207</v>
-      </c>
+        <v>1057</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D521" s="2"/>
+      <c r="E521" s="2"/>
+      <c r="F521" s="2"/>
+      <c r="G521" s="2"/>
+      <c r="H521" s="2"/>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B522" s="2" t="s">
-        <v>1208</v>
+        <v>1059</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>704</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B523" s="2" t="s">
-        <v>1233</v>
+        <v>1061</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1234</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B524" s="2" t="s">
-        <v>701</v>
+        <v>1118</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>794</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B525" s="2" t="s">
-        <v>1285</v>
+        <v>1138</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1286</v>
+        <v>403</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B526" s="2" t="s">
-        <v>1287</v>
+        <v>1143</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>81</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B527" s="2" t="s">
-        <v>1321</v>
+        <v>1167</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1322</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B528" t="s">
-        <v>1335</v>
+      <c r="B528" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1336</v>
+        <v>704</v>
       </c>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B529" s="2"/>
-      <c r="C529" s="2"/>
+      <c r="B529" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B530" s="2" t="s">
-        <v>1346</v>
+        <v>1208</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1347</v>
+        <v>704</v>
       </c>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B531" s="2" t="s">
-        <v>1348</v>
+        <v>1233</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>120</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B532" s="2" t="s">
-        <v>1349</v>
+        <v>701</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1350</v>
+        <v>794</v>
       </c>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B533" s="2" t="s">
-        <v>1351</v>
+        <v>1285</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1352</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B534" s="2" t="s">
-        <v>1359</v>
+        <v>1287</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1360</v>
+        <v>81</v>
       </c>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B535" s="2" t="s">
-        <v>1361</v>
+        <v>1321</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1362</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B536" s="2" t="s">
-        <v>1363</v>
+      <c r="B536" t="s">
+        <v>1335</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1364</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B537" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>1367</v>
-      </c>
+      <c r="B537" s="2"/>
+      <c r="C537" s="2"/>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B538" s="2" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B539" s="2" t="s">
-        <v>1370</v>
+        <v>1348</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>349</v>
+        <v>120</v>
       </c>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B540" s="2" t="s">
-        <v>1372</v>
+        <v>1349</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1373</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B541" s="2" t="s">
-        <v>1374</v>
+        <v>1351</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1375</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B542" s="2" t="s">
-        <v>1376</v>
+        <v>1359</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>636</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B543" s="2" t="s">
-        <v>1378</v>
+        <v>1361</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1379</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B544" s="2" t="s">
-        <v>1380</v>
+        <v>1363</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1381</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B545" s="2" t="s">
-        <v>1385</v>
+        <v>1366</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1386</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B546" s="2" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1388</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B547" s="2" t="s">
-        <v>1389</v>
+        <v>1370</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1390</v>
+        <v>349</v>
       </c>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B548" s="2" t="s">
-        <v>1391</v>
+        <v>1372</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1392</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B549" s="2" t="s">
-        <v>1393</v>
+        <v>1374</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1394</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B550" s="2" t="s">
-        <v>1395</v>
+        <v>1376</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1396</v>
+        <v>636</v>
       </c>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B551" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B552" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B553" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="554" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B554" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B555" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B556" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B557" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B558" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B559" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="C551" s="2" t="s">
+      <c r="C559" s="2" t="s">
         <v>1401</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B561" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B562" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B563" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B564" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B565" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B566" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B567" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B568" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B569" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B570" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B571" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B572" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B573" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B574" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B575" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B576" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B577" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="578" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B578" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="579" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B579" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="580" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B580" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B581" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="582" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B582" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="583" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B583" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="584" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B584" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="585" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B585" t="s">
+        <v>180</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B586" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C586" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B587" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B588" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B589" t="s">
+        <v>323</v>
+      </c>
+      <c r="C589" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B590" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="591" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B591" t="s">
+        <v>208</v>
+      </c>
+      <c r="C591" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B592" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B593" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B594" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B595" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B596" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B597" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B598" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C598" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B599" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B600" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="601" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B601" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B602" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="603" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B603" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B604" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H461">
-    <sortCondition ref="B2:B461"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H469">
+    <sortCondition ref="B2:B469"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12498,10 +13302,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:I137"/>
+  <dimension ref="B2:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView topLeftCell="A143" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B149" sqref="B148:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13607,11 +14411,81 @@
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B137" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C137" t="s">
+        <v>412</v>
+      </c>
       <c r="H137" t="s">
         <v>1402</v>
       </c>
       <c r="I137" t="s">
         <v>1403</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B138" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B140" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B141" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B142" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B143" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B144" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rust\rustbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3470B5E4-53BE-4FDA-A184-DFDD99D8A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A3D32C-8E89-48BE-98A6-77549438F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="24768" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1553">
   <si>
     <t>специальный</t>
   </si>
@@ -4584,6 +4584,123 @@
   </si>
   <si>
     <t>образцу</t>
+  </si>
+  <si>
+    <t>Весь код</t>
+  </si>
+  <si>
+    <t>Вся рукопись</t>
+  </si>
+  <si>
+    <t>этот код</t>
+  </si>
+  <si>
+    <t>эта рукопись</t>
+  </si>
+  <si>
+    <t>одновременный код</t>
+  </si>
+  <si>
+    <t>одновременная рукопись</t>
+  </si>
+  <si>
+    <t>несогласованного кода</t>
+  </si>
+  <si>
+    <t>несогласованной рукописи</t>
+  </si>
+  <si>
+    <t>в код</t>
+  </si>
+  <si>
+    <t>в рукопись</t>
+  </si>
+  <si>
+    <t>этого кода</t>
+  </si>
+  <si>
+    <t>этой рукописи</t>
+  </si>
+  <si>
+    <t>несогласованная рукопись</t>
+  </si>
+  <si>
+    <t>вашего кода</t>
+  </si>
+  <si>
+    <t>вашей рукописи</t>
+  </si>
+  <si>
+    <t>несогласованный код</t>
+  </si>
+  <si>
+    <t>исходного кода</t>
+  </si>
+  <si>
+    <t>исходной рукописи</t>
+  </si>
+  <si>
+    <t>согласованного кода</t>
+  </si>
+  <si>
+    <t>одновременного кода</t>
+  </si>
+  <si>
+    <t>одновременной рукописи</t>
+  </si>
+  <si>
+    <t>вызывающего кода</t>
+  </si>
+  <si>
+    <t>версией</t>
+  </si>
+  <si>
+    <t>исполнением</t>
+  </si>
+  <si>
+    <t>версию</t>
+  </si>
+  <si>
+    <t>анонимные</t>
+  </si>
+  <si>
+    <t>безымянные</t>
+  </si>
+  <si>
+    <t>анонимного</t>
+  </si>
+  <si>
+    <t>безымянного</t>
+  </si>
+  <si>
+    <t>анонимных</t>
+  </si>
+  <si>
+    <t>безымянных</t>
+  </si>
+  <si>
+    <t>анонимны</t>
+  </si>
+  <si>
+    <t>безымянны</t>
+  </si>
+  <si>
+    <t>анонимное</t>
+  </si>
+  <si>
+    <t>безымянное</t>
+  </si>
+  <si>
+    <t>анонимную</t>
+  </si>
+  <si>
+    <t>безымянную</t>
+  </si>
+  <si>
+    <t>анонимной</t>
+  </si>
+  <si>
+    <t>безымянной</t>
   </si>
 </sst>
 </file>
@@ -5028,22 +5145,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H604"/>
+  <dimension ref="A1:H613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C605" sqref="C605"/>
+    <sheetView tabSelected="1" topLeftCell="A604" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B614" sqref="B614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.1328125" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.41796875" customWidth="1"/>
+    <col min="3" max="3" width="21.1015625" customWidth="1"/>
+    <col min="4" max="4" width="20.41796875" customWidth="1"/>
+    <col min="5" max="5" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>927</v>
@@ -5067,7 +5184,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>782</v>
@@ -5083,7 +5200,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>799</v>
@@ -5097,7 +5214,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>53</v>
@@ -5109,7 +5226,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>692</v>
@@ -5123,7 +5240,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>178</v>
@@ -5139,7 +5256,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>735</v>
@@ -5153,7 +5270,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>735</v>
@@ -5167,7 +5284,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>440</v>
@@ -5181,7 +5298,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>826</v>
@@ -5195,7 +5312,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -5211,7 +5328,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>210</v>
@@ -5223,7 +5340,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>210</v>
@@ -5237,7 +5354,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>210</v>
@@ -5253,7 +5370,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>717</v>
@@ -5267,7 +5384,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5277,7 +5394,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>54</v>
@@ -5293,7 +5410,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>481</v>
@@ -5307,7 +5424,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>482</v>
@@ -5321,7 +5438,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>82</v>
@@ -5335,7 +5452,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>138</v>
@@ -5349,7 +5466,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>138</v>
@@ -5365,7 +5482,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>873</v>
@@ -5379,7 +5496,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>874</v>
@@ -5393,7 +5510,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>298</v>
@@ -5407,7 +5524,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>793</v>
@@ -5421,7 +5538,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>827</v>
@@ -5435,7 +5552,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>710</v>
@@ -5449,7 +5566,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>119</v>
@@ -5463,7 +5580,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>903</v>
@@ -5477,7 +5594,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>51</v>
@@ -5491,7 +5608,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>659</v>
@@ -5507,7 +5624,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>829</v>
@@ -5521,7 +5638,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>28</v>
@@ -5537,7 +5654,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>445</v>
@@ -5551,7 +5668,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>305</v>
@@ -5565,7 +5682,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>3</v>
@@ -5581,7 +5698,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>77</v>
@@ -5595,7 +5712,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>201</v>
@@ -5609,7 +5726,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>402</v>
@@ -5623,21 +5740,17 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>403</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>271</v>
@@ -5655,7 +5768,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
@@ -5671,7 +5784,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>189</v>
@@ -5685,7 +5798,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>705</v>
@@ -5699,7 +5812,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>226</v>
@@ -5715,7 +5828,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>377</v>
@@ -5729,7 +5842,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>379</v>
@@ -5743,7 +5856,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>43</v>
@@ -5761,7 +5874,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
         <v>25</v>
       </c>
@@ -5777,7 +5890,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>492</v>
@@ -5791,7 +5904,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>491</v>
@@ -5805,7 +5918,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>493</v>
@@ -5819,7 +5932,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>494</v>
@@ -5833,7 +5946,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>171</v>
@@ -5847,7 +5960,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>923</v>
@@ -5861,7 +5974,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>291</v>
@@ -5875,7 +5988,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>407</v>
@@ -5891,7 +6004,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>625</v>
@@ -5905,7 +6018,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>477</v>
@@ -5923,7 +6036,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>473</v>
@@ -5941,7 +6054,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>805</v>
@@ -5955,7 +6068,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>245</v>
@@ -5973,7 +6086,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>639</v>
@@ -5987,7 +6100,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
         <v>229</v>
@@ -6001,7 +6114,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>642</v>
@@ -6015,7 +6128,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2"/>
       <c r="B67" s="4" t="s">
         <v>164</v>
@@ -6029,7 +6142,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>61</v>
@@ -6045,7 +6158,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
         <v>108</v>
@@ -6059,7 +6172,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>592</v>
@@ -6073,7 +6186,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>283</v>
@@ -6087,7 +6200,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>503</v>
@@ -6101,7 +6214,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2"/>
       <c r="B73" s="5" t="s">
         <v>817</v>
@@ -6115,7 +6228,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>161</v>
@@ -6131,7 +6244,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>615</v>
@@ -6145,7 +6258,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2"/>
       <c r="B76" s="4" t="s">
         <v>270</v>
@@ -6159,7 +6272,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>582</v>
@@ -6173,7 +6286,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>629</v>
@@ -6187,7 +6300,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>889</v>
@@ -6201,7 +6314,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
         <v>286</v>
@@ -6215,7 +6328,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
         <v>286</v>
@@ -6229,7 +6342,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>511</v>
@@ -6243,7 +6356,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
         <v>463</v>
@@ -6257,7 +6370,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>835</v>
@@ -6271,7 +6384,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>314</v>
@@ -6287,7 +6400,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>216</v>
@@ -6301,7 +6414,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>374</v>
@@ -6315,7 +6428,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>561</v>
@@ -6329,7 +6442,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
         <v>563</v>
@@ -6343,7 +6456,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>565</v>
@@ -6357,7 +6470,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
         <v>559</v>
@@ -6371,7 +6484,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>663</v>
@@ -6385,7 +6498,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>65</v>
@@ -6401,7 +6514,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>837</v>
@@ -6415,7 +6528,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
         <v>840</v>
@@ -6429,7 +6542,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>839</v>
@@ -6443,7 +6556,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
         <v>586</v>
@@ -6457,7 +6570,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
         <v>588</v>
@@ -6471,7 +6584,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>774</v>
@@ -6485,7 +6598,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>728</v>
@@ -6499,7 +6612,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>841</v>
@@ -6513,7 +6626,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>730</v>
@@ -6527,7 +6640,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>265</v>
@@ -6541,7 +6654,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>76</v>
@@ -6557,7 +6670,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>787</v>
@@ -6571,7 +6684,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>845</v>
@@ -6585,7 +6698,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
         <v>790</v>
@@ -6599,7 +6712,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>785</v>
@@ -6613,7 +6726,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>153</v>
@@ -6631,7 +6744,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
         <v>12</v>
@@ -6645,7 +6758,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
         <v>97</v>
@@ -6661,7 +6774,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2"/>
       <c r="B112" s="5" t="s">
         <v>813</v>
@@ -6675,7 +6788,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>250</v>
@@ -6689,7 +6802,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>125</v>
@@ -6703,7 +6816,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>713</v>
@@ -6717,7 +6830,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>518</v>
@@ -6735,7 +6848,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>856</v>
@@ -6749,7 +6862,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>63</v>
@@ -6765,7 +6878,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>457</v>
@@ -6779,7 +6892,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>833</v>
@@ -6793,7 +6906,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>110</v>
@@ -6809,7 +6922,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>24</v>
@@ -6823,7 +6936,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>460</v>
@@ -6837,7 +6950,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>34</v>
@@ -6851,7 +6964,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>739</v>
@@ -6867,7 +6980,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>737</v>
@@ -6881,7 +6994,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
         <v>741</v>
@@ -6895,7 +7008,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>743</v>
@@ -6911,7 +7024,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>293</v>
@@ -6927,7 +7040,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
         <v>770</v>
@@ -6941,7 +7054,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>772</v>
@@ -6955,7 +7068,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
         <v>431</v>
@@ -6969,7 +7082,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
         <v>850</v>
@@ -6983,7 +7096,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>146</v>
@@ -6999,7 +7112,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
         <v>917</v>
@@ -7013,7 +7126,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
         <v>428</v>
@@ -7029,7 +7142,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
         <v>208</v>
@@ -7043,7 +7156,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>102</v>
@@ -7057,7 +7170,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
         <v>768</v>
@@ -7071,7 +7184,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
         <v>326</v>
@@ -7085,7 +7198,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
         <v>732</v>
@@ -7103,7 +7216,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
         <v>188</v>
@@ -7117,7 +7230,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
         <v>185</v>
@@ -7131,7 +7244,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
         <v>637</v>
@@ -7145,7 +7258,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
         <v>69</v>
@@ -7161,7 +7274,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2">
         <v>24</v>
       </c>
@@ -7177,7 +7290,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
         <v>121</v>
@@ -7191,7 +7304,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
         <v>675</v>
@@ -7205,7 +7318,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
         <v>537</v>
@@ -7221,7 +7334,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
         <v>333</v>
@@ -7235,7 +7348,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
         <v>5</v>
@@ -7249,7 +7362,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
         <v>180</v>
@@ -7263,7 +7376,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
         <v>159</v>
@@ -7277,7 +7390,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
         <v>550</v>
@@ -7291,7 +7404,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
         <v>618</v>
@@ -7311,7 +7424,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
         <v>155</v>
@@ -7325,7 +7438,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
         <v>644</v>
@@ -7339,7 +7452,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
         <v>167</v>
@@ -7351,7 +7464,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
         <v>646</v>
@@ -7365,7 +7478,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
         <v>151</v>
@@ -7379,7 +7492,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
         <v>392</v>
@@ -7395,7 +7508,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
         <v>540</v>
@@ -7409,7 +7522,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
         <v>98</v>
@@ -7423,7 +7536,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
         <v>854</v>
@@ -7435,7 +7548,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
         <v>193</v>
@@ -7449,7 +7562,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
         <v>448</v>
@@ -7465,7 +7578,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
         <v>296</v>
@@ -7479,7 +7592,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
         <v>627</v>
@@ -7493,7 +7606,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
         <v>579</v>
@@ -7513,7 +7626,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
         <v>1456</v>
@@ -7527,7 +7640,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
         <v>1458</v>
@@ -7541,7 +7654,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
         <v>1460</v>
@@ -7555,7 +7668,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
         <v>778</v>
@@ -7569,7 +7682,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
         <v>572</v>
@@ -7589,7 +7702,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
         <v>575</v>
@@ -7603,7 +7716,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
         <v>843</v>
@@ -7617,7 +7730,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
         <v>310</v>
@@ -7633,7 +7746,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
         <v>386</v>
@@ -7647,7 +7760,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
         <v>388</v>
@@ -7661,7 +7774,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
         <v>755</v>
@@ -7677,7 +7790,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
         <v>760</v>
@@ -7691,7 +7804,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
         <v>757</v>
@@ -7709,7 +7822,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="2"/>
       <c r="B183" s="6" t="s">
         <v>358</v>
@@ -7723,7 +7836,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="2"/>
       <c r="B184" s="2" t="s">
         <v>2</v>
@@ -7739,7 +7852,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
         <v>726</v>
@@ -7753,7 +7866,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
         <v>45</v>
@@ -7767,7 +7880,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
         <v>7</v>
@@ -7781,7 +7894,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
         <v>182</v>
@@ -7793,7 +7906,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
         <v>71</v>
@@ -7807,7 +7920,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
         <v>609</v>
@@ -7821,7 +7934,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
         <v>746</v>
@@ -7837,7 +7950,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
         <v>749</v>
@@ -7851,7 +7964,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
         <v>557</v>
@@ -7865,7 +7978,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
         <v>360</v>
@@ -7879,7 +7992,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
         <v>104</v>
@@ -7893,7 +8006,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
         <v>57</v>
@@ -7907,7 +8020,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
         <v>552</v>
@@ -7923,7 +8036,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
         <v>554</v>
@@ -7937,7 +8050,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="2"/>
       <c r="B199" s="2" t="s">
         <v>556</v>
@@ -7951,7 +8064,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="2"/>
       <c r="B200" s="2" t="s">
         <v>797</v>
@@ -7965,7 +8078,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="2"/>
       <c r="B201" s="2" t="s">
         <v>212</v>
@@ -7979,7 +8092,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
         <v>241</v>
@@ -7993,7 +8106,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
         <v>860</v>
@@ -8011,7 +8124,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
         <v>862</v>
@@ -8025,7 +8138,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
         <v>92</v>
@@ -8039,7 +8152,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
         <v>277</v>
@@ -8057,7 +8170,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
         <v>623</v>
@@ -8071,7 +8184,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
         <v>59</v>
@@ -8085,7 +8198,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
         <v>499</v>
@@ -8101,7 +8214,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
         <v>203</v>
@@ -8115,7 +8228,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
         <v>682</v>
@@ -8129,7 +8242,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
         <v>684</v>
@@ -8143,7 +8256,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
         <v>680</v>
@@ -8157,7 +8270,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
         <v>686</v>
@@ -8171,7 +8284,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
         <v>128</v>
@@ -8189,7 +8302,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
         <v>80</v>
@@ -8203,7 +8316,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
         <v>149</v>
@@ -8217,7 +8330,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
         <v>42</v>
@@ -8229,7 +8342,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
         <v>145</v>
@@ -8241,7 +8354,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
         <v>275</v>
@@ -8255,7 +8368,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
         <v>275</v>
@@ -8269,7 +8382,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
         <v>224</v>
@@ -8283,7 +8396,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
         <v>342</v>
@@ -8297,7 +8410,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
         <v>867</v>
@@ -8311,7 +8424,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
         <v>698</v>
@@ -8325,7 +8438,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
         <v>205</v>
@@ -8343,7 +8456,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
         <v>419</v>
@@ -8357,7 +8470,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
         <v>766</v>
@@ -8371,7 +8484,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
         <v>231</v>
@@ -8385,7 +8498,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
         <v>751</v>
@@ -8399,7 +8512,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
         <v>753</v>
@@ -8413,7 +8526,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
         <v>389</v>
@@ -8427,7 +8540,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
         <v>871</v>
@@ -8443,7 +8556,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
         <v>869</v>
@@ -8457,7 +8570,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
         <v>220</v>
@@ -8471,7 +8584,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
         <v>671</v>
@@ -8485,7 +8598,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
         <v>723</v>
@@ -8499,7 +8612,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
         <v>139</v>
@@ -8515,7 +8628,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
         <v>139</v>
@@ -8529,7 +8642,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
         <v>876</v>
@@ -8543,7 +8656,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
         <v>921</v>
@@ -8557,7 +8670,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
         <v>248</v>
@@ -8571,7 +8684,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
         <v>106</v>
@@ -8587,7 +8700,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
         <v>762</v>
@@ -8601,7 +8714,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
         <v>372</v>
@@ -8617,7 +8730,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
         <v>369</v>
@@ -8633,7 +8746,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
         <v>67</v>
@@ -8647,7 +8760,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
         <v>1055</v>
@@ -8661,7 +8774,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="2"/>
       <c r="B249" s="2" t="s">
         <v>883</v>
@@ -8677,7 +8790,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
         <v>452</v>
@@ -8691,7 +8804,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="2"/>
       <c r="B251" s="2" t="s">
         <v>452</v>
@@ -8705,7 +8818,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
         <v>881</v>
@@ -8719,7 +8832,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="2"/>
       <c r="B253" s="2" t="s">
         <v>878</v>
@@ -8733,7 +8846,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="2"/>
       <c r="B254" s="2" t="s">
         <v>207</v>
@@ -8749,7 +8862,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="2"/>
       <c r="B255" s="5" t="s">
         <v>822</v>
@@ -8763,7 +8876,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
         <v>381</v>
@@ -8777,7 +8890,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="2"/>
       <c r="B257" s="2" t="s">
         <v>885</v>
@@ -8791,7 +8904,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
         <v>258</v>
@@ -8805,7 +8918,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="2"/>
       <c r="B259" s="2" t="s">
         <v>1508</v>
@@ -8819,7 +8932,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="2"/>
       <c r="B260" s="2" t="s">
         <v>1510</v>
@@ -8833,7 +8946,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
         <v>1507</v>
@@ -8849,7 +8962,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="2"/>
       <c r="B262" s="2" t="s">
         <v>355</v>
@@ -8865,7 +8978,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="2"/>
       <c r="B263" s="2" t="s">
         <v>673</v>
@@ -8879,7 +8992,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
         <v>915</v>
@@ -8893,7 +9006,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
         <v>404</v>
@@ -8907,7 +9020,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
         <v>652</v>
@@ -8923,7 +9036,7 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
         <v>648</v>
@@ -8939,7 +9052,7 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="2"/>
       <c r="B268" s="2" t="s">
         <v>651</v>
@@ -8953,7 +9066,7 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="2"/>
       <c r="B269" s="2" t="s">
         <v>657</v>
@@ -8967,7 +9080,7 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="2"/>
       <c r="B270" s="2" t="s">
         <v>196</v>
@@ -8981,7 +9094,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="2"/>
       <c r="B271" s="2" t="s">
         <v>887</v>
@@ -8995,7 +9108,7 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="2"/>
       <c r="B272" s="2" t="s">
         <v>655</v>
@@ -9009,7 +9122,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="2"/>
       <c r="B273" s="2" t="s">
         <v>426</v>
@@ -9023,7 +9136,7 @@
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
         <v>222</v>
@@ -9039,7 +9152,7 @@
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
         <v>233</v>
@@ -9053,7 +9166,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
         <v>206</v>
@@ -9065,7 +9178,7 @@
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
         <v>206</v>
@@ -9087,7 +9200,7 @@
       </c>
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
         <v>607</v>
@@ -9101,7 +9214,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
         <v>601</v>
@@ -9117,7 +9230,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
         <v>893</v>
@@ -9131,7 +9244,7 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
         <v>776</v>
@@ -9145,7 +9258,7 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
         <v>892</v>
@@ -9159,7 +9272,7 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
         <v>14</v>
@@ -9173,7 +9286,7 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
         <v>454</v>
@@ -9189,7 +9302,7 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
         <v>421</v>
@@ -9211,7 +9324,7 @@
       </c>
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
         <v>895</v>
@@ -9225,7 +9338,7 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
         <v>410</v>
@@ -9241,7 +9354,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
         <v>183</v>
@@ -9255,7 +9368,7 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
         <v>417</v>
@@ -9269,7 +9382,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
         <v>413</v>
@@ -9283,7 +9396,7 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
         <v>415</v>
@@ -9297,7 +9410,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
         <v>367</v>
@@ -9311,7 +9424,7 @@
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
         <v>590</v>
@@ -9325,7 +9438,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
         <v>896</v>
@@ -9339,7 +9452,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
         <v>1003</v>
@@ -9353,7 +9466,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
         <v>304</v>
@@ -9367,7 +9480,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
         <v>288</v>
@@ -9383,7 +9496,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
         <v>168</v>
@@ -9401,7 +9514,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
         <v>899</v>
@@ -9415,7 +9528,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
         <v>465</v>
@@ -9429,7 +9542,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
         <v>801</v>
@@ -9443,7 +9556,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
         <v>803</v>
@@ -9457,7 +9570,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
         <v>616</v>
@@ -9471,7 +9584,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
         <v>613</v>
@@ -9485,7 +9598,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
         <v>597</v>
@@ -9501,7 +9614,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
         <v>16</v>
@@ -9515,7 +9628,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
         <v>400</v>
@@ -9529,7 +9642,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="2"/>
       <c r="B308" s="1" t="s">
         <v>848</v>
@@ -9543,7 +9656,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
         <v>141</v>
@@ -9555,7 +9668,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
         <v>690</v>
@@ -9569,7 +9682,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
         <v>677</v>
@@ -9583,7 +9696,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
         <v>214</v>
@@ -9597,7 +9710,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
         <v>679</v>
@@ -9611,7 +9724,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
         <v>49</v>
@@ -9627,7 +9740,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
         <v>773</v>
@@ -9641,7 +9754,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
         <v>47</v>
@@ -9663,7 +9776,7 @@
       </c>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
         <v>337</v>
@@ -9679,7 +9792,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
         <v>290</v>
@@ -9691,7 +9804,7 @@
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
         <v>169</v>
@@ -9707,7 +9820,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
         <v>218</v>
@@ -9721,7 +9834,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
         <v>243</v>
@@ -9735,7 +9848,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="2"/>
       <c r="B322" s="5" t="s">
         <v>815</v>
@@ -9749,7 +9862,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
         <v>532</v>
@@ -9763,7 +9876,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
         <v>94</v>
@@ -9777,7 +9890,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
         <v>1425</v>
@@ -9791,7 +9904,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
         <v>94</v>
@@ -9805,7 +9918,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
         <v>509</v>
@@ -9819,7 +9932,7 @@
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
         <v>173</v>
@@ -9831,7 +9944,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
         <v>173</v>
@@ -9851,7 +9964,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
         <v>528</v>
@@ -9865,7 +9978,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
         <v>22</v>
@@ -9887,7 +10000,7 @@
       </c>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
         <v>910</v>
@@ -9901,7 +10014,7 @@
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
         <v>55</v>
@@ -9917,7 +10030,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
         <v>227</v>
@@ -9931,7 +10044,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
         <v>694</v>
@@ -9945,7 +10058,7 @@
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
         <v>696</v>
@@ -9959,7 +10072,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
         <v>548</v>
@@ -9973,7 +10086,7 @@
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
         <v>88</v>
@@ -9987,7 +10100,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
         <v>113</v>
@@ -10003,7 +10116,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
         <v>721</v>
@@ -10017,7 +10130,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
         <v>132</v>
@@ -10031,7 +10144,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
         <v>707</v>
@@ -10047,7 +10160,7 @@
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
         <v>273</v>
@@ -10061,7 +10174,7 @@
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
         <v>1025</v>
@@ -10075,7 +10188,7 @@
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="2"/>
       <c r="B345" s="2" t="s">
         <v>79</v>
@@ -10091,7 +10204,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
         <v>780</v>
@@ -10105,7 +10218,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
         <v>199</v>
@@ -10121,7 +10234,7 @@
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="2"/>
       <c r="B348" s="2" t="s">
         <v>611</v>
@@ -10135,7 +10248,7 @@
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="2"/>
       <c r="B349" s="2" t="s">
         <v>852</v>
@@ -10149,7 +10262,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="2"/>
       <c r="B350" s="2" t="s">
         <v>502</v>
@@ -10163,7 +10276,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="2"/>
       <c r="B351" s="2" t="s">
         <v>542</v>
@@ -10181,7 +10294,7 @@
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="2"/>
       <c r="B352" s="2" t="s">
         <v>724</v>
@@ -10195,7 +10308,7 @@
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="2"/>
       <c r="B353" s="2" t="s">
         <v>73</v>
@@ -10209,7 +10322,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
         <v>73</v>
@@ -10223,7 +10336,7 @@
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
         <v>715</v>
@@ -10237,7 +10350,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
         <v>901</v>
@@ -10251,7 +10364,7 @@
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="2"/>
       <c r="B357" s="2" t="s">
         <v>191</v>
@@ -10265,7 +10378,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="2"/>
       <c r="B358" s="2" t="s">
         <v>30</v>
@@ -10279,7 +10392,7 @@
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="2"/>
       <c r="B359" s="2" t="s">
         <v>336</v>
@@ -10293,7 +10406,7 @@
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="2"/>
       <c r="B360" s="2" t="s">
         <v>488</v>
@@ -10309,7 +10422,7 @@
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
         <v>0</v>
@@ -10323,7 +10436,7 @@
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="2"/>
       <c r="B362" s="2" t="s">
         <v>486</v>
@@ -10337,7 +10450,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="2"/>
       <c r="B363" s="2" t="s">
         <v>810</v>
@@ -10351,7 +10464,7 @@
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="2"/>
       <c r="B364" s="5" t="s">
         <v>808</v>
@@ -10365,7 +10478,7 @@
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="2"/>
       <c r="B365" s="2" t="s">
         <v>195</v>
@@ -10379,7 +10492,7 @@
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="2"/>
       <c r="B366" s="2" t="s">
         <v>126</v>
@@ -10393,7 +10506,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="2"/>
       <c r="B367" s="5" t="s">
         <v>820</v>
@@ -10407,7 +10520,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="2"/>
       <c r="B368" s="2" t="s">
         <v>163</v>
@@ -10423,7 +10536,7 @@
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="2"/>
       <c r="B369" s="2" t="s">
         <v>669</v>
@@ -10437,7 +10550,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="2"/>
       <c r="B370" s="2" t="s">
         <v>904</v>
@@ -10451,7 +10564,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="2"/>
       <c r="B371" s="2" t="s">
         <v>665</v>
@@ -10465,7 +10578,7 @@
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="2"/>
       <c r="B372" s="2" t="s">
         <v>995</v>
@@ -10479,7 +10592,7 @@
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="2"/>
       <c r="B373" s="2" t="s">
         <v>667</v>
@@ -10493,7 +10606,7 @@
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="2"/>
       <c r="B374" s="2" t="s">
         <v>166</v>
@@ -10505,7 +10618,7 @@
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="2"/>
       <c r="B375" s="2" t="s">
         <v>765</v>
@@ -10521,7 +10634,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="2"/>
       <c r="B376" s="2" t="s">
         <v>795</v>
@@ -10535,7 +10648,7 @@
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="2"/>
       <c r="B377" s="2" t="s">
         <v>26</v>
@@ -10551,7 +10664,7 @@
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="2"/>
       <c r="B378" s="2" t="s">
         <v>631</v>
@@ -10567,7 +10680,7 @@
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="2"/>
       <c r="B379" s="2" t="s">
         <v>134</v>
@@ -10581,7 +10694,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="2"/>
       <c r="B380" s="2" t="s">
         <v>134</v>
@@ -10601,7 +10714,7 @@
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="2"/>
       <c r="B381" s="2" t="s">
         <v>84</v>
@@ -10623,7 +10736,7 @@
       </c>
       <c r="H381" s="2"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="2"/>
       <c r="B382" s="2" t="s">
         <v>526</v>
@@ -10637,7 +10750,7 @@
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="2"/>
       <c r="B383" s="2" t="s">
         <v>530</v>
@@ -10651,7 +10764,7 @@
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="2"/>
       <c r="B384" s="2" t="s">
         <v>522</v>
@@ -10669,7 +10782,7 @@
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="2"/>
       <c r="B385" s="2" t="s">
         <v>435</v>
@@ -10683,7 +10796,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="2"/>
       <c r="B386" s="2" t="s">
         <v>435</v>
@@ -10697,7 +10810,7 @@
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="2"/>
       <c r="B387" s="2" t="s">
         <v>148</v>
@@ -10709,7 +10822,7 @@
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="2"/>
       <c r="B388" s="2" t="s">
         <v>688</v>
@@ -10723,7 +10836,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="2"/>
       <c r="B389" s="2" t="s">
         <v>118</v>
@@ -10737,7 +10850,7 @@
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="2"/>
       <c r="B390" s="2" t="s">
         <v>315</v>
@@ -10751,7 +10864,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="2"/>
       <c r="B391" s="2" t="s">
         <v>433</v>
@@ -10765,7 +10878,7 @@
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="2"/>
       <c r="B392" s="2" t="s">
         <v>328</v>
@@ -10779,7 +10892,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="2"/>
       <c r="B393" s="2" t="s">
         <v>260</v>
@@ -10793,7 +10906,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="2"/>
       <c r="B394" s="2" t="s">
         <v>321</v>
@@ -10807,7 +10920,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="2"/>
       <c r="B395" s="2" t="s">
         <v>130</v>
@@ -10821,7 +10934,7 @@
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="2"/>
       <c r="B396" s="2" t="s">
         <v>442</v>
@@ -10835,7 +10948,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="2"/>
       <c r="B397" s="2" t="s">
         <v>906</v>
@@ -10849,7 +10962,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="2"/>
       <c r="B398" s="2" t="s">
         <v>235</v>
@@ -10863,7 +10976,7 @@
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="2"/>
       <c r="B399" s="2" t="s">
         <v>806</v>
@@ -10877,7 +10990,7 @@
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="2"/>
       <c r="B400" s="2" t="s">
         <v>237</v>
@@ -10891,7 +11004,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="2"/>
       <c r="B401" s="2" t="s">
         <v>362</v>
@@ -10905,7 +11018,7 @@
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="2"/>
       <c r="B402" s="3" t="s">
         <v>40</v>
@@ -10919,7 +11032,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="2"/>
       <c r="B403" s="2" t="s">
         <v>284</v>
@@ -10937,7 +11050,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="2"/>
       <c r="B404" s="2" t="s">
         <v>280</v>
@@ -10951,7 +11064,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="2"/>
       <c r="B405" s="2" t="s">
         <v>280</v>
@@ -10965,7 +11078,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="2"/>
       <c r="B406" s="2" t="s">
         <v>568</v>
@@ -10979,7 +11092,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="2"/>
       <c r="B407" s="2" t="s">
         <v>594</v>
@@ -10993,7 +11106,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="2"/>
       <c r="B408" s="2" t="s">
         <v>18</v>
@@ -11007,7 +11120,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="2"/>
       <c r="B409" s="2" t="s">
         <v>365</v>
@@ -11021,7 +11134,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="2"/>
       <c r="B410" s="2" t="s">
         <v>32</v>
@@ -11035,7 +11148,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="2"/>
       <c r="B411" s="2" t="s">
         <v>908</v>
@@ -11049,7 +11162,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="2"/>
       <c r="B412" s="2" t="s">
         <v>397</v>
@@ -11063,7 +11176,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="2"/>
       <c r="B413" s="2" t="s">
         <v>176</v>
@@ -11077,7 +11190,7 @@
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="2"/>
       <c r="B414" s="2" t="s">
         <v>89</v>
@@ -11091,7 +11204,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="2"/>
       <c r="B415" s="2" t="s">
         <v>262</v>
@@ -11105,7 +11218,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="2"/>
       <c r="B416" s="2" t="s">
         <v>791</v>
@@ -11119,7 +11232,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="2"/>
       <c r="B417" s="2" t="s">
         <v>484</v>
@@ -11133,7 +11246,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="2"/>
       <c r="B418" s="2" t="s">
         <v>912</v>
@@ -11147,7 +11260,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="2"/>
       <c r="B419" s="2" t="s">
         <v>123</v>
@@ -11163,7 +11276,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="2"/>
       <c r="B420" s="2" t="s">
         <v>330</v>
@@ -11179,7 +11292,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="2"/>
       <c r="B421" s="2" t="s">
         <v>764</v>
@@ -11193,7 +11306,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="2"/>
       <c r="B422" s="2" t="s">
         <v>570</v>
@@ -11209,7 +11322,7 @@
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="2"/>
       <c r="B423" s="2" t="s">
         <v>267</v>
@@ -11223,7 +11336,7 @@
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="2"/>
       <c r="B424" s="2" t="s">
         <v>395</v>
@@ -11237,7 +11350,7 @@
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="2"/>
       <c r="B425" s="2" t="s">
         <v>263</v>
@@ -11251,7 +11364,7 @@
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="2"/>
       <c r="B426" s="2" t="s">
         <v>914</v>
@@ -11265,7 +11378,7 @@
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="2"/>
       <c r="B427" s="2" t="s">
         <v>147</v>
@@ -11279,7 +11392,7 @@
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="2"/>
       <c r="B428" s="2" t="s">
         <v>919</v>
@@ -11293,7 +11406,7 @@
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="2"/>
       <c r="B429" s="2" t="s">
         <v>312</v>
@@ -11307,7 +11420,7 @@
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="2"/>
       <c r="B430" s="2" t="s">
         <v>319</v>
@@ -11321,7 +11434,7 @@
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="2"/>
       <c r="B431" s="2" t="s">
         <v>319</v>
@@ -11335,7 +11448,7 @@
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="2"/>
       <c r="B432" s="2" t="s">
         <v>382</v>
@@ -11351,7 +11464,7 @@
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="2"/>
       <c r="B433" s="2" t="s">
         <v>136</v>
@@ -11365,7 +11478,7 @@
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="2"/>
       <c r="B434" s="2" t="s">
         <v>513</v>
@@ -11379,7 +11492,7 @@
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="2"/>
       <c r="B435" s="2" t="s">
         <v>38</v>
@@ -11393,7 +11506,7 @@
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="2"/>
       <c r="B436" s="2" t="s">
         <v>345</v>
@@ -11407,7 +11520,7 @@
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="2"/>
       <c r="B437" s="2" t="s">
         <v>346</v>
@@ -11421,7 +11534,7 @@
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="2"/>
       <c r="B438" s="2" t="s">
         <v>313</v>
@@ -11437,7 +11550,7 @@
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="2"/>
       <c r="B439" s="2" t="s">
         <v>36</v>
@@ -11453,7 +11566,7 @@
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="2"/>
       <c r="B440" s="2" t="s">
         <v>438</v>
@@ -11469,7 +11582,7 @@
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="2"/>
       <c r="B441" s="2" t="s">
         <v>256</v>
@@ -11483,7 +11596,7 @@
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="2"/>
       <c r="B442" s="2" t="s">
         <v>660</v>
@@ -11499,7 +11612,7 @@
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="2"/>
       <c r="B443" s="2" t="s">
         <v>719</v>
@@ -11513,7 +11626,7 @@
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="2"/>
       <c r="B444" s="2" t="s">
         <v>124</v>
@@ -11531,7 +11644,7 @@
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="2"/>
       <c r="B445" s="2" t="s">
         <v>323</v>
@@ -11545,7 +11658,7 @@
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="2"/>
       <c r="B446" s="2" t="s">
         <v>323</v>
@@ -11559,7 +11672,7 @@
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="2"/>
       <c r="B447" s="2" t="s">
         <v>533</v>
@@ -11573,7 +11686,7 @@
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="2"/>
       <c r="B448" s="2" t="s">
         <v>535</v>
@@ -11587,7 +11700,7 @@
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="2"/>
       <c r="B449" s="2" t="s">
         <v>23</v>
@@ -11603,7 +11716,7 @@
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="2"/>
       <c r="B450" s="2" t="s">
         <v>170</v>
@@ -11617,7 +11730,7 @@
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="2"/>
       <c r="B451" s="2" t="s">
         <v>701</v>
@@ -11633,7 +11746,7 @@
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="2"/>
       <c r="B452" s="2" t="s">
         <v>239</v>
@@ -11647,7 +11760,7 @@
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="2"/>
       <c r="B453" s="2" t="s">
         <v>699</v>
@@ -11661,7 +11774,7 @@
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="2"/>
       <c r="B454" s="2" t="s">
         <v>703</v>
@@ -11675,7 +11788,7 @@
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="2"/>
       <c r="B455" s="2" t="s">
         <v>21</v>
@@ -11689,7 +11802,7 @@
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="2"/>
       <c r="B456" s="2" t="s">
         <v>364</v>
@@ -11703,7 +11816,7 @@
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="2"/>
       <c r="B457" s="2" t="s">
         <v>470</v>
@@ -11717,7 +11830,7 @@
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="2"/>
       <c r="B458" s="2" t="s">
         <v>471</v>
@@ -11731,7 +11844,7 @@
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="2"/>
       <c r="B459" s="2" t="s">
         <v>143</v>
@@ -11751,7 +11864,7 @@
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="2"/>
       <c r="B460" s="2" t="s">
         <v>934</v>
@@ -11767,7 +11880,7 @@
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="2"/>
       <c r="B461" s="2" t="s">
         <v>158</v>
@@ -11781,7 +11894,7 @@
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="2"/>
       <c r="B462" s="2" t="s">
         <v>935</v>
@@ -11795,7 +11908,7 @@
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="2"/>
       <c r="B463" s="2" t="s">
         <v>936</v>
@@ -11809,7 +11922,7 @@
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="2"/>
       <c r="B464" s="2" t="s">
         <v>938</v>
@@ -11823,7 +11936,7 @@
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="2"/>
       <c r="B465" s="2" t="s">
         <v>940</v>
@@ -11837,7 +11950,7 @@
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="2"/>
       <c r="B466" s="2" t="s">
         <v>942</v>
@@ -11855,7 +11968,7 @@
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="2"/>
       <c r="B467" s="2" t="s">
         <v>945</v>
@@ -11869,7 +11982,7 @@
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="2"/>
       <c r="B468" s="2" t="s">
         <v>946</v>
@@ -11883,7 +11996,7 @@
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="2"/>
       <c r="B469" s="2" t="s">
         <v>948</v>
@@ -11897,7 +12010,7 @@
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="2"/>
       <c r="B470" s="2" t="s">
         <v>950</v>
@@ -11911,7 +12024,7 @@
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="2"/>
       <c r="B471" s="2" t="s">
         <v>959</v>
@@ -11925,7 +12038,7 @@
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="2"/>
       <c r="B472" s="2" t="s">
         <v>952</v>
@@ -11941,7 +12054,7 @@
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="2"/>
       <c r="B473" s="2" t="s">
         <v>955</v>
@@ -11955,7 +12068,7 @@
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="2"/>
       <c r="B474" s="2" t="s">
         <v>958</v>
@@ -11969,7 +12082,7 @@
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="2"/>
       <c r="B475" s="2" t="s">
         <v>962</v>
@@ -11983,7 +12096,7 @@
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="2"/>
       <c r="B476" s="2" t="s">
         <v>960</v>
@@ -11997,7 +12110,7 @@
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="2"/>
       <c r="B477" s="2" t="s">
         <v>964</v>
@@ -12011,7 +12124,7 @@
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="2"/>
       <c r="B478" s="2" t="s">
         <v>966</v>
@@ -12025,7 +12138,7 @@
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="2"/>
       <c r="B479" s="2" t="s">
         <v>968</v>
@@ -12039,7 +12152,7 @@
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="2"/>
       <c r="B480" s="2" t="s">
         <v>970</v>
@@ -12053,7 +12166,7 @@
       <c r="G480" s="2"/>
       <c r="H480" s="2"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="2"/>
       <c r="B481" s="2" t="s">
         <v>972</v>
@@ -12067,7 +12180,7 @@
       <c r="G481" s="2"/>
       <c r="H481" s="2"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="2"/>
       <c r="B482" s="2" t="s">
         <v>974</v>
@@ -12081,7 +12194,7 @@
       <c r="G482" s="2"/>
       <c r="H482" s="2"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="2"/>
       <c r="B483" s="2" t="s">
         <v>975</v>
@@ -12093,7 +12206,7 @@
       <c r="G483" s="2"/>
       <c r="H483" s="2"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="2"/>
       <c r="B484" s="2" t="s">
         <v>977</v>
@@ -12107,7 +12220,7 @@
       <c r="G484" s="2"/>
       <c r="H484" s="2"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="2"/>
       <c r="B485" s="2" t="s">
         <v>978</v>
@@ -12121,7 +12234,7 @@
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="2"/>
       <c r="B486" s="2" t="s">
         <v>980</v>
@@ -12135,7 +12248,7 @@
       <c r="G486" s="2"/>
       <c r="H486" s="2"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="2"/>
       <c r="B487" s="2" t="s">
         <v>982</v>
@@ -12149,7 +12262,7 @@
       <c r="G487" s="2"/>
       <c r="H487" s="2"/>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="2"/>
       <c r="B488" s="7" t="s">
         <v>984</v>
@@ -12163,7 +12276,7 @@
       <c r="G488" s="2"/>
       <c r="H488" s="2"/>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="2"/>
       <c r="B489" s="2" t="s">
         <v>985</v>
@@ -12177,7 +12290,7 @@
       <c r="G489" s="2"/>
       <c r="H489" s="2"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="2"/>
       <c r="B490" s="2" t="s">
         <v>988</v>
@@ -12191,7 +12304,7 @@
       <c r="G490" s="2"/>
       <c r="H490" s="2"/>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="2"/>
       <c r="B491" s="2" t="s">
         <v>990</v>
@@ -12205,7 +12318,7 @@
       <c r="G491" s="2"/>
       <c r="H491" s="2"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="2"/>
       <c r="B492" s="2" t="s">
         <v>992</v>
@@ -12219,7 +12332,7 @@
       <c r="G492" s="2"/>
       <c r="H492" s="2"/>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="2"/>
       <c r="B493" s="2" t="s">
         <v>993</v>
@@ -12233,7 +12346,7 @@
       <c r="G493" s="2"/>
       <c r="H493" s="2"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="2"/>
       <c r="B494" s="2" t="s">
         <v>997</v>
@@ -12247,7 +12360,7 @@
       <c r="G494" s="2"/>
       <c r="H494" s="2"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="2"/>
       <c r="B495" s="2" t="s">
         <v>999</v>
@@ -12261,7 +12374,7 @@
       <c r="G495" s="2"/>
       <c r="H495" s="2"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="2"/>
       <c r="B496" s="2" t="s">
         <v>1001</v>
@@ -12275,7 +12388,7 @@
       <c r="G496" s="2"/>
       <c r="H496" s="2"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="2"/>
       <c r="B497" s="2" t="s">
         <v>1004</v>
@@ -12289,7 +12402,7 @@
       <c r="G497" s="2"/>
       <c r="H497" s="2"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="2"/>
       <c r="B498" s="2" t="s">
         <v>1006</v>
@@ -12303,7 +12416,7 @@
       <c r="G498" s="2"/>
       <c r="H498" s="2"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="2"/>
       <c r="B499" s="2" t="s">
         <v>1008</v>
@@ -12317,7 +12430,7 @@
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="2"/>
       <c r="B500" s="2" t="s">
         <v>1009</v>
@@ -12331,7 +12444,7 @@
       <c r="G500" s="2"/>
       <c r="H500" s="2"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="2"/>
       <c r="B501" s="2" t="s">
         <v>1011</v>
@@ -12345,7 +12458,7 @@
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="2"/>
       <c r="B502" s="2" t="s">
         <v>1012</v>
@@ -12359,7 +12472,7 @@
       <c r="G502" s="2"/>
       <c r="H502" s="2"/>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="2"/>
       <c r="B503" s="2" t="s">
         <v>1014</v>
@@ -12373,7 +12486,7 @@
       <c r="G503" s="2"/>
       <c r="H503" s="2"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="2"/>
       <c r="B504" s="2" t="s">
         <v>1016</v>
@@ -12387,7 +12500,7 @@
       <c r="G504" s="2"/>
       <c r="H504" s="2"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="2"/>
       <c r="B505" s="2" t="s">
         <v>1017</v>
@@ -12401,7 +12514,7 @@
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="2"/>
       <c r="B506" s="2" t="s">
         <v>1019</v>
@@ -12417,7 +12530,7 @@
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="2"/>
       <c r="B507" s="2" t="s">
         <v>1021</v>
@@ -12431,7 +12544,7 @@
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="2"/>
       <c r="B508" s="2" t="s">
         <v>1023</v>
@@ -12445,7 +12558,7 @@
       <c r="G508" s="2"/>
       <c r="H508" s="2"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="2"/>
       <c r="B509" s="2" t="s">
         <v>1027</v>
@@ -12459,7 +12572,7 @@
       <c r="G509" s="2"/>
       <c r="H509" s="2"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="2"/>
       <c r="B510" s="2" t="s">
         <v>1029</v>
@@ -12473,7 +12586,7 @@
       <c r="G510" s="2"/>
       <c r="H510" s="2"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="2"/>
       <c r="B511" s="2" t="s">
         <v>1033</v>
@@ -12489,7 +12602,7 @@
       <c r="G511" s="2"/>
       <c r="H511" s="2"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="2"/>
       <c r="B512" s="2" t="s">
         <v>1036</v>
@@ -12503,7 +12616,7 @@
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="2"/>
       <c r="B513" s="2" t="s">
         <v>1038</v>
@@ -12517,7 +12630,7 @@
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="2"/>
       <c r="B514" s="2" t="s">
         <v>1040</v>
@@ -12531,7 +12644,7 @@
       <c r="G514" s="2"/>
       <c r="H514" s="2"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="2"/>
       <c r="B515" s="2" t="s">
         <v>79</v>
@@ -12551,7 +12664,7 @@
       <c r="G515" s="2"/>
       <c r="H515" s="2"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="2"/>
       <c r="B516" s="2" t="s">
         <v>1045</v>
@@ -12565,7 +12678,7 @@
       <c r="G516" s="2"/>
       <c r="H516" s="2"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="2"/>
       <c r="B517" s="2" t="s">
         <v>1046</v>
@@ -12579,7 +12692,7 @@
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="2"/>
       <c r="B518" s="2" t="s">
         <v>1048</v>
@@ -12593,7 +12706,7 @@
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="2"/>
       <c r="B519" s="2" t="s">
         <v>1049</v>
@@ -12607,7 +12720,7 @@
       <c r="G519" s="2"/>
       <c r="H519" s="2"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="2"/>
       <c r="B520" s="2" t="s">
         <v>1051</v>
@@ -12623,7 +12736,7 @@
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
     </row>
-    <row r="521" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="2"/>
       <c r="B521" s="2" t="s">
         <v>1057</v>
@@ -12637,7 +12750,7 @@
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B522" s="2" t="s">
         <v>1059</v>
       </c>
@@ -12645,7 +12758,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B523" s="2" t="s">
         <v>1061</v>
       </c>
@@ -12653,7 +12766,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B524" s="2" t="s">
         <v>1118</v>
       </c>
@@ -12661,7 +12774,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B525" s="2" t="s">
         <v>1138</v>
       </c>
@@ -12669,7 +12782,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B526" s="2" t="s">
         <v>1143</v>
       </c>
@@ -12677,7 +12790,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B527" s="2" t="s">
         <v>1167</v>
       </c>
@@ -12685,7 +12798,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B528" s="2" t="s">
         <v>703</v>
       </c>
@@ -12693,7 +12806,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="529" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B529" s="2" t="s">
         <v>1206</v>
       </c>
@@ -12701,7 +12814,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="530" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B530" s="2" t="s">
         <v>1208</v>
       </c>
@@ -12709,7 +12822,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="531" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B531" s="2" t="s">
         <v>1233</v>
       </c>
@@ -12717,7 +12830,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="532" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B532" s="2" t="s">
         <v>701</v>
       </c>
@@ -12725,7 +12838,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="533" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B533" s="2" t="s">
         <v>1285</v>
       </c>
@@ -12733,7 +12846,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="534" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B534" s="2" t="s">
         <v>1287</v>
       </c>
@@ -12741,7 +12854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="535" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B535" s="2" t="s">
         <v>1321</v>
       </c>
@@ -12749,7 +12862,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="536" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B536" t="s">
         <v>1335</v>
       </c>
@@ -12757,11 +12870,11 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="537" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
     </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="538" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B538" s="2" t="s">
         <v>1346</v>
       </c>
@@ -12769,7 +12882,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="539" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B539" s="2" t="s">
         <v>1348</v>
       </c>
@@ -12777,7 +12890,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="540" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B540" s="2" t="s">
         <v>1349</v>
       </c>
@@ -12785,7 +12898,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="541" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B541" s="2" t="s">
         <v>1351</v>
       </c>
@@ -12793,7 +12906,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="542" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B542" s="2" t="s">
         <v>1359</v>
       </c>
@@ -12801,7 +12914,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="543" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B543" s="2" t="s">
         <v>1361</v>
       </c>
@@ -12809,7 +12922,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="544" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B544" s="2" t="s">
         <v>1363</v>
       </c>
@@ -12817,7 +12930,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="545" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B545" s="2" t="s">
         <v>1366</v>
       </c>
@@ -12825,7 +12938,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="546" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B546" s="2" t="s">
         <v>1368</v>
       </c>
@@ -12833,7 +12946,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="547" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B547" s="2" t="s">
         <v>1370</v>
       </c>
@@ -12841,7 +12954,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="548" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B548" s="2" t="s">
         <v>1372</v>
       </c>
@@ -12849,7 +12962,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="549" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B549" s="2" t="s">
         <v>1374</v>
       </c>
@@ -12857,7 +12970,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="550" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B550" s="2" t="s">
         <v>1376</v>
       </c>
@@ -12865,7 +12978,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="551" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B551" s="2" t="s">
         <v>1378</v>
       </c>
@@ -12873,7 +12986,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="552" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B552" s="2" t="s">
         <v>1380</v>
       </c>
@@ -12881,7 +12994,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="553" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B553" s="2" t="s">
         <v>1385</v>
       </c>
@@ -12889,7 +13002,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B554" s="2" t="s">
         <v>1387</v>
       </c>
@@ -12897,7 +13010,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="555" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B555" s="2" t="s">
         <v>1389</v>
       </c>
@@ -12905,7 +13018,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B556" s="2" t="s">
         <v>1391</v>
       </c>
@@ -12913,7 +13026,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B557" s="2" t="s">
         <v>1393</v>
       </c>
@@ -12921,7 +13034,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="558" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B558" s="2" t="s">
         <v>1395</v>
       </c>
@@ -12929,7 +13042,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="559" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B559" s="2" t="s">
         <v>1400</v>
       </c>
@@ -12937,7 +13050,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="561" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="561" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B561" s="2" t="s">
         <v>1405</v>
       </c>
@@ -12945,7 +13058,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="562" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B562" s="2" t="s">
         <v>1406</v>
       </c>
@@ -12953,7 +13066,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="563" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="563" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B563" s="2" t="s">
         <v>1408</v>
       </c>
@@ -12961,7 +13074,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="564" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="564" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B564" s="2" t="s">
         <v>1410</v>
       </c>
@@ -12969,7 +13082,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="565" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="565" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B565" t="s">
         <v>1406</v>
       </c>
@@ -12977,7 +13090,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="566" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="566" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B566" s="2" t="s">
         <v>1413</v>
       </c>
@@ -12985,7 +13098,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="567" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="567" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B567" t="s">
         <v>1415</v>
       </c>
@@ -12993,7 +13106,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="568" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="568" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B568" s="2" t="s">
         <v>1417</v>
       </c>
@@ -13001,7 +13114,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="569" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="569" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B569" s="9" t="s">
         <v>1420</v>
       </c>
@@ -13009,7 +13122,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="570" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="570" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B570" t="s">
         <v>1422</v>
       </c>
@@ -13017,7 +13130,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="571" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="571" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B571" t="s">
         <v>1424</v>
       </c>
@@ -13025,7 +13138,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="572" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="572" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B572" s="9" t="s">
         <v>1428</v>
       </c>
@@ -13033,7 +13146,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="573" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="573" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B573" t="s">
         <v>1430</v>
       </c>
@@ -13041,7 +13154,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="574" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="574" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B574" t="s">
         <v>1436</v>
       </c>
@@ -13049,7 +13162,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="575" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B575" t="s">
         <v>1440</v>
       </c>
@@ -13057,7 +13170,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B576" t="s">
         <v>1444</v>
       </c>
@@ -13065,7 +13178,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="577" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B577" t="s">
         <v>1449</v>
       </c>
@@ -13073,7 +13186,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="578" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B578" t="s">
         <v>1450</v>
       </c>
@@ -13081,7 +13194,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="579" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B579" t="s">
         <v>1452</v>
       </c>
@@ -13089,7 +13202,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="580" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B580" t="s">
         <v>1454</v>
       </c>
@@ -13097,7 +13210,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="581" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B581" t="s">
         <v>1462</v>
       </c>
@@ -13105,7 +13218,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="582" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B582" t="s">
         <v>1464</v>
       </c>
@@ -13113,7 +13226,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="583" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B583" t="s">
         <v>1466</v>
       </c>
@@ -13121,7 +13234,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="584" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B584" s="9" t="s">
         <v>1470</v>
       </c>
@@ -13129,7 +13242,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="585" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="585" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B585" t="s">
         <v>180</v>
       </c>
@@ -13137,7 +13250,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="586" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B586" t="s">
         <v>1473</v>
       </c>
@@ -13145,7 +13258,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="587" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B587" t="s">
         <v>1474</v>
       </c>
@@ -13153,7 +13266,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="588" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B588" t="s">
         <v>1476</v>
       </c>
@@ -13161,7 +13274,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="589" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="589" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B589" t="s">
         <v>323</v>
       </c>
@@ -13169,7 +13282,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="590" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B590" t="s">
         <v>1478</v>
       </c>
@@ -13177,7 +13290,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="591" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="591" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B591" t="s">
         <v>208</v>
       </c>
@@ -13185,7 +13298,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="592" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B592" t="s">
         <v>1480</v>
       </c>
@@ -13193,7 +13306,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="593" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="593" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B593" t="s">
         <v>1482</v>
       </c>
@@ -13201,7 +13314,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="594" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B594" t="s">
         <v>1484</v>
       </c>
@@ -13209,7 +13322,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="595" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="595" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B595" t="s">
         <v>1486</v>
       </c>
@@ -13217,7 +13330,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="596" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="596" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B596" s="9" t="s">
         <v>1488</v>
       </c>
@@ -13225,7 +13338,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="597" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="597" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B597" t="s">
         <v>1490</v>
       </c>
@@ -13233,7 +13346,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="598" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B598" t="s">
         <v>1492</v>
       </c>
@@ -13241,7 +13354,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="599" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="599" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B599" t="s">
         <v>1493</v>
       </c>
@@ -13249,7 +13362,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="600" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="600" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B600" t="s">
         <v>1495</v>
       </c>
@@ -13257,7 +13370,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="601" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="601" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B601" t="s">
         <v>1501</v>
       </c>
@@ -13265,7 +13378,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="602" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="602" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B602" t="s">
         <v>1503</v>
       </c>
@@ -13273,7 +13386,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="603" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="603" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B603" t="s">
         <v>1505</v>
       </c>
@@ -13281,12 +13394,84 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="604" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="604" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B604" t="s">
         <v>1512</v>
       </c>
       <c r="C604" t="s">
         <v>1513</v>
+      </c>
+    </row>
+    <row r="605" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B605" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B606" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C606" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B607" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B608" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="609" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B609" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="610" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B610" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="611" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B611" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="612" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B612" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="613" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B613" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1552</v>
       </c>
     </row>
   </sheetData>
@@ -13302,20 +13487,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:I145"/>
+  <dimension ref="B2:I157"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B149" sqref="B148:B149"/>
+    <sheetView topLeftCell="A147" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="34.796875" customWidth="1"/>
-    <col min="3" max="3" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.796875" customWidth="1"/>
+    <col min="2" max="2" width="34.7890625" customWidth="1"/>
+    <col min="3" max="3" width="24.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>1064</v>
       </c>
@@ -13323,7 +13508,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>1067</v>
       </c>
@@ -13331,7 +13516,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>1068</v>
       </c>
@@ -13339,7 +13524,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>1070</v>
       </c>
@@ -13347,7 +13532,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>1072</v>
       </c>
@@ -13355,7 +13540,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>1075</v>
       </c>
@@ -13363,7 +13548,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>1077</v>
       </c>
@@ -13371,7 +13556,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>1078</v>
       </c>
@@ -13379,7 +13564,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>1080</v>
       </c>
@@ -13387,7 +13572,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>1082</v>
       </c>
@@ -13395,7 +13580,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>1084</v>
       </c>
@@ -13403,7 +13588,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>1086</v>
       </c>
@@ -13411,7 +13596,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>1088</v>
       </c>
@@ -13419,7 +13604,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>1090</v>
       </c>
@@ -13427,7 +13612,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>1092</v>
       </c>
@@ -13435,7 +13620,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>1094</v>
       </c>
@@ -13443,7 +13628,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>1096</v>
       </c>
@@ -13451,7 +13636,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>1098</v>
       </c>
@@ -13459,7 +13644,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>1100</v>
       </c>
@@ -13467,7 +13652,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>1102</v>
       </c>
@@ -13475,7 +13660,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>1104</v>
       </c>
@@ -13483,7 +13668,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>1106</v>
       </c>
@@ -13491,7 +13676,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>1108</v>
       </c>
@@ -13499,7 +13684,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>1110</v>
       </c>
@@ -13507,7 +13692,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>1112</v>
       </c>
@@ -13515,7 +13700,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>1114</v>
       </c>
@@ -13523,7 +13708,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>1116</v>
       </c>
@@ -13531,7 +13716,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8" t="s">
         <v>1120</v>
       </c>
@@ -13539,7 +13724,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8" t="s">
         <v>1122</v>
       </c>
@@ -13547,7 +13732,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>1124</v>
       </c>
@@ -13555,7 +13740,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>1126</v>
       </c>
@@ -13563,7 +13748,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>1128</v>
       </c>
@@ -13571,7 +13756,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>1130</v>
       </c>
@@ -13579,7 +13764,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>1132</v>
       </c>
@@ -13587,7 +13772,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>1134</v>
       </c>
@@ -13595,7 +13780,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>1136</v>
       </c>
@@ -13603,7 +13788,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>1139</v>
       </c>
@@ -13611,7 +13796,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>1141</v>
       </c>
@@ -13619,7 +13804,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>1098</v>
       </c>
@@ -13627,7 +13812,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>1146</v>
       </c>
@@ -13635,7 +13820,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>1147</v>
       </c>
@@ -13643,7 +13828,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>1149</v>
       </c>
@@ -13651,7 +13836,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>1151</v>
       </c>
@@ -13659,7 +13844,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>1153</v>
       </c>
@@ -13667,7 +13852,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>1155</v>
       </c>
@@ -13675,7 +13860,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>1157</v>
       </c>
@@ -13683,7 +13868,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
         <v>1159</v>
       </c>
@@ -13691,7 +13876,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>1161</v>
       </c>
@@ -13699,7 +13884,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
         <v>1163</v>
       </c>
@@ -13707,7 +13892,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
         <v>1166</v>
       </c>
@@ -13715,7 +13900,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" t="s">
         <v>1169</v>
       </c>
@@ -13723,7 +13908,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
         <v>1171</v>
       </c>
@@ -13731,7 +13916,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
         <v>1173</v>
       </c>
@@ -13739,7 +13924,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" t="s">
         <v>1175</v>
       </c>
@@ -13747,7 +13932,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
         <v>1177</v>
       </c>
@@ -13758,7 +13943,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
         <v>1180</v>
       </c>
@@ -13766,7 +13951,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" t="s">
         <v>1182</v>
       </c>
@@ -13774,7 +13959,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>1184</v>
       </c>
@@ -13782,7 +13967,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
         <v>1186</v>
       </c>
@@ -13790,7 +13975,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
         <v>1188</v>
       </c>
@@ -13798,7 +13983,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
         <v>1190</v>
       </c>
@@ -13806,7 +13991,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
         <v>1192</v>
       </c>
@@ -13814,7 +13999,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
         <v>1194</v>
       </c>
@@ -13822,7 +14007,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
         <v>1196</v>
       </c>
@@ -13830,7 +14015,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" t="s">
         <v>1198</v>
       </c>
@@ -13838,7 +14023,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>1200</v>
       </c>
@@ -13846,7 +14031,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" t="s">
         <v>1202</v>
       </c>
@@ -13854,7 +14039,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" t="s">
         <v>1204</v>
       </c>
@@ -13862,7 +14047,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" t="s">
         <v>1209</v>
       </c>
@@ -13870,7 +14055,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" t="s">
         <v>1211</v>
       </c>
@@ -13878,7 +14063,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" t="s">
         <v>1213</v>
       </c>
@@ -13886,7 +14071,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
         <v>1215</v>
       </c>
@@ -13894,7 +14079,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>1217</v>
       </c>
@@ -13902,7 +14087,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" t="s">
         <v>1219</v>
       </c>
@@ -13910,7 +14095,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
         <v>1221</v>
       </c>
@@ -13918,7 +14103,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" t="s">
         <v>1223</v>
       </c>
@@ -13926,7 +14111,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" t="s">
         <v>1225</v>
       </c>
@@ -13934,7 +14119,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" t="s">
         <v>1227</v>
       </c>
@@ -13942,7 +14127,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" t="s">
         <v>1229</v>
       </c>
@@ -13950,7 +14135,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" t="s">
         <v>1231</v>
       </c>
@@ -13958,7 +14143,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" t="s">
         <v>1237</v>
       </c>
@@ -13966,7 +14151,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" t="s">
         <v>1239</v>
       </c>
@@ -13974,7 +14159,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
         <v>1241</v>
       </c>
@@ -13982,7 +14167,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" t="s">
         <v>1243</v>
       </c>
@@ -13990,7 +14175,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" t="s">
         <v>1245</v>
       </c>
@@ -13998,7 +14183,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" t="s">
         <v>1248</v>
       </c>
@@ -14006,7 +14191,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" t="s">
         <v>1249</v>
       </c>
@@ -14014,7 +14199,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" t="s">
         <v>1251</v>
       </c>
@@ -14022,7 +14207,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" t="s">
         <v>1253</v>
       </c>
@@ -14030,7 +14215,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" t="s">
         <v>1255</v>
       </c>
@@ -14038,7 +14223,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" t="s">
         <v>1257</v>
       </c>
@@ -14046,7 +14231,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" t="s">
         <v>1259</v>
       </c>
@@ -14054,7 +14239,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" t="s">
         <v>1261</v>
       </c>
@@ -14062,7 +14247,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" t="s">
         <v>1263</v>
       </c>
@@ -14070,7 +14255,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" t="s">
         <v>1265</v>
       </c>
@@ -14078,7 +14263,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
         <v>1267</v>
       </c>
@@ -14086,7 +14271,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
         <v>1269</v>
       </c>
@@ -14094,7 +14279,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
         <v>1271</v>
       </c>
@@ -14102,7 +14287,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
         <v>1273</v>
       </c>
@@ -14110,7 +14295,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
         <v>1275</v>
       </c>
@@ -14118,7 +14303,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>1277</v>
       </c>
@@ -14126,7 +14311,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
         <v>1279</v>
       </c>
@@ -14134,7 +14319,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" t="s">
         <v>1281</v>
       </c>
@@ -14142,7 +14327,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" t="s">
         <v>1283</v>
       </c>
@@ -14150,7 +14335,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
         <v>1288</v>
       </c>
@@ -14158,7 +14343,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
         <v>1290</v>
       </c>
@@ -14166,7 +14351,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>1292</v>
       </c>
@@ -14174,7 +14359,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" t="s">
         <v>1294</v>
       </c>
@@ -14182,7 +14367,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
         <v>1296</v>
       </c>
@@ -14190,7 +14375,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" t="s">
         <v>1298</v>
       </c>
@@ -14198,7 +14383,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" t="s">
         <v>1300</v>
       </c>
@@ -14209,7 +14394,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" t="s">
         <v>1303</v>
       </c>
@@ -14217,7 +14402,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" t="s">
         <v>1305</v>
       </c>
@@ -14225,7 +14410,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" t="s">
         <v>1307</v>
       </c>
@@ -14233,7 +14418,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
         <v>1309</v>
       </c>
@@ -14241,7 +14426,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
         <v>1311</v>
       </c>
@@ -14249,7 +14434,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
         <v>1313</v>
       </c>
@@ -14257,7 +14442,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
         <v>1315</v>
       </c>
@@ -14265,7 +14450,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" t="s">
         <v>1317</v>
       </c>
@@ -14273,7 +14458,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" t="s">
         <v>1319</v>
       </c>
@@ -14281,7 +14466,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="s">
         <v>1323</v>
       </c>
@@ -14289,7 +14474,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="s">
         <v>1325</v>
       </c>
@@ -14297,7 +14482,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="s">
         <v>1327</v>
       </c>
@@ -14305,7 +14490,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="s">
         <v>1329</v>
       </c>
@@ -14313,7 +14498,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" t="s">
         <v>1332</v>
       </c>
@@ -14321,7 +14506,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" t="s">
         <v>1333</v>
       </c>
@@ -14329,7 +14514,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" t="s">
         <v>1337</v>
       </c>
@@ -14337,7 +14522,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" t="s">
         <v>1339</v>
       </c>
@@ -14345,7 +14530,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" t="s">
         <v>1341</v>
       </c>
@@ -14353,7 +14538,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" t="s">
         <v>1343</v>
       </c>
@@ -14361,7 +14546,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" t="s">
         <v>1345</v>
       </c>
@@ -14369,7 +14554,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" t="s">
         <v>1353</v>
       </c>
@@ -14377,7 +14562,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" t="s">
         <v>1355</v>
       </c>
@@ -14385,7 +14570,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" t="s">
         <v>1357</v>
       </c>
@@ -14396,7 +14581,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" t="s">
         <v>1383</v>
       </c>
@@ -14410,7 +14595,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" t="s">
         <v>1419</v>
       </c>
@@ -14424,7 +14609,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" t="s">
         <v>1432</v>
       </c>
@@ -14432,7 +14617,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" t="s">
         <v>1434</v>
       </c>
@@ -14440,7 +14625,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" t="s">
         <v>1438</v>
       </c>
@@ -14448,7 +14633,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" t="s">
         <v>1442</v>
       </c>
@@ -14456,7 +14641,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" t="s">
         <v>1446</v>
       </c>
@@ -14464,7 +14649,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" t="s">
         <v>1468</v>
       </c>
@@ -14472,7 +14657,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" t="s">
         <v>1497</v>
       </c>
@@ -14480,12 +14665,108 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" t="s">
         <v>1499</v>
       </c>
       <c r="C145" t="s">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B155" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B156" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B157" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1338</v>
       </c>
     </row>
   </sheetData>
@@ -14502,13 +14783,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.20703125" customWidth="1"/>
+    <col min="3" max="3" width="35.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>1235</v>
       </c>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rust\rustbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A3D32C-8E89-48BE-98A6-77549438F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1381D4EA-B562-4196-B7B3-F67181BA4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="24768" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1557">
   <si>
     <t>специальный</t>
   </si>
@@ -4701,6 +4701,18 @@
   </si>
   <si>
     <t>безымянной</t>
+  </si>
+  <si>
+    <t>схема</t>
+  </si>
+  <si>
+    <t>порядок</t>
+  </si>
+  <si>
+    <t>эта схема</t>
+  </si>
+  <si>
+    <t>этот порядок</t>
   </si>
 </sst>
 </file>
@@ -5145,22 +5157,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H613"/>
+  <dimension ref="A1:H614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B614" sqref="B614"/>
+    <sheetView topLeftCell="A604" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C614" sqref="C614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.41796875" customWidth="1"/>
-    <col min="3" max="3" width="21.1015625" customWidth="1"/>
-    <col min="4" max="4" width="20.41796875" customWidth="1"/>
-    <col min="5" max="5" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3125" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.06640625" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>927</v>
@@ -5184,7 +5196,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>782</v>
@@ -5200,7 +5212,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>799</v>
@@ -5214,7 +5226,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>53</v>
@@ -5226,7 +5238,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>692</v>
@@ -5240,7 +5252,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>178</v>
@@ -5256,7 +5268,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>735</v>
@@ -5270,7 +5282,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>735</v>
@@ -5284,7 +5296,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>440</v>
@@ -5298,7 +5310,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>826</v>
@@ -5312,7 +5324,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -5328,7 +5340,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>210</v>
@@ -5340,7 +5352,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>210</v>
@@ -5354,7 +5366,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>210</v>
@@ -5370,7 +5382,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>717</v>
@@ -5384,7 +5396,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5394,7 +5406,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>54</v>
@@ -5410,7 +5422,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>481</v>
@@ -5424,7 +5436,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>482</v>
@@ -5438,7 +5450,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>82</v>
@@ -5452,7 +5464,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>138</v>
@@ -5466,7 +5478,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>138</v>
@@ -5482,7 +5494,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>873</v>
@@ -5496,7 +5508,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>874</v>
@@ -5510,7 +5522,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>298</v>
@@ -5524,7 +5536,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>793</v>
@@ -5538,7 +5550,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>827</v>
@@ -5552,7 +5564,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>710</v>
@@ -5566,7 +5578,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>119</v>
@@ -5580,7 +5592,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>903</v>
@@ -5594,7 +5606,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>51</v>
@@ -5608,7 +5620,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>659</v>
@@ -5624,7 +5636,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>829</v>
@@ -5638,7 +5650,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>28</v>
@@ -5654,7 +5666,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>445</v>
@@ -5668,7 +5680,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>305</v>
@@ -5682,7 +5694,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>3</v>
@@ -5698,7 +5710,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>77</v>
@@ -5712,7 +5724,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>201</v>
@@ -5726,7 +5738,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>402</v>
@@ -5740,7 +5752,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5750,7 +5762,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>271</v>
@@ -5768,7 +5780,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
@@ -5784,7 +5796,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>189</v>
@@ -5798,7 +5810,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>705</v>
@@ -5812,7 +5824,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>226</v>
@@ -5828,7 +5840,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>377</v>
@@ -5842,7 +5854,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>379</v>
@@ -5856,7 +5868,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>43</v>
@@ -5874,7 +5886,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>25</v>
       </c>
@@ -5890,7 +5902,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>492</v>
@@ -5904,7 +5916,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>491</v>
@@ -5918,7 +5930,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>493</v>
@@ -5932,7 +5944,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>494</v>
@@ -5946,7 +5958,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>171</v>
@@ -5960,7 +5972,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>923</v>
@@ -5974,7 +5986,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>291</v>
@@ -5988,7 +6000,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>407</v>
@@ -6004,7 +6016,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>625</v>
@@ -6018,7 +6030,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>477</v>
@@ -6036,7 +6048,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>473</v>
@@ -6054,7 +6066,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>805</v>
@@ -6068,7 +6080,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>245</v>
@@ -6086,7 +6098,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>639</v>
@@ -6100,7 +6112,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
         <v>229</v>
@@ -6114,7 +6126,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>642</v>
@@ -6128,7 +6140,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="4" t="s">
         <v>164</v>
@@ -6142,7 +6154,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>61</v>
@@ -6158,7 +6170,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
         <v>108</v>
@@ -6172,7 +6184,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>592</v>
@@ -6186,7 +6198,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>283</v>
@@ -6200,7 +6212,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>503</v>
@@ -6214,7 +6226,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="5" t="s">
         <v>817</v>
@@ -6228,7 +6240,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>161</v>
@@ -6244,7 +6256,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>615</v>
@@ -6258,7 +6270,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="4" t="s">
         <v>270</v>
@@ -6272,7 +6284,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>582</v>
@@ -6286,7 +6298,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>629</v>
@@ -6300,7 +6312,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>889</v>
@@ -6314,7 +6326,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
         <v>286</v>
@@ -6328,7 +6340,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
         <v>286</v>
@@ -6342,7 +6354,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>511</v>
@@ -6356,7 +6368,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
         <v>463</v>
@@ -6370,7 +6382,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>835</v>
@@ -6384,7 +6396,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>314</v>
@@ -6400,7 +6412,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>216</v>
@@ -6414,7 +6426,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>374</v>
@@ -6428,7 +6440,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>561</v>
@@ -6442,7 +6454,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
         <v>563</v>
@@ -6456,7 +6468,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>565</v>
@@ -6470,7 +6482,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
         <v>559</v>
@@ -6484,7 +6496,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>663</v>
@@ -6498,7 +6510,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>65</v>
@@ -6514,7 +6526,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>837</v>
@@ -6528,7 +6540,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
         <v>840</v>
@@ -6542,7 +6554,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>839</v>
@@ -6556,7 +6568,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
         <v>586</v>
@@ -6570,7 +6582,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
         <v>588</v>
@@ -6584,7 +6596,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>774</v>
@@ -6598,7 +6610,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>728</v>
@@ -6612,7 +6624,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>841</v>
@@ -6626,7 +6638,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>730</v>
@@ -6640,7 +6652,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>265</v>
@@ -6654,7 +6666,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>76</v>
@@ -6670,7 +6682,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>787</v>
@@ -6684,7 +6696,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>845</v>
@@ -6698,7 +6710,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
         <v>790</v>
@@ -6712,7 +6724,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>785</v>
@@ -6726,7 +6738,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>153</v>
@@ -6744,7 +6756,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
         <v>12</v>
@@ -6758,7 +6770,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
         <v>97</v>
@@ -6774,7 +6786,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="5" t="s">
         <v>813</v>
@@ -6788,7 +6800,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>250</v>
@@ -6802,7 +6814,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>125</v>
@@ -6816,7 +6828,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>713</v>
@@ -6830,7 +6842,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>518</v>
@@ -6848,7 +6860,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>856</v>
@@ -6862,7 +6874,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>63</v>
@@ -6878,7 +6890,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>457</v>
@@ -6892,7 +6904,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>833</v>
@@ -6906,7 +6918,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>110</v>
@@ -6922,7 +6934,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>24</v>
@@ -6936,7 +6948,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>460</v>
@@ -6950,7 +6962,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>34</v>
@@ -6964,7 +6976,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>739</v>
@@ -6980,7 +6992,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>737</v>
@@ -6994,7 +7006,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
         <v>741</v>
@@ -7008,7 +7020,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>743</v>
@@ -7024,7 +7036,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>293</v>
@@ -7040,7 +7052,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
         <v>770</v>
@@ -7054,7 +7066,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>772</v>
@@ -7068,7 +7080,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
         <v>431</v>
@@ -7082,7 +7094,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
         <v>850</v>
@@ -7096,7 +7108,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>146</v>
@@ -7112,7 +7124,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
         <v>917</v>
@@ -7126,7 +7138,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
         <v>428</v>
@@ -7142,7 +7154,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
         <v>208</v>
@@ -7156,7 +7168,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>102</v>
@@ -7170,7 +7182,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
         <v>768</v>
@@ -7184,7 +7196,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
         <v>326</v>
@@ -7198,7 +7210,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
         <v>732</v>
@@ -7216,7 +7228,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
         <v>188</v>
@@ -7230,7 +7242,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
         <v>185</v>
@@ -7244,7 +7256,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
         <v>637</v>
@@ -7258,7 +7270,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
         <v>69</v>
@@ -7274,7 +7286,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>24</v>
       </c>
@@ -7290,7 +7302,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
         <v>121</v>
@@ -7304,7 +7316,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
         <v>675</v>
@@ -7318,7 +7330,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
         <v>537</v>
@@ -7334,7 +7346,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
         <v>333</v>
@@ -7348,7 +7360,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
         <v>5</v>
@@ -7362,7 +7374,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
         <v>180</v>
@@ -7376,7 +7388,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
         <v>159</v>
@@ -7390,7 +7402,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
         <v>550</v>
@@ -7404,7 +7416,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
         <v>618</v>
@@ -7424,7 +7436,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
         <v>155</v>
@@ -7438,7 +7450,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
         <v>644</v>
@@ -7452,7 +7464,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
         <v>167</v>
@@ -7464,7 +7476,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
         <v>646</v>
@@ -7478,7 +7490,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
         <v>151</v>
@@ -7492,7 +7504,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
         <v>392</v>
@@ -7508,7 +7520,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
         <v>540</v>
@@ -7522,7 +7534,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
         <v>98</v>
@@ -7536,7 +7548,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
         <v>854</v>
@@ -7548,7 +7560,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
         <v>193</v>
@@ -7562,7 +7574,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
         <v>448</v>
@@ -7578,7 +7590,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
         <v>296</v>
@@ -7592,7 +7604,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
         <v>627</v>
@@ -7606,7 +7618,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
         <v>579</v>
@@ -7626,7 +7638,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
         <v>1456</v>
@@ -7640,7 +7652,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
         <v>1458</v>
@@ -7654,7 +7666,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
         <v>1460</v>
@@ -7668,7 +7680,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
         <v>778</v>
@@ -7682,7 +7694,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
         <v>572</v>
@@ -7702,7 +7714,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
         <v>575</v>
@@ -7716,7 +7728,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
         <v>843</v>
@@ -7730,7 +7742,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
         <v>310</v>
@@ -7746,7 +7758,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
         <v>386</v>
@@ -7760,7 +7772,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
         <v>388</v>
@@ -7774,7 +7786,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
         <v>755</v>
@@ -7790,7 +7802,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
         <v>760</v>
@@ -7804,7 +7816,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
         <v>757</v>
@@ -7822,7 +7834,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="6" t="s">
         <v>358</v>
@@ -7836,7 +7848,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="2" t="s">
         <v>2</v>
@@ -7852,7 +7864,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
         <v>726</v>
@@ -7866,7 +7878,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
         <v>45</v>
@@ -7880,7 +7892,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
         <v>7</v>
@@ -7894,7 +7906,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
         <v>182</v>
@@ -7906,7 +7918,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
         <v>71</v>
@@ -7920,7 +7932,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
         <v>609</v>
@@ -7934,7 +7946,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
         <v>746</v>
@@ -7950,7 +7962,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
         <v>749</v>
@@ -7964,7 +7976,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
         <v>557</v>
@@ -7978,7 +7990,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
         <v>360</v>
@@ -7992,7 +8004,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
         <v>104</v>
@@ -8006,7 +8018,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
         <v>57</v>
@@ -8020,7 +8032,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
         <v>552</v>
@@ -8036,7 +8048,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
         <v>554</v>
@@ -8050,7 +8062,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="2" t="s">
         <v>556</v>
@@ -8064,7 +8076,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" s="2"/>
       <c r="B200" s="2" t="s">
         <v>797</v>
@@ -8078,7 +8090,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201" s="2"/>
       <c r="B201" s="2" t="s">
         <v>212</v>
@@ -8092,7 +8104,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
         <v>241</v>
@@ -8106,7 +8118,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
         <v>860</v>
@@ -8124,7 +8136,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
         <v>862</v>
@@ -8138,7 +8150,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
         <v>92</v>
@@ -8152,7 +8164,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
         <v>277</v>
@@ -8170,7 +8182,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
         <v>623</v>
@@ -8184,7 +8196,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
         <v>59</v>
@@ -8198,7 +8210,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
         <v>499</v>
@@ -8214,7 +8226,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
         <v>203</v>
@@ -8228,7 +8240,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
         <v>682</v>
@@ -8242,7 +8254,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
         <v>684</v>
@@ -8256,7 +8268,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
         <v>680</v>
@@ -8270,7 +8282,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
         <v>686</v>
@@ -8284,7 +8296,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
         <v>128</v>
@@ -8302,7 +8314,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
         <v>80</v>
@@ -8316,7 +8328,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
         <v>149</v>
@@ -8330,7 +8342,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
         <v>42</v>
@@ -8342,7 +8354,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
         <v>145</v>
@@ -8354,7 +8366,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
         <v>275</v>
@@ -8368,7 +8380,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
         <v>275</v>
@@ -8382,7 +8394,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
         <v>224</v>
@@ -8396,7 +8408,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
         <v>342</v>
@@ -8410,7 +8422,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
         <v>867</v>
@@ -8424,7 +8436,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
         <v>698</v>
@@ -8438,7 +8450,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
         <v>205</v>
@@ -8456,7 +8468,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
         <v>419</v>
@@ -8470,7 +8482,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
         <v>766</v>
@@ -8484,7 +8496,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
         <v>231</v>
@@ -8498,7 +8510,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
         <v>751</v>
@@ -8512,7 +8524,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
         <v>753</v>
@@ -8526,7 +8538,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
         <v>389</v>
@@ -8540,7 +8552,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
         <v>871</v>
@@ -8556,7 +8568,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
         <v>869</v>
@@ -8570,7 +8582,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
         <v>220</v>
@@ -8584,7 +8596,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
         <v>671</v>
@@ -8598,7 +8610,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
         <v>723</v>
@@ -8612,7 +8624,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
         <v>139</v>
@@ -8628,7 +8640,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
         <v>139</v>
@@ -8642,7 +8654,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
         <v>876</v>
@@ -8656,7 +8668,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
         <v>921</v>
@@ -8670,7 +8682,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
         <v>248</v>
@@ -8684,7 +8696,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
         <v>106</v>
@@ -8700,7 +8712,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
         <v>762</v>
@@ -8714,7 +8726,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
         <v>372</v>
@@ -8730,7 +8742,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
         <v>369</v>
@@ -8746,7 +8758,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
         <v>67</v>
@@ -8760,7 +8772,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
         <v>1055</v>
@@ -8774,7 +8786,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A249" s="2"/>
       <c r="B249" s="2" t="s">
         <v>883</v>
@@ -8790,7 +8802,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
         <v>452</v>
@@ -8804,7 +8816,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251" s="2"/>
       <c r="B251" s="2" t="s">
         <v>452</v>
@@ -8818,7 +8830,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
         <v>881</v>
@@ -8832,7 +8844,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253" s="2"/>
       <c r="B253" s="2" t="s">
         <v>878</v>
@@ -8846,7 +8858,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254" s="2"/>
       <c r="B254" s="2" t="s">
         <v>207</v>
@@ -8862,7 +8874,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255" s="2"/>
       <c r="B255" s="5" t="s">
         <v>822</v>
@@ -8876,7 +8888,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
         <v>381</v>
@@ -8890,7 +8902,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A257" s="2"/>
       <c r="B257" s="2" t="s">
         <v>885</v>
@@ -8904,7 +8916,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
         <v>258</v>
@@ -8918,7 +8930,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A259" s="2"/>
       <c r="B259" s="2" t="s">
         <v>1508</v>
@@ -8932,7 +8944,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A260" s="2"/>
       <c r="B260" s="2" t="s">
         <v>1510</v>
@@ -8946,7 +8958,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
         <v>1507</v>
@@ -8962,7 +8974,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A262" s="2"/>
       <c r="B262" s="2" t="s">
         <v>355</v>
@@ -8978,7 +8990,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A263" s="2"/>
       <c r="B263" s="2" t="s">
         <v>673</v>
@@ -8992,7 +9004,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
         <v>915</v>
@@ -9006,7 +9018,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
         <v>404</v>
@@ -9020,7 +9032,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
         <v>652</v>
@@ -9036,7 +9048,7 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
         <v>648</v>
@@ -9052,7 +9064,7 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A268" s="2"/>
       <c r="B268" s="2" t="s">
         <v>651</v>
@@ -9066,7 +9078,7 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A269" s="2"/>
       <c r="B269" s="2" t="s">
         <v>657</v>
@@ -9080,7 +9092,7 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A270" s="2"/>
       <c r="B270" s="2" t="s">
         <v>196</v>
@@ -9094,7 +9106,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A271" s="2"/>
       <c r="B271" s="2" t="s">
         <v>887</v>
@@ -9108,7 +9120,7 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A272" s="2"/>
       <c r="B272" s="2" t="s">
         <v>655</v>
@@ -9122,7 +9134,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A273" s="2"/>
       <c r="B273" s="2" t="s">
         <v>426</v>
@@ -9136,7 +9148,7 @@
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
         <v>222</v>
@@ -9152,7 +9164,7 @@
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
         <v>233</v>
@@ -9166,7 +9178,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
         <v>206</v>
@@ -9178,7 +9190,7 @@
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
         <v>206</v>
@@ -9200,7 +9212,7 @@
       </c>
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
         <v>607</v>
@@ -9214,7 +9226,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
         <v>601</v>
@@ -9230,7 +9242,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
         <v>893</v>
@@ -9244,7 +9256,7 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
         <v>776</v>
@@ -9258,7 +9270,7 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
         <v>892</v>
@@ -9272,7 +9284,7 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
         <v>14</v>
@@ -9286,7 +9298,7 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
         <v>454</v>
@@ -9302,7 +9314,7 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
         <v>421</v>
@@ -9324,7 +9336,7 @@
       </c>
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
         <v>895</v>
@@ -9338,7 +9350,7 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
         <v>410</v>
@@ -9354,7 +9366,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
         <v>183</v>
@@ -9368,7 +9380,7 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
         <v>417</v>
@@ -9382,7 +9394,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
         <v>413</v>
@@ -9396,7 +9408,7 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
         <v>415</v>
@@ -9410,7 +9422,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
         <v>367</v>
@@ -9424,7 +9436,7 @@
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
         <v>590</v>
@@ -9438,7 +9450,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
         <v>896</v>
@@ -9452,7 +9464,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
         <v>1003</v>
@@ -9466,7 +9478,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
         <v>304</v>
@@ -9480,7 +9492,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
         <v>288</v>
@@ -9496,7 +9508,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
         <v>168</v>
@@ -9514,7 +9526,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
         <v>899</v>
@@ -9528,7 +9540,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
         <v>465</v>
@@ -9542,7 +9554,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
         <v>801</v>
@@ -9556,7 +9568,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
         <v>803</v>
@@ -9570,7 +9582,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
         <v>616</v>
@@ -9584,7 +9596,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
         <v>613</v>
@@ -9598,7 +9610,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
         <v>597</v>
@@ -9614,7 +9626,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
         <v>16</v>
@@ -9628,7 +9640,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
         <v>400</v>
@@ -9642,7 +9654,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A308" s="2"/>
       <c r="B308" s="1" t="s">
         <v>848</v>
@@ -9656,7 +9668,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
         <v>141</v>
@@ -9668,7 +9680,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
         <v>690</v>
@@ -9682,7 +9694,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
         <v>677</v>
@@ -9696,7 +9708,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
         <v>214</v>
@@ -9710,7 +9722,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
         <v>679</v>
@@ -9724,7 +9736,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
         <v>49</v>
@@ -9740,7 +9752,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
         <v>773</v>
@@ -9754,7 +9766,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
         <v>47</v>
@@ -9776,7 +9788,7 @@
       </c>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
         <v>337</v>
@@ -9792,7 +9804,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
         <v>290</v>
@@ -9804,7 +9816,7 @@
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
         <v>169</v>
@@ -9820,7 +9832,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
         <v>218</v>
@@ -9834,7 +9846,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
         <v>243</v>
@@ -9848,7 +9860,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A322" s="2"/>
       <c r="B322" s="5" t="s">
         <v>815</v>
@@ -9862,7 +9874,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
         <v>532</v>
@@ -9876,7 +9888,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
         <v>94</v>
@@ -9890,7 +9902,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
         <v>1425</v>
@@ -9904,7 +9916,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
         <v>94</v>
@@ -9918,7 +9930,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
         <v>509</v>
@@ -9932,7 +9944,7 @@
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
         <v>173</v>
@@ -9944,7 +9956,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
         <v>173</v>
@@ -9964,7 +9976,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
         <v>528</v>
@@ -9978,7 +9990,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
         <v>22</v>
@@ -10000,7 +10012,7 @@
       </c>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
         <v>910</v>
@@ -10014,7 +10026,7 @@
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
         <v>55</v>
@@ -10030,7 +10042,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
         <v>227</v>
@@ -10044,7 +10056,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
         <v>694</v>
@@ -10058,7 +10070,7 @@
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
         <v>696</v>
@@ -10072,7 +10084,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
         <v>548</v>
@@ -10086,7 +10098,7 @@
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
         <v>88</v>
@@ -10100,7 +10112,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
         <v>113</v>
@@ -10116,7 +10128,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
         <v>721</v>
@@ -10130,7 +10142,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
         <v>132</v>
@@ -10144,7 +10156,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
         <v>707</v>
@@ -10160,7 +10172,7 @@
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
         <v>273</v>
@@ -10174,7 +10186,7 @@
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
         <v>1025</v>
@@ -10188,7 +10200,7 @@
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A345" s="2"/>
       <c r="B345" s="2" t="s">
         <v>79</v>
@@ -10204,7 +10216,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
         <v>780</v>
@@ -10218,7 +10230,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
         <v>199</v>
@@ -10234,7 +10246,7 @@
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A348" s="2"/>
       <c r="B348" s="2" t="s">
         <v>611</v>
@@ -10248,7 +10260,7 @@
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A349" s="2"/>
       <c r="B349" s="2" t="s">
         <v>852</v>
@@ -10262,7 +10274,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A350" s="2"/>
       <c r="B350" s="2" t="s">
         <v>502</v>
@@ -10276,7 +10288,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A351" s="2"/>
       <c r="B351" s="2" t="s">
         <v>542</v>
@@ -10294,7 +10306,7 @@
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A352" s="2"/>
       <c r="B352" s="2" t="s">
         <v>724</v>
@@ -10308,7 +10320,7 @@
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A353" s="2"/>
       <c r="B353" s="2" t="s">
         <v>73</v>
@@ -10322,7 +10334,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
         <v>73</v>
@@ -10336,7 +10348,7 @@
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
         <v>715</v>
@@ -10350,7 +10362,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
         <v>901</v>
@@ -10364,7 +10376,7 @@
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A357" s="2"/>
       <c r="B357" s="2" t="s">
         <v>191</v>
@@ -10378,7 +10390,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A358" s="2"/>
       <c r="B358" s="2" t="s">
         <v>30</v>
@@ -10392,7 +10404,7 @@
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A359" s="2"/>
       <c r="B359" s="2" t="s">
         <v>336</v>
@@ -10406,7 +10418,7 @@
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A360" s="2"/>
       <c r="B360" s="2" t="s">
         <v>488</v>
@@ -10422,7 +10434,7 @@
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
         <v>0</v>
@@ -10436,7 +10448,7 @@
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A362" s="2"/>
       <c r="B362" s="2" t="s">
         <v>486</v>
@@ -10450,7 +10462,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A363" s="2"/>
       <c r="B363" s="2" t="s">
         <v>810</v>
@@ -10464,7 +10476,7 @@
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A364" s="2"/>
       <c r="B364" s="5" t="s">
         <v>808</v>
@@ -10478,7 +10490,7 @@
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A365" s="2"/>
       <c r="B365" s="2" t="s">
         <v>195</v>
@@ -10492,7 +10504,7 @@
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A366" s="2"/>
       <c r="B366" s="2" t="s">
         <v>126</v>
@@ -10506,7 +10518,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A367" s="2"/>
       <c r="B367" s="5" t="s">
         <v>820</v>
@@ -10520,7 +10532,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A368" s="2"/>
       <c r="B368" s="2" t="s">
         <v>163</v>
@@ -10536,7 +10548,7 @@
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A369" s="2"/>
       <c r="B369" s="2" t="s">
         <v>669</v>
@@ -10550,7 +10562,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A370" s="2"/>
       <c r="B370" s="2" t="s">
         <v>904</v>
@@ -10564,7 +10576,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A371" s="2"/>
       <c r="B371" s="2" t="s">
         <v>665</v>
@@ -10578,7 +10590,7 @@
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A372" s="2"/>
       <c r="B372" s="2" t="s">
         <v>995</v>
@@ -10592,7 +10604,7 @@
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A373" s="2"/>
       <c r="B373" s="2" t="s">
         <v>667</v>
@@ -10606,7 +10618,7 @@
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A374" s="2"/>
       <c r="B374" s="2" t="s">
         <v>166</v>
@@ -10618,7 +10630,7 @@
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A375" s="2"/>
       <c r="B375" s="2" t="s">
         <v>765</v>
@@ -10634,7 +10646,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A376" s="2"/>
       <c r="B376" s="2" t="s">
         <v>795</v>
@@ -10648,7 +10660,7 @@
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A377" s="2"/>
       <c r="B377" s="2" t="s">
         <v>26</v>
@@ -10664,7 +10676,7 @@
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A378" s="2"/>
       <c r="B378" s="2" t="s">
         <v>631</v>
@@ -10680,7 +10692,7 @@
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A379" s="2"/>
       <c r="B379" s="2" t="s">
         <v>134</v>
@@ -10694,7 +10706,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A380" s="2"/>
       <c r="B380" s="2" t="s">
         <v>134</v>
@@ -10714,7 +10726,7 @@
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A381" s="2"/>
       <c r="B381" s="2" t="s">
         <v>84</v>
@@ -10736,7 +10748,7 @@
       </c>
       <c r="H381" s="2"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A382" s="2"/>
       <c r="B382" s="2" t="s">
         <v>526</v>
@@ -10750,7 +10762,7 @@
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A383" s="2"/>
       <c r="B383" s="2" t="s">
         <v>530</v>
@@ -10764,7 +10776,7 @@
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A384" s="2"/>
       <c r="B384" s="2" t="s">
         <v>522</v>
@@ -10782,7 +10794,7 @@
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A385" s="2"/>
       <c r="B385" s="2" t="s">
         <v>435</v>
@@ -10796,7 +10808,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A386" s="2"/>
       <c r="B386" s="2" t="s">
         <v>435</v>
@@ -10810,7 +10822,7 @@
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A387" s="2"/>
       <c r="B387" s="2" t="s">
         <v>148</v>
@@ -10822,7 +10834,7 @@
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A388" s="2"/>
       <c r="B388" s="2" t="s">
         <v>688</v>
@@ -10836,7 +10848,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A389" s="2"/>
       <c r="B389" s="2" t="s">
         <v>118</v>
@@ -10850,7 +10862,7 @@
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A390" s="2"/>
       <c r="B390" s="2" t="s">
         <v>315</v>
@@ -10864,7 +10876,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A391" s="2"/>
       <c r="B391" s="2" t="s">
         <v>433</v>
@@ -10878,7 +10890,7 @@
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A392" s="2"/>
       <c r="B392" s="2" t="s">
         <v>328</v>
@@ -10892,7 +10904,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A393" s="2"/>
       <c r="B393" s="2" t="s">
         <v>260</v>
@@ -10906,7 +10918,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A394" s="2"/>
       <c r="B394" s="2" t="s">
         <v>321</v>
@@ -10920,7 +10932,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A395" s="2"/>
       <c r="B395" s="2" t="s">
         <v>130</v>
@@ -10934,7 +10946,7 @@
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A396" s="2"/>
       <c r="B396" s="2" t="s">
         <v>442</v>
@@ -10948,7 +10960,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A397" s="2"/>
       <c r="B397" s="2" t="s">
         <v>906</v>
@@ -10962,7 +10974,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A398" s="2"/>
       <c r="B398" s="2" t="s">
         <v>235</v>
@@ -10976,7 +10988,7 @@
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A399" s="2"/>
       <c r="B399" s="2" t="s">
         <v>806</v>
@@ -10990,7 +11002,7 @@
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A400" s="2"/>
       <c r="B400" s="2" t="s">
         <v>237</v>
@@ -11004,7 +11016,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A401" s="2"/>
       <c r="B401" s="2" t="s">
         <v>362</v>
@@ -11018,7 +11030,7 @@
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A402" s="2"/>
       <c r="B402" s="3" t="s">
         <v>40</v>
@@ -11032,7 +11044,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A403" s="2"/>
       <c r="B403" s="2" t="s">
         <v>284</v>
@@ -11050,7 +11062,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A404" s="2"/>
       <c r="B404" s="2" t="s">
         <v>280</v>
@@ -11064,7 +11076,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A405" s="2"/>
       <c r="B405" s="2" t="s">
         <v>280</v>
@@ -11078,7 +11090,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A406" s="2"/>
       <c r="B406" s="2" t="s">
         <v>568</v>
@@ -11092,7 +11104,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A407" s="2"/>
       <c r="B407" s="2" t="s">
         <v>594</v>
@@ -11106,7 +11118,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A408" s="2"/>
       <c r="B408" s="2" t="s">
         <v>18</v>
@@ -11120,7 +11132,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A409" s="2"/>
       <c r="B409" s="2" t="s">
         <v>365</v>
@@ -11134,7 +11146,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A410" s="2"/>
       <c r="B410" s="2" t="s">
         <v>32</v>
@@ -11148,7 +11160,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A411" s="2"/>
       <c r="B411" s="2" t="s">
         <v>908</v>
@@ -11162,7 +11174,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A412" s="2"/>
       <c r="B412" s="2" t="s">
         <v>397</v>
@@ -11176,7 +11188,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A413" s="2"/>
       <c r="B413" s="2" t="s">
         <v>176</v>
@@ -11190,7 +11202,7 @@
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A414" s="2"/>
       <c r="B414" s="2" t="s">
         <v>89</v>
@@ -11204,7 +11216,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A415" s="2"/>
       <c r="B415" s="2" t="s">
         <v>262</v>
@@ -11218,7 +11230,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A416" s="2"/>
       <c r="B416" s="2" t="s">
         <v>791</v>
@@ -11232,7 +11244,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A417" s="2"/>
       <c r="B417" s="2" t="s">
         <v>484</v>
@@ -11246,7 +11258,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A418" s="2"/>
       <c r="B418" s="2" t="s">
         <v>912</v>
@@ -11260,7 +11272,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A419" s="2"/>
       <c r="B419" s="2" t="s">
         <v>123</v>
@@ -11276,7 +11288,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A420" s="2"/>
       <c r="B420" s="2" t="s">
         <v>330</v>
@@ -11292,7 +11304,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A421" s="2"/>
       <c r="B421" s="2" t="s">
         <v>764</v>
@@ -11306,7 +11318,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A422" s="2"/>
       <c r="B422" s="2" t="s">
         <v>570</v>
@@ -11322,7 +11334,7 @@
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A423" s="2"/>
       <c r="B423" s="2" t="s">
         <v>267</v>
@@ -11336,7 +11348,7 @@
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A424" s="2"/>
       <c r="B424" s="2" t="s">
         <v>395</v>
@@ -11350,7 +11362,7 @@
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A425" s="2"/>
       <c r="B425" s="2" t="s">
         <v>263</v>
@@ -11364,7 +11376,7 @@
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A426" s="2"/>
       <c r="B426" s="2" t="s">
         <v>914</v>
@@ -11378,7 +11390,7 @@
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A427" s="2"/>
       <c r="B427" s="2" t="s">
         <v>147</v>
@@ -11392,7 +11404,7 @@
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A428" s="2"/>
       <c r="B428" s="2" t="s">
         <v>919</v>
@@ -11406,7 +11418,7 @@
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A429" s="2"/>
       <c r="B429" s="2" t="s">
         <v>312</v>
@@ -11420,7 +11432,7 @@
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A430" s="2"/>
       <c r="B430" s="2" t="s">
         <v>319</v>
@@ -11434,7 +11446,7 @@
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A431" s="2"/>
       <c r="B431" s="2" t="s">
         <v>319</v>
@@ -11448,7 +11460,7 @@
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A432" s="2"/>
       <c r="B432" s="2" t="s">
         <v>382</v>
@@ -11464,7 +11476,7 @@
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A433" s="2"/>
       <c r="B433" s="2" t="s">
         <v>136</v>
@@ -11478,7 +11490,7 @@
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A434" s="2"/>
       <c r="B434" s="2" t="s">
         <v>513</v>
@@ -11492,7 +11504,7 @@
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A435" s="2"/>
       <c r="B435" s="2" t="s">
         <v>38</v>
@@ -11506,7 +11518,7 @@
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A436" s="2"/>
       <c r="B436" s="2" t="s">
         <v>345</v>
@@ -11520,7 +11532,7 @@
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A437" s="2"/>
       <c r="B437" s="2" t="s">
         <v>346</v>
@@ -11534,7 +11546,7 @@
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A438" s="2"/>
       <c r="B438" s="2" t="s">
         <v>313</v>
@@ -11550,7 +11562,7 @@
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A439" s="2"/>
       <c r="B439" s="2" t="s">
         <v>36</v>
@@ -11566,7 +11578,7 @@
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A440" s="2"/>
       <c r="B440" s="2" t="s">
         <v>438</v>
@@ -11582,7 +11594,7 @@
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A441" s="2"/>
       <c r="B441" s="2" t="s">
         <v>256</v>
@@ -11596,7 +11608,7 @@
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A442" s="2"/>
       <c r="B442" s="2" t="s">
         <v>660</v>
@@ -11612,7 +11624,7 @@
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A443" s="2"/>
       <c r="B443" s="2" t="s">
         <v>719</v>
@@ -11626,7 +11638,7 @@
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A444" s="2"/>
       <c r="B444" s="2" t="s">
         <v>124</v>
@@ -11644,7 +11656,7 @@
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A445" s="2"/>
       <c r="B445" s="2" t="s">
         <v>323</v>
@@ -11658,7 +11670,7 @@
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A446" s="2"/>
       <c r="B446" s="2" t="s">
         <v>323</v>
@@ -11672,7 +11684,7 @@
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A447" s="2"/>
       <c r="B447" s="2" t="s">
         <v>533</v>
@@ -11686,7 +11698,7 @@
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A448" s="2"/>
       <c r="B448" s="2" t="s">
         <v>535</v>
@@ -11700,7 +11712,7 @@
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A449" s="2"/>
       <c r="B449" s="2" t="s">
         <v>23</v>
@@ -11716,7 +11728,7 @@
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A450" s="2"/>
       <c r="B450" s="2" t="s">
         <v>170</v>
@@ -11730,7 +11742,7 @@
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A451" s="2"/>
       <c r="B451" s="2" t="s">
         <v>701</v>
@@ -11746,7 +11758,7 @@
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A452" s="2"/>
       <c r="B452" s="2" t="s">
         <v>239</v>
@@ -11760,7 +11772,7 @@
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A453" s="2"/>
       <c r="B453" s="2" t="s">
         <v>699</v>
@@ -11774,7 +11786,7 @@
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A454" s="2"/>
       <c r="B454" s="2" t="s">
         <v>703</v>
@@ -11788,7 +11800,7 @@
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A455" s="2"/>
       <c r="B455" s="2" t="s">
         <v>21</v>
@@ -11802,7 +11814,7 @@
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A456" s="2"/>
       <c r="B456" s="2" t="s">
         <v>364</v>
@@ -11816,7 +11828,7 @@
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A457" s="2"/>
       <c r="B457" s="2" t="s">
         <v>470</v>
@@ -11830,7 +11842,7 @@
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A458" s="2"/>
       <c r="B458" s="2" t="s">
         <v>471</v>
@@ -11844,7 +11856,7 @@
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A459" s="2"/>
       <c r="B459" s="2" t="s">
         <v>143</v>
@@ -11864,7 +11876,7 @@
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A460" s="2"/>
       <c r="B460" s="2" t="s">
         <v>934</v>
@@ -11880,7 +11892,7 @@
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A461" s="2"/>
       <c r="B461" s="2" t="s">
         <v>158</v>
@@ -11894,7 +11906,7 @@
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A462" s="2"/>
       <c r="B462" s="2" t="s">
         <v>935</v>
@@ -11908,7 +11920,7 @@
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A463" s="2"/>
       <c r="B463" s="2" t="s">
         <v>936</v>
@@ -11922,7 +11934,7 @@
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A464" s="2"/>
       <c r="B464" s="2" t="s">
         <v>938</v>
@@ -11936,7 +11948,7 @@
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A465" s="2"/>
       <c r="B465" s="2" t="s">
         <v>940</v>
@@ -11950,7 +11962,7 @@
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A466" s="2"/>
       <c r="B466" s="2" t="s">
         <v>942</v>
@@ -11968,7 +11980,7 @@
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A467" s="2"/>
       <c r="B467" s="2" t="s">
         <v>945</v>
@@ -11982,7 +11994,7 @@
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A468" s="2"/>
       <c r="B468" s="2" t="s">
         <v>946</v>
@@ -11996,7 +12008,7 @@
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A469" s="2"/>
       <c r="B469" s="2" t="s">
         <v>948</v>
@@ -12010,7 +12022,7 @@
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A470" s="2"/>
       <c r="B470" s="2" t="s">
         <v>950</v>
@@ -12024,7 +12036,7 @@
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A471" s="2"/>
       <c r="B471" s="2" t="s">
         <v>959</v>
@@ -12038,7 +12050,7 @@
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A472" s="2"/>
       <c r="B472" s="2" t="s">
         <v>952</v>
@@ -12054,7 +12066,7 @@
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A473" s="2"/>
       <c r="B473" s="2" t="s">
         <v>955</v>
@@ -12068,7 +12080,7 @@
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A474" s="2"/>
       <c r="B474" s="2" t="s">
         <v>958</v>
@@ -12082,7 +12094,7 @@
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A475" s="2"/>
       <c r="B475" s="2" t="s">
         <v>962</v>
@@ -12096,7 +12108,7 @@
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A476" s="2"/>
       <c r="B476" s="2" t="s">
         <v>960</v>
@@ -12110,7 +12122,7 @@
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A477" s="2"/>
       <c r="B477" s="2" t="s">
         <v>964</v>
@@ -12124,7 +12136,7 @@
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A478" s="2"/>
       <c r="B478" s="2" t="s">
         <v>966</v>
@@ -12138,7 +12150,7 @@
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A479" s="2"/>
       <c r="B479" s="2" t="s">
         <v>968</v>
@@ -12152,7 +12164,7 @@
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A480" s="2"/>
       <c r="B480" s="2" t="s">
         <v>970</v>
@@ -12166,7 +12178,7 @@
       <c r="G480" s="2"/>
       <c r="H480" s="2"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A481" s="2"/>
       <c r="B481" s="2" t="s">
         <v>972</v>
@@ -12180,7 +12192,7 @@
       <c r="G481" s="2"/>
       <c r="H481" s="2"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A482" s="2"/>
       <c r="B482" s="2" t="s">
         <v>974</v>
@@ -12194,7 +12206,7 @@
       <c r="G482" s="2"/>
       <c r="H482" s="2"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A483" s="2"/>
       <c r="B483" s="2" t="s">
         <v>975</v>
@@ -12206,7 +12218,7 @@
       <c r="G483" s="2"/>
       <c r="H483" s="2"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A484" s="2"/>
       <c r="B484" s="2" t="s">
         <v>977</v>
@@ -12220,7 +12232,7 @@
       <c r="G484" s="2"/>
       <c r="H484" s="2"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A485" s="2"/>
       <c r="B485" s="2" t="s">
         <v>978</v>
@@ -12234,7 +12246,7 @@
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A486" s="2"/>
       <c r="B486" s="2" t="s">
         <v>980</v>
@@ -12248,7 +12260,7 @@
       <c r="G486" s="2"/>
       <c r="H486" s="2"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A487" s="2"/>
       <c r="B487" s="2" t="s">
         <v>982</v>
@@ -12262,7 +12274,7 @@
       <c r="G487" s="2"/>
       <c r="H487" s="2"/>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A488" s="2"/>
       <c r="B488" s="7" t="s">
         <v>984</v>
@@ -12276,7 +12288,7 @@
       <c r="G488" s="2"/>
       <c r="H488" s="2"/>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A489" s="2"/>
       <c r="B489" s="2" t="s">
         <v>985</v>
@@ -12290,7 +12302,7 @@
       <c r="G489" s="2"/>
       <c r="H489" s="2"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A490" s="2"/>
       <c r="B490" s="2" t="s">
         <v>988</v>
@@ -12304,7 +12316,7 @@
       <c r="G490" s="2"/>
       <c r="H490" s="2"/>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A491" s="2"/>
       <c r="B491" s="2" t="s">
         <v>990</v>
@@ -12318,7 +12330,7 @@
       <c r="G491" s="2"/>
       <c r="H491" s="2"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A492" s="2"/>
       <c r="B492" s="2" t="s">
         <v>992</v>
@@ -12332,7 +12344,7 @@
       <c r="G492" s="2"/>
       <c r="H492" s="2"/>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A493" s="2"/>
       <c r="B493" s="2" t="s">
         <v>993</v>
@@ -12346,7 +12358,7 @@
       <c r="G493" s="2"/>
       <c r="H493" s="2"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A494" s="2"/>
       <c r="B494" s="2" t="s">
         <v>997</v>
@@ -12360,7 +12372,7 @@
       <c r="G494" s="2"/>
       <c r="H494" s="2"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A495" s="2"/>
       <c r="B495" s="2" t="s">
         <v>999</v>
@@ -12374,7 +12386,7 @@
       <c r="G495" s="2"/>
       <c r="H495" s="2"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A496" s="2"/>
       <c r="B496" s="2" t="s">
         <v>1001</v>
@@ -12388,7 +12400,7 @@
       <c r="G496" s="2"/>
       <c r="H496" s="2"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A497" s="2"/>
       <c r="B497" s="2" t="s">
         <v>1004</v>
@@ -12402,7 +12414,7 @@
       <c r="G497" s="2"/>
       <c r="H497" s="2"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A498" s="2"/>
       <c r="B498" s="2" t="s">
         <v>1006</v>
@@ -12416,7 +12428,7 @@
       <c r="G498" s="2"/>
       <c r="H498" s="2"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A499" s="2"/>
       <c r="B499" s="2" t="s">
         <v>1008</v>
@@ -12430,7 +12442,7 @@
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A500" s="2"/>
       <c r="B500" s="2" t="s">
         <v>1009</v>
@@ -12444,7 +12456,7 @@
       <c r="G500" s="2"/>
       <c r="H500" s="2"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A501" s="2"/>
       <c r="B501" s="2" t="s">
         <v>1011</v>
@@ -12458,7 +12470,7 @@
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A502" s="2"/>
       <c r="B502" s="2" t="s">
         <v>1012</v>
@@ -12472,7 +12484,7 @@
       <c r="G502" s="2"/>
       <c r="H502" s="2"/>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A503" s="2"/>
       <c r="B503" s="2" t="s">
         <v>1014</v>
@@ -12486,7 +12498,7 @@
       <c r="G503" s="2"/>
       <c r="H503" s="2"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A504" s="2"/>
       <c r="B504" s="2" t="s">
         <v>1016</v>
@@ -12500,7 +12512,7 @@
       <c r="G504" s="2"/>
       <c r="H504" s="2"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A505" s="2"/>
       <c r="B505" s="2" t="s">
         <v>1017</v>
@@ -12514,7 +12526,7 @@
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A506" s="2"/>
       <c r="B506" s="2" t="s">
         <v>1019</v>
@@ -12530,7 +12542,7 @@
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A507" s="2"/>
       <c r="B507" s="2" t="s">
         <v>1021</v>
@@ -12544,7 +12556,7 @@
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A508" s="2"/>
       <c r="B508" s="2" t="s">
         <v>1023</v>
@@ -12558,7 +12570,7 @@
       <c r="G508" s="2"/>
       <c r="H508" s="2"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A509" s="2"/>
       <c r="B509" s="2" t="s">
         <v>1027</v>
@@ -12572,7 +12584,7 @@
       <c r="G509" s="2"/>
       <c r="H509" s="2"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A510" s="2"/>
       <c r="B510" s="2" t="s">
         <v>1029</v>
@@ -12586,7 +12598,7 @@
       <c r="G510" s="2"/>
       <c r="H510" s="2"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A511" s="2"/>
       <c r="B511" s="2" t="s">
         <v>1033</v>
@@ -12602,7 +12614,7 @@
       <c r="G511" s="2"/>
       <c r="H511" s="2"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A512" s="2"/>
       <c r="B512" s="2" t="s">
         <v>1036</v>
@@ -12616,7 +12628,7 @@
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A513" s="2"/>
       <c r="B513" s="2" t="s">
         <v>1038</v>
@@ -12630,7 +12642,7 @@
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A514" s="2"/>
       <c r="B514" s="2" t="s">
         <v>1040</v>
@@ -12644,7 +12656,7 @@
       <c r="G514" s="2"/>
       <c r="H514" s="2"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A515" s="2"/>
       <c r="B515" s="2" t="s">
         <v>79</v>
@@ -12664,7 +12676,7 @@
       <c r="G515" s="2"/>
       <c r="H515" s="2"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A516" s="2"/>
       <c r="B516" s="2" t="s">
         <v>1045</v>
@@ -12678,7 +12690,7 @@
       <c r="G516" s="2"/>
       <c r="H516" s="2"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A517" s="2"/>
       <c r="B517" s="2" t="s">
         <v>1046</v>
@@ -12692,7 +12704,7 @@
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A518" s="2"/>
       <c r="B518" s="2" t="s">
         <v>1048</v>
@@ -12706,7 +12718,7 @@
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A519" s="2"/>
       <c r="B519" s="2" t="s">
         <v>1049</v>
@@ -12720,7 +12732,7 @@
       <c r="G519" s="2"/>
       <c r="H519" s="2"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A520" s="2"/>
       <c r="B520" s="2" t="s">
         <v>1051</v>
@@ -12736,7 +12748,7 @@
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
     </row>
-    <row r="521" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A521" s="2"/>
       <c r="B521" s="2" t="s">
         <v>1057</v>
@@ -12750,7 +12762,7 @@
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B522" s="2" t="s">
         <v>1059</v>
       </c>
@@ -12758,7 +12770,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B523" s="2" t="s">
         <v>1061</v>
       </c>
@@ -12766,7 +12778,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B524" s="2" t="s">
         <v>1118</v>
       </c>
@@ -12774,7 +12786,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B525" s="2" t="s">
         <v>1138</v>
       </c>
@@ -12782,7 +12794,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B526" s="2" t="s">
         <v>1143</v>
       </c>
@@ -12790,7 +12802,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B527" s="2" t="s">
         <v>1167</v>
       </c>
@@ -12798,7 +12810,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B528" s="2" t="s">
         <v>703</v>
       </c>
@@ -12806,7 +12818,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B529" s="2" t="s">
         <v>1206</v>
       </c>
@@ -12814,7 +12826,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B530" s="2" t="s">
         <v>1208</v>
       </c>
@@ -12822,7 +12834,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B531" s="2" t="s">
         <v>1233</v>
       </c>
@@ -12830,7 +12842,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B532" s="2" t="s">
         <v>701</v>
       </c>
@@ -12838,7 +12850,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B533" s="2" t="s">
         <v>1285</v>
       </c>
@@ -12846,7 +12858,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B534" s="2" t="s">
         <v>1287</v>
       </c>
@@ -12854,7 +12866,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B535" s="2" t="s">
         <v>1321</v>
       </c>
@@ -12862,7 +12874,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B536" t="s">
         <v>1335</v>
       </c>
@@ -12870,11 +12882,11 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
     </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B538" s="2" t="s">
         <v>1346</v>
       </c>
@@ -12882,7 +12894,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B539" s="2" t="s">
         <v>1348</v>
       </c>
@@ -12890,7 +12902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B540" s="2" t="s">
         <v>1349</v>
       </c>
@@ -12898,7 +12910,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B541" s="2" t="s">
         <v>1351</v>
       </c>
@@ -12906,7 +12918,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B542" s="2" t="s">
         <v>1359</v>
       </c>
@@ -12914,7 +12926,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B543" s="2" t="s">
         <v>1361</v>
       </c>
@@ -12922,7 +12934,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B544" s="2" t="s">
         <v>1363</v>
       </c>
@@ -12930,7 +12942,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B545" s="2" t="s">
         <v>1366</v>
       </c>
@@ -12938,7 +12950,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B546" s="2" t="s">
         <v>1368</v>
       </c>
@@ -12946,7 +12958,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B547" s="2" t="s">
         <v>1370</v>
       </c>
@@ -12954,7 +12966,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B548" s="2" t="s">
         <v>1372</v>
       </c>
@@ -12962,7 +12974,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B549" s="2" t="s">
         <v>1374</v>
       </c>
@@ -12970,7 +12982,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B550" s="2" t="s">
         <v>1376</v>
       </c>
@@ -12978,7 +12990,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B551" s="2" t="s">
         <v>1378</v>
       </c>
@@ -12986,7 +12998,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B552" s="2" t="s">
         <v>1380</v>
       </c>
@@ -12994,7 +13006,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B553" s="2" t="s">
         <v>1385</v>
       </c>
@@ -13002,7 +13014,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B554" s="2" t="s">
         <v>1387</v>
       </c>
@@ -13010,7 +13022,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B555" s="2" t="s">
         <v>1389</v>
       </c>
@@ -13018,7 +13030,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B556" s="2" t="s">
         <v>1391</v>
       </c>
@@ -13026,7 +13038,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B557" s="2" t="s">
         <v>1393</v>
       </c>
@@ -13034,7 +13046,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B558" s="2" t="s">
         <v>1395</v>
       </c>
@@ -13042,7 +13054,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B559" s="2" t="s">
         <v>1400</v>
       </c>
@@ -13050,7 +13062,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="561" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B561" s="2" t="s">
         <v>1405</v>
       </c>
@@ -13058,7 +13070,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B562" s="2" t="s">
         <v>1406</v>
       </c>
@@ -13066,7 +13078,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="563" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B563" s="2" t="s">
         <v>1408</v>
       </c>
@@ -13074,7 +13086,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="564" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B564" s="2" t="s">
         <v>1410</v>
       </c>
@@ -13082,7 +13094,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="565" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B565" t="s">
         <v>1406</v>
       </c>
@@ -13090,7 +13102,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="566" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B566" s="2" t="s">
         <v>1413</v>
       </c>
@@ -13098,7 +13110,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="567" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B567" t="s">
         <v>1415</v>
       </c>
@@ -13106,7 +13118,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="568" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B568" s="2" t="s">
         <v>1417</v>
       </c>
@@ -13114,7 +13126,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="569" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B569" s="9" t="s">
         <v>1420</v>
       </c>
@@ -13122,7 +13134,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="570" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B570" t="s">
         <v>1422</v>
       </c>
@@ -13130,7 +13142,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="571" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B571" t="s">
         <v>1424</v>
       </c>
@@ -13138,7 +13150,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="572" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B572" s="9" t="s">
         <v>1428</v>
       </c>
@@ -13146,7 +13158,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="573" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B573" t="s">
         <v>1430</v>
       </c>
@@ -13154,7 +13166,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="574" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B574" t="s">
         <v>1436</v>
       </c>
@@ -13162,7 +13174,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B575" t="s">
         <v>1440</v>
       </c>
@@ -13170,7 +13182,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B576" t="s">
         <v>1444</v>
       </c>
@@ -13178,7 +13190,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B577" t="s">
         <v>1449</v>
       </c>
@@ -13186,7 +13198,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B578" t="s">
         <v>1450</v>
       </c>
@@ -13194,7 +13206,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B579" t="s">
         <v>1452</v>
       </c>
@@ -13202,7 +13214,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B580" t="s">
         <v>1454</v>
       </c>
@@ -13210,7 +13222,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B581" t="s">
         <v>1462</v>
       </c>
@@ -13218,7 +13230,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B582" t="s">
         <v>1464</v>
       </c>
@@ -13226,7 +13238,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B583" t="s">
         <v>1466</v>
       </c>
@@ -13234,7 +13246,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B584" s="9" t="s">
         <v>1470</v>
       </c>
@@ -13242,7 +13254,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="585" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B585" t="s">
         <v>180</v>
       </c>
@@ -13250,7 +13262,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B586" t="s">
         <v>1473</v>
       </c>
@@ -13258,7 +13270,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B587" t="s">
         <v>1474</v>
       </c>
@@ -13266,7 +13278,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B588" t="s">
         <v>1476</v>
       </c>
@@ -13274,7 +13286,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="589" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B589" t="s">
         <v>323</v>
       </c>
@@ -13282,7 +13294,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B590" t="s">
         <v>1478</v>
       </c>
@@ -13290,7 +13302,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="591" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B591" t="s">
         <v>208</v>
       </c>
@@ -13298,7 +13310,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B592" t="s">
         <v>1480</v>
       </c>
@@ -13306,7 +13318,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="593" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B593" t="s">
         <v>1482</v>
       </c>
@@ -13314,7 +13326,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B594" t="s">
         <v>1484</v>
       </c>
@@ -13322,7 +13334,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="595" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B595" t="s">
         <v>1486</v>
       </c>
@@ -13330,7 +13342,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="596" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B596" s="9" t="s">
         <v>1488</v>
       </c>
@@ -13338,7 +13350,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="597" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B597" t="s">
         <v>1490</v>
       </c>
@@ -13346,7 +13358,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B598" t="s">
         <v>1492</v>
       </c>
@@ -13354,7 +13366,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="599" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B599" t="s">
         <v>1493</v>
       </c>
@@ -13362,7 +13374,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="600" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B600" t="s">
         <v>1495</v>
       </c>
@@ -13370,7 +13382,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="601" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B601" t="s">
         <v>1501</v>
       </c>
@@ -13378,7 +13390,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="602" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B602" t="s">
         <v>1503</v>
       </c>
@@ -13386,7 +13398,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="603" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B603" t="s">
         <v>1505</v>
       </c>
@@ -13394,7 +13406,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="604" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B604" t="s">
         <v>1512</v>
       </c>
@@ -13402,7 +13414,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="605" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B605" t="s">
         <v>1536</v>
       </c>
@@ -13410,7 +13422,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="606" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B606" t="s">
         <v>1538</v>
       </c>
@@ -13418,7 +13430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="607" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B607" t="s">
         <v>1539</v>
       </c>
@@ -13426,7 +13438,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="608" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B608" t="s">
         <v>1541</v>
       </c>
@@ -13434,7 +13446,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="609" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B609" t="s">
         <v>1543</v>
       </c>
@@ -13442,7 +13454,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="610" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B610" t="s">
         <v>1545</v>
       </c>
@@ -13450,7 +13462,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="611" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B611" t="s">
         <v>1547</v>
       </c>
@@ -13458,7 +13470,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="612" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B612" t="s">
         <v>1549</v>
       </c>
@@ -13466,12 +13478,20 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="613" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B613" t="s">
         <v>1551</v>
       </c>
       <c r="C613" t="s">
         <v>1552</v>
+      </c>
+    </row>
+    <row r="614" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B614" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1554</v>
       </c>
     </row>
   </sheetData>
@@ -13487,20 +13507,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:I157"/>
+  <dimension ref="B2:I159"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="34.7890625" customWidth="1"/>
-    <col min="3" max="3" width="24.7890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7890625" customWidth="1"/>
+    <col min="2" max="2" width="34.796875" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1064</v>
       </c>
@@ -13508,7 +13528,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1067</v>
       </c>
@@ -13516,7 +13536,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1068</v>
       </c>
@@ -13524,7 +13544,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>1070</v>
       </c>
@@ -13532,7 +13552,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>1072</v>
       </c>
@@ -13540,7 +13560,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>1075</v>
       </c>
@@ -13548,7 +13568,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>1077</v>
       </c>
@@ -13556,7 +13576,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>1078</v>
       </c>
@@ -13564,7 +13584,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>1080</v>
       </c>
@@ -13572,7 +13592,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1082</v>
       </c>
@@ -13580,7 +13600,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>1084</v>
       </c>
@@ -13588,7 +13608,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>1086</v>
       </c>
@@ -13596,7 +13616,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>1088</v>
       </c>
@@ -13604,7 +13624,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>1090</v>
       </c>
@@ -13612,7 +13632,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>1092</v>
       </c>
@@ -13620,7 +13640,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>1094</v>
       </c>
@@ -13628,7 +13648,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>1096</v>
       </c>
@@ -13636,7 +13656,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>1098</v>
       </c>
@@ -13644,7 +13664,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>1100</v>
       </c>
@@ -13652,7 +13672,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>1102</v>
       </c>
@@ -13660,7 +13680,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>1104</v>
       </c>
@@ -13668,7 +13688,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>1106</v>
       </c>
@@ -13676,7 +13696,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>1108</v>
       </c>
@@ -13684,7 +13704,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>1110</v>
       </c>
@@ -13692,7 +13712,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>1112</v>
       </c>
@@ -13700,7 +13720,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>1114</v>
       </c>
@@ -13708,7 +13728,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>1116</v>
       </c>
@@ -13716,7 +13736,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="s">
         <v>1120</v>
       </c>
@@ -13724,7 +13744,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="s">
         <v>1122</v>
       </c>
@@ -13732,7 +13752,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>1124</v>
       </c>
@@ -13740,7 +13760,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>1126</v>
       </c>
@@ -13748,7 +13768,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>1128</v>
       </c>
@@ -13756,7 +13776,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>1130</v>
       </c>
@@ -13764,7 +13784,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>1132</v>
       </c>
@@ -13772,7 +13792,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>1134</v>
       </c>
@@ -13780,7 +13800,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>1136</v>
       </c>
@@ -13788,7 +13808,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>1139</v>
       </c>
@@ -13796,7 +13816,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>1141</v>
       </c>
@@ -13804,7 +13824,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>1098</v>
       </c>
@@ -13812,7 +13832,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>1146</v>
       </c>
@@ -13820,7 +13840,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>1147</v>
       </c>
@@ -13828,7 +13848,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>1149</v>
       </c>
@@ -13836,7 +13856,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>1151</v>
       </c>
@@ -13844,7 +13864,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>1153</v>
       </c>
@@ -13852,7 +13872,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>1155</v>
       </c>
@@ -13860,7 +13880,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>1157</v>
       </c>
@@ -13868,7 +13888,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>1159</v>
       </c>
@@ -13876,7 +13896,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>1161</v>
       </c>
@@ -13884,7 +13904,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>1163</v>
       </c>
@@ -13892,7 +13912,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>1166</v>
       </c>
@@ -13900,7 +13920,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>1169</v>
       </c>
@@ -13908,7 +13928,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>1171</v>
       </c>
@@ -13916,7 +13936,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>1173</v>
       </c>
@@ -13924,7 +13944,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>1175</v>
       </c>
@@ -13932,7 +13952,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>1177</v>
       </c>
@@ -13943,7 +13963,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>1180</v>
       </c>
@@ -13951,7 +13971,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>1182</v>
       </c>
@@ -13959,7 +13979,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>1184</v>
       </c>
@@ -13967,7 +13987,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>1186</v>
       </c>
@@ -13975,7 +13995,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>1188</v>
       </c>
@@ -13983,7 +14003,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>1190</v>
       </c>
@@ -13991,7 +14011,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>1192</v>
       </c>
@@ -13999,7 +14019,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>1194</v>
       </c>
@@ -14007,7 +14027,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>1196</v>
       </c>
@@ -14015,7 +14035,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>1198</v>
       </c>
@@ -14023,7 +14043,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>1200</v>
       </c>
@@ -14031,7 +14051,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>1202</v>
       </c>
@@ -14039,7 +14059,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>1204</v>
       </c>
@@ -14047,7 +14067,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>1209</v>
       </c>
@@ -14055,7 +14075,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>1211</v>
       </c>
@@ -14063,7 +14083,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>1213</v>
       </c>
@@ -14071,7 +14091,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>1215</v>
       </c>
@@ -14079,7 +14099,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>1217</v>
       </c>
@@ -14087,7 +14107,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>1219</v>
       </c>
@@ -14095,7 +14115,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>1221</v>
       </c>
@@ -14103,7 +14123,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>1223</v>
       </c>
@@ -14111,7 +14131,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>1225</v>
       </c>
@@ -14119,7 +14139,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>1227</v>
       </c>
@@ -14127,7 +14147,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>1229</v>
       </c>
@@ -14135,7 +14155,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>1231</v>
       </c>
@@ -14143,7 +14163,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>1237</v>
       </c>
@@ -14151,7 +14171,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>1239</v>
       </c>
@@ -14159,7 +14179,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>1241</v>
       </c>
@@ -14167,7 +14187,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>1243</v>
       </c>
@@ -14175,7 +14195,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>1245</v>
       </c>
@@ -14183,7 +14203,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>1248</v>
       </c>
@@ -14191,7 +14211,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>1249</v>
       </c>
@@ -14199,7 +14219,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>1251</v>
       </c>
@@ -14207,7 +14227,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>1253</v>
       </c>
@@ -14215,7 +14235,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>1255</v>
       </c>
@@ -14223,7 +14243,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>1257</v>
       </c>
@@ -14231,7 +14251,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>1259</v>
       </c>
@@ -14239,7 +14259,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>1261</v>
       </c>
@@ -14247,7 +14267,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>1263</v>
       </c>
@@ -14255,7 +14275,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>1265</v>
       </c>
@@ -14263,7 +14283,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>1267</v>
       </c>
@@ -14271,7 +14291,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>1269</v>
       </c>
@@ -14279,7 +14299,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>1271</v>
       </c>
@@ -14287,7 +14307,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>1273</v>
       </c>
@@ -14295,7 +14315,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>1275</v>
       </c>
@@ -14303,7 +14323,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>1277</v>
       </c>
@@ -14311,7 +14331,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>1279</v>
       </c>
@@ -14319,7 +14339,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>1281</v>
       </c>
@@ -14327,7 +14347,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>1283</v>
       </c>
@@ -14335,7 +14355,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>1288</v>
       </c>
@@ -14343,7 +14363,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>1290</v>
       </c>
@@ -14351,7 +14371,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>1292</v>
       </c>
@@ -14359,7 +14379,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>1294</v>
       </c>
@@ -14367,7 +14387,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>1296</v>
       </c>
@@ -14375,7 +14395,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>1298</v>
       </c>
@@ -14383,7 +14403,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>1300</v>
       </c>
@@ -14394,7 +14414,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>1303</v>
       </c>
@@ -14402,7 +14422,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>1305</v>
       </c>
@@ -14410,7 +14430,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>1307</v>
       </c>
@@ -14418,7 +14438,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>1309</v>
       </c>
@@ -14426,7 +14446,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>1311</v>
       </c>
@@ -14434,7 +14454,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>1313</v>
       </c>
@@ -14442,7 +14462,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>1315</v>
       </c>
@@ -14450,7 +14470,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>1317</v>
       </c>
@@ -14458,7 +14478,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>1319</v>
       </c>
@@ -14466,7 +14486,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>1323</v>
       </c>
@@ -14474,7 +14494,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>1325</v>
       </c>
@@ -14482,7 +14502,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>1327</v>
       </c>
@@ -14490,7 +14510,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>1329</v>
       </c>
@@ -14498,7 +14518,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>1332</v>
       </c>
@@ -14506,7 +14526,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>1333</v>
       </c>
@@ -14514,7 +14534,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>1337</v>
       </c>
@@ -14522,7 +14542,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>1339</v>
       </c>
@@ -14530,7 +14550,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>1341</v>
       </c>
@@ -14538,7 +14558,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>1343</v>
       </c>
@@ -14546,7 +14566,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>1345</v>
       </c>
@@ -14554,7 +14574,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>1353</v>
       </c>
@@ -14562,7 +14582,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>1355</v>
       </c>
@@ -14570,7 +14590,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>1357</v>
       </c>
@@ -14581,7 +14601,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>1383</v>
       </c>
@@ -14595,7 +14615,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
         <v>1419</v>
       </c>
@@ -14609,7 +14629,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
         <v>1432</v>
       </c>
@@ -14617,7 +14637,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>1434</v>
       </c>
@@ -14625,7 +14645,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
         <v>1438</v>
       </c>
@@ -14633,7 +14653,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>1442</v>
       </c>
@@ -14641,7 +14661,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
         <v>1446</v>
       </c>
@@ -14649,7 +14669,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>1468</v>
       </c>
@@ -14657,7 +14677,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
         <v>1497</v>
       </c>
@@ -14665,7 +14685,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
         <v>1499</v>
       </c>
@@ -14673,7 +14693,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>1514</v>
       </c>
@@ -14681,7 +14701,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
         <v>1516</v>
       </c>
@@ -14689,7 +14709,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
         <v>1518</v>
       </c>
@@ -14697,7 +14717,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
         <v>1520</v>
       </c>
@@ -14705,7 +14725,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>1522</v>
       </c>
@@ -14713,7 +14733,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
         <v>1524</v>
       </c>
@@ -14721,7 +14741,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>1529</v>
       </c>
@@ -14729,7 +14749,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
         <v>1527</v>
       </c>
@@ -14737,7 +14757,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B154" t="s">
         <v>1530</v>
       </c>
@@ -14745,7 +14765,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
         <v>1532</v>
       </c>
@@ -14753,7 +14773,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
         <v>1533</v>
       </c>
@@ -14761,12 +14781,20 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
         <v>1535</v>
       </c>
       <c r="C157" t="s">
         <v>1338</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1556</v>
       </c>
     </row>
   </sheetData>
@@ -14783,13 +14811,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38.20703125" customWidth="1"/>
-    <col min="3" max="3" width="35.3125" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1235</v>
       </c>

--- a/заимствованные слова1.xlsx
+++ b/заимствованные слова1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\книги\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1381D4EA-B562-4196-B7B3-F67181BA4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B00F69B-326D-47D9-A522-EA5ED76B06CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="однословно" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1562">
   <si>
     <t>специальный</t>
   </si>
@@ -4713,6 +4713,21 @@
   </si>
   <si>
     <t>этот порядок</t>
+  </si>
+  <si>
+    <t>данный мгновение</t>
+  </si>
+  <si>
+    <t>данное мгновение</t>
+  </si>
+  <si>
+    <t>текущий мгновение</t>
+  </si>
+  <si>
+    <t>текущее мгновение</t>
+  </si>
+  <si>
+    <t>тенденция</t>
   </si>
 </sst>
 </file>
@@ -5157,10 +5172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H614"/>
+  <dimension ref="A1:H615"/>
   <sheetViews>
-    <sheetView topLeftCell="A604" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C614" sqref="C614"/>
+    <sheetView tabSelected="1" topLeftCell="A604" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C615" sqref="C615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13494,6 +13509,14 @@
         <v>1554</v>
       </c>
     </row>
+    <row r="615" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B615" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C615" t="s">
+        <v>759</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6EF1330F-7657-9C47-8558-A23434FA4ACF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H469">
@@ -13507,10 +13530,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8AC971-AA78-4348-8E9E-9A1767E7FE20}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B2:I159"/>
+  <dimension ref="B2:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView topLeftCell="A147" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14795,6 +14818,22 @@
       </c>
       <c r="C159" t="s">
         <v>1556</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1560</v>
       </c>
     </row>
   </sheetData>
